--- a/public/coffee/special.xlsx
+++ b/public/coffee/special.xlsx
@@ -1,18 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/coffee/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81765BAF-7CD4-4246-8CDF-C20B51761470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="catalogs" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="spring menu" sheetId="2" r:id="rId5"/>
+    <sheet name="catalogs" sheetId="1" r:id="rId1"/>
+    <sheet name="spring menu" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>name_ru</t>
   </si>
@@ -23,15 +44,6 @@
     <t>name_ge</t>
   </si>
   <si>
-    <t>весеннее меню</t>
-  </si>
-  <si>
-    <t>spring menu</t>
-  </si>
-  <si>
-    <t>საგაზაფხულო მენიუ</t>
-  </si>
-  <si>
     <t>title_ru</t>
   </si>
   <si>
@@ -60,107 +72,54 @@
   </si>
   <si>
     <t>img_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шпинатная брускетта с лососем </t>
-  </si>
-  <si>
-    <t>Spinach bruschetta with salmon</t>
-  </si>
-  <si>
-    <t>ისპანახის ბრუსკეტა ორგაულით</t>
-  </si>
-  <si>
-    <t>Шпинатная брускетта с лососем в свекольном соусе и перепелиными яйцами</t>
-  </si>
-  <si>
-    <t>Spinach bruschetta with salmon in beetroot sauce and quail eggs</t>
-  </si>
-  <si>
-    <t>ისპანახის ბრუსკეტა ორგაულით ჭარხლის სოუსში და მწყერის კვერცხით</t>
-  </si>
-  <si>
-    <t>Салат нисуаз с соусом из тунца</t>
-  </si>
-  <si>
-    <t>Nicoise salad with tuna sauce</t>
-  </si>
-  <si>
-    <t>სალათი ნისოაზი ტუნის სოუსით</t>
-  </si>
-  <si>
-    <t>Жареный молодой картофель со шпинатом</t>
-  </si>
-  <si>
-    <t>Fried young potatoes with spinach</t>
-  </si>
-  <si>
-    <t>შემწვარი ახალგაზრდა კარტოფილი ისპანახით</t>
-  </si>
-  <si>
-    <t>Молодой картофель обжаренный со шпинатом и криспи луком на подушке из сливочного крема</t>
-  </si>
-  <si>
-    <t>Fried new potatoes with spinach, crispy onions and whipped cream on a " pillow”</t>
-  </si>
-  <si>
-    <t>შემწვარი ახალი კარტოფილი ისპანახით, ხრაშუნა ხახვით და ნაღების კრემის “ბალიშზე”</t>
-  </si>
-  <si>
-    <t>Окрошка на айране</t>
-  </si>
-  <si>
-    <t>Okroshka on ayran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ოქროშკა აირანზე </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Окрошка на айране со свекольным соусом и молодым картофелем </t>
-  </si>
-  <si>
-    <t>Okroshka on ayran with beetroot sauce and young potatoes</t>
-  </si>
-  <si>
-    <t>ოქროშკა აირანზე ჭარხლის სოუსით და ახალი კარტოფილით</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
@@ -170,7 +129,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -180,61 +139,46 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -424,20 +368,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,16 +420,10 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -506,53 +449,56 @@
       <c r="Z2" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="9" max="9" width="44.5"/>
+    <col min="9" max="9" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -571,136 +517,56 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="8">
-        <v>16.0</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I5" si="1">LOWER($B2)</f>
-        <v>spinach bruschetta with salmon</v>
-      </c>
-      <c r="J2" s="2" t="str">
-        <f t="shared" ref="J2:J5" si="2">LOWER($B2)&amp;"_"&amp;2</f>
-        <v>spinach bruschetta with salmon_2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8">
-        <v>16.0</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>nicoise salad with tuna sauce</v>
-      </c>
-      <c r="J3" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>nicoise salad with tuna sauce_2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9">
-        <v>16.0</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>fried young potatoes with spinach</v>
-      </c>
-      <c r="J4" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>fried young potatoes with spinach_2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="9">
-        <v>16.0</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>okroshka on ayran</v>
-      </c>
-      <c r="J5" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>okroshka on ayran_2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="H6" s="9"/>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+      <c r="H6" s="8"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/coffee/special.xlsx
+++ b/public/coffee/special.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/coffee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE014446-9542-CD4C-982C-F9E5C730E4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D163F2F-E912-894A-BE48-221A3F306985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7540" yWindow="500" windowWidth="21260" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="promo" sheetId="1" r:id="rId1"/>
     <sheet name="catalogs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>title_ru</t>
   </si>
@@ -66,96 +66,6 @@
   </si>
   <si>
     <t>img_2</t>
-  </si>
-  <si>
-    <t>Апероль Шприц</t>
-  </si>
-  <si>
-    <t>Aperol Spritz</t>
-  </si>
-  <si>
-    <t>აპეროლის შპრიცი</t>
-  </si>
-  <si>
-    <t>Кофейный Шприц</t>
-  </si>
-  <si>
-    <t>Coffee Spritz</t>
-  </si>
-  <si>
-    <t>ყავის შპრიცი</t>
-  </si>
-  <si>
-    <t>Цитрусовый шприц</t>
-  </si>
-  <si>
-    <t>citrus Spritz</t>
-  </si>
-  <si>
-    <t>ციტრუსის შპრიცი</t>
-  </si>
-  <si>
-    <t>Джин тоник грейпфрут бузина</t>
-  </si>
-  <si>
-    <t>grapefruit elder gin &amp; tonic</t>
-  </si>
-  <si>
-    <t>ციტრუსის ჯინი &amp; ტონიკი</t>
-  </si>
-  <si>
-    <t>Беллини</t>
-  </si>
-  <si>
-    <t>bellini</t>
-  </si>
-  <si>
-    <t>ბელინი</t>
-  </si>
-  <si>
-    <t>МонБлан</t>
-  </si>
-  <si>
-    <t>monc blanc</t>
-  </si>
-  <si>
-    <t>მონ ბლან</t>
-  </si>
-  <si>
-    <t>Клюквенный колд брю</t>
-  </si>
-  <si>
-    <t>cold brew cranberry</t>
-  </si>
-  <si>
-    <t>ცივი ყავის ფილტრი შტოშის</t>
-  </si>
-  <si>
-    <t>Холодный чай манго юзу</t>
-  </si>
-  <si>
-    <t>ice tea mango yuzy</t>
-  </si>
-  <si>
-    <t>ცივი ჩაი იუზუთი და მანგოთი</t>
-  </si>
-  <si>
-    <t>Холодный чай базилик - мята</t>
-  </si>
-  <si>
-    <t>ice tea lime and basil</t>
-  </si>
-  <si>
-    <t>ცივი ჩაი ლაიმით და რეჰანით</t>
-  </si>
-  <si>
-    <t>Кремовый матча оранж</t>
-  </si>
-  <si>
-    <t>matcha orange creamy</t>
-  </si>
-  <si>
-    <t>ფორთოხლის მატჩა ნაღებით</t>
   </si>
   <si>
     <t>name_ru</t>
@@ -628,7 +538,7 @@
   <dimension ref="A1:M1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A7" sqref="A7:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -674,10 +584,10 @@
     </row>
     <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -701,10 +611,10 @@
     </row>
     <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -728,10 +638,10 @@
     </row>
     <row r="4" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -755,10 +665,10 @@
     </row>
     <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -782,10 +692,10 @@
     </row>
     <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -808,277 +718,137 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>20</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3" t="str">
-        <f t="shared" ref="I7:I16" si="2">LOWER($B7)</f>
-        <v>aperol spritz</v>
-      </c>
-      <c r="J7" s="3" t="str">
-        <f t="shared" ref="J7:J16" si="3">LOWER($B7)&amp;"_"&amp;2</f>
-        <v>aperol spritz_2</v>
-      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>20</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>coffee spritz</v>
-      </c>
-      <c r="J8" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>coffee spritz_2</v>
-      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>20</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>citrus spritz</v>
-      </c>
-      <c r="J9" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>citrus spritz_2</v>
-      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>20</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>grapefruit elder gin &amp; tonic</v>
-      </c>
-      <c r="J10" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>grapefruit elder gin &amp; tonic_2</v>
-      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <v>15</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>bellini</v>
-      </c>
-      <c r="J11" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>bellini_2</v>
-      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>13</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>monc blanc</v>
-      </c>
-      <c r="J12" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>monc blanc_2</v>
-      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2">
-        <v>12</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>cold brew cranberry</v>
-      </c>
-      <c r="J13" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>cold brew cranberry_2</v>
-      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <v>12</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ice tea mango yuzy</v>
-      </c>
-      <c r="J14" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>ice tea mango yuzy_2</v>
-      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <v>8</v>
-      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ice tea lime and basil</v>
-      </c>
-      <c r="J15" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>ice tea lime and basil_2</v>
-      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2">
-        <v>15</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>matcha orange creamy</v>
-      </c>
-      <c r="J16" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>matcha orange creamy_2</v>
-      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15947,24 +15717,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/public/coffee/special.xlsx
+++ b/public/coffee/special.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/coffee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11126B7F-1B14-B746-970A-560055A14ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E29413A-362A-0246-A843-1A6A15E2888B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7540" yWindow="500" windowWidth="21260" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>title_ru</t>
   </si>
@@ -244,12 +244,36 @@
   <si>
     <t>გამამხნევებელი ჩაი მკვეთრი მჟავით და მსუბუქი ციტრუს-ბალახოვანი aftertaste-ით.</t>
   </si>
+  <si>
+    <t>Тыквенный крем суп с беконом</t>
+  </si>
+  <si>
+    <t>Pumpkin Bacon Cream Soup</t>
+  </si>
+  <si>
+    <t>Запеченная курица в соусе из тыквы</t>
+  </si>
+  <si>
+    <t>Pumpkin Chiken</t>
+  </si>
+  <si>
+    <t>Ньокки в соусе из тыквы и голубым сыром</t>
+  </si>
+  <si>
+    <t>Gnocchi Blue Cheese</t>
+  </si>
+  <si>
+    <t>Панна Котта из тыквы со специями</t>
+  </si>
+  <si>
+    <t>Spiced Pumpkin Panna Cotta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -364,6 +388,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -385,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -403,6 +439,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -720,7 +758,7 @@
   <dimension ref="A1:M1017"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -788,11 +826,11 @@
         <v>20</v>
       </c>
       <c r="I2" s="3" t="str">
-        <f t="shared" ref="I2:I10" si="0">LOWER($B2)</f>
+        <f t="shared" ref="I2:I14" si="0">LOWER($B2)</f>
         <v>maple raf</v>
       </c>
       <c r="J2" s="3" t="str">
-        <f t="shared" ref="J2:J10" si="1">LOWER($B2)&amp;"_"&amp;2</f>
+        <f t="shared" ref="J2:J14" si="1">LOWER($B2)&amp;"_"&amp;2</f>
         <v>maple raf_2</v>
       </c>
       <c r="K2" s="1"/>
@@ -1073,60 +1111,108 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="2">
+        <v>17</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>pumpkin bacon cream soup</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>pumpkin bacon cream soup_2</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17">
+        <v>21</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>pumpkin chiken</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>pumpkin chiken_2</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="A13" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17">
+        <v>20</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>gnocchi blue cheese</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>gnocchi blue cheese_2</v>
+      </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="2">
+        <v>16</v>
+      </c>
       <c r="F14" s="11"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>spiced pumpkin panna cotta</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>spiced pumpkin panna cotta_2</v>
+      </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>

--- a/public/coffee/special.xlsx
+++ b/public/coffee/special.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/coffee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E29413A-362A-0246-A843-1A6A15E2888B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AB6173-1B4B-014F-B04A-309BEE2D196A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="500" windowWidth="21260" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="500" windowWidth="21260" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="promo" sheetId="1" r:id="rId1"/>
-    <sheet name="catalogs" sheetId="2" r:id="rId2"/>
+    <sheet name="Autumn Menu" sheetId="3" r:id="rId1"/>
+    <sheet name="Autumn Drinks" sheetId="1" r:id="rId2"/>
+    <sheet name="catalogs" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>title_ru</t>
   </si>
@@ -75,12 +76,6 @@
   </si>
   <si>
     <t>name_ge</t>
-  </si>
-  <si>
-    <t>ПРОМО</t>
-  </si>
-  <si>
-    <t>PROMO</t>
   </si>
   <si>
     <t>Кленовый раф</t>
@@ -268,12 +263,51 @@
   <si>
     <t>Spiced Pumpkin Panna Cotta</t>
   </si>
+  <si>
+    <t>Осенние напитки</t>
+  </si>
+  <si>
+    <t>Autumn Drinks</t>
+  </si>
+  <si>
+    <t>Осеннее меню</t>
+  </si>
+  <si>
+    <t>Autumn Menu</t>
+  </si>
+  <si>
+    <t>პანა კოტა</t>
+  </si>
+  <si>
+    <t>Pumpkin Cream Soup</t>
+  </si>
+  <si>
+    <t>Pumpkin Panna Cotta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Панна Котта из тыквы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">გნოკი ლურჯი ყველით </t>
+  </si>
+  <si>
+    <t>გოგრის ქრემ სუპი</t>
+  </si>
+  <si>
+    <t>ქათამი გოგრის პიურეთი</t>
+  </si>
+  <si>
+    <t>Сhicken with pumpkin puree</t>
+  </si>
+  <si>
+    <t>Gnocchi with pumpkin and  Blue Cheese</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -400,6 +434,36 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -421,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -441,6 +505,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -754,20 +822,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762B3646-2866-6648-A1C5-37E82D6363E6}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19">
+      <c r="A2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="2">
+        <v>17</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="3" t="str">
+        <f>LOWER($B2)</f>
+        <v>pumpkin cream soup</v>
+      </c>
+      <c r="J2" s="3" t="str">
+        <f t="shared" ref="J2:J5" si="0">LOWER($B2)&amp;"_"&amp;2</f>
+        <v>pumpkin cream soup_2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19">
+      <c r="A3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f>LOWER($B3)</f>
+        <v>сhicken with pumpkin puree</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>сhicken with pumpkin puree_2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19">
+      <c r="A4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" ref="I2:I5" si="1">LOWER($B4)</f>
+        <v>gnocchi with pumpkin and  blue cheese</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>gnocchi with pumpkin and  blue cheese_2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19">
+      <c r="A5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="2">
+        <v>16</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>pumpkin panna cotta</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>pumpkin panna cotta_2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,28 +1013,28 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="19">
       <c r="A2" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9">
         <v>14</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3" t="str">
         <f t="shared" ref="I2:I14" si="0">LOWER($B2)</f>
@@ -837,28 +1048,28 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="19">
       <c r="A3" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9">
         <v>12</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -872,28 +1083,28 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="19">
       <c r="A4" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9">
         <v>13</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -907,28 +1118,28 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="19">
       <c r="A5" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9">
         <v>16</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -942,28 +1153,28 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="19">
       <c r="A6" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
         <v>15</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -977,28 +1188,28 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="19">
       <c r="A7" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
         <v>17</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1010,28 +1221,28 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="19">
       <c r="A8" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1043,28 +1254,28 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="19">
       <c r="A9" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1077,28 +1288,28 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1110,12 +1321,12 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -1137,12 +1348,12 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="17"/>
@@ -1163,12 +1374,12 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="17"/>
@@ -1190,12 +1401,12 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -1217,7 +1428,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1230,7 +1441,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1243,7 +1454,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1256,7 +1467,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -1269,7 +1480,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1283,7 +1494,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19">
       <c r="A20" s="11"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -1296,7 +1507,7 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19">
       <c r="A21" s="9"/>
       <c r="B21" s="11"/>
       <c r="C21" s="9"/>
@@ -1309,7 +1520,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="19">
       <c r="A22" s="11"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -1322,7 +1533,7 @@
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="19">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1337,7 +1548,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="19">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1352,7 +1563,7 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="19">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1367,7 +1578,7 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="19">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1382,7 +1593,7 @@
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="19">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1397,7 +1608,7 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="19">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1412,7 +1623,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -1427,7 +1638,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1442,7 +1653,7 @@
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1457,7 +1668,7 @@
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1472,7 +1683,7 @@
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -1487,7 +1698,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -1502,7 +1713,7 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -1517,7 +1728,7 @@
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -1532,7 +1743,7 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -1547,7 +1758,7 @@
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -1562,7 +1773,7 @@
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -1577,7 +1788,7 @@
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -1592,7 +1803,7 @@
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -1607,7 +1818,7 @@
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -1622,7 +1833,7 @@
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -1637,7 +1848,7 @@
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -1652,7 +1863,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -1667,7 +1878,7 @@
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -1682,7 +1893,7 @@
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -1697,7 +1908,7 @@
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -1712,7 +1923,7 @@
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -1727,7 +1938,7 @@
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -1742,7 +1953,7 @@
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -1757,7 +1968,7 @@
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -1772,7 +1983,7 @@
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -1787,7 +1998,7 @@
       <c r="L53" s="13"/>
       <c r="M53" s="13"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -1802,7 +2013,7 @@
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -1817,7 +2028,7 @@
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -1832,7 +2043,7 @@
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -1847,7 +2058,7 @@
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -1862,7 +2073,7 @@
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -1877,7 +2088,7 @@
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -1892,7 +2103,7 @@
       <c r="L60" s="13"/>
       <c r="M60" s="13"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -1907,7 +2118,7 @@
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -1922,7 +2133,7 @@
       <c r="L62" s="13"/>
       <c r="M62" s="13"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -1937,7 +2148,7 @@
       <c r="L63" s="13"/>
       <c r="M63" s="13"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -1952,7 +2163,7 @@
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -1967,7 +2178,7 @@
       <c r="L65" s="13"/>
       <c r="M65" s="13"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -1982,7 +2193,7 @@
       <c r="L66" s="13"/>
       <c r="M66" s="13"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -1997,7 +2208,7 @@
       <c r="L67" s="13"/>
       <c r="M67" s="13"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -2012,7 +2223,7 @@
       <c r="L68" s="13"/>
       <c r="M68" s="13"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -2027,7 +2238,7 @@
       <c r="L69" s="13"/>
       <c r="M69" s="13"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -2042,7 +2253,7 @@
       <c r="L70" s="13"/>
       <c r="M70" s="13"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -2057,7 +2268,7 @@
       <c r="L71" s="13"/>
       <c r="M71" s="13"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -2072,7 +2283,7 @@
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -2087,7 +2298,7 @@
       <c r="L73" s="13"/>
       <c r="M73" s="13"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -2102,7 +2313,7 @@
       <c r="L74" s="13"/>
       <c r="M74" s="13"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -2117,7 +2328,7 @@
       <c r="L75" s="13"/>
       <c r="M75" s="13"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -2132,7 +2343,7 @@
       <c r="L76" s="13"/>
       <c r="M76" s="13"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -2147,7 +2358,7 @@
       <c r="L77" s="13"/>
       <c r="M77" s="13"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -2162,7 +2373,7 @@
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -2177,7 +2388,7 @@
       <c r="L79" s="13"/>
       <c r="M79" s="13"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -2192,7 +2403,7 @@
       <c r="L80" s="13"/>
       <c r="M80" s="13"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -2207,7 +2418,7 @@
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -2222,7 +2433,7 @@
       <c r="L82" s="13"/>
       <c r="M82" s="13"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -2237,7 +2448,7 @@
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -2252,7 +2463,7 @@
       <c r="L84" s="13"/>
       <c r="M84" s="13"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -2267,7 +2478,7 @@
       <c r="L85" s="13"/>
       <c r="M85" s="13"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -2282,7 +2493,7 @@
       <c r="L86" s="13"/>
       <c r="M86" s="13"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -2297,7 +2508,7 @@
       <c r="L87" s="13"/>
       <c r="M87" s="13"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -2312,7 +2523,7 @@
       <c r="L88" s="13"/>
       <c r="M88" s="13"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -2327,7 +2538,7 @@
       <c r="L89" s="13"/>
       <c r="M89" s="13"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -2342,7 +2553,7 @@
       <c r="L90" s="13"/>
       <c r="M90" s="13"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -2357,7 +2568,7 @@
       <c r="L91" s="13"/>
       <c r="M91" s="13"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -2372,7 +2583,7 @@
       <c r="L92" s="13"/>
       <c r="M92" s="13"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -2387,7 +2598,7 @@
       <c r="L93" s="13"/>
       <c r="M93" s="13"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -2402,7 +2613,7 @@
       <c r="L94" s="13"/>
       <c r="M94" s="13"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -2417,7 +2628,7 @@
       <c r="L95" s="13"/>
       <c r="M95" s="13"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -2432,7 +2643,7 @@
       <c r="L96" s="13"/>
       <c r="M96" s="13"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -2447,7 +2658,7 @@
       <c r="L97" s="13"/>
       <c r="M97" s="13"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -2462,7 +2673,7 @@
       <c r="L98" s="13"/>
       <c r="M98" s="13"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -2477,7 +2688,7 @@
       <c r="L99" s="13"/>
       <c r="M99" s="13"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -2492,7 +2703,7 @@
       <c r="L100" s="13"/>
       <c r="M100" s="13"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -2507,7 +2718,7 @@
       <c r="L101" s="13"/>
       <c r="M101" s="13"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -2522,7 +2733,7 @@
       <c r="L102" s="13"/>
       <c r="M102" s="13"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -2537,7 +2748,7 @@
       <c r="L103" s="13"/>
       <c r="M103" s="13"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -2552,7 +2763,7 @@
       <c r="L104" s="13"/>
       <c r="M104" s="13"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -2567,7 +2778,7 @@
       <c r="L105" s="13"/>
       <c r="M105" s="13"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -2582,7 +2793,7 @@
       <c r="L106" s="13"/>
       <c r="M106" s="13"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -2597,7 +2808,7 @@
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -2612,7 +2823,7 @@
       <c r="L108" s="13"/>
       <c r="M108" s="13"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -2627,7 +2838,7 @@
       <c r="L109" s="13"/>
       <c r="M109" s="13"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -2642,7 +2853,7 @@
       <c r="L110" s="13"/>
       <c r="M110" s="13"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -2657,7 +2868,7 @@
       <c r="L111" s="13"/>
       <c r="M111" s="13"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13">
       <c r="A112" s="13"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -2672,7 +2883,7 @@
       <c r="L112" s="13"/>
       <c r="M112" s="13"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13">
       <c r="A113" s="13"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -2687,7 +2898,7 @@
       <c r="L113" s="13"/>
       <c r="M113" s="13"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -2702,7 +2913,7 @@
       <c r="L114" s="13"/>
       <c r="M114" s="13"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -2717,7 +2928,7 @@
       <c r="L115" s="13"/>
       <c r="M115" s="13"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13">
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -2732,7 +2943,7 @@
       <c r="L116" s="13"/>
       <c r="M116" s="13"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -2747,7 +2958,7 @@
       <c r="L117" s="13"/>
       <c r="M117" s="13"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13">
       <c r="A118" s="13"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -2762,7 +2973,7 @@
       <c r="L118" s="13"/>
       <c r="M118" s="13"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13">
       <c r="A119" s="13"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -2777,7 +2988,7 @@
       <c r="L119" s="13"/>
       <c r="M119" s="13"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13">
       <c r="A120" s="13"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -2792,7 +3003,7 @@
       <c r="L120" s="13"/>
       <c r="M120" s="13"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13">
       <c r="A121" s="13"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
@@ -2807,7 +3018,7 @@
       <c r="L121" s="13"/>
       <c r="M121" s="13"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -2822,7 +3033,7 @@
       <c r="L122" s="13"/>
       <c r="M122" s="13"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13">
       <c r="A123" s="13"/>
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
@@ -2837,7 +3048,7 @@
       <c r="L123" s="13"/>
       <c r="M123" s="13"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13">
       <c r="A124" s="13"/>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
@@ -2852,7 +3063,7 @@
       <c r="L124" s="13"/>
       <c r="M124" s="13"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13">
       <c r="A125" s="13"/>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
@@ -2867,7 +3078,7 @@
       <c r="L125" s="13"/>
       <c r="M125" s="13"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13">
       <c r="A126" s="13"/>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
@@ -2882,7 +3093,7 @@
       <c r="L126" s="13"/>
       <c r="M126" s="13"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13">
       <c r="A127" s="13"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -2897,7 +3108,7 @@
       <c r="L127" s="13"/>
       <c r="M127" s="13"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13">
       <c r="A128" s="13"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -2912,7 +3123,7 @@
       <c r="L128" s="13"/>
       <c r="M128" s="13"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13">
       <c r="A129" s="13"/>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
@@ -2927,7 +3138,7 @@
       <c r="L129" s="13"/>
       <c r="M129" s="13"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13">
       <c r="A130" s="13"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -2942,7 +3153,7 @@
       <c r="L130" s="13"/>
       <c r="M130" s="13"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13">
       <c r="A131" s="13"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -2957,7 +3168,7 @@
       <c r="L131" s="13"/>
       <c r="M131" s="13"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13">
       <c r="A132" s="13"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -2972,7 +3183,7 @@
       <c r="L132" s="13"/>
       <c r="M132" s="13"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13">
       <c r="A133" s="13"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -2987,7 +3198,7 @@
       <c r="L133" s="13"/>
       <c r="M133" s="13"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13">
       <c r="A134" s="13"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -3002,7 +3213,7 @@
       <c r="L134" s="13"/>
       <c r="M134" s="13"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13">
       <c r="A135" s="13"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -3017,7 +3228,7 @@
       <c r="L135" s="13"/>
       <c r="M135" s="13"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13">
       <c r="A136" s="13"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -3032,7 +3243,7 @@
       <c r="L136" s="13"/>
       <c r="M136" s="13"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13">
       <c r="A137" s="13"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -3047,7 +3258,7 @@
       <c r="L137" s="13"/>
       <c r="M137" s="13"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13">
       <c r="A138" s="13"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -3062,7 +3273,7 @@
       <c r="L138" s="13"/>
       <c r="M138" s="13"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13">
       <c r="A139" s="13"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -3077,7 +3288,7 @@
       <c r="L139" s="13"/>
       <c r="M139" s="13"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13">
       <c r="A140" s="13"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -3092,7 +3303,7 @@
       <c r="L140" s="13"/>
       <c r="M140" s="13"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13">
       <c r="A141" s="13"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -3107,7 +3318,7 @@
       <c r="L141" s="13"/>
       <c r="M141" s="13"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13">
       <c r="A142" s="13"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -3122,7 +3333,7 @@
       <c r="L142" s="13"/>
       <c r="M142" s="13"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13">
       <c r="A143" s="13"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -3137,7 +3348,7 @@
       <c r="L143" s="13"/>
       <c r="M143" s="13"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13">
       <c r="A144" s="13"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -3152,7 +3363,7 @@
       <c r="L144" s="13"/>
       <c r="M144" s="13"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13">
       <c r="A145" s="13"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -3167,7 +3378,7 @@
       <c r="L145" s="13"/>
       <c r="M145" s="13"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13">
       <c r="A146" s="13"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -3182,7 +3393,7 @@
       <c r="L146" s="13"/>
       <c r="M146" s="13"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13">
       <c r="A147" s="13"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -3197,7 +3408,7 @@
       <c r="L147" s="13"/>
       <c r="M147" s="13"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13">
       <c r="A148" s="13"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -3212,7 +3423,7 @@
       <c r="L148" s="13"/>
       <c r="M148" s="13"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13">
       <c r="A149" s="13"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -3227,7 +3438,7 @@
       <c r="L149" s="13"/>
       <c r="M149" s="13"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13">
       <c r="A150" s="13"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -3242,7 +3453,7 @@
       <c r="L150" s="13"/>
       <c r="M150" s="13"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13">
       <c r="A151" s="13"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -3257,7 +3468,7 @@
       <c r="L151" s="13"/>
       <c r="M151" s="13"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13">
       <c r="A152" s="13"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -3272,7 +3483,7 @@
       <c r="L152" s="13"/>
       <c r="M152" s="13"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13">
       <c r="A153" s="13"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -3287,7 +3498,7 @@
       <c r="L153" s="13"/>
       <c r="M153" s="13"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13">
       <c r="A154" s="13"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -3302,7 +3513,7 @@
       <c r="L154" s="13"/>
       <c r="M154" s="13"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13">
       <c r="A155" s="13"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -3317,7 +3528,7 @@
       <c r="L155" s="13"/>
       <c r="M155" s="13"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13">
       <c r="A156" s="13"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -3332,7 +3543,7 @@
       <c r="L156" s="13"/>
       <c r="M156" s="13"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -3347,7 +3558,7 @@
       <c r="L157" s="13"/>
       <c r="M157" s="13"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13">
       <c r="A158" s="13"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -3362,7 +3573,7 @@
       <c r="L158" s="13"/>
       <c r="M158" s="13"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13">
       <c r="A159" s="13"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -3377,7 +3588,7 @@
       <c r="L159" s="13"/>
       <c r="M159" s="13"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13">
       <c r="A160" s="13"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -3392,7 +3603,7 @@
       <c r="L160" s="13"/>
       <c r="M160" s="13"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13">
       <c r="A161" s="13"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -3407,7 +3618,7 @@
       <c r="L161" s="13"/>
       <c r="M161" s="13"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13">
       <c r="A162" s="13"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -3422,7 +3633,7 @@
       <c r="L162" s="13"/>
       <c r="M162" s="13"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13">
       <c r="A163" s="13"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -3437,7 +3648,7 @@
       <c r="L163" s="13"/>
       <c r="M163" s="13"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13">
       <c r="A164" s="13"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -3452,7 +3663,7 @@
       <c r="L164" s="13"/>
       <c r="M164" s="13"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13">
       <c r="A165" s="13"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -3467,7 +3678,7 @@
       <c r="L165" s="13"/>
       <c r="M165" s="13"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13">
       <c r="A166" s="13"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -3482,7 +3693,7 @@
       <c r="L166" s="13"/>
       <c r="M166" s="13"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13">
       <c r="A167" s="13"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -3497,7 +3708,7 @@
       <c r="L167" s="13"/>
       <c r="M167" s="13"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13">
       <c r="A168" s="13"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -3512,7 +3723,7 @@
       <c r="L168" s="13"/>
       <c r="M168" s="13"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13">
       <c r="A169" s="13"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -3527,7 +3738,7 @@
       <c r="L169" s="13"/>
       <c r="M169" s="13"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13">
       <c r="A170" s="13"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -3542,7 +3753,7 @@
       <c r="L170" s="13"/>
       <c r="M170" s="13"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13">
       <c r="A171" s="13"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -3557,7 +3768,7 @@
       <c r="L171" s="13"/>
       <c r="M171" s="13"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13">
       <c r="A172" s="13"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
@@ -3572,7 +3783,7 @@
       <c r="L172" s="13"/>
       <c r="M172" s="13"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13">
       <c r="A173" s="13"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
@@ -3587,7 +3798,7 @@
       <c r="L173" s="13"/>
       <c r="M173" s="13"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13">
       <c r="A174" s="13"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
@@ -3602,7 +3813,7 @@
       <c r="L174" s="13"/>
       <c r="M174" s="13"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13">
       <c r="A175" s="13"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
@@ -3617,7 +3828,7 @@
       <c r="L175" s="13"/>
       <c r="M175" s="13"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13">
       <c r="A176" s="13"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -3632,7 +3843,7 @@
       <c r="L176" s="13"/>
       <c r="M176" s="13"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13">
       <c r="A177" s="13"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -3647,7 +3858,7 @@
       <c r="L177" s="13"/>
       <c r="M177" s="13"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13">
       <c r="A178" s="13"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -3662,7 +3873,7 @@
       <c r="L178" s="13"/>
       <c r="M178" s="13"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13">
       <c r="A179" s="13"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -3677,7 +3888,7 @@
       <c r="L179" s="13"/>
       <c r="M179" s="13"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13">
       <c r="A180" s="13"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -3692,7 +3903,7 @@
       <c r="L180" s="13"/>
       <c r="M180" s="13"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13">
       <c r="A181" s="13"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -3707,7 +3918,7 @@
       <c r="L181" s="13"/>
       <c r="M181" s="13"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13">
       <c r="A182" s="13"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
@@ -3722,7 +3933,7 @@
       <c r="L182" s="13"/>
       <c r="M182" s="13"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13">
       <c r="A183" s="13"/>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
@@ -3737,7 +3948,7 @@
       <c r="L183" s="13"/>
       <c r="M183" s="13"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13">
       <c r="A184" s="13"/>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
@@ -3752,7 +3963,7 @@
       <c r="L184" s="13"/>
       <c r="M184" s="13"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13">
       <c r="A185" s="13"/>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
@@ -3767,7 +3978,7 @@
       <c r="L185" s="13"/>
       <c r="M185" s="13"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13">
       <c r="A186" s="13"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
@@ -3782,7 +3993,7 @@
       <c r="L186" s="13"/>
       <c r="M186" s="13"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13">
       <c r="A187" s="13"/>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -3797,7 +4008,7 @@
       <c r="L187" s="13"/>
       <c r="M187" s="13"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13">
       <c r="A188" s="13"/>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
@@ -3812,7 +4023,7 @@
       <c r="L188" s="13"/>
       <c r="M188" s="13"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13">
       <c r="A189" s="13"/>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
@@ -3827,7 +4038,7 @@
       <c r="L189" s="13"/>
       <c r="M189" s="13"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13">
       <c r="A190" s="13"/>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
@@ -3842,7 +4053,7 @@
       <c r="L190" s="13"/>
       <c r="M190" s="13"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13">
       <c r="A191" s="13"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
@@ -3857,7 +4068,7 @@
       <c r="L191" s="13"/>
       <c r="M191" s="13"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13">
       <c r="A192" s="13"/>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
@@ -3872,7 +4083,7 @@
       <c r="L192" s="13"/>
       <c r="M192" s="13"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13">
       <c r="A193" s="13"/>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
@@ -3887,7 +4098,7 @@
       <c r="L193" s="13"/>
       <c r="M193" s="13"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13">
       <c r="A194" s="13"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
@@ -3902,7 +4113,7 @@
       <c r="L194" s="13"/>
       <c r="M194" s="13"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13">
       <c r="A195" s="13"/>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
@@ -3917,7 +4128,7 @@
       <c r="L195" s="13"/>
       <c r="M195" s="13"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13">
       <c r="A196" s="13"/>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -3932,7 +4143,7 @@
       <c r="L196" s="13"/>
       <c r="M196" s="13"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13">
       <c r="A197" s="13"/>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
@@ -3947,7 +4158,7 @@
       <c r="L197" s="13"/>
       <c r="M197" s="13"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13">
       <c r="A198" s="13"/>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
@@ -3962,7 +4173,7 @@
       <c r="L198" s="13"/>
       <c r="M198" s="13"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13">
       <c r="A199" s="13"/>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
@@ -3977,7 +4188,7 @@
       <c r="L199" s="13"/>
       <c r="M199" s="13"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13">
       <c r="A200" s="13"/>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
@@ -3992,7 +4203,7 @@
       <c r="L200" s="13"/>
       <c r="M200" s="13"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13">
       <c r="A201" s="13"/>
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
@@ -4007,7 +4218,7 @@
       <c r="L201" s="13"/>
       <c r="M201" s="13"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13">
       <c r="A202" s="13"/>
       <c r="B202" s="13"/>
       <c r="C202" s="13"/>
@@ -4022,7 +4233,7 @@
       <c r="L202" s="13"/>
       <c r="M202" s="13"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13">
       <c r="A203" s="13"/>
       <c r="B203" s="13"/>
       <c r="C203" s="13"/>
@@ -4037,7 +4248,7 @@
       <c r="L203" s="13"/>
       <c r="M203" s="13"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13">
       <c r="A204" s="13"/>
       <c r="B204" s="13"/>
       <c r="C204" s="13"/>
@@ -4052,7 +4263,7 @@
       <c r="L204" s="13"/>
       <c r="M204" s="13"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13">
       <c r="A205" s="13"/>
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
@@ -4067,7 +4278,7 @@
       <c r="L205" s="13"/>
       <c r="M205" s="13"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13">
       <c r="A206" s="13"/>
       <c r="B206" s="13"/>
       <c r="C206" s="13"/>
@@ -4082,7 +4293,7 @@
       <c r="L206" s="13"/>
       <c r="M206" s="13"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13">
       <c r="A207" s="13"/>
       <c r="B207" s="13"/>
       <c r="C207" s="13"/>
@@ -4097,7 +4308,7 @@
       <c r="L207" s="13"/>
       <c r="M207" s="13"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13">
       <c r="A208" s="13"/>
       <c r="B208" s="13"/>
       <c r="C208" s="13"/>
@@ -4112,7 +4323,7 @@
       <c r="L208" s="13"/>
       <c r="M208" s="13"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13">
       <c r="A209" s="13"/>
       <c r="B209" s="13"/>
       <c r="C209" s="13"/>
@@ -4127,7 +4338,7 @@
       <c r="L209" s="13"/>
       <c r="M209" s="13"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13">
       <c r="A210" s="13"/>
       <c r="B210" s="13"/>
       <c r="C210" s="13"/>
@@ -4142,7 +4353,7 @@
       <c r="L210" s="13"/>
       <c r="M210" s="13"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13">
       <c r="A211" s="13"/>
       <c r="B211" s="13"/>
       <c r="C211" s="13"/>
@@ -4157,7 +4368,7 @@
       <c r="L211" s="13"/>
       <c r="M211" s="13"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13">
       <c r="A212" s="13"/>
       <c r="B212" s="13"/>
       <c r="C212" s="13"/>
@@ -4172,7 +4383,7 @@
       <c r="L212" s="13"/>
       <c r="M212" s="13"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13">
       <c r="A213" s="13"/>
       <c r="B213" s="13"/>
       <c r="C213" s="13"/>
@@ -4187,7 +4398,7 @@
       <c r="L213" s="13"/>
       <c r="M213" s="13"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13">
       <c r="A214" s="13"/>
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
@@ -4202,7 +4413,7 @@
       <c r="L214" s="13"/>
       <c r="M214" s="13"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13">
       <c r="A215" s="13"/>
       <c r="B215" s="13"/>
       <c r="C215" s="13"/>
@@ -4217,7 +4428,7 @@
       <c r="L215" s="13"/>
       <c r="M215" s="13"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13">
       <c r="A216" s="13"/>
       <c r="B216" s="13"/>
       <c r="C216" s="13"/>
@@ -4232,7 +4443,7 @@
       <c r="L216" s="13"/>
       <c r="M216" s="13"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13">
       <c r="A217" s="13"/>
       <c r="B217" s="13"/>
       <c r="C217" s="13"/>
@@ -4247,7 +4458,7 @@
       <c r="L217" s="13"/>
       <c r="M217" s="13"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13">
       <c r="A218" s="13"/>
       <c r="B218" s="13"/>
       <c r="C218" s="13"/>
@@ -4262,7 +4473,7 @@
       <c r="L218" s="13"/>
       <c r="M218" s="13"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13">
       <c r="A219" s="13"/>
       <c r="B219" s="13"/>
       <c r="C219" s="13"/>
@@ -4277,7 +4488,7 @@
       <c r="L219" s="13"/>
       <c r="M219" s="13"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13">
       <c r="A220" s="13"/>
       <c r="B220" s="13"/>
       <c r="C220" s="13"/>
@@ -4292,7 +4503,7 @@
       <c r="L220" s="13"/>
       <c r="M220" s="13"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13">
       <c r="A221" s="13"/>
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
@@ -4307,7 +4518,7 @@
       <c r="L221" s="13"/>
       <c r="M221" s="13"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13">
       <c r="A222" s="13"/>
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
@@ -4322,7 +4533,7 @@
       <c r="L222" s="13"/>
       <c r="M222" s="13"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13">
       <c r="A223" s="13"/>
       <c r="B223" s="13"/>
       <c r="C223" s="13"/>
@@ -4337,7 +4548,7 @@
       <c r="L223" s="13"/>
       <c r="M223" s="13"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13">
       <c r="A224" s="13"/>
       <c r="B224" s="13"/>
       <c r="C224" s="13"/>
@@ -4352,7 +4563,7 @@
       <c r="L224" s="13"/>
       <c r="M224" s="13"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13">
       <c r="A225" s="13"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
@@ -4367,7 +4578,7 @@
       <c r="L225" s="13"/>
       <c r="M225" s="13"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13">
       <c r="A226" s="13"/>
       <c r="B226" s="13"/>
       <c r="C226" s="13"/>
@@ -4382,7 +4593,7 @@
       <c r="L226" s="13"/>
       <c r="M226" s="13"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13">
       <c r="A227" s="13"/>
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
@@ -4397,7 +4608,7 @@
       <c r="L227" s="13"/>
       <c r="M227" s="13"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13">
       <c r="A228" s="13"/>
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
@@ -4412,7 +4623,7 @@
       <c r="L228" s="13"/>
       <c r="M228" s="13"/>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13">
       <c r="A229" s="13"/>
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
@@ -4427,7 +4638,7 @@
       <c r="L229" s="13"/>
       <c r="M229" s="13"/>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13">
       <c r="A230" s="13"/>
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
@@ -4442,7 +4653,7 @@
       <c r="L230" s="13"/>
       <c r="M230" s="13"/>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13">
       <c r="A231" s="13"/>
       <c r="B231" s="13"/>
       <c r="C231" s="13"/>
@@ -4457,7 +4668,7 @@
       <c r="L231" s="13"/>
       <c r="M231" s="13"/>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13">
       <c r="A232" s="13"/>
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
@@ -4472,7 +4683,7 @@
       <c r="L232" s="13"/>
       <c r="M232" s="13"/>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13">
       <c r="A233" s="13"/>
       <c r="B233" s="13"/>
       <c r="C233" s="13"/>
@@ -4487,7 +4698,7 @@
       <c r="L233" s="13"/>
       <c r="M233" s="13"/>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13">
       <c r="A234" s="13"/>
       <c r="B234" s="13"/>
       <c r="C234" s="13"/>
@@ -4502,7 +4713,7 @@
       <c r="L234" s="13"/>
       <c r="M234" s="13"/>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13">
       <c r="A235" s="13"/>
       <c r="B235" s="13"/>
       <c r="C235" s="13"/>
@@ -4517,7 +4728,7 @@
       <c r="L235" s="13"/>
       <c r="M235" s="13"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13">
       <c r="A236" s="13"/>
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
@@ -4532,7 +4743,7 @@
       <c r="L236" s="13"/>
       <c r="M236" s="13"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13">
       <c r="A237" s="13"/>
       <c r="B237" s="13"/>
       <c r="C237" s="13"/>
@@ -4547,7 +4758,7 @@
       <c r="L237" s="13"/>
       <c r="M237" s="13"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13">
       <c r="A238" s="13"/>
       <c r="B238" s="13"/>
       <c r="C238" s="13"/>
@@ -4562,7 +4773,7 @@
       <c r="L238" s="13"/>
       <c r="M238" s="13"/>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13">
       <c r="A239" s="13"/>
       <c r="B239" s="13"/>
       <c r="C239" s="13"/>
@@ -4577,7 +4788,7 @@
       <c r="L239" s="13"/>
       <c r="M239" s="13"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13">
       <c r="A240" s="13"/>
       <c r="B240" s="13"/>
       <c r="C240" s="13"/>
@@ -4592,7 +4803,7 @@
       <c r="L240" s="13"/>
       <c r="M240" s="13"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13">
       <c r="A241" s="13"/>
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
@@ -4607,7 +4818,7 @@
       <c r="L241" s="13"/>
       <c r="M241" s="13"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13">
       <c r="A242" s="13"/>
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
@@ -4622,7 +4833,7 @@
       <c r="L242" s="13"/>
       <c r="M242" s="13"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13">
       <c r="A243" s="13"/>
       <c r="B243" s="13"/>
       <c r="C243" s="13"/>
@@ -4637,7 +4848,7 @@
       <c r="L243" s="13"/>
       <c r="M243" s="13"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13">
       <c r="A244" s="13"/>
       <c r="B244" s="13"/>
       <c r="C244" s="13"/>
@@ -4652,7 +4863,7 @@
       <c r="L244" s="13"/>
       <c r="M244" s="13"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13">
       <c r="A245" s="13"/>
       <c r="B245" s="13"/>
       <c r="C245" s="13"/>
@@ -4667,7 +4878,7 @@
       <c r="L245" s="13"/>
       <c r="M245" s="13"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13">
       <c r="A246" s="13"/>
       <c r="B246" s="13"/>
       <c r="C246" s="13"/>
@@ -4682,7 +4893,7 @@
       <c r="L246" s="13"/>
       <c r="M246" s="13"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13">
       <c r="A247" s="13"/>
       <c r="B247" s="13"/>
       <c r="C247" s="13"/>
@@ -4697,7 +4908,7 @@
       <c r="L247" s="13"/>
       <c r="M247" s="13"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13">
       <c r="A248" s="13"/>
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
@@ -4712,7 +4923,7 @@
       <c r="L248" s="13"/>
       <c r="M248" s="13"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13">
       <c r="A249" s="13"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -4727,7 +4938,7 @@
       <c r="L249" s="13"/>
       <c r="M249" s="13"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13">
       <c r="A250" s="13"/>
       <c r="B250" s="13"/>
       <c r="C250" s="13"/>
@@ -4742,7 +4953,7 @@
       <c r="L250" s="13"/>
       <c r="M250" s="13"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13">
       <c r="A251" s="13"/>
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
@@ -4757,7 +4968,7 @@
       <c r="L251" s="13"/>
       <c r="M251" s="13"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13">
       <c r="A252" s="13"/>
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
@@ -4772,7 +4983,7 @@
       <c r="L252" s="13"/>
       <c r="M252" s="13"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13">
       <c r="A253" s="13"/>
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
@@ -4787,7 +4998,7 @@
       <c r="L253" s="13"/>
       <c r="M253" s="13"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13">
       <c r="A254" s="13"/>
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
@@ -4802,7 +5013,7 @@
       <c r="L254" s="13"/>
       <c r="M254" s="13"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13">
       <c r="A255" s="13"/>
       <c r="B255" s="13"/>
       <c r="C255" s="13"/>
@@ -4817,7 +5028,7 @@
       <c r="L255" s="13"/>
       <c r="M255" s="13"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13">
       <c r="A256" s="13"/>
       <c r="B256" s="13"/>
       <c r="C256" s="13"/>
@@ -4832,7 +5043,7 @@
       <c r="L256" s="13"/>
       <c r="M256" s="13"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13">
       <c r="A257" s="13"/>
       <c r="B257" s="13"/>
       <c r="C257" s="13"/>
@@ -4847,7 +5058,7 @@
       <c r="L257" s="13"/>
       <c r="M257" s="13"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13">
       <c r="A258" s="13"/>
       <c r="B258" s="13"/>
       <c r="C258" s="13"/>
@@ -4862,7 +5073,7 @@
       <c r="L258" s="13"/>
       <c r="M258" s="13"/>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13">
       <c r="A259" s="13"/>
       <c r="B259" s="13"/>
       <c r="C259" s="13"/>
@@ -4877,7 +5088,7 @@
       <c r="L259" s="13"/>
       <c r="M259" s="13"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13">
       <c r="A260" s="13"/>
       <c r="B260" s="13"/>
       <c r="C260" s="13"/>
@@ -4892,7 +5103,7 @@
       <c r="L260" s="13"/>
       <c r="M260" s="13"/>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13">
       <c r="A261" s="13"/>
       <c r="B261" s="13"/>
       <c r="C261" s="13"/>
@@ -4907,7 +5118,7 @@
       <c r="L261" s="13"/>
       <c r="M261" s="13"/>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13">
       <c r="A262" s="13"/>
       <c r="B262" s="13"/>
       <c r="C262" s="13"/>
@@ -4922,7 +5133,7 @@
       <c r="L262" s="13"/>
       <c r="M262" s="13"/>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13">
       <c r="A263" s="13"/>
       <c r="B263" s="13"/>
       <c r="C263" s="13"/>
@@ -4937,7 +5148,7 @@
       <c r="L263" s="13"/>
       <c r="M263" s="13"/>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13">
       <c r="A264" s="13"/>
       <c r="B264" s="13"/>
       <c r="C264" s="13"/>
@@ -4952,7 +5163,7 @@
       <c r="L264" s="13"/>
       <c r="M264" s="13"/>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13">
       <c r="A265" s="13"/>
       <c r="B265" s="13"/>
       <c r="C265" s="13"/>
@@ -4967,7 +5178,7 @@
       <c r="L265" s="13"/>
       <c r="M265" s="13"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13">
       <c r="A266" s="13"/>
       <c r="B266" s="13"/>
       <c r="C266" s="13"/>
@@ -4982,7 +5193,7 @@
       <c r="L266" s="13"/>
       <c r="M266" s="13"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13">
       <c r="A267" s="13"/>
       <c r="B267" s="13"/>
       <c r="C267" s="13"/>
@@ -4997,7 +5208,7 @@
       <c r="L267" s="13"/>
       <c r="M267" s="13"/>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13">
       <c r="A268" s="13"/>
       <c r="B268" s="13"/>
       <c r="C268" s="13"/>
@@ -5012,7 +5223,7 @@
       <c r="L268" s="13"/>
       <c r="M268" s="13"/>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13">
       <c r="A269" s="13"/>
       <c r="B269" s="13"/>
       <c r="C269" s="13"/>
@@ -5027,7 +5238,7 @@
       <c r="L269" s="13"/>
       <c r="M269" s="13"/>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13">
       <c r="A270" s="13"/>
       <c r="B270" s="13"/>
       <c r="C270" s="13"/>
@@ -5042,7 +5253,7 @@
       <c r="L270" s="13"/>
       <c r="M270" s="13"/>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13">
       <c r="A271" s="13"/>
       <c r="B271" s="13"/>
       <c r="C271" s="13"/>
@@ -5057,7 +5268,7 @@
       <c r="L271" s="13"/>
       <c r="M271" s="13"/>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13">
       <c r="A272" s="13"/>
       <c r="B272" s="13"/>
       <c r="C272" s="13"/>
@@ -5072,7 +5283,7 @@
       <c r="L272" s="13"/>
       <c r="M272" s="13"/>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13">
       <c r="A273" s="13"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
@@ -5087,7 +5298,7 @@
       <c r="L273" s="13"/>
       <c r="M273" s="13"/>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13">
       <c r="A274" s="13"/>
       <c r="B274" s="13"/>
       <c r="C274" s="13"/>
@@ -5102,7 +5313,7 @@
       <c r="L274" s="13"/>
       <c r="M274" s="13"/>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13">
       <c r="A275" s="13"/>
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
@@ -5117,7 +5328,7 @@
       <c r="L275" s="13"/>
       <c r="M275" s="13"/>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13">
       <c r="A276" s="13"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
@@ -5132,7 +5343,7 @@
       <c r="L276" s="13"/>
       <c r="M276" s="13"/>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13">
       <c r="A277" s="13"/>
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
@@ -5147,7 +5358,7 @@
       <c r="L277" s="13"/>
       <c r="M277" s="13"/>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13">
       <c r="A278" s="13"/>
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
@@ -5162,7 +5373,7 @@
       <c r="L278" s="13"/>
       <c r="M278" s="13"/>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13">
       <c r="A279" s="13"/>
       <c r="B279" s="13"/>
       <c r="C279" s="13"/>
@@ -5177,7 +5388,7 @@
       <c r="L279" s="13"/>
       <c r="M279" s="13"/>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13">
       <c r="A280" s="13"/>
       <c r="B280" s="13"/>
       <c r="C280" s="13"/>
@@ -5192,7 +5403,7 @@
       <c r="L280" s="13"/>
       <c r="M280" s="13"/>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13">
       <c r="A281" s="13"/>
       <c r="B281" s="13"/>
       <c r="C281" s="13"/>
@@ -5207,7 +5418,7 @@
       <c r="L281" s="13"/>
       <c r="M281" s="13"/>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13">
       <c r="A282" s="13"/>
       <c r="B282" s="13"/>
       <c r="C282" s="13"/>
@@ -5222,7 +5433,7 @@
       <c r="L282" s="13"/>
       <c r="M282" s="13"/>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13">
       <c r="A283" s="13"/>
       <c r="B283" s="13"/>
       <c r="C283" s="13"/>
@@ -5237,7 +5448,7 @@
       <c r="L283" s="13"/>
       <c r="M283" s="13"/>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13">
       <c r="A284" s="13"/>
       <c r="B284" s="13"/>
       <c r="C284" s="13"/>
@@ -5252,7 +5463,7 @@
       <c r="L284" s="13"/>
       <c r="M284" s="13"/>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13">
       <c r="A285" s="13"/>
       <c r="B285" s="13"/>
       <c r="C285" s="13"/>
@@ -5267,7 +5478,7 @@
       <c r="L285" s="13"/>
       <c r="M285" s="13"/>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13">
       <c r="A286" s="13"/>
       <c r="B286" s="13"/>
       <c r="C286" s="13"/>
@@ -5282,7 +5493,7 @@
       <c r="L286" s="13"/>
       <c r="M286" s="13"/>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13">
       <c r="A287" s="13"/>
       <c r="B287" s="13"/>
       <c r="C287" s="13"/>
@@ -5297,7 +5508,7 @@
       <c r="L287" s="13"/>
       <c r="M287" s="13"/>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13">
       <c r="A288" s="13"/>
       <c r="B288" s="13"/>
       <c r="C288" s="13"/>
@@ -5312,7 +5523,7 @@
       <c r="L288" s="13"/>
       <c r="M288" s="13"/>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13">
       <c r="A289" s="13"/>
       <c r="B289" s="13"/>
       <c r="C289" s="13"/>
@@ -5327,7 +5538,7 @@
       <c r="L289" s="13"/>
       <c r="M289" s="13"/>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13">
       <c r="A290" s="13"/>
       <c r="B290" s="13"/>
       <c r="C290" s="13"/>
@@ -5342,7 +5553,7 @@
       <c r="L290" s="13"/>
       <c r="M290" s="13"/>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13">
       <c r="A291" s="13"/>
       <c r="B291" s="13"/>
       <c r="C291" s="13"/>
@@ -5357,7 +5568,7 @@
       <c r="L291" s="13"/>
       <c r="M291" s="13"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13">
       <c r="A292" s="13"/>
       <c r="B292" s="13"/>
       <c r="C292" s="13"/>
@@ -5372,7 +5583,7 @@
       <c r="L292" s="13"/>
       <c r="M292" s="13"/>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13">
       <c r="A293" s="13"/>
       <c r="B293" s="13"/>
       <c r="C293" s="13"/>
@@ -5387,7 +5598,7 @@
       <c r="L293" s="13"/>
       <c r="M293" s="13"/>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13">
       <c r="A294" s="13"/>
       <c r="B294" s="13"/>
       <c r="C294" s="13"/>
@@ -5402,7 +5613,7 @@
       <c r="L294" s="13"/>
       <c r="M294" s="13"/>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13">
       <c r="A295" s="13"/>
       <c r="B295" s="13"/>
       <c r="C295" s="13"/>
@@ -5417,7 +5628,7 @@
       <c r="L295" s="13"/>
       <c r="M295" s="13"/>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13">
       <c r="A296" s="13"/>
       <c r="B296" s="13"/>
       <c r="C296" s="13"/>
@@ -5432,7 +5643,7 @@
       <c r="L296" s="13"/>
       <c r="M296" s="13"/>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13">
       <c r="A297" s="13"/>
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
@@ -5447,7 +5658,7 @@
       <c r="L297" s="13"/>
       <c r="M297" s="13"/>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13">
       <c r="A298" s="13"/>
       <c r="B298" s="13"/>
       <c r="C298" s="13"/>
@@ -5462,7 +5673,7 @@
       <c r="L298" s="13"/>
       <c r="M298" s="13"/>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13">
       <c r="A299" s="13"/>
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
@@ -5477,7 +5688,7 @@
       <c r="L299" s="13"/>
       <c r="M299" s="13"/>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13">
       <c r="A300" s="13"/>
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
@@ -5492,7 +5703,7 @@
       <c r="L300" s="13"/>
       <c r="M300" s="13"/>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13">
       <c r="A301" s="13"/>
       <c r="B301" s="13"/>
       <c r="C301" s="13"/>
@@ -5507,7 +5718,7 @@
       <c r="L301" s="13"/>
       <c r="M301" s="13"/>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13">
       <c r="A302" s="13"/>
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
@@ -5522,7 +5733,7 @@
       <c r="L302" s="13"/>
       <c r="M302" s="13"/>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13">
       <c r="A303" s="13"/>
       <c r="B303" s="13"/>
       <c r="C303" s="13"/>
@@ -5537,7 +5748,7 @@
       <c r="L303" s="13"/>
       <c r="M303" s="13"/>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13">
       <c r="A304" s="13"/>
       <c r="B304" s="13"/>
       <c r="C304" s="13"/>
@@ -5552,7 +5763,7 @@
       <c r="L304" s="13"/>
       <c r="M304" s="13"/>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13">
       <c r="A305" s="13"/>
       <c r="B305" s="13"/>
       <c r="C305" s="13"/>
@@ -5567,7 +5778,7 @@
       <c r="L305" s="13"/>
       <c r="M305" s="13"/>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13">
       <c r="A306" s="13"/>
       <c r="B306" s="13"/>
       <c r="C306" s="13"/>
@@ -5582,7 +5793,7 @@
       <c r="L306" s="13"/>
       <c r="M306" s="13"/>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13">
       <c r="A307" s="13"/>
       <c r="B307" s="13"/>
       <c r="C307" s="13"/>
@@ -5597,7 +5808,7 @@
       <c r="L307" s="13"/>
       <c r="M307" s="13"/>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13">
       <c r="A308" s="13"/>
       <c r="B308" s="13"/>
       <c r="C308" s="13"/>
@@ -5612,7 +5823,7 @@
       <c r="L308" s="13"/>
       <c r="M308" s="13"/>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13">
       <c r="A309" s="13"/>
       <c r="B309" s="13"/>
       <c r="C309" s="13"/>
@@ -5627,7 +5838,7 @@
       <c r="L309" s="13"/>
       <c r="M309" s="13"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13">
       <c r="A310" s="13"/>
       <c r="B310" s="13"/>
       <c r="C310" s="13"/>
@@ -5642,7 +5853,7 @@
       <c r="L310" s="13"/>
       <c r="M310" s="13"/>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13">
       <c r="A311" s="13"/>
       <c r="B311" s="13"/>
       <c r="C311" s="13"/>
@@ -5657,7 +5868,7 @@
       <c r="L311" s="13"/>
       <c r="M311" s="13"/>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13">
       <c r="A312" s="13"/>
       <c r="B312" s="13"/>
       <c r="C312" s="13"/>
@@ -5672,7 +5883,7 @@
       <c r="L312" s="13"/>
       <c r="M312" s="13"/>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13">
       <c r="A313" s="13"/>
       <c r="B313" s="13"/>
       <c r="C313" s="13"/>
@@ -5687,7 +5898,7 @@
       <c r="L313" s="13"/>
       <c r="M313" s="13"/>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13">
       <c r="A314" s="13"/>
       <c r="B314" s="13"/>
       <c r="C314" s="13"/>
@@ -5702,7 +5913,7 @@
       <c r="L314" s="13"/>
       <c r="M314" s="13"/>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13">
       <c r="A315" s="13"/>
       <c r="B315" s="13"/>
       <c r="C315" s="13"/>
@@ -5717,7 +5928,7 @@
       <c r="L315" s="13"/>
       <c r="M315" s="13"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13">
       <c r="A316" s="13"/>
       <c r="B316" s="13"/>
       <c r="C316" s="13"/>
@@ -5732,7 +5943,7 @@
       <c r="L316" s="13"/>
       <c r="M316" s="13"/>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13">
       <c r="A317" s="13"/>
       <c r="B317" s="13"/>
       <c r="C317" s="13"/>
@@ -5747,7 +5958,7 @@
       <c r="L317" s="13"/>
       <c r="M317" s="13"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13">
       <c r="A318" s="13"/>
       <c r="B318" s="13"/>
       <c r="C318" s="13"/>
@@ -5762,7 +5973,7 @@
       <c r="L318" s="13"/>
       <c r="M318" s="13"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13">
       <c r="A319" s="13"/>
       <c r="B319" s="13"/>
       <c r="C319" s="13"/>
@@ -5777,7 +5988,7 @@
       <c r="L319" s="13"/>
       <c r="M319" s="13"/>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13">
       <c r="A320" s="13"/>
       <c r="B320" s="13"/>
       <c r="C320" s="13"/>
@@ -5792,7 +6003,7 @@
       <c r="L320" s="13"/>
       <c r="M320" s="13"/>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13">
       <c r="A321" s="13"/>
       <c r="B321" s="13"/>
       <c r="C321" s="13"/>
@@ -5807,7 +6018,7 @@
       <c r="L321" s="13"/>
       <c r="M321" s="13"/>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13">
       <c r="A322" s="13"/>
       <c r="B322" s="13"/>
       <c r="C322" s="13"/>
@@ -5822,7 +6033,7 @@
       <c r="L322" s="13"/>
       <c r="M322" s="13"/>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13">
       <c r="A323" s="13"/>
       <c r="B323" s="13"/>
       <c r="C323" s="13"/>
@@ -5837,7 +6048,7 @@
       <c r="L323" s="13"/>
       <c r="M323" s="13"/>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13">
       <c r="A324" s="13"/>
       <c r="B324" s="13"/>
       <c r="C324" s="13"/>
@@ -5852,7 +6063,7 @@
       <c r="L324" s="13"/>
       <c r="M324" s="13"/>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13">
       <c r="A325" s="13"/>
       <c r="B325" s="13"/>
       <c r="C325" s="13"/>
@@ -5867,7 +6078,7 @@
       <c r="L325" s="13"/>
       <c r="M325" s="13"/>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13">
       <c r="A326" s="13"/>
       <c r="B326" s="13"/>
       <c r="C326" s="13"/>
@@ -5882,7 +6093,7 @@
       <c r="L326" s="13"/>
       <c r="M326" s="13"/>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13">
       <c r="A327" s="13"/>
       <c r="B327" s="13"/>
       <c r="C327" s="13"/>
@@ -5897,7 +6108,7 @@
       <c r="L327" s="13"/>
       <c r="M327" s="13"/>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13">
       <c r="A328" s="13"/>
       <c r="B328" s="13"/>
       <c r="C328" s="13"/>
@@ -5912,7 +6123,7 @@
       <c r="L328" s="13"/>
       <c r="M328" s="13"/>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13">
       <c r="A329" s="13"/>
       <c r="B329" s="13"/>
       <c r="C329" s="13"/>
@@ -5927,7 +6138,7 @@
       <c r="L329" s="13"/>
       <c r="M329" s="13"/>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13">
       <c r="A330" s="13"/>
       <c r="B330" s="13"/>
       <c r="C330" s="13"/>
@@ -5942,7 +6153,7 @@
       <c r="L330" s="13"/>
       <c r="M330" s="13"/>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13">
       <c r="A331" s="13"/>
       <c r="B331" s="13"/>
       <c r="C331" s="13"/>
@@ -5957,7 +6168,7 @@
       <c r="L331" s="13"/>
       <c r="M331" s="13"/>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13">
       <c r="A332" s="13"/>
       <c r="B332" s="13"/>
       <c r="C332" s="13"/>
@@ -5972,7 +6183,7 @@
       <c r="L332" s="13"/>
       <c r="M332" s="13"/>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13">
       <c r="A333" s="13"/>
       <c r="B333" s="13"/>
       <c r="C333" s="13"/>
@@ -5987,7 +6198,7 @@
       <c r="L333" s="13"/>
       <c r="M333" s="13"/>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13">
       <c r="A334" s="13"/>
       <c r="B334" s="13"/>
       <c r="C334" s="13"/>
@@ -6002,7 +6213,7 @@
       <c r="L334" s="13"/>
       <c r="M334" s="13"/>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13">
       <c r="A335" s="13"/>
       <c r="B335" s="13"/>
       <c r="C335" s="13"/>
@@ -6017,7 +6228,7 @@
       <c r="L335" s="13"/>
       <c r="M335" s="13"/>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13">
       <c r="A336" s="13"/>
       <c r="B336" s="13"/>
       <c r="C336" s="13"/>
@@ -6032,7 +6243,7 @@
       <c r="L336" s="13"/>
       <c r="M336" s="13"/>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13">
       <c r="A337" s="13"/>
       <c r="B337" s="13"/>
       <c r="C337" s="13"/>
@@ -6047,7 +6258,7 @@
       <c r="L337" s="13"/>
       <c r="M337" s="13"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13">
       <c r="A338" s="13"/>
       <c r="B338" s="13"/>
       <c r="C338" s="13"/>
@@ -6062,7 +6273,7 @@
       <c r="L338" s="13"/>
       <c r="M338" s="13"/>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13">
       <c r="A339" s="13"/>
       <c r="B339" s="13"/>
       <c r="C339" s="13"/>
@@ -6077,7 +6288,7 @@
       <c r="L339" s="13"/>
       <c r="M339" s="13"/>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13">
       <c r="A340" s="13"/>
       <c r="B340" s="13"/>
       <c r="C340" s="13"/>
@@ -6092,7 +6303,7 @@
       <c r="L340" s="13"/>
       <c r="M340" s="13"/>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13">
       <c r="A341" s="13"/>
       <c r="B341" s="13"/>
       <c r="C341" s="13"/>
@@ -6107,7 +6318,7 @@
       <c r="L341" s="13"/>
       <c r="M341" s="13"/>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13">
       <c r="A342" s="13"/>
       <c r="B342" s="13"/>
       <c r="C342" s="13"/>
@@ -6122,7 +6333,7 @@
       <c r="L342" s="13"/>
       <c r="M342" s="13"/>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13">
       <c r="A343" s="13"/>
       <c r="B343" s="13"/>
       <c r="C343" s="13"/>
@@ -6137,7 +6348,7 @@
       <c r="L343" s="13"/>
       <c r="M343" s="13"/>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13">
       <c r="A344" s="13"/>
       <c r="B344" s="13"/>
       <c r="C344" s="13"/>
@@ -6152,7 +6363,7 @@
       <c r="L344" s="13"/>
       <c r="M344" s="13"/>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13">
       <c r="A345" s="13"/>
       <c r="B345" s="13"/>
       <c r="C345" s="13"/>
@@ -6167,7 +6378,7 @@
       <c r="L345" s="13"/>
       <c r="M345" s="13"/>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13">
       <c r="A346" s="13"/>
       <c r="B346" s="13"/>
       <c r="C346" s="13"/>
@@ -6182,7 +6393,7 @@
       <c r="L346" s="13"/>
       <c r="M346" s="13"/>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13">
       <c r="A347" s="13"/>
       <c r="B347" s="13"/>
       <c r="C347" s="13"/>
@@ -6197,7 +6408,7 @@
       <c r="L347" s="13"/>
       <c r="M347" s="13"/>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13">
       <c r="A348" s="13"/>
       <c r="B348" s="13"/>
       <c r="C348" s="13"/>
@@ -6212,7 +6423,7 @@
       <c r="L348" s="13"/>
       <c r="M348" s="13"/>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13">
       <c r="A349" s="13"/>
       <c r="B349" s="13"/>
       <c r="C349" s="13"/>
@@ -6227,7 +6438,7 @@
       <c r="L349" s="13"/>
       <c r="M349" s="13"/>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13">
       <c r="A350" s="13"/>
       <c r="B350" s="13"/>
       <c r="C350" s="13"/>
@@ -6242,7 +6453,7 @@
       <c r="L350" s="13"/>
       <c r="M350" s="13"/>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13">
       <c r="A351" s="13"/>
       <c r="B351" s="13"/>
       <c r="C351" s="13"/>
@@ -6257,7 +6468,7 @@
       <c r="L351" s="13"/>
       <c r="M351" s="13"/>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13">
       <c r="A352" s="13"/>
       <c r="B352" s="13"/>
       <c r="C352" s="13"/>
@@ -6272,7 +6483,7 @@
       <c r="L352" s="13"/>
       <c r="M352" s="13"/>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13">
       <c r="A353" s="13"/>
       <c r="B353" s="13"/>
       <c r="C353" s="13"/>
@@ -6287,7 +6498,7 @@
       <c r="L353" s="13"/>
       <c r="M353" s="13"/>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13">
       <c r="A354" s="13"/>
       <c r="B354" s="13"/>
       <c r="C354" s="13"/>
@@ -6302,7 +6513,7 @@
       <c r="L354" s="13"/>
       <c r="M354" s="13"/>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13">
       <c r="A355" s="13"/>
       <c r="B355" s="13"/>
       <c r="C355" s="13"/>
@@ -6317,7 +6528,7 @@
       <c r="L355" s="13"/>
       <c r="M355" s="13"/>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13">
       <c r="A356" s="13"/>
       <c r="B356" s="13"/>
       <c r="C356" s="13"/>
@@ -6332,7 +6543,7 @@
       <c r="L356" s="13"/>
       <c r="M356" s="13"/>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13">
       <c r="A357" s="13"/>
       <c r="B357" s="13"/>
       <c r="C357" s="13"/>
@@ -6347,7 +6558,7 @@
       <c r="L357" s="13"/>
       <c r="M357" s="13"/>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13">
       <c r="A358" s="13"/>
       <c r="B358" s="13"/>
       <c r="C358" s="13"/>
@@ -6362,7 +6573,7 @@
       <c r="L358" s="13"/>
       <c r="M358" s="13"/>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13">
       <c r="A359" s="13"/>
       <c r="B359" s="13"/>
       <c r="C359" s="13"/>
@@ -6377,7 +6588,7 @@
       <c r="L359" s="13"/>
       <c r="M359" s="13"/>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13">
       <c r="A360" s="13"/>
       <c r="B360" s="13"/>
       <c r="C360" s="13"/>
@@ -6392,7 +6603,7 @@
       <c r="L360" s="13"/>
       <c r="M360" s="13"/>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13">
       <c r="A361" s="13"/>
       <c r="B361" s="13"/>
       <c r="C361" s="13"/>
@@ -6407,7 +6618,7 @@
       <c r="L361" s="13"/>
       <c r="M361" s="13"/>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13">
       <c r="A362" s="13"/>
       <c r="B362" s="13"/>
       <c r="C362" s="13"/>
@@ -6422,7 +6633,7 @@
       <c r="L362" s="13"/>
       <c r="M362" s="13"/>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13">
       <c r="A363" s="13"/>
       <c r="B363" s="13"/>
       <c r="C363" s="13"/>
@@ -6437,7 +6648,7 @@
       <c r="L363" s="13"/>
       <c r="M363" s="13"/>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13">
       <c r="A364" s="13"/>
       <c r="B364" s="13"/>
       <c r="C364" s="13"/>
@@ -6452,7 +6663,7 @@
       <c r="L364" s="13"/>
       <c r="M364" s="13"/>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13">
       <c r="A365" s="13"/>
       <c r="B365" s="13"/>
       <c r="C365" s="13"/>
@@ -6467,7 +6678,7 @@
       <c r="L365" s="13"/>
       <c r="M365" s="13"/>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13">
       <c r="A366" s="13"/>
       <c r="B366" s="13"/>
       <c r="C366" s="13"/>
@@ -6482,7 +6693,7 @@
       <c r="L366" s="13"/>
       <c r="M366" s="13"/>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13">
       <c r="A367" s="13"/>
       <c r="B367" s="13"/>
       <c r="C367" s="13"/>
@@ -6497,7 +6708,7 @@
       <c r="L367" s="13"/>
       <c r="M367" s="13"/>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13">
       <c r="A368" s="13"/>
       <c r="B368" s="13"/>
       <c r="C368" s="13"/>
@@ -6512,7 +6723,7 @@
       <c r="L368" s="13"/>
       <c r="M368" s="13"/>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13">
       <c r="A369" s="13"/>
       <c r="B369" s="13"/>
       <c r="C369" s="13"/>
@@ -6527,7 +6738,7 @@
       <c r="L369" s="13"/>
       <c r="M369" s="13"/>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13">
       <c r="A370" s="13"/>
       <c r="B370" s="13"/>
       <c r="C370" s="13"/>
@@ -6542,7 +6753,7 @@
       <c r="L370" s="13"/>
       <c r="M370" s="13"/>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13">
       <c r="A371" s="13"/>
       <c r="B371" s="13"/>
       <c r="C371" s="13"/>
@@ -6557,7 +6768,7 @@
       <c r="L371" s="13"/>
       <c r="M371" s="13"/>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13">
       <c r="A372" s="13"/>
       <c r="B372" s="13"/>
       <c r="C372" s="13"/>
@@ -6572,7 +6783,7 @@
       <c r="L372" s="13"/>
       <c r="M372" s="13"/>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13">
       <c r="A373" s="13"/>
       <c r="B373" s="13"/>
       <c r="C373" s="13"/>
@@ -6587,7 +6798,7 @@
       <c r="L373" s="13"/>
       <c r="M373" s="13"/>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13">
       <c r="A374" s="13"/>
       <c r="B374" s="13"/>
       <c r="C374" s="13"/>
@@ -6602,7 +6813,7 @@
       <c r="L374" s="13"/>
       <c r="M374" s="13"/>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13">
       <c r="A375" s="13"/>
       <c r="B375" s="13"/>
       <c r="C375" s="13"/>
@@ -6617,7 +6828,7 @@
       <c r="L375" s="13"/>
       <c r="M375" s="13"/>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13">
       <c r="A376" s="13"/>
       <c r="B376" s="13"/>
       <c r="C376" s="13"/>
@@ -6632,7 +6843,7 @@
       <c r="L376" s="13"/>
       <c r="M376" s="13"/>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13">
       <c r="A377" s="13"/>
       <c r="B377" s="13"/>
       <c r="C377" s="13"/>
@@ -6647,7 +6858,7 @@
       <c r="L377" s="13"/>
       <c r="M377" s="13"/>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13">
       <c r="A378" s="13"/>
       <c r="B378" s="13"/>
       <c r="C378" s="13"/>
@@ -6662,7 +6873,7 @@
       <c r="L378" s="13"/>
       <c r="M378" s="13"/>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13">
       <c r="A379" s="13"/>
       <c r="B379" s="13"/>
       <c r="C379" s="13"/>
@@ -6677,7 +6888,7 @@
       <c r="L379" s="13"/>
       <c r="M379" s="13"/>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13">
       <c r="A380" s="13"/>
       <c r="B380" s="13"/>
       <c r="C380" s="13"/>
@@ -6692,7 +6903,7 @@
       <c r="L380" s="13"/>
       <c r="M380" s="13"/>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13">
       <c r="A381" s="13"/>
       <c r="B381" s="13"/>
       <c r="C381" s="13"/>
@@ -6707,7 +6918,7 @@
       <c r="L381" s="13"/>
       <c r="M381" s="13"/>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13">
       <c r="A382" s="13"/>
       <c r="B382" s="13"/>
       <c r="C382" s="13"/>
@@ -6722,7 +6933,7 @@
       <c r="L382" s="13"/>
       <c r="M382" s="13"/>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13">
       <c r="A383" s="13"/>
       <c r="B383" s="13"/>
       <c r="C383" s="13"/>
@@ -6737,7 +6948,7 @@
       <c r="L383" s="13"/>
       <c r="M383" s="13"/>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13">
       <c r="A384" s="13"/>
       <c r="B384" s="13"/>
       <c r="C384" s="13"/>
@@ -6752,7 +6963,7 @@
       <c r="L384" s="13"/>
       <c r="M384" s="13"/>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13">
       <c r="A385" s="13"/>
       <c r="B385" s="13"/>
       <c r="C385" s="13"/>
@@ -6767,7 +6978,7 @@
       <c r="L385" s="13"/>
       <c r="M385" s="13"/>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13">
       <c r="A386" s="13"/>
       <c r="B386" s="13"/>
       <c r="C386" s="13"/>
@@ -6782,7 +6993,7 @@
       <c r="L386" s="13"/>
       <c r="M386" s="13"/>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13">
       <c r="A387" s="13"/>
       <c r="B387" s="13"/>
       <c r="C387" s="13"/>
@@ -6797,7 +7008,7 @@
       <c r="L387" s="13"/>
       <c r="M387" s="13"/>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13">
       <c r="A388" s="13"/>
       <c r="B388" s="13"/>
       <c r="C388" s="13"/>
@@ -6812,7 +7023,7 @@
       <c r="L388" s="13"/>
       <c r="M388" s="13"/>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13">
       <c r="A389" s="13"/>
       <c r="B389" s="13"/>
       <c r="C389" s="13"/>
@@ -6827,7 +7038,7 @@
       <c r="L389" s="13"/>
       <c r="M389" s="13"/>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13">
       <c r="A390" s="13"/>
       <c r="B390" s="13"/>
       <c r="C390" s="13"/>
@@ -6842,7 +7053,7 @@
       <c r="L390" s="13"/>
       <c r="M390" s="13"/>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13">
       <c r="A391" s="13"/>
       <c r="B391" s="13"/>
       <c r="C391" s="13"/>
@@ -6857,7 +7068,7 @@
       <c r="L391" s="13"/>
       <c r="M391" s="13"/>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13">
       <c r="A392" s="13"/>
       <c r="B392" s="13"/>
       <c r="C392" s="13"/>
@@ -6872,7 +7083,7 @@
       <c r="L392" s="13"/>
       <c r="M392" s="13"/>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13">
       <c r="A393" s="13"/>
       <c r="B393" s="13"/>
       <c r="C393" s="13"/>
@@ -6887,7 +7098,7 @@
       <c r="L393" s="13"/>
       <c r="M393" s="13"/>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13">
       <c r="A394" s="13"/>
       <c r="B394" s="13"/>
       <c r="C394" s="13"/>
@@ -6902,7 +7113,7 @@
       <c r="L394" s="13"/>
       <c r="M394" s="13"/>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13">
       <c r="A395" s="13"/>
       <c r="B395" s="13"/>
       <c r="C395" s="13"/>
@@ -6917,7 +7128,7 @@
       <c r="L395" s="13"/>
       <c r="M395" s="13"/>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13">
       <c r="A396" s="13"/>
       <c r="B396" s="13"/>
       <c r="C396" s="13"/>
@@ -6932,7 +7143,7 @@
       <c r="L396" s="13"/>
       <c r="M396" s="13"/>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13">
       <c r="A397" s="13"/>
       <c r="B397" s="13"/>
       <c r="C397" s="13"/>
@@ -6947,7 +7158,7 @@
       <c r="L397" s="13"/>
       <c r="M397" s="13"/>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13">
       <c r="A398" s="13"/>
       <c r="B398" s="13"/>
       <c r="C398" s="13"/>
@@ -6962,7 +7173,7 @@
       <c r="L398" s="13"/>
       <c r="M398" s="13"/>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:13">
       <c r="A399" s="13"/>
       <c r="B399" s="13"/>
       <c r="C399" s="13"/>
@@ -6977,7 +7188,7 @@
       <c r="L399" s="13"/>
       <c r="M399" s="13"/>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:13">
       <c r="A400" s="13"/>
       <c r="B400" s="13"/>
       <c r="C400" s="13"/>
@@ -6992,7 +7203,7 @@
       <c r="L400" s="13"/>
       <c r="M400" s="13"/>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:13">
       <c r="A401" s="13"/>
       <c r="B401" s="13"/>
       <c r="C401" s="13"/>
@@ -7007,7 +7218,7 @@
       <c r="L401" s="13"/>
       <c r="M401" s="13"/>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:13">
       <c r="A402" s="13"/>
       <c r="B402" s="13"/>
       <c r="C402" s="13"/>
@@ -7022,7 +7233,7 @@
       <c r="L402" s="13"/>
       <c r="M402" s="13"/>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:13">
       <c r="A403" s="13"/>
       <c r="B403" s="13"/>
       <c r="C403" s="13"/>
@@ -7037,7 +7248,7 @@
       <c r="L403" s="13"/>
       <c r="M403" s="13"/>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:13">
       <c r="A404" s="13"/>
       <c r="B404" s="13"/>
       <c r="C404" s="13"/>
@@ -7052,7 +7263,7 @@
       <c r="L404" s="13"/>
       <c r="M404" s="13"/>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:13">
       <c r="A405" s="13"/>
       <c r="B405" s="13"/>
       <c r="C405" s="13"/>
@@ -7067,7 +7278,7 @@
       <c r="L405" s="13"/>
       <c r="M405" s="13"/>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:13">
       <c r="A406" s="13"/>
       <c r="B406" s="13"/>
       <c r="C406" s="13"/>
@@ -7082,7 +7293,7 @@
       <c r="L406" s="13"/>
       <c r="M406" s="13"/>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:13">
       <c r="A407" s="13"/>
       <c r="B407" s="13"/>
       <c r="C407" s="13"/>
@@ -7097,7 +7308,7 @@
       <c r="L407" s="13"/>
       <c r="M407" s="13"/>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13">
       <c r="A408" s="13"/>
       <c r="B408" s="13"/>
       <c r="C408" s="13"/>
@@ -7112,7 +7323,7 @@
       <c r="L408" s="13"/>
       <c r="M408" s="13"/>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:13">
       <c r="A409" s="13"/>
       <c r="B409" s="13"/>
       <c r="C409" s="13"/>
@@ -7127,7 +7338,7 @@
       <c r="L409" s="13"/>
       <c r="M409" s="13"/>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:13">
       <c r="A410" s="13"/>
       <c r="B410" s="13"/>
       <c r="C410" s="13"/>
@@ -7142,7 +7353,7 @@
       <c r="L410" s="13"/>
       <c r="M410" s="13"/>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:13">
       <c r="A411" s="13"/>
       <c r="B411" s="13"/>
       <c r="C411" s="13"/>
@@ -7157,7 +7368,7 @@
       <c r="L411" s="13"/>
       <c r="M411" s="13"/>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:13">
       <c r="A412" s="13"/>
       <c r="B412" s="13"/>
       <c r="C412" s="13"/>
@@ -7172,7 +7383,7 @@
       <c r="L412" s="13"/>
       <c r="M412" s="13"/>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:13">
       <c r="A413" s="13"/>
       <c r="B413" s="13"/>
       <c r="C413" s="13"/>
@@ -7187,7 +7398,7 @@
       <c r="L413" s="13"/>
       <c r="M413" s="13"/>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:13">
       <c r="A414" s="13"/>
       <c r="B414" s="13"/>
       <c r="C414" s="13"/>
@@ -7202,7 +7413,7 @@
       <c r="L414" s="13"/>
       <c r="M414" s="13"/>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:13">
       <c r="A415" s="13"/>
       <c r="B415" s="13"/>
       <c r="C415" s="13"/>
@@ -7217,7 +7428,7 @@
       <c r="L415" s="13"/>
       <c r="M415" s="13"/>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:13">
       <c r="A416" s="13"/>
       <c r="B416" s="13"/>
       <c r="C416" s="13"/>
@@ -7232,7 +7443,7 @@
       <c r="L416" s="13"/>
       <c r="M416" s="13"/>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:13">
       <c r="A417" s="13"/>
       <c r="B417" s="13"/>
       <c r="C417" s="13"/>
@@ -7247,7 +7458,7 @@
       <c r="L417" s="13"/>
       <c r="M417" s="13"/>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:13">
       <c r="A418" s="13"/>
       <c r="B418" s="13"/>
       <c r="C418" s="13"/>
@@ -7262,7 +7473,7 @@
       <c r="L418" s="13"/>
       <c r="M418" s="13"/>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:13">
       <c r="A419" s="13"/>
       <c r="B419" s="13"/>
       <c r="C419" s="13"/>
@@ -7277,7 +7488,7 @@
       <c r="L419" s="13"/>
       <c r="M419" s="13"/>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:13">
       <c r="A420" s="13"/>
       <c r="B420" s="13"/>
       <c r="C420" s="13"/>
@@ -7292,7 +7503,7 @@
       <c r="L420" s="13"/>
       <c r="M420" s="13"/>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:13">
       <c r="A421" s="13"/>
       <c r="B421" s="13"/>
       <c r="C421" s="13"/>
@@ -7307,7 +7518,7 @@
       <c r="L421" s="13"/>
       <c r="M421" s="13"/>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:13">
       <c r="A422" s="13"/>
       <c r="B422" s="13"/>
       <c r="C422" s="13"/>
@@ -7322,7 +7533,7 @@
       <c r="L422" s="13"/>
       <c r="M422" s="13"/>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:13">
       <c r="A423" s="13"/>
       <c r="B423" s="13"/>
       <c r="C423" s="13"/>
@@ -7337,7 +7548,7 @@
       <c r="L423" s="13"/>
       <c r="M423" s="13"/>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:13">
       <c r="A424" s="13"/>
       <c r="B424" s="13"/>
       <c r="C424" s="13"/>
@@ -7352,7 +7563,7 @@
       <c r="L424" s="13"/>
       <c r="M424" s="13"/>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:13">
       <c r="A425" s="13"/>
       <c r="B425" s="13"/>
       <c r="C425" s="13"/>
@@ -7367,7 +7578,7 @@
       <c r="L425" s="13"/>
       <c r="M425" s="13"/>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:13">
       <c r="A426" s="13"/>
       <c r="B426" s="13"/>
       <c r="C426" s="13"/>
@@ -7382,7 +7593,7 @@
       <c r="L426" s="13"/>
       <c r="M426" s="13"/>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:13">
       <c r="A427" s="13"/>
       <c r="B427" s="13"/>
       <c r="C427" s="13"/>
@@ -7397,7 +7608,7 @@
       <c r="L427" s="13"/>
       <c r="M427" s="13"/>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:13">
       <c r="A428" s="13"/>
       <c r="B428" s="13"/>
       <c r="C428" s="13"/>
@@ -7412,7 +7623,7 @@
       <c r="L428" s="13"/>
       <c r="M428" s="13"/>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:13">
       <c r="A429" s="13"/>
       <c r="B429" s="13"/>
       <c r="C429" s="13"/>
@@ -7427,7 +7638,7 @@
       <c r="L429" s="13"/>
       <c r="M429" s="13"/>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:13">
       <c r="A430" s="13"/>
       <c r="B430" s="13"/>
       <c r="C430" s="13"/>
@@ -7442,7 +7653,7 @@
       <c r="L430" s="13"/>
       <c r="M430" s="13"/>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:13">
       <c r="A431" s="13"/>
       <c r="B431" s="13"/>
       <c r="C431" s="13"/>
@@ -7457,7 +7668,7 @@
       <c r="L431" s="13"/>
       <c r="M431" s="13"/>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:13">
       <c r="A432" s="13"/>
       <c r="B432" s="13"/>
       <c r="C432" s="13"/>
@@ -7472,7 +7683,7 @@
       <c r="L432" s="13"/>
       <c r="M432" s="13"/>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13">
       <c r="A433" s="13"/>
       <c r="B433" s="13"/>
       <c r="C433" s="13"/>
@@ -7487,7 +7698,7 @@
       <c r="L433" s="13"/>
       <c r="M433" s="13"/>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:13">
       <c r="A434" s="13"/>
       <c r="B434" s="13"/>
       <c r="C434" s="13"/>
@@ -7502,7 +7713,7 @@
       <c r="L434" s="13"/>
       <c r="M434" s="13"/>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:13">
       <c r="A435" s="13"/>
       <c r="B435" s="13"/>
       <c r="C435" s="13"/>
@@ -7517,7 +7728,7 @@
       <c r="L435" s="13"/>
       <c r="M435" s="13"/>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:13">
       <c r="A436" s="13"/>
       <c r="B436" s="13"/>
       <c r="C436" s="13"/>
@@ -7532,7 +7743,7 @@
       <c r="L436" s="13"/>
       <c r="M436" s="13"/>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13">
       <c r="A437" s="13"/>
       <c r="B437" s="13"/>
       <c r="C437" s="13"/>
@@ -7547,7 +7758,7 @@
       <c r="L437" s="13"/>
       <c r="M437" s="13"/>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13">
       <c r="A438" s="13"/>
       <c r="B438" s="13"/>
       <c r="C438" s="13"/>
@@ -7562,7 +7773,7 @@
       <c r="L438" s="13"/>
       <c r="M438" s="13"/>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13">
       <c r="A439" s="13"/>
       <c r="B439" s="13"/>
       <c r="C439" s="13"/>
@@ -7577,7 +7788,7 @@
       <c r="L439" s="13"/>
       <c r="M439" s="13"/>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13">
       <c r="A440" s="13"/>
       <c r="B440" s="13"/>
       <c r="C440" s="13"/>
@@ -7592,7 +7803,7 @@
       <c r="L440" s="13"/>
       <c r="M440" s="13"/>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13">
       <c r="A441" s="13"/>
       <c r="B441" s="13"/>
       <c r="C441" s="13"/>
@@ -7607,7 +7818,7 @@
       <c r="L441" s="13"/>
       <c r="M441" s="13"/>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:13">
       <c r="A442" s="13"/>
       <c r="B442" s="13"/>
       <c r="C442" s="13"/>
@@ -7622,7 +7833,7 @@
       <c r="L442" s="13"/>
       <c r="M442" s="13"/>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:13">
       <c r="A443" s="13"/>
       <c r="B443" s="13"/>
       <c r="C443" s="13"/>
@@ -7637,7 +7848,7 @@
       <c r="L443" s="13"/>
       <c r="M443" s="13"/>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13">
       <c r="A444" s="13"/>
       <c r="B444" s="13"/>
       <c r="C444" s="13"/>
@@ -7652,7 +7863,7 @@
       <c r="L444" s="13"/>
       <c r="M444" s="13"/>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13">
       <c r="A445" s="13"/>
       <c r="B445" s="13"/>
       <c r="C445" s="13"/>
@@ -7667,7 +7878,7 @@
       <c r="L445" s="13"/>
       <c r="M445" s="13"/>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13">
       <c r="A446" s="13"/>
       <c r="B446" s="13"/>
       <c r="C446" s="13"/>
@@ -7682,7 +7893,7 @@
       <c r="L446" s="13"/>
       <c r="M446" s="13"/>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13">
       <c r="A447" s="13"/>
       <c r="B447" s="13"/>
       <c r="C447" s="13"/>
@@ -7697,7 +7908,7 @@
       <c r="L447" s="13"/>
       <c r="M447" s="13"/>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13">
       <c r="A448" s="13"/>
       <c r="B448" s="13"/>
       <c r="C448" s="13"/>
@@ -7712,7 +7923,7 @@
       <c r="L448" s="13"/>
       <c r="M448" s="13"/>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:13">
       <c r="A449" s="13"/>
       <c r="B449" s="13"/>
       <c r="C449" s="13"/>
@@ -7727,7 +7938,7 @@
       <c r="L449" s="13"/>
       <c r="M449" s="13"/>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:13">
       <c r="A450" s="13"/>
       <c r="B450" s="13"/>
       <c r="C450" s="13"/>
@@ -7742,7 +7953,7 @@
       <c r="L450" s="13"/>
       <c r="M450" s="13"/>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:13">
       <c r="A451" s="13"/>
       <c r="B451" s="13"/>
       <c r="C451" s="13"/>
@@ -7757,7 +7968,7 @@
       <c r="L451" s="13"/>
       <c r="M451" s="13"/>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:13">
       <c r="A452" s="13"/>
       <c r="B452" s="13"/>
       <c r="C452" s="13"/>
@@ -7772,7 +7983,7 @@
       <c r="L452" s="13"/>
       <c r="M452" s="13"/>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:13">
       <c r="A453" s="13"/>
       <c r="B453" s="13"/>
       <c r="C453" s="13"/>
@@ -7787,7 +7998,7 @@
       <c r="L453" s="13"/>
       <c r="M453" s="13"/>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:13">
       <c r="A454" s="13"/>
       <c r="B454" s="13"/>
       <c r="C454" s="13"/>
@@ -7802,7 +8013,7 @@
       <c r="L454" s="13"/>
       <c r="M454" s="13"/>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:13">
       <c r="A455" s="13"/>
       <c r="B455" s="13"/>
       <c r="C455" s="13"/>
@@ -7817,7 +8028,7 @@
       <c r="L455" s="13"/>
       <c r="M455" s="13"/>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:13">
       <c r="A456" s="13"/>
       <c r="B456" s="13"/>
       <c r="C456" s="13"/>
@@ -7832,7 +8043,7 @@
       <c r="L456" s="13"/>
       <c r="M456" s="13"/>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:13">
       <c r="A457" s="13"/>
       <c r="B457" s="13"/>
       <c r="C457" s="13"/>
@@ -7847,7 +8058,7 @@
       <c r="L457" s="13"/>
       <c r="M457" s="13"/>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:13">
       <c r="A458" s="13"/>
       <c r="B458" s="13"/>
       <c r="C458" s="13"/>
@@ -7862,7 +8073,7 @@
       <c r="L458" s="13"/>
       <c r="M458" s="13"/>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:13">
       <c r="A459" s="13"/>
       <c r="B459" s="13"/>
       <c r="C459" s="13"/>
@@ -7877,7 +8088,7 @@
       <c r="L459" s="13"/>
       <c r="M459" s="13"/>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:13">
       <c r="A460" s="13"/>
       <c r="B460" s="13"/>
       <c r="C460" s="13"/>
@@ -7892,7 +8103,7 @@
       <c r="L460" s="13"/>
       <c r="M460" s="13"/>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:13">
       <c r="A461" s="13"/>
       <c r="B461" s="13"/>
       <c r="C461" s="13"/>
@@ -7907,7 +8118,7 @@
       <c r="L461" s="13"/>
       <c r="M461" s="13"/>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:13">
       <c r="A462" s="13"/>
       <c r="B462" s="13"/>
       <c r="C462" s="13"/>
@@ -7922,7 +8133,7 @@
       <c r="L462" s="13"/>
       <c r="M462" s="13"/>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:13">
       <c r="A463" s="13"/>
       <c r="B463" s="13"/>
       <c r="C463" s="13"/>
@@ -7937,7 +8148,7 @@
       <c r="L463" s="13"/>
       <c r="M463" s="13"/>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:13">
       <c r="A464" s="13"/>
       <c r="B464" s="13"/>
       <c r="C464" s="13"/>
@@ -7952,7 +8163,7 @@
       <c r="L464" s="13"/>
       <c r="M464" s="13"/>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:13">
       <c r="A465" s="13"/>
       <c r="B465" s="13"/>
       <c r="C465" s="13"/>
@@ -7967,7 +8178,7 @@
       <c r="L465" s="13"/>
       <c r="M465" s="13"/>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:13">
       <c r="A466" s="13"/>
       <c r="B466" s="13"/>
       <c r="C466" s="13"/>
@@ -7982,7 +8193,7 @@
       <c r="L466" s="13"/>
       <c r="M466" s="13"/>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:13">
       <c r="A467" s="13"/>
       <c r="B467" s="13"/>
       <c r="C467" s="13"/>
@@ -7997,7 +8208,7 @@
       <c r="L467" s="13"/>
       <c r="M467" s="13"/>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:13">
       <c r="A468" s="13"/>
       <c r="B468" s="13"/>
       <c r="C468" s="13"/>
@@ -8012,7 +8223,7 @@
       <c r="L468" s="13"/>
       <c r="M468" s="13"/>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:13">
       <c r="A469" s="13"/>
       <c r="B469" s="13"/>
       <c r="C469" s="13"/>
@@ -8027,7 +8238,7 @@
       <c r="L469" s="13"/>
       <c r="M469" s="13"/>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:13">
       <c r="A470" s="13"/>
       <c r="B470" s="13"/>
       <c r="C470" s="13"/>
@@ -8042,7 +8253,7 @@
       <c r="L470" s="13"/>
       <c r="M470" s="13"/>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:13">
       <c r="A471" s="13"/>
       <c r="B471" s="13"/>
       <c r="C471" s="13"/>
@@ -8057,7 +8268,7 @@
       <c r="L471" s="13"/>
       <c r="M471" s="13"/>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:13">
       <c r="A472" s="13"/>
       <c r="B472" s="13"/>
       <c r="C472" s="13"/>
@@ -8072,7 +8283,7 @@
       <c r="L472" s="13"/>
       <c r="M472" s="13"/>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:13">
       <c r="A473" s="13"/>
       <c r="B473" s="13"/>
       <c r="C473" s="13"/>
@@ -8087,7 +8298,7 @@
       <c r="L473" s="13"/>
       <c r="M473" s="13"/>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:13">
       <c r="A474" s="13"/>
       <c r="B474" s="13"/>
       <c r="C474" s="13"/>
@@ -8102,7 +8313,7 @@
       <c r="L474" s="13"/>
       <c r="M474" s="13"/>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:13">
       <c r="A475" s="13"/>
       <c r="B475" s="13"/>
       <c r="C475" s="13"/>
@@ -8117,7 +8328,7 @@
       <c r="L475" s="13"/>
       <c r="M475" s="13"/>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:13">
       <c r="A476" s="13"/>
       <c r="B476" s="13"/>
       <c r="C476" s="13"/>
@@ -8132,7 +8343,7 @@
       <c r="L476" s="13"/>
       <c r="M476" s="13"/>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:13">
       <c r="A477" s="13"/>
       <c r="B477" s="13"/>
       <c r="C477" s="13"/>
@@ -8147,7 +8358,7 @@
       <c r="L477" s="13"/>
       <c r="M477" s="13"/>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:13">
       <c r="A478" s="13"/>
       <c r="B478" s="13"/>
       <c r="C478" s="13"/>
@@ -8162,7 +8373,7 @@
       <c r="L478" s="13"/>
       <c r="M478" s="13"/>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:13">
       <c r="A479" s="13"/>
       <c r="B479" s="13"/>
       <c r="C479" s="13"/>
@@ -8177,7 +8388,7 @@
       <c r="L479" s="13"/>
       <c r="M479" s="13"/>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:13">
       <c r="A480" s="13"/>
       <c r="B480" s="13"/>
       <c r="C480" s="13"/>
@@ -8192,7 +8403,7 @@
       <c r="L480" s="13"/>
       <c r="M480" s="13"/>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:13">
       <c r="A481" s="13"/>
       <c r="B481" s="13"/>
       <c r="C481" s="13"/>
@@ -8207,7 +8418,7 @@
       <c r="L481" s="13"/>
       <c r="M481" s="13"/>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:13">
       <c r="A482" s="13"/>
       <c r="B482" s="13"/>
       <c r="C482" s="13"/>
@@ -8222,7 +8433,7 @@
       <c r="L482" s="13"/>
       <c r="M482" s="13"/>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:13">
       <c r="A483" s="13"/>
       <c r="B483" s="13"/>
       <c r="C483" s="13"/>
@@ -8237,7 +8448,7 @@
       <c r="L483" s="13"/>
       <c r="M483" s="13"/>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:13">
       <c r="A484" s="13"/>
       <c r="B484" s="13"/>
       <c r="C484" s="13"/>
@@ -8252,7 +8463,7 @@
       <c r="L484" s="13"/>
       <c r="M484" s="13"/>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:13">
       <c r="A485" s="13"/>
       <c r="B485" s="13"/>
       <c r="C485" s="13"/>
@@ -8267,7 +8478,7 @@
       <c r="L485" s="13"/>
       <c r="M485" s="13"/>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:13">
       <c r="A486" s="13"/>
       <c r="B486" s="13"/>
       <c r="C486" s="13"/>
@@ -8282,7 +8493,7 @@
       <c r="L486" s="13"/>
       <c r="M486" s="13"/>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:13">
       <c r="A487" s="13"/>
       <c r="B487" s="13"/>
       <c r="C487" s="13"/>
@@ -8297,7 +8508,7 @@
       <c r="L487" s="13"/>
       <c r="M487" s="13"/>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:13">
       <c r="A488" s="13"/>
       <c r="B488" s="13"/>
       <c r="C488" s="13"/>
@@ -8312,7 +8523,7 @@
       <c r="L488" s="13"/>
       <c r="M488" s="13"/>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:13">
       <c r="A489" s="13"/>
       <c r="B489" s="13"/>
       <c r="C489" s="13"/>
@@ -8327,7 +8538,7 @@
       <c r="L489" s="13"/>
       <c r="M489" s="13"/>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:13">
       <c r="A490" s="13"/>
       <c r="B490" s="13"/>
       <c r="C490" s="13"/>
@@ -8342,7 +8553,7 @@
       <c r="L490" s="13"/>
       <c r="M490" s="13"/>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:13">
       <c r="A491" s="13"/>
       <c r="B491" s="13"/>
       <c r="C491" s="13"/>
@@ -8357,7 +8568,7 @@
       <c r="L491" s="13"/>
       <c r="M491" s="13"/>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:13">
       <c r="A492" s="13"/>
       <c r="B492" s="13"/>
       <c r="C492" s="13"/>
@@ -8372,7 +8583,7 @@
       <c r="L492" s="13"/>
       <c r="M492" s="13"/>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:13">
       <c r="A493" s="13"/>
       <c r="B493" s="13"/>
       <c r="C493" s="13"/>
@@ -8387,7 +8598,7 @@
       <c r="L493" s="13"/>
       <c r="M493" s="13"/>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:13">
       <c r="A494" s="13"/>
       <c r="B494" s="13"/>
       <c r="C494" s="13"/>
@@ -8402,7 +8613,7 @@
       <c r="L494" s="13"/>
       <c r="M494" s="13"/>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:13">
       <c r="A495" s="13"/>
       <c r="B495" s="13"/>
       <c r="C495" s="13"/>
@@ -8417,7 +8628,7 @@
       <c r="L495" s="13"/>
       <c r="M495" s="13"/>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:13">
       <c r="A496" s="13"/>
       <c r="B496" s="13"/>
       <c r="C496" s="13"/>
@@ -8432,7 +8643,7 @@
       <c r="L496" s="13"/>
       <c r="M496" s="13"/>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:13">
       <c r="A497" s="13"/>
       <c r="B497" s="13"/>
       <c r="C497" s="13"/>
@@ -8447,7 +8658,7 @@
       <c r="L497" s="13"/>
       <c r="M497" s="13"/>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:13">
       <c r="A498" s="13"/>
       <c r="B498" s="13"/>
       <c r="C498" s="13"/>
@@ -8462,7 +8673,7 @@
       <c r="L498" s="13"/>
       <c r="M498" s="13"/>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:13">
       <c r="A499" s="13"/>
       <c r="B499" s="13"/>
       <c r="C499" s="13"/>
@@ -8477,7 +8688,7 @@
       <c r="L499" s="13"/>
       <c r="M499" s="13"/>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:13">
       <c r="A500" s="13"/>
       <c r="B500" s="13"/>
       <c r="C500" s="13"/>
@@ -8492,7 +8703,7 @@
       <c r="L500" s="13"/>
       <c r="M500" s="13"/>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:13">
       <c r="A501" s="13"/>
       <c r="B501" s="13"/>
       <c r="C501" s="13"/>
@@ -8507,7 +8718,7 @@
       <c r="L501" s="13"/>
       <c r="M501" s="13"/>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:13">
       <c r="A502" s="13"/>
       <c r="B502" s="13"/>
       <c r="C502" s="13"/>
@@ -8522,7 +8733,7 @@
       <c r="L502" s="13"/>
       <c r="M502" s="13"/>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:13">
       <c r="A503" s="13"/>
       <c r="B503" s="13"/>
       <c r="C503" s="13"/>
@@ -8537,7 +8748,7 @@
       <c r="L503" s="13"/>
       <c r="M503" s="13"/>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:13">
       <c r="A504" s="13"/>
       <c r="B504" s="13"/>
       <c r="C504" s="13"/>
@@ -8552,7 +8763,7 @@
       <c r="L504" s="13"/>
       <c r="M504" s="13"/>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:13">
       <c r="A505" s="13"/>
       <c r="B505" s="13"/>
       <c r="C505" s="13"/>
@@ -8567,7 +8778,7 @@
       <c r="L505" s="13"/>
       <c r="M505" s="13"/>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:13">
       <c r="A506" s="13"/>
       <c r="B506" s="13"/>
       <c r="C506" s="13"/>
@@ -8582,7 +8793,7 @@
       <c r="L506" s="13"/>
       <c r="M506" s="13"/>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:13">
       <c r="A507" s="13"/>
       <c r="B507" s="13"/>
       <c r="C507" s="13"/>
@@ -8597,7 +8808,7 @@
       <c r="L507" s="13"/>
       <c r="M507" s="13"/>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:13">
       <c r="A508" s="13"/>
       <c r="B508" s="13"/>
       <c r="C508" s="13"/>
@@ -8612,7 +8823,7 @@
       <c r="L508" s="13"/>
       <c r="M508" s="13"/>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:13">
       <c r="A509" s="13"/>
       <c r="B509" s="13"/>
       <c r="C509" s="13"/>
@@ -8627,7 +8838,7 @@
       <c r="L509" s="13"/>
       <c r="M509" s="13"/>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:13">
       <c r="A510" s="13"/>
       <c r="B510" s="13"/>
       <c r="C510" s="13"/>
@@ -8642,7 +8853,7 @@
       <c r="L510" s="13"/>
       <c r="M510" s="13"/>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:13">
       <c r="A511" s="13"/>
       <c r="B511" s="13"/>
       <c r="C511" s="13"/>
@@ -8657,7 +8868,7 @@
       <c r="L511" s="13"/>
       <c r="M511" s="13"/>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:13">
       <c r="A512" s="13"/>
       <c r="B512" s="13"/>
       <c r="C512" s="13"/>
@@ -8672,7 +8883,7 @@
       <c r="L512" s="13"/>
       <c r="M512" s="13"/>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:13">
       <c r="A513" s="13"/>
       <c r="B513" s="13"/>
       <c r="C513" s="13"/>
@@ -8687,7 +8898,7 @@
       <c r="L513" s="13"/>
       <c r="M513" s="13"/>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:13">
       <c r="A514" s="13"/>
       <c r="B514" s="13"/>
       <c r="C514" s="13"/>
@@ -8702,7 +8913,7 @@
       <c r="L514" s="13"/>
       <c r="M514" s="13"/>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:13">
       <c r="A515" s="13"/>
       <c r="B515" s="13"/>
       <c r="C515" s="13"/>
@@ -8717,7 +8928,7 @@
       <c r="L515" s="13"/>
       <c r="M515" s="13"/>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:13">
       <c r="A516" s="13"/>
       <c r="B516" s="13"/>
       <c r="C516" s="13"/>
@@ -8732,7 +8943,7 @@
       <c r="L516" s="13"/>
       <c r="M516" s="13"/>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:13">
       <c r="A517" s="13"/>
       <c r="B517" s="13"/>
       <c r="C517" s="13"/>
@@ -8747,7 +8958,7 @@
       <c r="L517" s="13"/>
       <c r="M517" s="13"/>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:13">
       <c r="A518" s="13"/>
       <c r="B518" s="13"/>
       <c r="C518" s="13"/>
@@ -8762,7 +8973,7 @@
       <c r="L518" s="13"/>
       <c r="M518" s="13"/>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:13">
       <c r="A519" s="13"/>
       <c r="B519" s="13"/>
       <c r="C519" s="13"/>
@@ -8777,7 +8988,7 @@
       <c r="L519" s="13"/>
       <c r="M519" s="13"/>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:13">
       <c r="A520" s="13"/>
       <c r="B520" s="13"/>
       <c r="C520" s="13"/>
@@ -8792,7 +9003,7 @@
       <c r="L520" s="13"/>
       <c r="M520" s="13"/>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:13">
       <c r="A521" s="13"/>
       <c r="B521" s="13"/>
       <c r="C521" s="13"/>
@@ -8807,7 +9018,7 @@
       <c r="L521" s="13"/>
       <c r="M521" s="13"/>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:13">
       <c r="A522" s="13"/>
       <c r="B522" s="13"/>
       <c r="C522" s="13"/>
@@ -8822,7 +9033,7 @@
       <c r="L522" s="13"/>
       <c r="M522" s="13"/>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:13">
       <c r="A523" s="13"/>
       <c r="B523" s="13"/>
       <c r="C523" s="13"/>
@@ -8837,7 +9048,7 @@
       <c r="L523" s="13"/>
       <c r="M523" s="13"/>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:13">
       <c r="A524" s="13"/>
       <c r="B524" s="13"/>
       <c r="C524" s="13"/>
@@ -8852,7 +9063,7 @@
       <c r="L524" s="13"/>
       <c r="M524" s="13"/>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:13">
       <c r="A525" s="13"/>
       <c r="B525" s="13"/>
       <c r="C525" s="13"/>
@@ -8867,7 +9078,7 @@
       <c r="L525" s="13"/>
       <c r="M525" s="13"/>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:13">
       <c r="A526" s="13"/>
       <c r="B526" s="13"/>
       <c r="C526" s="13"/>
@@ -8882,7 +9093,7 @@
       <c r="L526" s="13"/>
       <c r="M526" s="13"/>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:13">
       <c r="A527" s="13"/>
       <c r="B527" s="13"/>
       <c r="C527" s="13"/>
@@ -8897,7 +9108,7 @@
       <c r="L527" s="13"/>
       <c r="M527" s="13"/>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:13">
       <c r="A528" s="13"/>
       <c r="B528" s="13"/>
       <c r="C528" s="13"/>
@@ -8912,7 +9123,7 @@
       <c r="L528" s="13"/>
       <c r="M528" s="13"/>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:13">
       <c r="A529" s="13"/>
       <c r="B529" s="13"/>
       <c r="C529" s="13"/>
@@ -8927,7 +9138,7 @@
       <c r="L529" s="13"/>
       <c r="M529" s="13"/>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:13">
       <c r="A530" s="13"/>
       <c r="B530" s="13"/>
       <c r="C530" s="13"/>
@@ -8942,7 +9153,7 @@
       <c r="L530" s="13"/>
       <c r="M530" s="13"/>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:13">
       <c r="A531" s="13"/>
       <c r="B531" s="13"/>
       <c r="C531" s="13"/>
@@ -8957,7 +9168,7 @@
       <c r="L531" s="13"/>
       <c r="M531" s="13"/>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:13">
       <c r="A532" s="13"/>
       <c r="B532" s="13"/>
       <c r="C532" s="13"/>
@@ -8972,7 +9183,7 @@
       <c r="L532" s="13"/>
       <c r="M532" s="13"/>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:13">
       <c r="A533" s="13"/>
       <c r="B533" s="13"/>
       <c r="C533" s="13"/>
@@ -8987,7 +9198,7 @@
       <c r="L533" s="13"/>
       <c r="M533" s="13"/>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:13">
       <c r="A534" s="13"/>
       <c r="B534" s="13"/>
       <c r="C534" s="13"/>
@@ -9002,7 +9213,7 @@
       <c r="L534" s="13"/>
       <c r="M534" s="13"/>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:13">
       <c r="A535" s="13"/>
       <c r="B535" s="13"/>
       <c r="C535" s="13"/>
@@ -9017,7 +9228,7 @@
       <c r="L535" s="13"/>
       <c r="M535" s="13"/>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:13">
       <c r="A536" s="13"/>
       <c r="B536" s="13"/>
       <c r="C536" s="13"/>
@@ -9032,7 +9243,7 @@
       <c r="L536" s="13"/>
       <c r="M536" s="13"/>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:13">
       <c r="A537" s="13"/>
       <c r="B537" s="13"/>
       <c r="C537" s="13"/>
@@ -9047,7 +9258,7 @@
       <c r="L537" s="13"/>
       <c r="M537" s="13"/>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:13">
       <c r="A538" s="13"/>
       <c r="B538" s="13"/>
       <c r="C538" s="13"/>
@@ -9062,7 +9273,7 @@
       <c r="L538" s="13"/>
       <c r="M538" s="13"/>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:13">
       <c r="A539" s="13"/>
       <c r="B539" s="13"/>
       <c r="C539" s="13"/>
@@ -9077,7 +9288,7 @@
       <c r="L539" s="13"/>
       <c r="M539" s="13"/>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:13">
       <c r="A540" s="13"/>
       <c r="B540" s="13"/>
       <c r="C540" s="13"/>
@@ -9092,7 +9303,7 @@
       <c r="L540" s="13"/>
       <c r="M540" s="13"/>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:13">
       <c r="A541" s="13"/>
       <c r="B541" s="13"/>
       <c r="C541" s="13"/>
@@ -9107,7 +9318,7 @@
       <c r="L541" s="13"/>
       <c r="M541" s="13"/>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:13">
       <c r="A542" s="13"/>
       <c r="B542" s="13"/>
       <c r="C542" s="13"/>
@@ -9122,7 +9333,7 @@
       <c r="L542" s="13"/>
       <c r="M542" s="13"/>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:13">
       <c r="A543" s="13"/>
       <c r="B543" s="13"/>
       <c r="C543" s="13"/>
@@ -9137,7 +9348,7 @@
       <c r="L543" s="13"/>
       <c r="M543" s="13"/>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:13">
       <c r="A544" s="13"/>
       <c r="B544" s="13"/>
       <c r="C544" s="13"/>
@@ -9152,7 +9363,7 @@
       <c r="L544" s="13"/>
       <c r="M544" s="13"/>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:13">
       <c r="A545" s="13"/>
       <c r="B545" s="13"/>
       <c r="C545" s="13"/>
@@ -9167,7 +9378,7 @@
       <c r="L545" s="13"/>
       <c r="M545" s="13"/>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:13">
       <c r="A546" s="13"/>
       <c r="B546" s="13"/>
       <c r="C546" s="13"/>
@@ -9182,7 +9393,7 @@
       <c r="L546" s="13"/>
       <c r="M546" s="13"/>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:13">
       <c r="A547" s="13"/>
       <c r="B547" s="13"/>
       <c r="C547" s="13"/>
@@ -9197,7 +9408,7 @@
       <c r="L547" s="13"/>
       <c r="M547" s="13"/>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:13">
       <c r="A548" s="13"/>
       <c r="B548" s="13"/>
       <c r="C548" s="13"/>
@@ -9212,7 +9423,7 @@
       <c r="L548" s="13"/>
       <c r="M548" s="13"/>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:13">
       <c r="A549" s="13"/>
       <c r="B549" s="13"/>
       <c r="C549" s="13"/>
@@ -9227,7 +9438,7 @@
       <c r="L549" s="13"/>
       <c r="M549" s="13"/>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:13">
       <c r="A550" s="13"/>
       <c r="B550" s="13"/>
       <c r="C550" s="13"/>
@@ -9242,7 +9453,7 @@
       <c r="L550" s="13"/>
       <c r="M550" s="13"/>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:13">
       <c r="A551" s="13"/>
       <c r="B551" s="13"/>
       <c r="C551" s="13"/>
@@ -9257,7 +9468,7 @@
       <c r="L551" s="13"/>
       <c r="M551" s="13"/>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:13">
       <c r="A552" s="13"/>
       <c r="B552" s="13"/>
       <c r="C552" s="13"/>
@@ -9272,7 +9483,7 @@
       <c r="L552" s="13"/>
       <c r="M552" s="13"/>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:13">
       <c r="A553" s="13"/>
       <c r="B553" s="13"/>
       <c r="C553" s="13"/>
@@ -9287,7 +9498,7 @@
       <c r="L553" s="13"/>
       <c r="M553" s="13"/>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:13">
       <c r="A554" s="13"/>
       <c r="B554" s="13"/>
       <c r="C554" s="13"/>
@@ -9302,7 +9513,7 @@
       <c r="L554" s="13"/>
       <c r="M554" s="13"/>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:13">
       <c r="A555" s="13"/>
       <c r="B555" s="13"/>
       <c r="C555" s="13"/>
@@ -9317,7 +9528,7 @@
       <c r="L555" s="13"/>
       <c r="M555" s="13"/>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:13">
       <c r="A556" s="13"/>
       <c r="B556" s="13"/>
       <c r="C556" s="13"/>
@@ -9332,7 +9543,7 @@
       <c r="L556" s="13"/>
       <c r="M556" s="13"/>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:13">
       <c r="A557" s="13"/>
       <c r="B557" s="13"/>
       <c r="C557" s="13"/>
@@ -9347,7 +9558,7 @@
       <c r="L557" s="13"/>
       <c r="M557" s="13"/>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:13">
       <c r="A558" s="13"/>
       <c r="B558" s="13"/>
       <c r="C558" s="13"/>
@@ -9362,7 +9573,7 @@
       <c r="L558" s="13"/>
       <c r="M558" s="13"/>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:13">
       <c r="A559" s="13"/>
       <c r="B559" s="13"/>
       <c r="C559" s="13"/>
@@ -9377,7 +9588,7 @@
       <c r="L559" s="13"/>
       <c r="M559" s="13"/>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:13">
       <c r="A560" s="13"/>
       <c r="B560" s="13"/>
       <c r="C560" s="13"/>
@@ -9392,7 +9603,7 @@
       <c r="L560" s="13"/>
       <c r="M560" s="13"/>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:13">
       <c r="A561" s="13"/>
       <c r="B561" s="13"/>
       <c r="C561" s="13"/>
@@ -9407,7 +9618,7 @@
       <c r="L561" s="13"/>
       <c r="M561" s="13"/>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:13">
       <c r="A562" s="13"/>
       <c r="B562" s="13"/>
       <c r="C562" s="13"/>
@@ -9422,7 +9633,7 @@
       <c r="L562" s="13"/>
       <c r="M562" s="13"/>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:13">
       <c r="A563" s="13"/>
       <c r="B563" s="13"/>
       <c r="C563" s="13"/>
@@ -9437,7 +9648,7 @@
       <c r="L563" s="13"/>
       <c r="M563" s="13"/>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:13">
       <c r="A564" s="13"/>
       <c r="B564" s="13"/>
       <c r="C564" s="13"/>
@@ -9452,7 +9663,7 @@
       <c r="L564" s="13"/>
       <c r="M564" s="13"/>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:13">
       <c r="A565" s="13"/>
       <c r="B565" s="13"/>
       <c r="C565" s="13"/>
@@ -9467,7 +9678,7 @@
       <c r="L565" s="13"/>
       <c r="M565" s="13"/>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:13">
       <c r="A566" s="13"/>
       <c r="B566" s="13"/>
       <c r="C566" s="13"/>
@@ -9482,7 +9693,7 @@
       <c r="L566" s="13"/>
       <c r="M566" s="13"/>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:13">
       <c r="A567" s="13"/>
       <c r="B567" s="13"/>
       <c r="C567" s="13"/>
@@ -9497,7 +9708,7 @@
       <c r="L567" s="13"/>
       <c r="M567" s="13"/>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:13">
       <c r="A568" s="13"/>
       <c r="B568" s="13"/>
       <c r="C568" s="13"/>
@@ -9512,7 +9723,7 @@
       <c r="L568" s="13"/>
       <c r="M568" s="13"/>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:13">
       <c r="A569" s="13"/>
       <c r="B569" s="13"/>
       <c r="C569" s="13"/>
@@ -9527,7 +9738,7 @@
       <c r="L569" s="13"/>
       <c r="M569" s="13"/>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:13">
       <c r="A570" s="13"/>
       <c r="B570" s="13"/>
       <c r="C570" s="13"/>
@@ -9542,7 +9753,7 @@
       <c r="L570" s="13"/>
       <c r="M570" s="13"/>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:13">
       <c r="A571" s="13"/>
       <c r="B571" s="13"/>
       <c r="C571" s="13"/>
@@ -9557,7 +9768,7 @@
       <c r="L571" s="13"/>
       <c r="M571" s="13"/>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:13">
       <c r="A572" s="13"/>
       <c r="B572" s="13"/>
       <c r="C572" s="13"/>
@@ -9572,7 +9783,7 @@
       <c r="L572" s="13"/>
       <c r="M572" s="13"/>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:13">
       <c r="A573" s="13"/>
       <c r="B573" s="13"/>
       <c r="C573" s="13"/>
@@ -9587,7 +9798,7 @@
       <c r="L573" s="13"/>
       <c r="M573" s="13"/>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:13">
       <c r="A574" s="13"/>
       <c r="B574" s="13"/>
       <c r="C574" s="13"/>
@@ -9602,7 +9813,7 @@
       <c r="L574" s="13"/>
       <c r="M574" s="13"/>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:13">
       <c r="A575" s="13"/>
       <c r="B575" s="13"/>
       <c r="C575" s="13"/>
@@ -9617,7 +9828,7 @@
       <c r="L575" s="13"/>
       <c r="M575" s="13"/>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:13">
       <c r="A576" s="13"/>
       <c r="B576" s="13"/>
       <c r="C576" s="13"/>
@@ -9632,7 +9843,7 @@
       <c r="L576" s="13"/>
       <c r="M576" s="13"/>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:13">
       <c r="A577" s="13"/>
       <c r="B577" s="13"/>
       <c r="C577" s="13"/>
@@ -9647,7 +9858,7 @@
       <c r="L577" s="13"/>
       <c r="M577" s="13"/>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:13">
       <c r="A578" s="13"/>
       <c r="B578" s="13"/>
       <c r="C578" s="13"/>
@@ -9662,7 +9873,7 @@
       <c r="L578" s="13"/>
       <c r="M578" s="13"/>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:13">
       <c r="A579" s="13"/>
       <c r="B579" s="13"/>
       <c r="C579" s="13"/>
@@ -9677,7 +9888,7 @@
       <c r="L579" s="13"/>
       <c r="M579" s="13"/>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:13">
       <c r="A580" s="13"/>
       <c r="B580" s="13"/>
       <c r="C580" s="13"/>
@@ -9692,7 +9903,7 @@
       <c r="L580" s="13"/>
       <c r="M580" s="13"/>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:13">
       <c r="A581" s="13"/>
       <c r="B581" s="13"/>
       <c r="C581" s="13"/>
@@ -9707,7 +9918,7 @@
       <c r="L581" s="13"/>
       <c r="M581" s="13"/>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:13">
       <c r="A582" s="13"/>
       <c r="B582" s="13"/>
       <c r="C582" s="13"/>
@@ -9722,7 +9933,7 @@
       <c r="L582" s="13"/>
       <c r="M582" s="13"/>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:13">
       <c r="A583" s="13"/>
       <c r="B583" s="13"/>
       <c r="C583" s="13"/>
@@ -9737,7 +9948,7 @@
       <c r="L583" s="13"/>
       <c r="M583" s="13"/>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:13">
       <c r="A584" s="13"/>
       <c r="B584" s="13"/>
       <c r="C584" s="13"/>
@@ -9752,7 +9963,7 @@
       <c r="L584" s="13"/>
       <c r="M584" s="13"/>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:13">
       <c r="A585" s="13"/>
       <c r="B585" s="13"/>
       <c r="C585" s="13"/>
@@ -9767,7 +9978,7 @@
       <c r="L585" s="13"/>
       <c r="M585" s="13"/>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:13">
       <c r="A586" s="13"/>
       <c r="B586" s="13"/>
       <c r="C586" s="13"/>
@@ -9782,7 +9993,7 @@
       <c r="L586" s="13"/>
       <c r="M586" s="13"/>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:13">
       <c r="A587" s="13"/>
       <c r="B587" s="13"/>
       <c r="C587" s="13"/>
@@ -9797,7 +10008,7 @@
       <c r="L587" s="13"/>
       <c r="M587" s="13"/>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:13">
       <c r="A588" s="13"/>
       <c r="B588" s="13"/>
       <c r="C588" s="13"/>
@@ -9812,7 +10023,7 @@
       <c r="L588" s="13"/>
       <c r="M588" s="13"/>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:13">
       <c r="A589" s="13"/>
       <c r="B589" s="13"/>
       <c r="C589" s="13"/>
@@ -9827,7 +10038,7 @@
       <c r="L589" s="13"/>
       <c r="M589" s="13"/>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:13">
       <c r="A590" s="13"/>
       <c r="B590" s="13"/>
       <c r="C590" s="13"/>
@@ -9842,7 +10053,7 @@
       <c r="L590" s="13"/>
       <c r="M590" s="13"/>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:13">
       <c r="A591" s="13"/>
       <c r="B591" s="13"/>
       <c r="C591" s="13"/>
@@ -9857,7 +10068,7 @@
       <c r="L591" s="13"/>
       <c r="M591" s="13"/>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:13">
       <c r="A592" s="13"/>
       <c r="B592" s="13"/>
       <c r="C592" s="13"/>
@@ -9872,7 +10083,7 @@
       <c r="L592" s="13"/>
       <c r="M592" s="13"/>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:13">
       <c r="A593" s="13"/>
       <c r="B593" s="13"/>
       <c r="C593" s="13"/>
@@ -9887,7 +10098,7 @@
       <c r="L593" s="13"/>
       <c r="M593" s="13"/>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:13">
       <c r="A594" s="13"/>
       <c r="B594" s="13"/>
       <c r="C594" s="13"/>
@@ -9902,7 +10113,7 @@
       <c r="L594" s="13"/>
       <c r="M594" s="13"/>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:13">
       <c r="A595" s="13"/>
       <c r="B595" s="13"/>
       <c r="C595" s="13"/>
@@ -9917,7 +10128,7 @@
       <c r="L595" s="13"/>
       <c r="M595" s="13"/>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:13">
       <c r="A596" s="13"/>
       <c r="B596" s="13"/>
       <c r="C596" s="13"/>
@@ -9932,7 +10143,7 @@
       <c r="L596" s="13"/>
       <c r="M596" s="13"/>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:13">
       <c r="A597" s="13"/>
       <c r="B597" s="13"/>
       <c r="C597" s="13"/>
@@ -9947,7 +10158,7 @@
       <c r="L597" s="13"/>
       <c r="M597" s="13"/>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:13">
       <c r="A598" s="13"/>
       <c r="B598" s="13"/>
       <c r="C598" s="13"/>
@@ -9962,7 +10173,7 @@
       <c r="L598" s="13"/>
       <c r="M598" s="13"/>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:13">
       <c r="A599" s="13"/>
       <c r="B599" s="13"/>
       <c r="C599" s="13"/>
@@ -9977,7 +10188,7 @@
       <c r="L599" s="13"/>
       <c r="M599" s="13"/>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:13">
       <c r="A600" s="13"/>
       <c r="B600" s="13"/>
       <c r="C600" s="13"/>
@@ -9992,7 +10203,7 @@
       <c r="L600" s="13"/>
       <c r="M600" s="13"/>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:13">
       <c r="A601" s="13"/>
       <c r="B601" s="13"/>
       <c r="C601" s="13"/>
@@ -10007,7 +10218,7 @@
       <c r="L601" s="13"/>
       <c r="M601" s="13"/>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:13">
       <c r="A602" s="13"/>
       <c r="B602" s="13"/>
       <c r="C602" s="13"/>
@@ -10022,7 +10233,7 @@
       <c r="L602" s="13"/>
       <c r="M602" s="13"/>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:13">
       <c r="A603" s="13"/>
       <c r="B603" s="13"/>
       <c r="C603" s="13"/>
@@ -10037,7 +10248,7 @@
       <c r="L603" s="13"/>
       <c r="M603" s="13"/>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:13">
       <c r="A604" s="13"/>
       <c r="B604" s="13"/>
       <c r="C604" s="13"/>
@@ -10052,7 +10263,7 @@
       <c r="L604" s="13"/>
       <c r="M604" s="13"/>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:13">
       <c r="A605" s="13"/>
       <c r="B605" s="13"/>
       <c r="C605" s="13"/>
@@ -10067,7 +10278,7 @@
       <c r="L605" s="13"/>
       <c r="M605" s="13"/>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:13">
       <c r="A606" s="13"/>
       <c r="B606" s="13"/>
       <c r="C606" s="13"/>
@@ -10082,7 +10293,7 @@
       <c r="L606" s="13"/>
       <c r="M606" s="13"/>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:13">
       <c r="A607" s="13"/>
       <c r="B607" s="13"/>
       <c r="C607" s="13"/>
@@ -10097,7 +10308,7 @@
       <c r="L607" s="13"/>
       <c r="M607" s="13"/>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:13">
       <c r="A608" s="13"/>
       <c r="B608" s="13"/>
       <c r="C608" s="13"/>
@@ -10112,7 +10323,7 @@
       <c r="L608" s="13"/>
       <c r="M608" s="13"/>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:13">
       <c r="A609" s="13"/>
       <c r="B609" s="13"/>
       <c r="C609" s="13"/>
@@ -10127,7 +10338,7 @@
       <c r="L609" s="13"/>
       <c r="M609" s="13"/>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:13">
       <c r="A610" s="13"/>
       <c r="B610" s="13"/>
       <c r="C610" s="13"/>
@@ -10142,7 +10353,7 @@
       <c r="L610" s="13"/>
       <c r="M610" s="13"/>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:13">
       <c r="A611" s="13"/>
       <c r="B611" s="13"/>
       <c r="C611" s="13"/>
@@ -10157,7 +10368,7 @@
       <c r="L611" s="13"/>
       <c r="M611" s="13"/>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:13">
       <c r="A612" s="13"/>
       <c r="B612" s="13"/>
       <c r="C612" s="13"/>
@@ -10172,7 +10383,7 @@
       <c r="L612" s="13"/>
       <c r="M612" s="13"/>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:13">
       <c r="A613" s="13"/>
       <c r="B613" s="13"/>
       <c r="C613" s="13"/>
@@ -10187,7 +10398,7 @@
       <c r="L613" s="13"/>
       <c r="M613" s="13"/>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:13">
       <c r="A614" s="13"/>
       <c r="B614" s="13"/>
       <c r="C614" s="13"/>
@@ -10202,7 +10413,7 @@
       <c r="L614" s="13"/>
       <c r="M614" s="13"/>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:13">
       <c r="A615" s="13"/>
       <c r="B615" s="13"/>
       <c r="C615" s="13"/>
@@ -10217,7 +10428,7 @@
       <c r="L615" s="13"/>
       <c r="M615" s="13"/>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:13">
       <c r="A616" s="13"/>
       <c r="B616" s="13"/>
       <c r="C616" s="13"/>
@@ -10232,7 +10443,7 @@
       <c r="L616" s="13"/>
       <c r="M616" s="13"/>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:13">
       <c r="A617" s="13"/>
       <c r="B617" s="13"/>
       <c r="C617" s="13"/>
@@ -10247,7 +10458,7 @@
       <c r="L617" s="13"/>
       <c r="M617" s="13"/>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:13">
       <c r="A618" s="13"/>
       <c r="B618" s="13"/>
       <c r="C618" s="13"/>
@@ -10262,7 +10473,7 @@
       <c r="L618" s="13"/>
       <c r="M618" s="13"/>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:13">
       <c r="A619" s="13"/>
       <c r="B619" s="13"/>
       <c r="C619" s="13"/>
@@ -10277,7 +10488,7 @@
       <c r="L619" s="13"/>
       <c r="M619" s="13"/>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:13">
       <c r="A620" s="13"/>
       <c r="B620" s="13"/>
       <c r="C620" s="13"/>
@@ -10292,7 +10503,7 @@
       <c r="L620" s="13"/>
       <c r="M620" s="13"/>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:13">
       <c r="A621" s="13"/>
       <c r="B621" s="13"/>
       <c r="C621" s="13"/>
@@ -10307,7 +10518,7 @@
       <c r="L621" s="13"/>
       <c r="M621" s="13"/>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:13">
       <c r="A622" s="13"/>
       <c r="B622" s="13"/>
       <c r="C622" s="13"/>
@@ -10322,7 +10533,7 @@
       <c r="L622" s="13"/>
       <c r="M622" s="13"/>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:13">
       <c r="A623" s="13"/>
       <c r="B623" s="13"/>
       <c r="C623" s="13"/>
@@ -10337,7 +10548,7 @@
       <c r="L623" s="13"/>
       <c r="M623" s="13"/>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:13">
       <c r="A624" s="13"/>
       <c r="B624" s="13"/>
       <c r="C624" s="13"/>
@@ -10352,7 +10563,7 @@
       <c r="L624" s="13"/>
       <c r="M624" s="13"/>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:13">
       <c r="A625" s="13"/>
       <c r="B625" s="13"/>
       <c r="C625" s="13"/>
@@ -10367,7 +10578,7 @@
       <c r="L625" s="13"/>
       <c r="M625" s="13"/>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:13">
       <c r="A626" s="13"/>
       <c r="B626" s="13"/>
       <c r="C626" s="13"/>
@@ -10382,7 +10593,7 @@
       <c r="L626" s="13"/>
       <c r="M626" s="13"/>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:13">
       <c r="A627" s="13"/>
       <c r="B627" s="13"/>
       <c r="C627" s="13"/>
@@ -10397,7 +10608,7 @@
       <c r="L627" s="13"/>
       <c r="M627" s="13"/>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:13">
       <c r="A628" s="13"/>
       <c r="B628" s="13"/>
       <c r="C628" s="13"/>
@@ -10412,7 +10623,7 @@
       <c r="L628" s="13"/>
       <c r="M628" s="13"/>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:13">
       <c r="A629" s="13"/>
       <c r="B629" s="13"/>
       <c r="C629" s="13"/>
@@ -10427,7 +10638,7 @@
       <c r="L629" s="13"/>
       <c r="M629" s="13"/>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:13">
       <c r="A630" s="13"/>
       <c r="B630" s="13"/>
       <c r="C630" s="13"/>
@@ -10442,7 +10653,7 @@
       <c r="L630" s="13"/>
       <c r="M630" s="13"/>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:13">
       <c r="A631" s="13"/>
       <c r="B631" s="13"/>
       <c r="C631" s="13"/>
@@ -10457,7 +10668,7 @@
       <c r="L631" s="13"/>
       <c r="M631" s="13"/>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:13">
       <c r="A632" s="13"/>
       <c r="B632" s="13"/>
       <c r="C632" s="13"/>
@@ -10472,7 +10683,7 @@
       <c r="L632" s="13"/>
       <c r="M632" s="13"/>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:13">
       <c r="A633" s="13"/>
       <c r="B633" s="13"/>
       <c r="C633" s="13"/>
@@ -10487,7 +10698,7 @@
       <c r="L633" s="13"/>
       <c r="M633" s="13"/>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:13">
       <c r="A634" s="13"/>
       <c r="B634" s="13"/>
       <c r="C634" s="13"/>
@@ -10502,7 +10713,7 @@
       <c r="L634" s="13"/>
       <c r="M634" s="13"/>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:13">
       <c r="A635" s="13"/>
       <c r="B635" s="13"/>
       <c r="C635" s="13"/>
@@ -10517,7 +10728,7 @@
       <c r="L635" s="13"/>
       <c r="M635" s="13"/>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:13">
       <c r="A636" s="13"/>
       <c r="B636" s="13"/>
       <c r="C636" s="13"/>
@@ -10532,7 +10743,7 @@
       <c r="L636" s="13"/>
       <c r="M636" s="13"/>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:13">
       <c r="A637" s="13"/>
       <c r="B637" s="13"/>
       <c r="C637" s="13"/>
@@ -10547,7 +10758,7 @@
       <c r="L637" s="13"/>
       <c r="M637" s="13"/>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:13">
       <c r="A638" s="13"/>
       <c r="B638" s="13"/>
       <c r="C638" s="13"/>
@@ -10562,7 +10773,7 @@
       <c r="L638" s="13"/>
       <c r="M638" s="13"/>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:13">
       <c r="A639" s="13"/>
       <c r="B639" s="13"/>
       <c r="C639" s="13"/>
@@ -10577,7 +10788,7 @@
       <c r="L639" s="13"/>
       <c r="M639" s="13"/>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:13">
       <c r="A640" s="13"/>
       <c r="B640" s="13"/>
       <c r="C640" s="13"/>
@@ -10592,7 +10803,7 @@
       <c r="L640" s="13"/>
       <c r="M640" s="13"/>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:13">
       <c r="A641" s="13"/>
       <c r="B641" s="13"/>
       <c r="C641" s="13"/>
@@ -10607,7 +10818,7 @@
       <c r="L641" s="13"/>
       <c r="M641" s="13"/>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:13">
       <c r="A642" s="13"/>
       <c r="B642" s="13"/>
       <c r="C642" s="13"/>
@@ -10622,7 +10833,7 @@
       <c r="L642" s="13"/>
       <c r="M642" s="13"/>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:13">
       <c r="A643" s="13"/>
       <c r="B643" s="13"/>
       <c r="C643" s="13"/>
@@ -10637,7 +10848,7 @@
       <c r="L643" s="13"/>
       <c r="M643" s="13"/>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:13">
       <c r="A644" s="13"/>
       <c r="B644" s="13"/>
       <c r="C644" s="13"/>
@@ -10652,7 +10863,7 @@
       <c r="L644" s="13"/>
       <c r="M644" s="13"/>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:13">
       <c r="A645" s="13"/>
       <c r="B645" s="13"/>
       <c r="C645" s="13"/>
@@ -10667,7 +10878,7 @@
       <c r="L645" s="13"/>
       <c r="M645" s="13"/>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:13">
       <c r="A646" s="13"/>
       <c r="B646" s="13"/>
       <c r="C646" s="13"/>
@@ -10682,7 +10893,7 @@
       <c r="L646" s="13"/>
       <c r="M646" s="13"/>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:13">
       <c r="A647" s="13"/>
       <c r="B647" s="13"/>
       <c r="C647" s="13"/>
@@ -10697,7 +10908,7 @@
       <c r="L647" s="13"/>
       <c r="M647" s="13"/>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:13">
       <c r="A648" s="13"/>
       <c r="B648" s="13"/>
       <c r="C648" s="13"/>
@@ -10712,7 +10923,7 @@
       <c r="L648" s="13"/>
       <c r="M648" s="13"/>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:13">
       <c r="A649" s="13"/>
       <c r="B649" s="13"/>
       <c r="C649" s="13"/>
@@ -10727,7 +10938,7 @@
       <c r="L649" s="13"/>
       <c r="M649" s="13"/>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:13">
       <c r="A650" s="13"/>
       <c r="B650" s="13"/>
       <c r="C650" s="13"/>
@@ -10742,7 +10953,7 @@
       <c r="L650" s="13"/>
       <c r="M650" s="13"/>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:13">
       <c r="A651" s="13"/>
       <c r="B651" s="13"/>
       <c r="C651" s="13"/>
@@ -10757,7 +10968,7 @@
       <c r="L651" s="13"/>
       <c r="M651" s="13"/>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:13">
       <c r="A652" s="13"/>
       <c r="B652" s="13"/>
       <c r="C652" s="13"/>
@@ -10772,7 +10983,7 @@
       <c r="L652" s="13"/>
       <c r="M652" s="13"/>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:13">
       <c r="A653" s="13"/>
       <c r="B653" s="13"/>
       <c r="C653" s="13"/>
@@ -10787,7 +10998,7 @@
       <c r="L653" s="13"/>
       <c r="M653" s="13"/>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:13">
       <c r="A654" s="13"/>
       <c r="B654" s="13"/>
       <c r="C654" s="13"/>
@@ -10802,7 +11013,7 @@
       <c r="L654" s="13"/>
       <c r="M654" s="13"/>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:13">
       <c r="A655" s="13"/>
       <c r="B655" s="13"/>
       <c r="C655" s="13"/>
@@ -10817,7 +11028,7 @@
       <c r="L655" s="13"/>
       <c r="M655" s="13"/>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:13">
       <c r="A656" s="13"/>
       <c r="B656" s="13"/>
       <c r="C656" s="13"/>
@@ -10832,7 +11043,7 @@
       <c r="L656" s="13"/>
       <c r="M656" s="13"/>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:13">
       <c r="A657" s="13"/>
       <c r="B657" s="13"/>
       <c r="C657" s="13"/>
@@ -10847,7 +11058,7 @@
       <c r="L657" s="13"/>
       <c r="M657" s="13"/>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:13">
       <c r="A658" s="13"/>
       <c r="B658" s="13"/>
       <c r="C658" s="13"/>
@@ -10862,7 +11073,7 @@
       <c r="L658" s="13"/>
       <c r="M658" s="13"/>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:13">
       <c r="A659" s="13"/>
       <c r="B659" s="13"/>
       <c r="C659" s="13"/>
@@ -10877,7 +11088,7 @@
       <c r="L659" s="13"/>
       <c r="M659" s="13"/>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:13">
       <c r="A660" s="13"/>
       <c r="B660" s="13"/>
       <c r="C660" s="13"/>
@@ -10892,7 +11103,7 @@
       <c r="L660" s="13"/>
       <c r="M660" s="13"/>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:13">
       <c r="A661" s="13"/>
       <c r="B661" s="13"/>
       <c r="C661" s="13"/>
@@ -10907,7 +11118,7 @@
       <c r="L661" s="13"/>
       <c r="M661" s="13"/>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:13">
       <c r="A662" s="13"/>
       <c r="B662" s="13"/>
       <c r="C662" s="13"/>
@@ -10922,7 +11133,7 @@
       <c r="L662" s="13"/>
       <c r="M662" s="13"/>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:13">
       <c r="A663" s="13"/>
       <c r="B663" s="13"/>
       <c r="C663" s="13"/>
@@ -10937,7 +11148,7 @@
       <c r="L663" s="13"/>
       <c r="M663" s="13"/>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:13">
       <c r="A664" s="13"/>
       <c r="B664" s="13"/>
       <c r="C664" s="13"/>
@@ -10952,7 +11163,7 @@
       <c r="L664" s="13"/>
       <c r="M664" s="13"/>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:13">
       <c r="A665" s="13"/>
       <c r="B665" s="13"/>
       <c r="C665" s="13"/>
@@ -10967,7 +11178,7 @@
       <c r="L665" s="13"/>
       <c r="M665" s="13"/>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:13">
       <c r="A666" s="13"/>
       <c r="B666" s="13"/>
       <c r="C666" s="13"/>
@@ -10982,7 +11193,7 @@
       <c r="L666" s="13"/>
       <c r="M666" s="13"/>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:13">
       <c r="A667" s="13"/>
       <c r="B667" s="13"/>
       <c r="C667" s="13"/>
@@ -10997,7 +11208,7 @@
       <c r="L667" s="13"/>
       <c r="M667" s="13"/>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:13">
       <c r="A668" s="13"/>
       <c r="B668" s="13"/>
       <c r="C668" s="13"/>
@@ -11012,7 +11223,7 @@
       <c r="L668" s="13"/>
       <c r="M668" s="13"/>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:13">
       <c r="A669" s="13"/>
       <c r="B669" s="13"/>
       <c r="C669" s="13"/>
@@ -11027,7 +11238,7 @@
       <c r="L669" s="13"/>
       <c r="M669" s="13"/>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:13">
       <c r="A670" s="13"/>
       <c r="B670" s="13"/>
       <c r="C670" s="13"/>
@@ -11042,7 +11253,7 @@
       <c r="L670" s="13"/>
       <c r="M670" s="13"/>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:13">
       <c r="A671" s="13"/>
       <c r="B671" s="13"/>
       <c r="C671" s="13"/>
@@ -11057,7 +11268,7 @@
       <c r="L671" s="13"/>
       <c r="M671" s="13"/>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:13">
       <c r="A672" s="13"/>
       <c r="B672" s="13"/>
       <c r="C672" s="13"/>
@@ -11072,7 +11283,7 @@
       <c r="L672" s="13"/>
       <c r="M672" s="13"/>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:13">
       <c r="A673" s="13"/>
       <c r="B673" s="13"/>
       <c r="C673" s="13"/>
@@ -11087,7 +11298,7 @@
       <c r="L673" s="13"/>
       <c r="M673" s="13"/>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:13">
       <c r="A674" s="13"/>
       <c r="B674" s="13"/>
       <c r="C674" s="13"/>
@@ -11102,7 +11313,7 @@
       <c r="L674" s="13"/>
       <c r="M674" s="13"/>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:13">
       <c r="A675" s="13"/>
       <c r="B675" s="13"/>
       <c r="C675" s="13"/>
@@ -11117,7 +11328,7 @@
       <c r="L675" s="13"/>
       <c r="M675" s="13"/>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:13">
       <c r="A676" s="13"/>
       <c r="B676" s="13"/>
       <c r="C676" s="13"/>
@@ -11132,7 +11343,7 @@
       <c r="L676" s="13"/>
       <c r="M676" s="13"/>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:13">
       <c r="A677" s="13"/>
       <c r="B677" s="13"/>
       <c r="C677" s="13"/>
@@ -11147,7 +11358,7 @@
       <c r="L677" s="13"/>
       <c r="M677" s="13"/>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:13">
       <c r="A678" s="13"/>
       <c r="B678" s="13"/>
       <c r="C678" s="13"/>
@@ -11162,7 +11373,7 @@
       <c r="L678" s="13"/>
       <c r="M678" s="13"/>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:13">
       <c r="A679" s="13"/>
       <c r="B679" s="13"/>
       <c r="C679" s="13"/>
@@ -11177,7 +11388,7 @@
       <c r="L679" s="13"/>
       <c r="M679" s="13"/>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:13">
       <c r="A680" s="13"/>
       <c r="B680" s="13"/>
       <c r="C680" s="13"/>
@@ -11192,7 +11403,7 @@
       <c r="L680" s="13"/>
       <c r="M680" s="13"/>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:13">
       <c r="A681" s="13"/>
       <c r="B681" s="13"/>
       <c r="C681" s="13"/>
@@ -11207,7 +11418,7 @@
       <c r="L681" s="13"/>
       <c r="M681" s="13"/>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:13">
       <c r="A682" s="13"/>
       <c r="B682" s="13"/>
       <c r="C682" s="13"/>
@@ -11222,7 +11433,7 @@
       <c r="L682" s="13"/>
       <c r="M682" s="13"/>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:13">
       <c r="A683" s="13"/>
       <c r="B683" s="13"/>
       <c r="C683" s="13"/>
@@ -11237,7 +11448,7 @@
       <c r="L683" s="13"/>
       <c r="M683" s="13"/>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:13">
       <c r="A684" s="13"/>
       <c r="B684" s="13"/>
       <c r="C684" s="13"/>
@@ -11252,7 +11463,7 @@
       <c r="L684" s="13"/>
       <c r="M684" s="13"/>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:13">
       <c r="A685" s="13"/>
       <c r="B685" s="13"/>
       <c r="C685" s="13"/>
@@ -11267,7 +11478,7 @@
       <c r="L685" s="13"/>
       <c r="M685" s="13"/>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:13">
       <c r="A686" s="13"/>
       <c r="B686" s="13"/>
       <c r="C686" s="13"/>
@@ -11282,7 +11493,7 @@
       <c r="L686" s="13"/>
       <c r="M686" s="13"/>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:13">
       <c r="A687" s="13"/>
       <c r="B687" s="13"/>
       <c r="C687" s="13"/>
@@ -11297,7 +11508,7 @@
       <c r="L687" s="13"/>
       <c r="M687" s="13"/>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:13">
       <c r="A688" s="13"/>
       <c r="B688" s="13"/>
       <c r="C688" s="13"/>
@@ -11312,7 +11523,7 @@
       <c r="L688" s="13"/>
       <c r="M688" s="13"/>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:13">
       <c r="A689" s="13"/>
       <c r="B689" s="13"/>
       <c r="C689" s="13"/>
@@ -11327,7 +11538,7 @@
       <c r="L689" s="13"/>
       <c r="M689" s="13"/>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:13">
       <c r="A690" s="13"/>
       <c r="B690" s="13"/>
       <c r="C690" s="13"/>
@@ -11342,7 +11553,7 @@
       <c r="L690" s="13"/>
       <c r="M690" s="13"/>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:13">
       <c r="A691" s="13"/>
       <c r="B691" s="13"/>
       <c r="C691" s="13"/>
@@ -11357,7 +11568,7 @@
       <c r="L691" s="13"/>
       <c r="M691" s="13"/>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:13">
       <c r="A692" s="13"/>
       <c r="B692" s="13"/>
       <c r="C692" s="13"/>
@@ -11372,7 +11583,7 @@
       <c r="L692" s="13"/>
       <c r="M692" s="13"/>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:13">
       <c r="A693" s="13"/>
       <c r="B693" s="13"/>
       <c r="C693" s="13"/>
@@ -11387,7 +11598,7 @@
       <c r="L693" s="13"/>
       <c r="M693" s="13"/>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:13">
       <c r="A694" s="13"/>
       <c r="B694" s="13"/>
       <c r="C694" s="13"/>
@@ -11402,7 +11613,7 @@
       <c r="L694" s="13"/>
       <c r="M694" s="13"/>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:13">
       <c r="A695" s="13"/>
       <c r="B695" s="13"/>
       <c r="C695" s="13"/>
@@ -11417,7 +11628,7 @@
       <c r="L695" s="13"/>
       <c r="M695" s="13"/>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:13">
       <c r="A696" s="13"/>
       <c r="B696" s="13"/>
       <c r="C696" s="13"/>
@@ -11432,7 +11643,7 @@
       <c r="L696" s="13"/>
       <c r="M696" s="13"/>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:13">
       <c r="A697" s="13"/>
       <c r="B697" s="13"/>
       <c r="C697" s="13"/>
@@ -11447,7 +11658,7 @@
       <c r="L697" s="13"/>
       <c r="M697" s="13"/>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:13">
       <c r="A698" s="13"/>
       <c r="B698" s="13"/>
       <c r="C698" s="13"/>
@@ -11462,7 +11673,7 @@
       <c r="L698" s="13"/>
       <c r="M698" s="13"/>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:13">
       <c r="A699" s="13"/>
       <c r="B699" s="13"/>
       <c r="C699" s="13"/>
@@ -11477,7 +11688,7 @@
       <c r="L699" s="13"/>
       <c r="M699" s="13"/>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:13">
       <c r="A700" s="13"/>
       <c r="B700" s="13"/>
       <c r="C700" s="13"/>
@@ -11492,7 +11703,7 @@
       <c r="L700" s="13"/>
       <c r="M700" s="13"/>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:13">
       <c r="A701" s="13"/>
       <c r="B701" s="13"/>
       <c r="C701" s="13"/>
@@ -11507,7 +11718,7 @@
       <c r="L701" s="13"/>
       <c r="M701" s="13"/>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:13">
       <c r="A702" s="13"/>
       <c r="B702" s="13"/>
       <c r="C702" s="13"/>
@@ -11522,7 +11733,7 @@
       <c r="L702" s="13"/>
       <c r="M702" s="13"/>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:13">
       <c r="A703" s="13"/>
       <c r="B703" s="13"/>
       <c r="C703" s="13"/>
@@ -11537,7 +11748,7 @@
       <c r="L703" s="13"/>
       <c r="M703" s="13"/>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:13">
       <c r="A704" s="13"/>
       <c r="B704" s="13"/>
       <c r="C704" s="13"/>
@@ -11552,7 +11763,7 @@
       <c r="L704" s="13"/>
       <c r="M704" s="13"/>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:13">
       <c r="A705" s="13"/>
       <c r="B705" s="13"/>
       <c r="C705" s="13"/>
@@ -11567,7 +11778,7 @@
       <c r="L705" s="13"/>
       <c r="M705" s="13"/>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:13">
       <c r="A706" s="13"/>
       <c r="B706" s="13"/>
       <c r="C706" s="13"/>
@@ -11582,7 +11793,7 @@
       <c r="L706" s="13"/>
       <c r="M706" s="13"/>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:13">
       <c r="A707" s="13"/>
       <c r="B707" s="13"/>
       <c r="C707" s="13"/>
@@ -11597,7 +11808,7 @@
       <c r="L707" s="13"/>
       <c r="M707" s="13"/>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:13">
       <c r="A708" s="13"/>
       <c r="B708" s="13"/>
       <c r="C708" s="13"/>
@@ -11612,7 +11823,7 @@
       <c r="L708" s="13"/>
       <c r="M708" s="13"/>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:13">
       <c r="A709" s="13"/>
       <c r="B709" s="13"/>
       <c r="C709" s="13"/>
@@ -11627,7 +11838,7 @@
       <c r="L709" s="13"/>
       <c r="M709" s="13"/>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:13">
       <c r="A710" s="13"/>
       <c r="B710" s="13"/>
       <c r="C710" s="13"/>
@@ -11642,7 +11853,7 @@
       <c r="L710" s="13"/>
       <c r="M710" s="13"/>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:13">
       <c r="A711" s="13"/>
       <c r="B711" s="13"/>
       <c r="C711" s="13"/>
@@ -11657,7 +11868,7 @@
       <c r="L711" s="13"/>
       <c r="M711" s="13"/>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:13">
       <c r="A712" s="13"/>
       <c r="B712" s="13"/>
       <c r="C712" s="13"/>
@@ -11672,7 +11883,7 @@
       <c r="L712" s="13"/>
       <c r="M712" s="13"/>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:13">
       <c r="A713" s="13"/>
       <c r="B713" s="13"/>
       <c r="C713" s="13"/>
@@ -11687,7 +11898,7 @@
       <c r="L713" s="13"/>
       <c r="M713" s="13"/>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:13">
       <c r="A714" s="13"/>
       <c r="B714" s="13"/>
       <c r="C714" s="13"/>
@@ -11702,7 +11913,7 @@
       <c r="L714" s="13"/>
       <c r="M714" s="13"/>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:13">
       <c r="A715" s="13"/>
       <c r="B715" s="13"/>
       <c r="C715" s="13"/>
@@ -11717,7 +11928,7 @@
       <c r="L715" s="13"/>
       <c r="M715" s="13"/>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:13">
       <c r="A716" s="13"/>
       <c r="B716" s="13"/>
       <c r="C716" s="13"/>
@@ -11732,7 +11943,7 @@
       <c r="L716" s="13"/>
       <c r="M716" s="13"/>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:13">
       <c r="A717" s="13"/>
       <c r="B717" s="13"/>
       <c r="C717" s="13"/>
@@ -11747,7 +11958,7 @@
       <c r="L717" s="13"/>
       <c r="M717" s="13"/>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:13">
       <c r="A718" s="13"/>
       <c r="B718" s="13"/>
       <c r="C718" s="13"/>
@@ -11762,7 +11973,7 @@
       <c r="L718" s="13"/>
       <c r="M718" s="13"/>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:13">
       <c r="A719" s="13"/>
       <c r="B719" s="13"/>
       <c r="C719" s="13"/>
@@ -11777,7 +11988,7 @@
       <c r="L719" s="13"/>
       <c r="M719" s="13"/>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:13">
       <c r="A720" s="13"/>
       <c r="B720" s="13"/>
       <c r="C720" s="13"/>
@@ -11792,7 +12003,7 @@
       <c r="L720" s="13"/>
       <c r="M720" s="13"/>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:13">
       <c r="A721" s="13"/>
       <c r="B721" s="13"/>
       <c r="C721" s="13"/>
@@ -11807,7 +12018,7 @@
       <c r="L721" s="13"/>
       <c r="M721" s="13"/>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:13">
       <c r="A722" s="13"/>
       <c r="B722" s="13"/>
       <c r="C722" s="13"/>
@@ -11822,7 +12033,7 @@
       <c r="L722" s="13"/>
       <c r="M722" s="13"/>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:13">
       <c r="A723" s="13"/>
       <c r="B723" s="13"/>
       <c r="C723" s="13"/>
@@ -11837,7 +12048,7 @@
       <c r="L723" s="13"/>
       <c r="M723" s="13"/>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:13">
       <c r="A724" s="13"/>
       <c r="B724" s="13"/>
       <c r="C724" s="13"/>
@@ -11852,7 +12063,7 @@
       <c r="L724" s="13"/>
       <c r="M724" s="13"/>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:13">
       <c r="A725" s="13"/>
       <c r="B725" s="13"/>
       <c r="C725" s="13"/>
@@ -11867,7 +12078,7 @@
       <c r="L725" s="13"/>
       <c r="M725" s="13"/>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:13">
       <c r="A726" s="13"/>
       <c r="B726" s="13"/>
       <c r="C726" s="13"/>
@@ -11882,7 +12093,7 @@
       <c r="L726" s="13"/>
       <c r="M726" s="13"/>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:13">
       <c r="A727" s="13"/>
       <c r="B727" s="13"/>
       <c r="C727" s="13"/>
@@ -11897,7 +12108,7 @@
       <c r="L727" s="13"/>
       <c r="M727" s="13"/>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:13">
       <c r="A728" s="13"/>
       <c r="B728" s="13"/>
       <c r="C728" s="13"/>
@@ -11912,7 +12123,7 @@
       <c r="L728" s="13"/>
       <c r="M728" s="13"/>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:13">
       <c r="A729" s="13"/>
       <c r="B729" s="13"/>
       <c r="C729" s="13"/>
@@ -11927,7 +12138,7 @@
       <c r="L729" s="13"/>
       <c r="M729" s="13"/>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:13">
       <c r="A730" s="13"/>
       <c r="B730" s="13"/>
       <c r="C730" s="13"/>
@@ -11942,7 +12153,7 @@
       <c r="L730" s="13"/>
       <c r="M730" s="13"/>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:13">
       <c r="A731" s="13"/>
       <c r="B731" s="13"/>
       <c r="C731" s="13"/>
@@ -11957,7 +12168,7 @@
       <c r="L731" s="13"/>
       <c r="M731" s="13"/>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:13">
       <c r="A732" s="13"/>
       <c r="B732" s="13"/>
       <c r="C732" s="13"/>
@@ -11972,7 +12183,7 @@
       <c r="L732" s="13"/>
       <c r="M732" s="13"/>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:13">
       <c r="A733" s="13"/>
       <c r="B733" s="13"/>
       <c r="C733" s="13"/>
@@ -11987,7 +12198,7 @@
       <c r="L733" s="13"/>
       <c r="M733" s="13"/>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:13">
       <c r="A734" s="13"/>
       <c r="B734" s="13"/>
       <c r="C734" s="13"/>
@@ -12002,7 +12213,7 @@
       <c r="L734" s="13"/>
       <c r="M734" s="13"/>
     </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:13">
       <c r="A735" s="13"/>
       <c r="B735" s="13"/>
       <c r="C735" s="13"/>
@@ -12017,7 +12228,7 @@
       <c r="L735" s="13"/>
       <c r="M735" s="13"/>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:13">
       <c r="A736" s="13"/>
       <c r="B736" s="13"/>
       <c r="C736" s="13"/>
@@ -12032,7 +12243,7 @@
       <c r="L736" s="13"/>
       <c r="M736" s="13"/>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:13">
       <c r="A737" s="13"/>
       <c r="B737" s="13"/>
       <c r="C737" s="13"/>
@@ -12047,7 +12258,7 @@
       <c r="L737" s="13"/>
       <c r="M737" s="13"/>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:13">
       <c r="A738" s="13"/>
       <c r="B738" s="13"/>
       <c r="C738" s="13"/>
@@ -12062,7 +12273,7 @@
       <c r="L738" s="13"/>
       <c r="M738" s="13"/>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:13">
       <c r="A739" s="13"/>
       <c r="B739" s="13"/>
       <c r="C739" s="13"/>
@@ -12077,7 +12288,7 @@
       <c r="L739" s="13"/>
       <c r="M739" s="13"/>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:13">
       <c r="A740" s="13"/>
       <c r="B740" s="13"/>
       <c r="C740" s="13"/>
@@ -12092,7 +12303,7 @@
       <c r="L740" s="13"/>
       <c r="M740" s="13"/>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:13">
       <c r="A741" s="13"/>
       <c r="B741" s="13"/>
       <c r="C741" s="13"/>
@@ -12107,7 +12318,7 @@
       <c r="L741" s="13"/>
       <c r="M741" s="13"/>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:13">
       <c r="A742" s="13"/>
       <c r="B742" s="13"/>
       <c r="C742" s="13"/>
@@ -12122,7 +12333,7 @@
       <c r="L742" s="13"/>
       <c r="M742" s="13"/>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:13">
       <c r="A743" s="13"/>
       <c r="B743" s="13"/>
       <c r="C743" s="13"/>
@@ -12137,7 +12348,7 @@
       <c r="L743" s="13"/>
       <c r="M743" s="13"/>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:13">
       <c r="A744" s="13"/>
       <c r="B744" s="13"/>
       <c r="C744" s="13"/>
@@ -12152,7 +12363,7 @@
       <c r="L744" s="13"/>
       <c r="M744" s="13"/>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:13">
       <c r="A745" s="13"/>
       <c r="B745" s="13"/>
       <c r="C745" s="13"/>
@@ -12167,7 +12378,7 @@
       <c r="L745" s="13"/>
       <c r="M745" s="13"/>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:13">
       <c r="A746" s="13"/>
       <c r="B746" s="13"/>
       <c r="C746" s="13"/>
@@ -12182,7 +12393,7 @@
       <c r="L746" s="13"/>
       <c r="M746" s="13"/>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:13">
       <c r="A747" s="13"/>
       <c r="B747" s="13"/>
       <c r="C747" s="13"/>
@@ -12197,7 +12408,7 @@
       <c r="L747" s="13"/>
       <c r="M747" s="13"/>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:13">
       <c r="A748" s="13"/>
       <c r="B748" s="13"/>
       <c r="C748" s="13"/>
@@ -12212,7 +12423,7 @@
       <c r="L748" s="13"/>
       <c r="M748" s="13"/>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:13">
       <c r="A749" s="13"/>
       <c r="B749" s="13"/>
       <c r="C749" s="13"/>
@@ -12227,7 +12438,7 @@
       <c r="L749" s="13"/>
       <c r="M749" s="13"/>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:13">
       <c r="A750" s="13"/>
       <c r="B750" s="13"/>
       <c r="C750" s="13"/>
@@ -12242,7 +12453,7 @@
       <c r="L750" s="13"/>
       <c r="M750" s="13"/>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:13">
       <c r="A751" s="13"/>
       <c r="B751" s="13"/>
       <c r="C751" s="13"/>
@@ -12257,7 +12468,7 @@
       <c r="L751" s="13"/>
       <c r="M751" s="13"/>
     </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:13">
       <c r="A752" s="13"/>
       <c r="B752" s="13"/>
       <c r="C752" s="13"/>
@@ -12272,7 +12483,7 @@
       <c r="L752" s="13"/>
       <c r="M752" s="13"/>
     </row>
-    <row r="753" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:13">
       <c r="A753" s="13"/>
       <c r="B753" s="13"/>
       <c r="C753" s="13"/>
@@ -12287,7 +12498,7 @@
       <c r="L753" s="13"/>
       <c r="M753" s="13"/>
     </row>
-    <row r="754" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:13">
       <c r="A754" s="13"/>
       <c r="B754" s="13"/>
       <c r="C754" s="13"/>
@@ -12302,7 +12513,7 @@
       <c r="L754" s="13"/>
       <c r="M754" s="13"/>
     </row>
-    <row r="755" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:13">
       <c r="A755" s="13"/>
       <c r="B755" s="13"/>
       <c r="C755" s="13"/>
@@ -12317,7 +12528,7 @@
       <c r="L755" s="13"/>
       <c r="M755" s="13"/>
     </row>
-    <row r="756" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:13">
       <c r="A756" s="13"/>
       <c r="B756" s="13"/>
       <c r="C756" s="13"/>
@@ -12332,7 +12543,7 @@
       <c r="L756" s="13"/>
       <c r="M756" s="13"/>
     </row>
-    <row r="757" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:13">
       <c r="A757" s="13"/>
       <c r="B757" s="13"/>
       <c r="C757" s="13"/>
@@ -12347,7 +12558,7 @@
       <c r="L757" s="13"/>
       <c r="M757" s="13"/>
     </row>
-    <row r="758" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:13">
       <c r="A758" s="13"/>
       <c r="B758" s="13"/>
       <c r="C758" s="13"/>
@@ -12362,7 +12573,7 @@
       <c r="L758" s="13"/>
       <c r="M758" s="13"/>
     </row>
-    <row r="759" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:13">
       <c r="A759" s="13"/>
       <c r="B759" s="13"/>
       <c r="C759" s="13"/>
@@ -12377,7 +12588,7 @@
       <c r="L759" s="13"/>
       <c r="M759" s="13"/>
     </row>
-    <row r="760" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:13">
       <c r="A760" s="13"/>
       <c r="B760" s="13"/>
       <c r="C760" s="13"/>
@@ -12392,7 +12603,7 @@
       <c r="L760" s="13"/>
       <c r="M760" s="13"/>
     </row>
-    <row r="761" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:13">
       <c r="A761" s="13"/>
       <c r="B761" s="13"/>
       <c r="C761" s="13"/>
@@ -12407,7 +12618,7 @@
       <c r="L761" s="13"/>
       <c r="M761" s="13"/>
     </row>
-    <row r="762" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:13">
       <c r="A762" s="13"/>
       <c r="B762" s="13"/>
       <c r="C762" s="13"/>
@@ -12422,7 +12633,7 @@
       <c r="L762" s="13"/>
       <c r="M762" s="13"/>
     </row>
-    <row r="763" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:13">
       <c r="A763" s="13"/>
       <c r="B763" s="13"/>
       <c r="C763" s="13"/>
@@ -12437,7 +12648,7 @@
       <c r="L763" s="13"/>
       <c r="M763" s="13"/>
     </row>
-    <row r="764" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:13">
       <c r="A764" s="13"/>
       <c r="B764" s="13"/>
       <c r="C764" s="13"/>
@@ -12452,7 +12663,7 @@
       <c r="L764" s="13"/>
       <c r="M764" s="13"/>
     </row>
-    <row r="765" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:13">
       <c r="A765" s="13"/>
       <c r="B765" s="13"/>
       <c r="C765" s="13"/>
@@ -12467,7 +12678,7 @@
       <c r="L765" s="13"/>
       <c r="M765" s="13"/>
     </row>
-    <row r="766" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:13">
       <c r="A766" s="13"/>
       <c r="B766" s="13"/>
       <c r="C766" s="13"/>
@@ -12482,7 +12693,7 @@
       <c r="L766" s="13"/>
       <c r="M766" s="13"/>
     </row>
-    <row r="767" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:13">
       <c r="A767" s="13"/>
       <c r="B767" s="13"/>
       <c r="C767" s="13"/>
@@ -12497,7 +12708,7 @@
       <c r="L767" s="13"/>
       <c r="M767" s="13"/>
     </row>
-    <row r="768" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:13">
       <c r="A768" s="13"/>
       <c r="B768" s="13"/>
       <c r="C768" s="13"/>
@@ -12512,7 +12723,7 @@
       <c r="L768" s="13"/>
       <c r="M768" s="13"/>
     </row>
-    <row r="769" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:13">
       <c r="A769" s="13"/>
       <c r="B769" s="13"/>
       <c r="C769" s="13"/>
@@ -12527,7 +12738,7 @@
       <c r="L769" s="13"/>
       <c r="M769" s="13"/>
     </row>
-    <row r="770" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:13">
       <c r="A770" s="13"/>
       <c r="B770" s="13"/>
       <c r="C770" s="13"/>
@@ -12542,7 +12753,7 @@
       <c r="L770" s="13"/>
       <c r="M770" s="13"/>
     </row>
-    <row r="771" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:13">
       <c r="A771" s="13"/>
       <c r="B771" s="13"/>
       <c r="C771" s="13"/>
@@ -12557,7 +12768,7 @@
       <c r="L771" s="13"/>
       <c r="M771" s="13"/>
     </row>
-    <row r="772" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:13">
       <c r="A772" s="13"/>
       <c r="B772" s="13"/>
       <c r="C772" s="13"/>
@@ -12572,7 +12783,7 @@
       <c r="L772" s="13"/>
       <c r="M772" s="13"/>
     </row>
-    <row r="773" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:13">
       <c r="A773" s="13"/>
       <c r="B773" s="13"/>
       <c r="C773" s="13"/>
@@ -12587,7 +12798,7 @@
       <c r="L773" s="13"/>
       <c r="M773" s="13"/>
     </row>
-    <row r="774" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:13">
       <c r="A774" s="13"/>
       <c r="B774" s="13"/>
       <c r="C774" s="13"/>
@@ -12602,7 +12813,7 @@
       <c r="L774" s="13"/>
       <c r="M774" s="13"/>
     </row>
-    <row r="775" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:13">
       <c r="A775" s="13"/>
       <c r="B775" s="13"/>
       <c r="C775" s="13"/>
@@ -12617,7 +12828,7 @@
       <c r="L775" s="13"/>
       <c r="M775" s="13"/>
     </row>
-    <row r="776" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:13">
       <c r="A776" s="13"/>
       <c r="B776" s="13"/>
       <c r="C776" s="13"/>
@@ -12632,7 +12843,7 @@
       <c r="L776" s="13"/>
       <c r="M776" s="13"/>
     </row>
-    <row r="777" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:13">
       <c r="A777" s="13"/>
       <c r="B777" s="13"/>
       <c r="C777" s="13"/>
@@ -12647,7 +12858,7 @@
       <c r="L777" s="13"/>
       <c r="M777" s="13"/>
     </row>
-    <row r="778" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:13">
       <c r="A778" s="13"/>
       <c r="B778" s="13"/>
       <c r="C778" s="13"/>
@@ -12662,7 +12873,7 @@
       <c r="L778" s="13"/>
       <c r="M778" s="13"/>
     </row>
-    <row r="779" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:13">
       <c r="A779" s="13"/>
       <c r="B779" s="13"/>
       <c r="C779" s="13"/>
@@ -12677,7 +12888,7 @@
       <c r="L779" s="13"/>
       <c r="M779" s="13"/>
     </row>
-    <row r="780" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:13">
       <c r="A780" s="13"/>
       <c r="B780" s="13"/>
       <c r="C780" s="13"/>
@@ -12692,7 +12903,7 @@
       <c r="L780" s="13"/>
       <c r="M780" s="13"/>
     </row>
-    <row r="781" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:13">
       <c r="A781" s="13"/>
       <c r="B781" s="13"/>
       <c r="C781" s="13"/>
@@ -12707,7 +12918,7 @@
       <c r="L781" s="13"/>
       <c r="M781" s="13"/>
     </row>
-    <row r="782" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:13">
       <c r="A782" s="13"/>
       <c r="B782" s="13"/>
       <c r="C782" s="13"/>
@@ -12722,7 +12933,7 @@
       <c r="L782" s="13"/>
       <c r="M782" s="13"/>
     </row>
-    <row r="783" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:13">
       <c r="A783" s="13"/>
       <c r="B783" s="13"/>
       <c r="C783" s="13"/>
@@ -12737,7 +12948,7 @@
       <c r="L783" s="13"/>
       <c r="M783" s="13"/>
     </row>
-    <row r="784" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:13">
       <c r="A784" s="13"/>
       <c r="B784" s="13"/>
       <c r="C784" s="13"/>
@@ -12752,7 +12963,7 @@
       <c r="L784" s="13"/>
       <c r="M784" s="13"/>
     </row>
-    <row r="785" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:13">
       <c r="A785" s="13"/>
       <c r="B785" s="13"/>
       <c r="C785" s="13"/>
@@ -12767,7 +12978,7 @@
       <c r="L785" s="13"/>
       <c r="M785" s="13"/>
     </row>
-    <row r="786" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:13">
       <c r="A786" s="13"/>
       <c r="B786" s="13"/>
       <c r="C786" s="13"/>
@@ -12782,7 +12993,7 @@
       <c r="L786" s="13"/>
       <c r="M786" s="13"/>
     </row>
-    <row r="787" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:13">
       <c r="A787" s="13"/>
       <c r="B787" s="13"/>
       <c r="C787" s="13"/>
@@ -12797,7 +13008,7 @@
       <c r="L787" s="13"/>
       <c r="M787" s="13"/>
     </row>
-    <row r="788" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:13">
       <c r="A788" s="13"/>
       <c r="B788" s="13"/>
       <c r="C788" s="13"/>
@@ -12812,7 +13023,7 @@
       <c r="L788" s="13"/>
       <c r="M788" s="13"/>
     </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:13">
       <c r="A789" s="13"/>
       <c r="B789" s="13"/>
       <c r="C789" s="13"/>
@@ -12827,7 +13038,7 @@
       <c r="L789" s="13"/>
       <c r="M789" s="13"/>
     </row>
-    <row r="790" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:13">
       <c r="A790" s="13"/>
       <c r="B790" s="13"/>
       <c r="C790" s="13"/>
@@ -12842,7 +13053,7 @@
       <c r="L790" s="13"/>
       <c r="M790" s="13"/>
     </row>
-    <row r="791" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:13">
       <c r="A791" s="13"/>
       <c r="B791" s="13"/>
       <c r="C791" s="13"/>
@@ -12857,7 +13068,7 @@
       <c r="L791" s="13"/>
       <c r="M791" s="13"/>
     </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:13">
       <c r="A792" s="13"/>
       <c r="B792" s="13"/>
       <c r="C792" s="13"/>
@@ -12872,7 +13083,7 @@
       <c r="L792" s="13"/>
       <c r="M792" s="13"/>
     </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:13">
       <c r="A793" s="13"/>
       <c r="B793" s="13"/>
       <c r="C793" s="13"/>
@@ -12887,7 +13098,7 @@
       <c r="L793" s="13"/>
       <c r="M793" s="13"/>
     </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:13">
       <c r="A794" s="13"/>
       <c r="B794" s="13"/>
       <c r="C794" s="13"/>
@@ -12902,7 +13113,7 @@
       <c r="L794" s="13"/>
       <c r="M794" s="13"/>
     </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:13">
       <c r="A795" s="13"/>
       <c r="B795" s="13"/>
       <c r="C795" s="13"/>
@@ -12917,7 +13128,7 @@
       <c r="L795" s="13"/>
       <c r="M795" s="13"/>
     </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:13">
       <c r="A796" s="13"/>
       <c r="B796" s="13"/>
       <c r="C796" s="13"/>
@@ -12932,7 +13143,7 @@
       <c r="L796" s="13"/>
       <c r="M796" s="13"/>
     </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:13">
       <c r="A797" s="13"/>
       <c r="B797" s="13"/>
       <c r="C797" s="13"/>
@@ -12947,7 +13158,7 @@
       <c r="L797" s="13"/>
       <c r="M797" s="13"/>
     </row>
-    <row r="798" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:13">
       <c r="A798" s="13"/>
       <c r="B798" s="13"/>
       <c r="C798" s="13"/>
@@ -12962,7 +13173,7 @@
       <c r="L798" s="13"/>
       <c r="M798" s="13"/>
     </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:13">
       <c r="A799" s="13"/>
       <c r="B799" s="13"/>
       <c r="C799" s="13"/>
@@ -12977,7 +13188,7 @@
       <c r="L799" s="13"/>
       <c r="M799" s="13"/>
     </row>
-    <row r="800" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:13">
       <c r="A800" s="13"/>
       <c r="B800" s="13"/>
       <c r="C800" s="13"/>
@@ -12992,7 +13203,7 @@
       <c r="L800" s="13"/>
       <c r="M800" s="13"/>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:13">
       <c r="A801" s="13"/>
       <c r="B801" s="13"/>
       <c r="C801" s="13"/>
@@ -13007,7 +13218,7 @@
       <c r="L801" s="13"/>
       <c r="M801" s="13"/>
     </row>
-    <row r="802" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:13">
       <c r="A802" s="13"/>
       <c r="B802" s="13"/>
       <c r="C802" s="13"/>
@@ -13022,7 +13233,7 @@
       <c r="L802" s="13"/>
       <c r="M802" s="13"/>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:13">
       <c r="A803" s="13"/>
       <c r="B803" s="13"/>
       <c r="C803" s="13"/>
@@ -13037,7 +13248,7 @@
       <c r="L803" s="13"/>
       <c r="M803" s="13"/>
     </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:13">
       <c r="A804" s="13"/>
       <c r="B804" s="13"/>
       <c r="C804" s="13"/>
@@ -13052,7 +13263,7 @@
       <c r="L804" s="13"/>
       <c r="M804" s="13"/>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:13">
       <c r="A805" s="13"/>
       <c r="B805" s="13"/>
       <c r="C805" s="13"/>
@@ -13067,7 +13278,7 @@
       <c r="L805" s="13"/>
       <c r="M805" s="13"/>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:13">
       <c r="A806" s="13"/>
       <c r="B806" s="13"/>
       <c r="C806" s="13"/>
@@ -13082,7 +13293,7 @@
       <c r="L806" s="13"/>
       <c r="M806" s="13"/>
     </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:13">
       <c r="A807" s="13"/>
       <c r="B807" s="13"/>
       <c r="C807" s="13"/>
@@ -13097,7 +13308,7 @@
       <c r="L807" s="13"/>
       <c r="M807" s="13"/>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:13">
       <c r="A808" s="13"/>
       <c r="B808" s="13"/>
       <c r="C808" s="13"/>
@@ -13112,7 +13323,7 @@
       <c r="L808" s="13"/>
       <c r="M808" s="13"/>
     </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:13">
       <c r="A809" s="13"/>
       <c r="B809" s="13"/>
       <c r="C809" s="13"/>
@@ -13127,7 +13338,7 @@
       <c r="L809" s="13"/>
       <c r="M809" s="13"/>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:13">
       <c r="A810" s="13"/>
       <c r="B810" s="13"/>
       <c r="C810" s="13"/>
@@ -13142,7 +13353,7 @@
       <c r="L810" s="13"/>
       <c r="M810" s="13"/>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:13">
       <c r="A811" s="13"/>
       <c r="B811" s="13"/>
       <c r="C811" s="13"/>
@@ -13157,7 +13368,7 @@
       <c r="L811" s="13"/>
       <c r="M811" s="13"/>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:13">
       <c r="A812" s="13"/>
       <c r="B812" s="13"/>
       <c r="C812" s="13"/>
@@ -13172,7 +13383,7 @@
       <c r="L812" s="13"/>
       <c r="M812" s="13"/>
     </row>
-    <row r="813" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:13">
       <c r="A813" s="13"/>
       <c r="B813" s="13"/>
       <c r="C813" s="13"/>
@@ -13187,7 +13398,7 @@
       <c r="L813" s="13"/>
       <c r="M813" s="13"/>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:13">
       <c r="A814" s="13"/>
       <c r="B814" s="13"/>
       <c r="C814" s="13"/>
@@ -13202,7 +13413,7 @@
       <c r="L814" s="13"/>
       <c r="M814" s="13"/>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:13">
       <c r="A815" s="13"/>
       <c r="B815" s="13"/>
       <c r="C815" s="13"/>
@@ -13217,7 +13428,7 @@
       <c r="L815" s="13"/>
       <c r="M815" s="13"/>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:13">
       <c r="A816" s="13"/>
       <c r="B816" s="13"/>
       <c r="C816" s="13"/>
@@ -13232,7 +13443,7 @@
       <c r="L816" s="13"/>
       <c r="M816" s="13"/>
     </row>
-    <row r="817" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:13">
       <c r="A817" s="13"/>
       <c r="B817" s="13"/>
       <c r="C817" s="13"/>
@@ -13247,7 +13458,7 @@
       <c r="L817" s="13"/>
       <c r="M817" s="13"/>
     </row>
-    <row r="818" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:13">
       <c r="A818" s="13"/>
       <c r="B818" s="13"/>
       <c r="C818" s="13"/>
@@ -13262,7 +13473,7 @@
       <c r="L818" s="13"/>
       <c r="M818" s="13"/>
     </row>
-    <row r="819" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:13">
       <c r="A819" s="13"/>
       <c r="B819" s="13"/>
       <c r="C819" s="13"/>
@@ -13277,7 +13488,7 @@
       <c r="L819" s="13"/>
       <c r="M819" s="13"/>
     </row>
-    <row r="820" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:13">
       <c r="A820" s="13"/>
       <c r="B820" s="13"/>
       <c r="C820" s="13"/>
@@ -13292,7 +13503,7 @@
       <c r="L820" s="13"/>
       <c r="M820" s="13"/>
     </row>
-    <row r="821" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:13">
       <c r="A821" s="13"/>
       <c r="B821" s="13"/>
       <c r="C821" s="13"/>
@@ -13307,7 +13518,7 @@
       <c r="L821" s="13"/>
       <c r="M821" s="13"/>
     </row>
-    <row r="822" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:13">
       <c r="A822" s="13"/>
       <c r="B822" s="13"/>
       <c r="C822" s="13"/>
@@ -13322,7 +13533,7 @@
       <c r="L822" s="13"/>
       <c r="M822" s="13"/>
     </row>
-    <row r="823" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:13">
       <c r="A823" s="13"/>
       <c r="B823" s="13"/>
       <c r="C823" s="13"/>
@@ -13337,7 +13548,7 @@
       <c r="L823" s="13"/>
       <c r="M823" s="13"/>
     </row>
-    <row r="824" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:13">
       <c r="A824" s="13"/>
       <c r="B824" s="13"/>
       <c r="C824" s="13"/>
@@ -13352,7 +13563,7 @@
       <c r="L824" s="13"/>
       <c r="M824" s="13"/>
     </row>
-    <row r="825" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:13">
       <c r="A825" s="13"/>
       <c r="B825" s="13"/>
       <c r="C825" s="13"/>
@@ -13367,7 +13578,7 @@
       <c r="L825" s="13"/>
       <c r="M825" s="13"/>
     </row>
-    <row r="826" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:13">
       <c r="A826" s="13"/>
       <c r="B826" s="13"/>
       <c r="C826" s="13"/>
@@ -13382,7 +13593,7 @@
       <c r="L826" s="13"/>
       <c r="M826" s="13"/>
     </row>
-    <row r="827" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:13">
       <c r="A827" s="13"/>
       <c r="B827" s="13"/>
       <c r="C827" s="13"/>
@@ -13397,7 +13608,7 @@
       <c r="L827" s="13"/>
       <c r="M827" s="13"/>
     </row>
-    <row r="828" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:13">
       <c r="A828" s="13"/>
       <c r="B828" s="13"/>
       <c r="C828" s="13"/>
@@ -13412,7 +13623,7 @@
       <c r="L828" s="13"/>
       <c r="M828" s="13"/>
     </row>
-    <row r="829" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:13">
       <c r="A829" s="13"/>
       <c r="B829" s="13"/>
       <c r="C829" s="13"/>
@@ -13427,7 +13638,7 @@
       <c r="L829" s="13"/>
       <c r="M829" s="13"/>
     </row>
-    <row r="830" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:13">
       <c r="A830" s="13"/>
       <c r="B830" s="13"/>
       <c r="C830" s="13"/>
@@ -13442,7 +13653,7 @@
       <c r="L830" s="13"/>
       <c r="M830" s="13"/>
     </row>
-    <row r="831" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:13">
       <c r="A831" s="13"/>
       <c r="B831" s="13"/>
       <c r="C831" s="13"/>
@@ -13457,7 +13668,7 @@
       <c r="L831" s="13"/>
       <c r="M831" s="13"/>
     </row>
-    <row r="832" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:13">
       <c r="A832" s="13"/>
       <c r="B832" s="13"/>
       <c r="C832" s="13"/>
@@ -13472,7 +13683,7 @@
       <c r="L832" s="13"/>
       <c r="M832" s="13"/>
     </row>
-    <row r="833" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:13">
       <c r="A833" s="13"/>
       <c r="B833" s="13"/>
       <c r="C833" s="13"/>
@@ -13487,7 +13698,7 @@
       <c r="L833" s="13"/>
       <c r="M833" s="13"/>
     </row>
-    <row r="834" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:13">
       <c r="A834" s="13"/>
       <c r="B834" s="13"/>
       <c r="C834" s="13"/>
@@ -13502,7 +13713,7 @@
       <c r="L834" s="13"/>
       <c r="M834" s="13"/>
     </row>
-    <row r="835" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:13">
       <c r="A835" s="13"/>
       <c r="B835" s="13"/>
       <c r="C835" s="13"/>
@@ -13517,7 +13728,7 @@
       <c r="L835" s="13"/>
       <c r="M835" s="13"/>
     </row>
-    <row r="836" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:13">
       <c r="A836" s="13"/>
       <c r="B836" s="13"/>
       <c r="C836" s="13"/>
@@ -13532,7 +13743,7 @@
       <c r="L836" s="13"/>
       <c r="M836" s="13"/>
     </row>
-    <row r="837" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:13">
       <c r="A837" s="13"/>
       <c r="B837" s="13"/>
       <c r="C837" s="13"/>
@@ -13547,7 +13758,7 @@
       <c r="L837" s="13"/>
       <c r="M837" s="13"/>
     </row>
-    <row r="838" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:13">
       <c r="A838" s="13"/>
       <c r="B838" s="13"/>
       <c r="C838" s="13"/>
@@ -13562,7 +13773,7 @@
       <c r="L838" s="13"/>
       <c r="M838" s="13"/>
     </row>
-    <row r="839" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:13">
       <c r="A839" s="13"/>
       <c r="B839" s="13"/>
       <c r="C839" s="13"/>
@@ -13577,7 +13788,7 @@
       <c r="L839" s="13"/>
       <c r="M839" s="13"/>
     </row>
-    <row r="840" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:13">
       <c r="A840" s="13"/>
       <c r="B840" s="13"/>
       <c r="C840" s="13"/>
@@ -13592,7 +13803,7 @@
       <c r="L840" s="13"/>
       <c r="M840" s="13"/>
     </row>
-    <row r="841" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:13">
       <c r="A841" s="13"/>
       <c r="B841" s="13"/>
       <c r="C841" s="13"/>
@@ -13607,7 +13818,7 @@
       <c r="L841" s="13"/>
       <c r="M841" s="13"/>
     </row>
-    <row r="842" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:13">
       <c r="A842" s="13"/>
       <c r="B842" s="13"/>
       <c r="C842" s="13"/>
@@ -13622,7 +13833,7 @@
       <c r="L842" s="13"/>
       <c r="M842" s="13"/>
     </row>
-    <row r="843" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:13">
       <c r="A843" s="13"/>
       <c r="B843" s="13"/>
       <c r="C843" s="13"/>
@@ -13637,7 +13848,7 @@
       <c r="L843" s="13"/>
       <c r="M843" s="13"/>
     </row>
-    <row r="844" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:13">
       <c r="A844" s="13"/>
       <c r="B844" s="13"/>
       <c r="C844" s="13"/>
@@ -13652,7 +13863,7 @@
       <c r="L844" s="13"/>
       <c r="M844" s="13"/>
     </row>
-    <row r="845" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:13">
       <c r="A845" s="13"/>
       <c r="B845" s="13"/>
       <c r="C845" s="13"/>
@@ -13667,7 +13878,7 @@
       <c r="L845" s="13"/>
       <c r="M845" s="13"/>
     </row>
-    <row r="846" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:13">
       <c r="A846" s="13"/>
       <c r="B846" s="13"/>
       <c r="C846" s="13"/>
@@ -13682,7 +13893,7 @@
       <c r="L846" s="13"/>
       <c r="M846" s="13"/>
     </row>
-    <row r="847" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:13">
       <c r="A847" s="13"/>
       <c r="B847" s="13"/>
       <c r="C847" s="13"/>
@@ -13697,7 +13908,7 @@
       <c r="L847" s="13"/>
       <c r="M847" s="13"/>
     </row>
-    <row r="848" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:13">
       <c r="A848" s="13"/>
       <c r="B848" s="13"/>
       <c r="C848" s="13"/>
@@ -13712,7 +13923,7 @@
       <c r="L848" s="13"/>
       <c r="M848" s="13"/>
     </row>
-    <row r="849" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:13">
       <c r="A849" s="13"/>
       <c r="B849" s="13"/>
       <c r="C849" s="13"/>
@@ -13727,7 +13938,7 @@
       <c r="L849" s="13"/>
       <c r="M849" s="13"/>
     </row>
-    <row r="850" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:13">
       <c r="A850" s="13"/>
       <c r="B850" s="13"/>
       <c r="C850" s="13"/>
@@ -13742,7 +13953,7 @@
       <c r="L850" s="13"/>
       <c r="M850" s="13"/>
     </row>
-    <row r="851" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:13">
       <c r="A851" s="13"/>
       <c r="B851" s="13"/>
       <c r="C851" s="13"/>
@@ -13757,7 +13968,7 @@
       <c r="L851" s="13"/>
       <c r="M851" s="13"/>
     </row>
-    <row r="852" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:13">
       <c r="A852" s="13"/>
       <c r="B852" s="13"/>
       <c r="C852" s="13"/>
@@ -13772,7 +13983,7 @@
       <c r="L852" s="13"/>
       <c r="M852" s="13"/>
     </row>
-    <row r="853" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:13">
       <c r="A853" s="13"/>
       <c r="B853" s="13"/>
       <c r="C853" s="13"/>
@@ -13787,7 +13998,7 @@
       <c r="L853" s="13"/>
       <c r="M853" s="13"/>
     </row>
-    <row r="854" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:13">
       <c r="A854" s="13"/>
       <c r="B854" s="13"/>
       <c r="C854" s="13"/>
@@ -13802,7 +14013,7 @@
       <c r="L854" s="13"/>
       <c r="M854" s="13"/>
     </row>
-    <row r="855" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:13">
       <c r="A855" s="13"/>
       <c r="B855" s="13"/>
       <c r="C855" s="13"/>
@@ -13817,7 +14028,7 @@
       <c r="L855" s="13"/>
       <c r="M855" s="13"/>
     </row>
-    <row r="856" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:13">
       <c r="A856" s="13"/>
       <c r="B856" s="13"/>
       <c r="C856" s="13"/>
@@ -13832,7 +14043,7 @@
       <c r="L856" s="13"/>
       <c r="M856" s="13"/>
     </row>
-    <row r="857" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:13">
       <c r="A857" s="13"/>
       <c r="B857" s="13"/>
       <c r="C857" s="13"/>
@@ -13847,7 +14058,7 @@
       <c r="L857" s="13"/>
       <c r="M857" s="13"/>
     </row>
-    <row r="858" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:13">
       <c r="A858" s="13"/>
       <c r="B858" s="13"/>
       <c r="C858" s="13"/>
@@ -13862,7 +14073,7 @@
       <c r="L858" s="13"/>
       <c r="M858" s="13"/>
     </row>
-    <row r="859" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:13">
       <c r="A859" s="13"/>
       <c r="B859" s="13"/>
       <c r="C859" s="13"/>
@@ -13877,7 +14088,7 @@
       <c r="L859" s="13"/>
       <c r="M859" s="13"/>
     </row>
-    <row r="860" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:13">
       <c r="A860" s="13"/>
       <c r="B860" s="13"/>
       <c r="C860" s="13"/>
@@ -13892,7 +14103,7 @@
       <c r="L860" s="13"/>
       <c r="M860" s="13"/>
     </row>
-    <row r="861" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:13">
       <c r="A861" s="13"/>
       <c r="B861" s="13"/>
       <c r="C861" s="13"/>
@@ -13907,7 +14118,7 @@
       <c r="L861" s="13"/>
       <c r="M861" s="13"/>
     </row>
-    <row r="862" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:13">
       <c r="A862" s="13"/>
       <c r="B862" s="13"/>
       <c r="C862" s="13"/>
@@ -13922,7 +14133,7 @@
       <c r="L862" s="13"/>
       <c r="M862" s="13"/>
     </row>
-    <row r="863" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:13">
       <c r="A863" s="13"/>
       <c r="B863" s="13"/>
       <c r="C863" s="13"/>
@@ -13937,7 +14148,7 @@
       <c r="L863" s="13"/>
       <c r="M863" s="13"/>
     </row>
-    <row r="864" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:13">
       <c r="A864" s="13"/>
       <c r="B864" s="13"/>
       <c r="C864" s="13"/>
@@ -13952,7 +14163,7 @@
       <c r="L864" s="13"/>
       <c r="M864" s="13"/>
     </row>
-    <row r="865" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:13">
       <c r="A865" s="13"/>
       <c r="B865" s="13"/>
       <c r="C865" s="13"/>
@@ -13967,7 +14178,7 @@
       <c r="L865" s="13"/>
       <c r="M865" s="13"/>
     </row>
-    <row r="866" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:13">
       <c r="A866" s="13"/>
       <c r="B866" s="13"/>
       <c r="C866" s="13"/>
@@ -13982,7 +14193,7 @@
       <c r="L866" s="13"/>
       <c r="M866" s="13"/>
     </row>
-    <row r="867" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:13">
       <c r="A867" s="13"/>
       <c r="B867" s="13"/>
       <c r="C867" s="13"/>
@@ -13997,7 +14208,7 @@
       <c r="L867" s="13"/>
       <c r="M867" s="13"/>
     </row>
-    <row r="868" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:13">
       <c r="A868" s="13"/>
       <c r="B868" s="13"/>
       <c r="C868" s="13"/>
@@ -14012,7 +14223,7 @@
       <c r="L868" s="13"/>
       <c r="M868" s="13"/>
     </row>
-    <row r="869" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:13">
       <c r="A869" s="13"/>
       <c r="B869" s="13"/>
       <c r="C869" s="13"/>
@@ -14027,7 +14238,7 @@
       <c r="L869" s="13"/>
       <c r="M869" s="13"/>
     </row>
-    <row r="870" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:13">
       <c r="A870" s="13"/>
       <c r="B870" s="13"/>
       <c r="C870" s="13"/>
@@ -14042,7 +14253,7 @@
       <c r="L870" s="13"/>
       <c r="M870" s="13"/>
     </row>
-    <row r="871" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:13">
       <c r="A871" s="13"/>
       <c r="B871" s="13"/>
       <c r="C871" s="13"/>
@@ -14057,7 +14268,7 @@
       <c r="L871" s="13"/>
       <c r="M871" s="13"/>
     </row>
-    <row r="872" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:13">
       <c r="A872" s="13"/>
       <c r="B872" s="13"/>
       <c r="C872" s="13"/>
@@ -14072,7 +14283,7 @@
       <c r="L872" s="13"/>
       <c r="M872" s="13"/>
     </row>
-    <row r="873" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:13">
       <c r="A873" s="13"/>
       <c r="B873" s="13"/>
       <c r="C873" s="13"/>
@@ -14087,7 +14298,7 @@
       <c r="L873" s="13"/>
       <c r="M873" s="13"/>
     </row>
-    <row r="874" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:13">
       <c r="A874" s="13"/>
       <c r="B874" s="13"/>
       <c r="C874" s="13"/>
@@ -14102,7 +14313,7 @@
       <c r="L874" s="13"/>
       <c r="M874" s="13"/>
     </row>
-    <row r="875" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:13">
       <c r="A875" s="13"/>
       <c r="B875" s="13"/>
       <c r="C875" s="13"/>
@@ -14117,7 +14328,7 @@
       <c r="L875" s="13"/>
       <c r="M875" s="13"/>
     </row>
-    <row r="876" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:13">
       <c r="A876" s="13"/>
       <c r="B876" s="13"/>
       <c r="C876" s="13"/>
@@ -14132,7 +14343,7 @@
       <c r="L876" s="13"/>
       <c r="M876" s="13"/>
     </row>
-    <row r="877" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:13">
       <c r="A877" s="13"/>
       <c r="B877" s="13"/>
       <c r="C877" s="13"/>
@@ -14147,7 +14358,7 @@
       <c r="L877" s="13"/>
       <c r="M877" s="13"/>
     </row>
-    <row r="878" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:13">
       <c r="A878" s="13"/>
       <c r="B878" s="13"/>
       <c r="C878" s="13"/>
@@ -14162,7 +14373,7 @@
       <c r="L878" s="13"/>
       <c r="M878" s="13"/>
     </row>
-    <row r="879" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:13">
       <c r="A879" s="13"/>
       <c r="B879" s="13"/>
       <c r="C879" s="13"/>
@@ -14177,7 +14388,7 @@
       <c r="L879" s="13"/>
       <c r="M879" s="13"/>
     </row>
-    <row r="880" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:13">
       <c r="A880" s="13"/>
       <c r="B880" s="13"/>
       <c r="C880" s="13"/>
@@ -14192,7 +14403,7 @@
       <c r="L880" s="13"/>
       <c r="M880" s="13"/>
     </row>
-    <row r="881" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:13">
       <c r="A881" s="13"/>
       <c r="B881" s="13"/>
       <c r="C881" s="13"/>
@@ -14207,7 +14418,7 @@
       <c r="L881" s="13"/>
       <c r="M881" s="13"/>
     </row>
-    <row r="882" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:13">
       <c r="A882" s="13"/>
       <c r="B882" s="13"/>
       <c r="C882" s="13"/>
@@ -14222,7 +14433,7 @@
       <c r="L882" s="13"/>
       <c r="M882" s="13"/>
     </row>
-    <row r="883" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:13">
       <c r="A883" s="13"/>
       <c r="B883" s="13"/>
       <c r="C883" s="13"/>
@@ -14237,7 +14448,7 @@
       <c r="L883" s="13"/>
       <c r="M883" s="13"/>
     </row>
-    <row r="884" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:13">
       <c r="A884" s="13"/>
       <c r="B884" s="13"/>
       <c r="C884" s="13"/>
@@ -14252,7 +14463,7 @@
       <c r="L884" s="13"/>
       <c r="M884" s="13"/>
     </row>
-    <row r="885" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:13">
       <c r="A885" s="13"/>
       <c r="B885" s="13"/>
       <c r="C885" s="13"/>
@@ -14267,7 +14478,7 @@
       <c r="L885" s="13"/>
       <c r="M885" s="13"/>
     </row>
-    <row r="886" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:13">
       <c r="A886" s="13"/>
       <c r="B886" s="13"/>
       <c r="C886" s="13"/>
@@ -14282,7 +14493,7 @@
       <c r="L886" s="13"/>
       <c r="M886" s="13"/>
     </row>
-    <row r="887" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:13">
       <c r="A887" s="13"/>
       <c r="B887" s="13"/>
       <c r="C887" s="13"/>
@@ -14297,7 +14508,7 @@
       <c r="L887" s="13"/>
       <c r="M887" s="13"/>
     </row>
-    <row r="888" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:13">
       <c r="A888" s="13"/>
       <c r="B888" s="13"/>
       <c r="C888" s="13"/>
@@ -14312,7 +14523,7 @@
       <c r="L888" s="13"/>
       <c r="M888" s="13"/>
     </row>
-    <row r="889" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:13">
       <c r="A889" s="13"/>
       <c r="B889" s="13"/>
       <c r="C889" s="13"/>
@@ -14327,7 +14538,7 @@
       <c r="L889" s="13"/>
       <c r="M889" s="13"/>
     </row>
-    <row r="890" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:13">
       <c r="A890" s="13"/>
       <c r="B890" s="13"/>
       <c r="C890" s="13"/>
@@ -14342,7 +14553,7 @@
       <c r="L890" s="13"/>
       <c r="M890" s="13"/>
     </row>
-    <row r="891" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:13">
       <c r="A891" s="13"/>
       <c r="B891" s="13"/>
       <c r="C891" s="13"/>
@@ -14357,7 +14568,7 @@
       <c r="L891" s="13"/>
       <c r="M891" s="13"/>
     </row>
-    <row r="892" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:13">
       <c r="A892" s="13"/>
       <c r="B892" s="13"/>
       <c r="C892" s="13"/>
@@ -14372,7 +14583,7 @@
       <c r="L892" s="13"/>
       <c r="M892" s="13"/>
     </row>
-    <row r="893" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:13">
       <c r="A893" s="13"/>
       <c r="B893" s="13"/>
       <c r="C893" s="13"/>
@@ -14387,7 +14598,7 @@
       <c r="L893" s="13"/>
       <c r="M893" s="13"/>
     </row>
-    <row r="894" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:13">
       <c r="A894" s="13"/>
       <c r="B894" s="13"/>
       <c r="C894" s="13"/>
@@ -14402,7 +14613,7 @@
       <c r="L894" s="13"/>
       <c r="M894" s="13"/>
     </row>
-    <row r="895" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:13">
       <c r="A895" s="13"/>
       <c r="B895" s="13"/>
       <c r="C895" s="13"/>
@@ -14417,7 +14628,7 @@
       <c r="L895" s="13"/>
       <c r="M895" s="13"/>
     </row>
-    <row r="896" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:13">
       <c r="A896" s="13"/>
       <c r="B896" s="13"/>
       <c r="C896" s="13"/>
@@ -14432,7 +14643,7 @@
       <c r="L896" s="13"/>
       <c r="M896" s="13"/>
     </row>
-    <row r="897" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:13">
       <c r="A897" s="13"/>
       <c r="B897" s="13"/>
       <c r="C897" s="13"/>
@@ -14447,7 +14658,7 @@
       <c r="L897" s="13"/>
       <c r="M897" s="13"/>
     </row>
-    <row r="898" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:13">
       <c r="A898" s="13"/>
       <c r="B898" s="13"/>
       <c r="C898" s="13"/>
@@ -14462,7 +14673,7 @@
       <c r="L898" s="13"/>
       <c r="M898" s="13"/>
     </row>
-    <row r="899" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:13">
       <c r="A899" s="13"/>
       <c r="B899" s="13"/>
       <c r="C899" s="13"/>
@@ -14477,7 +14688,7 @@
       <c r="L899" s="13"/>
       <c r="M899" s="13"/>
     </row>
-    <row r="900" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:13">
       <c r="A900" s="13"/>
       <c r="B900" s="13"/>
       <c r="C900" s="13"/>
@@ -14492,7 +14703,7 @@
       <c r="L900" s="13"/>
       <c r="M900" s="13"/>
     </row>
-    <row r="901" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:13">
       <c r="A901" s="13"/>
       <c r="B901" s="13"/>
       <c r="C901" s="13"/>
@@ -14507,7 +14718,7 @@
       <c r="L901" s="13"/>
       <c r="M901" s="13"/>
     </row>
-    <row r="902" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:13">
       <c r="A902" s="13"/>
       <c r="B902" s="13"/>
       <c r="C902" s="13"/>
@@ -14522,7 +14733,7 @@
       <c r="L902" s="13"/>
       <c r="M902" s="13"/>
     </row>
-    <row r="903" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:13">
       <c r="A903" s="13"/>
       <c r="B903" s="13"/>
       <c r="C903" s="13"/>
@@ -14537,7 +14748,7 @@
       <c r="L903" s="13"/>
       <c r="M903" s="13"/>
     </row>
-    <row r="904" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:13">
       <c r="A904" s="13"/>
       <c r="B904" s="13"/>
       <c r="C904" s="13"/>
@@ -14552,7 +14763,7 @@
       <c r="L904" s="13"/>
       <c r="M904" s="13"/>
     </row>
-    <row r="905" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:13">
       <c r="A905" s="13"/>
       <c r="B905" s="13"/>
       <c r="C905" s="13"/>
@@ -14567,7 +14778,7 @@
       <c r="L905" s="13"/>
       <c r="M905" s="13"/>
     </row>
-    <row r="906" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:13">
       <c r="A906" s="13"/>
       <c r="B906" s="13"/>
       <c r="C906" s="13"/>
@@ -14582,7 +14793,7 @@
       <c r="L906" s="13"/>
       <c r="M906" s="13"/>
     </row>
-    <row r="907" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:13">
       <c r="A907" s="13"/>
       <c r="B907" s="13"/>
       <c r="C907" s="13"/>
@@ -14597,7 +14808,7 @@
       <c r="L907" s="13"/>
       <c r="M907" s="13"/>
     </row>
-    <row r="908" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:13">
       <c r="A908" s="13"/>
       <c r="B908" s="13"/>
       <c r="C908" s="13"/>
@@ -14612,7 +14823,7 @@
       <c r="L908" s="13"/>
       <c r="M908" s="13"/>
     </row>
-    <row r="909" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:13">
       <c r="A909" s="13"/>
       <c r="B909" s="13"/>
       <c r="C909" s="13"/>
@@ -14627,7 +14838,7 @@
       <c r="L909" s="13"/>
       <c r="M909" s="13"/>
     </row>
-    <row r="910" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:13">
       <c r="A910" s="13"/>
       <c r="B910" s="13"/>
       <c r="C910" s="13"/>
@@ -14642,7 +14853,7 @@
       <c r="L910" s="13"/>
       <c r="M910" s="13"/>
     </row>
-    <row r="911" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:13">
       <c r="A911" s="13"/>
       <c r="B911" s="13"/>
       <c r="C911" s="13"/>
@@ -14657,7 +14868,7 @@
       <c r="L911" s="13"/>
       <c r="M911" s="13"/>
     </row>
-    <row r="912" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:13">
       <c r="A912" s="13"/>
       <c r="B912" s="13"/>
       <c r="C912" s="13"/>
@@ -14672,7 +14883,7 @@
       <c r="L912" s="13"/>
       <c r="M912" s="13"/>
     </row>
-    <row r="913" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:13">
       <c r="A913" s="13"/>
       <c r="B913" s="13"/>
       <c r="C913" s="13"/>
@@ -14687,7 +14898,7 @@
       <c r="L913" s="13"/>
       <c r="M913" s="13"/>
     </row>
-    <row r="914" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:13">
       <c r="A914" s="13"/>
       <c r="B914" s="13"/>
       <c r="C914" s="13"/>
@@ -14702,7 +14913,7 @@
       <c r="L914" s="13"/>
       <c r="M914" s="13"/>
     </row>
-    <row r="915" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:13">
       <c r="A915" s="13"/>
       <c r="B915" s="13"/>
       <c r="C915" s="13"/>
@@ -14717,7 +14928,7 @@
       <c r="L915" s="13"/>
       <c r="M915" s="13"/>
     </row>
-    <row r="916" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:13">
       <c r="A916" s="13"/>
       <c r="B916" s="13"/>
       <c r="C916" s="13"/>
@@ -14732,7 +14943,7 @@
       <c r="L916" s="13"/>
       <c r="M916" s="13"/>
     </row>
-    <row r="917" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:13">
       <c r="A917" s="13"/>
       <c r="B917" s="13"/>
       <c r="C917" s="13"/>
@@ -14747,7 +14958,7 @@
       <c r="L917" s="13"/>
       <c r="M917" s="13"/>
     </row>
-    <row r="918" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:13">
       <c r="A918" s="13"/>
       <c r="B918" s="13"/>
       <c r="C918" s="13"/>
@@ -14762,7 +14973,7 @@
       <c r="L918" s="13"/>
       <c r="M918" s="13"/>
     </row>
-    <row r="919" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:13">
       <c r="A919" s="13"/>
       <c r="B919" s="13"/>
       <c r="C919" s="13"/>
@@ -14777,7 +14988,7 @@
       <c r="L919" s="13"/>
       <c r="M919" s="13"/>
     </row>
-    <row r="920" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:13">
       <c r="A920" s="13"/>
       <c r="B920" s="13"/>
       <c r="C920" s="13"/>
@@ -14792,7 +15003,7 @@
       <c r="L920" s="13"/>
       <c r="M920" s="13"/>
     </row>
-    <row r="921" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:13">
       <c r="A921" s="13"/>
       <c r="B921" s="13"/>
       <c r="C921" s="13"/>
@@ -14807,7 +15018,7 @@
       <c r="L921" s="13"/>
       <c r="M921" s="13"/>
     </row>
-    <row r="922" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:13">
       <c r="A922" s="13"/>
       <c r="B922" s="13"/>
       <c r="C922" s="13"/>
@@ -14822,7 +15033,7 @@
       <c r="L922" s="13"/>
       <c r="M922" s="13"/>
     </row>
-    <row r="923" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:13">
       <c r="A923" s="13"/>
       <c r="B923" s="13"/>
       <c r="C923" s="13"/>
@@ -14837,7 +15048,7 @@
       <c r="L923" s="13"/>
       <c r="M923" s="13"/>
     </row>
-    <row r="924" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:13">
       <c r="A924" s="13"/>
       <c r="B924" s="13"/>
       <c r="C924" s="13"/>
@@ -14852,7 +15063,7 @@
       <c r="L924" s="13"/>
       <c r="M924" s="13"/>
     </row>
-    <row r="925" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:13">
       <c r="A925" s="13"/>
       <c r="B925" s="13"/>
       <c r="C925" s="13"/>
@@ -14867,7 +15078,7 @@
       <c r="L925" s="13"/>
       <c r="M925" s="13"/>
     </row>
-    <row r="926" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:13">
       <c r="A926" s="13"/>
       <c r="B926" s="13"/>
       <c r="C926" s="13"/>
@@ -14882,7 +15093,7 @@
       <c r="L926" s="13"/>
       <c r="M926" s="13"/>
     </row>
-    <row r="927" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:13">
       <c r="A927" s="13"/>
       <c r="B927" s="13"/>
       <c r="C927" s="13"/>
@@ -14897,7 +15108,7 @@
       <c r="L927" s="13"/>
       <c r="M927" s="13"/>
     </row>
-    <row r="928" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:13">
       <c r="A928" s="13"/>
       <c r="B928" s="13"/>
       <c r="C928" s="13"/>
@@ -14912,7 +15123,7 @@
       <c r="L928" s="13"/>
       <c r="M928" s="13"/>
     </row>
-    <row r="929" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:13">
       <c r="A929" s="13"/>
       <c r="B929" s="13"/>
       <c r="C929" s="13"/>
@@ -14927,7 +15138,7 @@
       <c r="L929" s="13"/>
       <c r="M929" s="13"/>
     </row>
-    <row r="930" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:13">
       <c r="A930" s="13"/>
       <c r="B930" s="13"/>
       <c r="C930" s="13"/>
@@ -14942,7 +15153,7 @@
       <c r="L930" s="13"/>
       <c r="M930" s="13"/>
     </row>
-    <row r="931" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:13">
       <c r="A931" s="13"/>
       <c r="B931" s="13"/>
       <c r="C931" s="13"/>
@@ -14957,7 +15168,7 @@
       <c r="L931" s="13"/>
       <c r="M931" s="13"/>
     </row>
-    <row r="932" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:13">
       <c r="A932" s="13"/>
       <c r="B932" s="13"/>
       <c r="C932" s="13"/>
@@ -14972,7 +15183,7 @@
       <c r="L932" s="13"/>
       <c r="M932" s="13"/>
     </row>
-    <row r="933" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:13">
       <c r="A933" s="13"/>
       <c r="B933" s="13"/>
       <c r="C933" s="13"/>
@@ -14987,7 +15198,7 @@
       <c r="L933" s="13"/>
       <c r="M933" s="13"/>
     </row>
-    <row r="934" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:13">
       <c r="A934" s="13"/>
       <c r="B934" s="13"/>
       <c r="C934" s="13"/>
@@ -15002,7 +15213,7 @@
       <c r="L934" s="13"/>
       <c r="M934" s="13"/>
     </row>
-    <row r="935" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:13">
       <c r="A935" s="13"/>
       <c r="B935" s="13"/>
       <c r="C935" s="13"/>
@@ -15017,7 +15228,7 @@
       <c r="L935" s="13"/>
       <c r="M935" s="13"/>
     </row>
-    <row r="936" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:13">
       <c r="A936" s="13"/>
       <c r="B936" s="13"/>
       <c r="C936" s="13"/>
@@ -15032,7 +15243,7 @@
       <c r="L936" s="13"/>
       <c r="M936" s="13"/>
     </row>
-    <row r="937" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:13">
       <c r="A937" s="13"/>
       <c r="B937" s="13"/>
       <c r="C937" s="13"/>
@@ -15047,7 +15258,7 @@
       <c r="L937" s="13"/>
       <c r="M937" s="13"/>
     </row>
-    <row r="938" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:13">
       <c r="A938" s="13"/>
       <c r="B938" s="13"/>
       <c r="C938" s="13"/>
@@ -15062,7 +15273,7 @@
       <c r="L938" s="13"/>
       <c r="M938" s="13"/>
     </row>
-    <row r="939" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:13">
       <c r="A939" s="13"/>
       <c r="B939" s="13"/>
       <c r="C939" s="13"/>
@@ -15077,7 +15288,7 @@
       <c r="L939" s="13"/>
       <c r="M939" s="13"/>
     </row>
-    <row r="940" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:13">
       <c r="A940" s="13"/>
       <c r="B940" s="13"/>
       <c r="C940" s="13"/>
@@ -15092,7 +15303,7 @@
       <c r="L940" s="13"/>
       <c r="M940" s="13"/>
     </row>
-    <row r="941" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:13">
       <c r="A941" s="13"/>
       <c r="B941" s="13"/>
       <c r="C941" s="13"/>
@@ -15107,7 +15318,7 @@
       <c r="L941" s="13"/>
       <c r="M941" s="13"/>
     </row>
-    <row r="942" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:13">
       <c r="A942" s="13"/>
       <c r="B942" s="13"/>
       <c r="C942" s="13"/>
@@ -15122,7 +15333,7 @@
       <c r="L942" s="13"/>
       <c r="M942" s="13"/>
     </row>
-    <row r="943" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:13">
       <c r="A943" s="13"/>
       <c r="B943" s="13"/>
       <c r="C943" s="13"/>
@@ -15137,7 +15348,7 @@
       <c r="L943" s="13"/>
       <c r="M943" s="13"/>
     </row>
-    <row r="944" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:13">
       <c r="A944" s="13"/>
       <c r="B944" s="13"/>
       <c r="C944" s="13"/>
@@ -15152,7 +15363,7 @@
       <c r="L944" s="13"/>
       <c r="M944" s="13"/>
     </row>
-    <row r="945" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:13">
       <c r="A945" s="13"/>
       <c r="B945" s="13"/>
       <c r="C945" s="13"/>
@@ -15167,7 +15378,7 @@
       <c r="L945" s="13"/>
       <c r="M945" s="13"/>
     </row>
-    <row r="946" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:13">
       <c r="A946" s="13"/>
       <c r="B946" s="13"/>
       <c r="C946" s="13"/>
@@ -15182,7 +15393,7 @@
       <c r="L946" s="13"/>
       <c r="M946" s="13"/>
     </row>
-    <row r="947" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:13">
       <c r="A947" s="13"/>
       <c r="B947" s="13"/>
       <c r="C947" s="13"/>
@@ -15197,7 +15408,7 @@
       <c r="L947" s="13"/>
       <c r="M947" s="13"/>
     </row>
-    <row r="948" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:13">
       <c r="A948" s="13"/>
       <c r="B948" s="13"/>
       <c r="C948" s="13"/>
@@ -15212,7 +15423,7 @@
       <c r="L948" s="13"/>
       <c r="M948" s="13"/>
     </row>
-    <row r="949" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:13">
       <c r="A949" s="13"/>
       <c r="B949" s="13"/>
       <c r="C949" s="13"/>
@@ -15227,7 +15438,7 @@
       <c r="L949" s="13"/>
       <c r="M949" s="13"/>
     </row>
-    <row r="950" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:13">
       <c r="A950" s="13"/>
       <c r="B950" s="13"/>
       <c r="C950" s="13"/>
@@ -15242,7 +15453,7 @@
       <c r="L950" s="13"/>
       <c r="M950" s="13"/>
     </row>
-    <row r="951" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:13">
       <c r="A951" s="13"/>
       <c r="B951" s="13"/>
       <c r="C951" s="13"/>
@@ -15257,7 +15468,7 @@
       <c r="L951" s="13"/>
       <c r="M951" s="13"/>
     </row>
-    <row r="952" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:13">
       <c r="A952" s="13"/>
       <c r="B952" s="13"/>
       <c r="C952" s="13"/>
@@ -15272,7 +15483,7 @@
       <c r="L952" s="13"/>
       <c r="M952" s="13"/>
     </row>
-    <row r="953" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:13">
       <c r="A953" s="13"/>
       <c r="B953" s="13"/>
       <c r="C953" s="13"/>
@@ -15287,7 +15498,7 @@
       <c r="L953" s="13"/>
       <c r="M953" s="13"/>
     </row>
-    <row r="954" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:13">
       <c r="A954" s="13"/>
       <c r="B954" s="13"/>
       <c r="C954" s="13"/>
@@ -15302,7 +15513,7 @@
       <c r="L954" s="13"/>
       <c r="M954" s="13"/>
     </row>
-    <row r="955" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:13">
       <c r="A955" s="13"/>
       <c r="B955" s="13"/>
       <c r="C955" s="13"/>
@@ -15317,7 +15528,7 @@
       <c r="L955" s="13"/>
       <c r="M955" s="13"/>
     </row>
-    <row r="956" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:13">
       <c r="A956" s="13"/>
       <c r="B956" s="13"/>
       <c r="C956" s="13"/>
@@ -15332,7 +15543,7 @@
       <c r="L956" s="13"/>
       <c r="M956" s="13"/>
     </row>
-    <row r="957" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:13">
       <c r="A957" s="13"/>
       <c r="B957" s="13"/>
       <c r="C957" s="13"/>
@@ -15347,7 +15558,7 @@
       <c r="L957" s="13"/>
       <c r="M957" s="13"/>
     </row>
-    <row r="958" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:13">
       <c r="A958" s="13"/>
       <c r="B958" s="13"/>
       <c r="C958" s="13"/>
@@ -15362,7 +15573,7 @@
       <c r="L958" s="13"/>
       <c r="M958" s="13"/>
     </row>
-    <row r="959" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:13">
       <c r="A959" s="13"/>
       <c r="B959" s="13"/>
       <c r="C959" s="13"/>
@@ -15377,7 +15588,7 @@
       <c r="L959" s="13"/>
       <c r="M959" s="13"/>
     </row>
-    <row r="960" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:13">
       <c r="A960" s="13"/>
       <c r="B960" s="13"/>
       <c r="C960" s="13"/>
@@ -15392,7 +15603,7 @@
       <c r="L960" s="13"/>
       <c r="M960" s="13"/>
     </row>
-    <row r="961" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:13">
       <c r="A961" s="13"/>
       <c r="B961" s="13"/>
       <c r="C961" s="13"/>
@@ -15407,7 +15618,7 @@
       <c r="L961" s="13"/>
       <c r="M961" s="13"/>
     </row>
-    <row r="962" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:13">
       <c r="A962" s="13"/>
       <c r="B962" s="13"/>
       <c r="C962" s="13"/>
@@ -15422,7 +15633,7 @@
       <c r="L962" s="13"/>
       <c r="M962" s="13"/>
     </row>
-    <row r="963" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:13">
       <c r="A963" s="13"/>
       <c r="B963" s="13"/>
       <c r="C963" s="13"/>
@@ -15437,7 +15648,7 @@
       <c r="L963" s="13"/>
       <c r="M963" s="13"/>
     </row>
-    <row r="964" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:13">
       <c r="A964" s="13"/>
       <c r="B964" s="13"/>
       <c r="C964" s="13"/>
@@ -15452,7 +15663,7 @@
       <c r="L964" s="13"/>
       <c r="M964" s="13"/>
     </row>
-    <row r="965" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:13">
       <c r="A965" s="13"/>
       <c r="B965" s="13"/>
       <c r="C965" s="13"/>
@@ -15467,7 +15678,7 @@
       <c r="L965" s="13"/>
       <c r="M965" s="13"/>
     </row>
-    <row r="966" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:13">
       <c r="A966" s="13"/>
       <c r="B966" s="13"/>
       <c r="C966" s="13"/>
@@ -15482,7 +15693,7 @@
       <c r="L966" s="13"/>
       <c r="M966" s="13"/>
     </row>
-    <row r="967" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:13">
       <c r="A967" s="13"/>
       <c r="B967" s="13"/>
       <c r="C967" s="13"/>
@@ -15497,7 +15708,7 @@
       <c r="L967" s="13"/>
       <c r="M967" s="13"/>
     </row>
-    <row r="968" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:13">
       <c r="A968" s="13"/>
       <c r="B968" s="13"/>
       <c r="C968" s="13"/>
@@ -15512,7 +15723,7 @@
       <c r="L968" s="13"/>
       <c r="M968" s="13"/>
     </row>
-    <row r="969" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:13">
       <c r="A969" s="13"/>
       <c r="B969" s="13"/>
       <c r="C969" s="13"/>
@@ -15527,7 +15738,7 @@
       <c r="L969" s="13"/>
       <c r="M969" s="13"/>
     </row>
-    <row r="970" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:13">
       <c r="A970" s="13"/>
       <c r="B970" s="13"/>
       <c r="C970" s="13"/>
@@ -15542,7 +15753,7 @@
       <c r="L970" s="13"/>
       <c r="M970" s="13"/>
     </row>
-    <row r="971" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:13">
       <c r="A971" s="13"/>
       <c r="B971" s="13"/>
       <c r="C971" s="13"/>
@@ -15557,7 +15768,7 @@
       <c r="L971" s="13"/>
       <c r="M971" s="13"/>
     </row>
-    <row r="972" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:13">
       <c r="A972" s="13"/>
       <c r="B972" s="13"/>
       <c r="C972" s="13"/>
@@ -15572,7 +15783,7 @@
       <c r="L972" s="13"/>
       <c r="M972" s="13"/>
     </row>
-    <row r="973" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:13">
       <c r="A973" s="13"/>
       <c r="B973" s="13"/>
       <c r="C973" s="13"/>
@@ -15587,7 +15798,7 @@
       <c r="L973" s="13"/>
       <c r="M973" s="13"/>
     </row>
-    <row r="974" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:13">
       <c r="A974" s="13"/>
       <c r="B974" s="13"/>
       <c r="C974" s="13"/>
@@ -15602,7 +15813,7 @@
       <c r="L974" s="13"/>
       <c r="M974" s="13"/>
     </row>
-    <row r="975" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:13">
       <c r="A975" s="13"/>
       <c r="B975" s="13"/>
       <c r="C975" s="13"/>
@@ -15617,7 +15828,7 @@
       <c r="L975" s="13"/>
       <c r="M975" s="13"/>
     </row>
-    <row r="976" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:13">
       <c r="A976" s="13"/>
       <c r="B976" s="13"/>
       <c r="C976" s="13"/>
@@ -15632,7 +15843,7 @@
       <c r="L976" s="13"/>
       <c r="M976" s="13"/>
     </row>
-    <row r="977" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:13">
       <c r="A977" s="13"/>
       <c r="B977" s="13"/>
       <c r="C977" s="13"/>
@@ -15647,7 +15858,7 @@
       <c r="L977" s="13"/>
       <c r="M977" s="13"/>
     </row>
-    <row r="978" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:13">
       <c r="A978" s="13"/>
       <c r="B978" s="13"/>
       <c r="C978" s="13"/>
@@ -15662,7 +15873,7 @@
       <c r="L978" s="13"/>
       <c r="M978" s="13"/>
     </row>
-    <row r="979" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:13">
       <c r="A979" s="13"/>
       <c r="B979" s="13"/>
       <c r="C979" s="13"/>
@@ -15677,7 +15888,7 @@
       <c r="L979" s="13"/>
       <c r="M979" s="13"/>
     </row>
-    <row r="980" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:13">
       <c r="A980" s="13"/>
       <c r="B980" s="13"/>
       <c r="C980" s="13"/>
@@ -15692,7 +15903,7 @@
       <c r="L980" s="13"/>
       <c r="M980" s="13"/>
     </row>
-    <row r="981" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:13">
       <c r="A981" s="13"/>
       <c r="B981" s="13"/>
       <c r="C981" s="13"/>
@@ -15707,7 +15918,7 @@
       <c r="L981" s="13"/>
       <c r="M981" s="13"/>
     </row>
-    <row r="982" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:13">
       <c r="A982" s="13"/>
       <c r="B982" s="13"/>
       <c r="C982" s="13"/>
@@ -15722,7 +15933,7 @@
       <c r="L982" s="13"/>
       <c r="M982" s="13"/>
     </row>
-    <row r="983" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:13">
       <c r="A983" s="13"/>
       <c r="B983" s="13"/>
       <c r="C983" s="13"/>
@@ -15737,7 +15948,7 @@
       <c r="L983" s="13"/>
       <c r="M983" s="13"/>
     </row>
-    <row r="984" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:13">
       <c r="A984" s="13"/>
       <c r="B984" s="13"/>
       <c r="C984" s="13"/>
@@ -15752,7 +15963,7 @@
       <c r="L984" s="13"/>
       <c r="M984" s="13"/>
     </row>
-    <row r="985" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:13">
       <c r="A985" s="13"/>
       <c r="B985" s="13"/>
       <c r="C985" s="13"/>
@@ -15767,7 +15978,7 @@
       <c r="L985" s="13"/>
       <c r="M985" s="13"/>
     </row>
-    <row r="986" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:13">
       <c r="A986" s="13"/>
       <c r="B986" s="13"/>
       <c r="C986" s="13"/>
@@ -15782,7 +15993,7 @@
       <c r="L986" s="13"/>
       <c r="M986" s="13"/>
     </row>
-    <row r="987" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:13">
       <c r="A987" s="13"/>
       <c r="B987" s="13"/>
       <c r="C987" s="13"/>
@@ -15797,7 +16008,7 @@
       <c r="L987" s="13"/>
       <c r="M987" s="13"/>
     </row>
-    <row r="988" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:13">
       <c r="A988" s="13"/>
       <c r="B988" s="13"/>
       <c r="C988" s="13"/>
@@ -15812,7 +16023,7 @@
       <c r="L988" s="13"/>
       <c r="M988" s="13"/>
     </row>
-    <row r="989" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:13">
       <c r="A989" s="13"/>
       <c r="B989" s="13"/>
       <c r="C989" s="13"/>
@@ -15827,7 +16038,7 @@
       <c r="L989" s="13"/>
       <c r="M989" s="13"/>
     </row>
-    <row r="990" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:13">
       <c r="A990" s="13"/>
       <c r="B990" s="13"/>
       <c r="C990" s="13"/>
@@ -15842,7 +16053,7 @@
       <c r="L990" s="13"/>
       <c r="M990" s="13"/>
     </row>
-    <row r="991" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:13">
       <c r="A991" s="13"/>
       <c r="B991" s="13"/>
       <c r="C991" s="13"/>
@@ -15857,7 +16068,7 @@
       <c r="L991" s="13"/>
       <c r="M991" s="13"/>
     </row>
-    <row r="992" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:13">
       <c r="A992" s="13"/>
       <c r="B992" s="13"/>
       <c r="C992" s="13"/>
@@ -15872,7 +16083,7 @@
       <c r="L992" s="13"/>
       <c r="M992" s="13"/>
     </row>
-    <row r="993" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:13">
       <c r="A993" s="13"/>
       <c r="B993" s="13"/>
       <c r="C993" s="13"/>
@@ -15887,7 +16098,7 @@
       <c r="L993" s="13"/>
       <c r="M993" s="13"/>
     </row>
-    <row r="994" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:13">
       <c r="A994" s="13"/>
       <c r="B994" s="13"/>
       <c r="C994" s="13"/>
@@ -15902,7 +16113,7 @@
       <c r="L994" s="13"/>
       <c r="M994" s="13"/>
     </row>
-    <row r="995" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:13">
       <c r="A995" s="13"/>
       <c r="B995" s="13"/>
       <c r="C995" s="13"/>
@@ -15917,7 +16128,7 @@
       <c r="L995" s="13"/>
       <c r="M995" s="13"/>
     </row>
-    <row r="996" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:13">
       <c r="A996" s="13"/>
       <c r="B996" s="13"/>
       <c r="C996" s="13"/>
@@ -15932,7 +16143,7 @@
       <c r="L996" s="13"/>
       <c r="M996" s="13"/>
     </row>
-    <row r="997" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:13">
       <c r="A997" s="13"/>
       <c r="B997" s="13"/>
       <c r="C997" s="13"/>
@@ -15947,7 +16158,7 @@
       <c r="L997" s="13"/>
       <c r="M997" s="13"/>
     </row>
-    <row r="998" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:13">
       <c r="A998" s="13"/>
       <c r="B998" s="13"/>
       <c r="C998" s="13"/>
@@ -15962,7 +16173,7 @@
       <c r="L998" s="13"/>
       <c r="M998" s="13"/>
     </row>
-    <row r="999" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:13">
       <c r="A999" s="13"/>
       <c r="B999" s="13"/>
       <c r="C999" s="13"/>
@@ -15977,7 +16188,7 @@
       <c r="L999" s="13"/>
       <c r="M999" s="13"/>
     </row>
-    <row r="1000" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:13">
       <c r="A1000" s="13"/>
       <c r="B1000" s="13"/>
       <c r="C1000" s="13"/>
@@ -15992,7 +16203,7 @@
       <c r="L1000" s="13"/>
       <c r="M1000" s="13"/>
     </row>
-    <row r="1001" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:13">
       <c r="A1001" s="13"/>
       <c r="B1001" s="13"/>
       <c r="C1001" s="13"/>
@@ -16007,7 +16218,7 @@
       <c r="L1001" s="13"/>
       <c r="M1001" s="13"/>
     </row>
-    <row r="1002" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:13">
       <c r="A1002" s="13"/>
       <c r="B1002" s="13"/>
       <c r="C1002" s="13"/>
@@ -16022,7 +16233,7 @@
       <c r="L1002" s="13"/>
       <c r="M1002" s="13"/>
     </row>
-    <row r="1003" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:13">
       <c r="A1003" s="13"/>
       <c r="B1003" s="13"/>
       <c r="C1003" s="13"/>
@@ -16037,7 +16248,7 @@
       <c r="L1003" s="13"/>
       <c r="M1003" s="13"/>
     </row>
-    <row r="1004" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:13">
       <c r="A1004" s="13"/>
       <c r="B1004" s="13"/>
       <c r="C1004" s="13"/>
@@ -16052,7 +16263,7 @@
       <c r="L1004" s="13"/>
       <c r="M1004" s="13"/>
     </row>
-    <row r="1005" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:13">
       <c r="A1005" s="13"/>
       <c r="B1005" s="13"/>
       <c r="C1005" s="13"/>
@@ -16067,7 +16278,7 @@
       <c r="L1005" s="13"/>
       <c r="M1005" s="13"/>
     </row>
-    <row r="1006" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:13">
       <c r="A1006" s="13"/>
       <c r="B1006" s="13"/>
       <c r="C1006" s="13"/>
@@ -16082,7 +16293,7 @@
       <c r="L1006" s="13"/>
       <c r="M1006" s="13"/>
     </row>
-    <row r="1007" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:13">
       <c r="A1007" s="13"/>
       <c r="B1007" s="13"/>
       <c r="C1007" s="13"/>
@@ -16097,7 +16308,7 @@
       <c r="L1007" s="13"/>
       <c r="M1007" s="13"/>
     </row>
-    <row r="1008" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:13">
       <c r="A1008" s="13"/>
       <c r="B1008" s="13"/>
       <c r="C1008" s="13"/>
@@ -16112,7 +16323,7 @@
       <c r="L1008" s="13"/>
       <c r="M1008" s="13"/>
     </row>
-    <row r="1009" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:13">
       <c r="A1009" s="13"/>
       <c r="B1009" s="13"/>
       <c r="C1009" s="13"/>
@@ -16127,7 +16338,7 @@
       <c r="L1009" s="13"/>
       <c r="M1009" s="13"/>
     </row>
-    <row r="1010" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:13">
       <c r="A1010" s="13"/>
       <c r="B1010" s="13"/>
       <c r="C1010" s="13"/>
@@ -16142,7 +16353,7 @@
       <c r="L1010" s="13"/>
       <c r="M1010" s="13"/>
     </row>
-    <row r="1011" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:13">
       <c r="A1011" s="13"/>
       <c r="B1011" s="13"/>
       <c r="C1011" s="13"/>
@@ -16157,7 +16368,7 @@
       <c r="L1011" s="13"/>
       <c r="M1011" s="13"/>
     </row>
-    <row r="1012" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:13">
       <c r="A1012" s="13"/>
       <c r="B1012" s="13"/>
       <c r="C1012" s="13"/>
@@ -16172,7 +16383,7 @@
       <c r="L1012" s="13"/>
       <c r="M1012" s="13"/>
     </row>
-    <row r="1013" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:13">
       <c r="A1013" s="13"/>
       <c r="B1013" s="13"/>
       <c r="C1013" s="13"/>
@@ -16187,7 +16398,7 @@
       <c r="L1013" s="13"/>
       <c r="M1013" s="13"/>
     </row>
-    <row r="1014" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:13">
       <c r="A1014" s="13"/>
       <c r="B1014" s="13"/>
       <c r="C1014" s="13"/>
@@ -16202,7 +16413,7 @@
       <c r="L1014" s="13"/>
       <c r="M1014" s="13"/>
     </row>
-    <row r="1015" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:13">
       <c r="A1015" s="13"/>
       <c r="B1015" s="13"/>
       <c r="C1015" s="13"/>
@@ -16217,7 +16428,7 @@
       <c r="L1015" s="13"/>
       <c r="M1015" s="13"/>
     </row>
-    <row r="1016" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:13">
       <c r="A1016" s="13"/>
       <c r="B1016" s="13"/>
       <c r="C1016" s="13"/>
@@ -16232,7 +16443,7 @@
       <c r="L1016" s="13"/>
       <c r="M1016" s="13"/>
     </row>
-    <row r="1017" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:13">
       <c r="A1017" s="13"/>
       <c r="B1017" s="13"/>
       <c r="C1017" s="13"/>
@@ -16257,15 +16468,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
@@ -16276,7 +16487,7 @@
     <col min="12" max="13" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="19">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -16287,63 +16498,69 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
+    <row r="2" spans="1:3">
+      <c r="A2" s="19" t="s">
+        <v>75</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
+      <c r="B2" s="19" t="s">
+        <v>76</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
+      <c r="C2" s="19" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:3">
+      <c r="A3" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/public/coffee/special.xlsx
+++ b/public/coffee/special.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/coffee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AB6173-1B4B-014F-B04A-309BEE2D196A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A10953A-C5DA-5F46-B6B5-0CB3012528B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="500" windowWidth="21260" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="500" windowWidth="21260" windowHeight="16420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Autumn Menu" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>title_ru</t>
   </si>
@@ -243,25 +243,10 @@
     <t>Тыквенный крем суп с беконом</t>
   </si>
   <si>
-    <t>Pumpkin Bacon Cream Soup</t>
-  </si>
-  <si>
     <t>Запеченная курица в соусе из тыквы</t>
   </si>
   <si>
-    <t>Pumpkin Chiken</t>
-  </si>
-  <si>
     <t>Ньокки в соусе из тыквы и голубым сыром</t>
-  </si>
-  <si>
-    <t>Gnocchi Blue Cheese</t>
-  </si>
-  <si>
-    <t>Панна Котта из тыквы со специями</t>
-  </si>
-  <si>
-    <t>Spiced Pumpkin Panna Cotta</t>
   </si>
   <si>
     <t>Осенние напитки</t>
@@ -825,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762B3646-2866-6648-A1C5-37E82D6363E6}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -868,10 +853,10 @@
         <v>67</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="2">
@@ -891,13 +876,13 @@
     </row>
     <row r="3" spans="1:10" ht="19">
       <c r="A3" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17">
@@ -914,20 +899,20 @@
     </row>
     <row r="4" spans="1:10" ht="19">
       <c r="A4" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17">
         <v>20</v>
       </c>
       <c r="I4" s="3" t="str">
-        <f t="shared" ref="I2:I5" si="1">LOWER($B4)</f>
+        <f t="shared" ref="I4:I5" si="1">LOWER($B4)</f>
         <v>gnocchi with pumpkin and  blue cheese</v>
       </c>
       <c r="J4" s="3" t="str">
@@ -937,13 +922,13 @@
     </row>
     <row r="5" spans="1:10" ht="19">
       <c r="A5" s="18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="2">
@@ -968,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1017"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -1322,107 +1307,83 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>68</v>
-      </c>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="2">
-        <v>17</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>pumpkin bacon cream soup</v>
+        <v/>
       </c>
       <c r="J11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>pumpkin bacon cream soup_2</v>
+        <v>_2</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>70</v>
-      </c>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="17">
-        <v>21</v>
-      </c>
+      <c r="E12" s="17"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
       <c r="I12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>pumpkin chiken</v>
+        <v/>
       </c>
       <c r="J12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>pumpkin chiken_2</v>
+        <v>_2</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>72</v>
-      </c>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="17">
-        <v>20</v>
-      </c>
+      <c r="E13" s="17"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>gnocchi blue cheese</v>
+        <v/>
       </c>
       <c r="J13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>gnocchi blue cheese_2</v>
+        <v>_2</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>74</v>
-      </c>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="2">
-        <v>16</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="11"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>spiced pumpkin panna cotta</v>
+        <v/>
       </c>
       <c r="J14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>spiced pumpkin panna cotta_2</v>
+        <v>_2</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -16500,24 +16461,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1"/>

--- a/public/coffee/special.xlsx
+++ b/public/coffee/special.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/coffee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A10953A-C5DA-5F46-B6B5-0CB3012528B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCB8CC6-5A78-DE49-9B38-D9BF0ADB6DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="500" windowWidth="21260" windowHeight="16420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="500" windowWidth="21260" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Autumn Menu" sheetId="3" r:id="rId1"/>
@@ -240,9 +240,6 @@
     <t>გამამხნევებელი ჩაი მკვეთრი მჟავით და მსუბუქი ციტრუს-ბალახოვანი aftertaste-ით.</t>
   </si>
   <si>
-    <t>Тыквенный крем суп с беконом</t>
-  </si>
-  <si>
     <t>Запеченная курица в соусе из тыквы</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>Gnocchi with pumpkin and  Blue Cheese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тыквенный крем суп </t>
   </si>
 </sst>
 </file>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762B3646-2866-6648-A1C5-37E82D6363E6}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -850,13 +850,13 @@
     </row>
     <row r="2" spans="1:10" ht="19">
       <c r="A2" s="17" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="2">
@@ -876,13 +876,13 @@
     </row>
     <row r="3" spans="1:10" ht="19">
       <c r="A3" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17">
@@ -899,13 +899,13 @@
     </row>
     <row r="4" spans="1:10" ht="19">
       <c r="A4" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17">
@@ -922,13 +922,13 @@
     </row>
     <row r="5" spans="1:10" ht="19">
       <c r="A5" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="2">
@@ -953,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -16461,24 +16461,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="19" t="s">
+      <c r="B3" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>73</v>
-      </c>
       <c r="C3" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1"/>

--- a/public/coffee/special.xlsx
+++ b/public/coffee/special.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/coffee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B444D695-5213-744B-93BA-19AE2CF69221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E14C3EA-E747-1B4A-8928-9C198BC5499F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="500" windowWidth="21260" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>title_ru</t>
   </si>
@@ -93,24 +93,6 @@
   </si>
   <si>
     <t>მსუბუქი, ნაზი ყავა კალმის არომატით</t>
-  </si>
-  <si>
-    <t>Тыквенный Спайс Латте</t>
-  </si>
-  <si>
-    <t>Pumpkin Spice Latte</t>
-  </si>
-  <si>
-    <t>გოგრის სპაის ლატე</t>
-  </si>
-  <si>
-    <t>Сливочный кофе с тыквой и нотками мускатного ореха.</t>
-  </si>
-  <si>
-    <t>Creamy coffee with pumpkin and nutmeg notes.</t>
-  </si>
-  <si>
-    <t>ნაზი ყავა გოგრით და მუსკატის ნოტებით.</t>
   </si>
   <si>
     <t>Вишневая мокка</t>
@@ -750,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1018"/>
+  <dimension ref="A1:M1017"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,33 +781,33 @@
     </row>
     <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I2" s="3" t="str">
-        <f t="shared" ref="I2:I15" si="0">LOWER($B2)</f>
+        <f t="shared" ref="I2:I14" si="0">LOWER($B2)</f>
         <v>сhristmas set</v>
       </c>
       <c r="J2" s="3" t="str">
-        <f t="shared" ref="J2:J15" si="1">LOWER($B2)&amp;"_"&amp;2</f>
+        <f t="shared" ref="J2:J14" si="1">LOWER($B2)&amp;"_"&amp;2</f>
         <v>сhristmas set_2</v>
       </c>
       <c r="K2" s="1"/>
@@ -879,7 +861,7 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>22</v>
@@ -892,11 +874,11 @@
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>pumpkin spice latte</v>
+        <v>cherry mokka</v>
       </c>
       <c r="J4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>pumpkin spice latte_2</v>
+        <v>cherry mokka_2</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -914,9 +896,9 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9">
-        <v>13</v>
+        <v>16</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -927,11 +909,11 @@
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>cherry mokka</v>
+        <v>apple grog</v>
       </c>
       <c r="J5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>cherry mokka_2</v>
+        <v>apple grog_2</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -941,7 +923,7 @@
       <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -949,12 +931,12 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="11" t="s">
@@ -962,11 +944,11 @@
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>apple grog</v>
+        <v>cranberry matcha</v>
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>apple grog_2</v>
+        <v>cranberry matcha_2</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -976,20 +958,20 @@
       <c r="A7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
-        <v>15</v>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>17</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -997,21 +979,19 @@
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>cranberry matcha</v>
+        <v>mulled wine</v>
       </c>
       <c r="J7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>cranberry matcha_2</v>
+        <v>mulled wine_2</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -1019,7 +999,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>46</v>
@@ -1032,22 +1012,22 @@
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>mulled wine</v>
+        <v>cranberry &amp; spices</v>
       </c>
       <c r="J8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>mulled wine_2</v>
+        <v>cranberry &amp; spices_2</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="2"/>
@@ -1065,22 +1045,23 @@
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>cranberry &amp; spices</v>
+        <v>raspberry &amp; herbs</v>
       </c>
       <c r="J9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>cranberry &amp; spices_2</v>
+        <v>raspberry &amp; herbs_2</v>
       </c>
       <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="2"/>
@@ -1090,7 +1071,7 @@
       <c r="F10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="12" t="s">
         <v>59</v>
       </c>
       <c r="H10" s="11" t="s">
@@ -1098,57 +1079,44 @@
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>raspberry &amp; herbs</v>
+        <v>sea buckthorn &amp; rosemary</v>
       </c>
       <c r="J10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>raspberry &amp; herbs_2</v>
+        <v>sea buckthorn &amp; rosemary_2</v>
       </c>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>66</v>
-      </c>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>sea buckthorn &amp; rosemary</v>
+        <v/>
       </c>
       <c r="J11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>sea buckthorn &amp; rosemary_2</v>
+        <v>_2</v>
       </c>
       <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="17"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1157,9 +1125,8 @@
         <f t="shared" si="1"/>
         <v>_2</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
@@ -1167,9 +1134,9 @@
       <c r="C13" s="18"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1178,18 +1145,19 @@
         <f t="shared" si="1"/>
         <v>_2</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1203,25 +1171,17 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>_2</v>
-      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
@@ -1241,7 +1201,7 @@
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="11"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="12"/>
@@ -1251,11 +1211,11 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="11"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -1264,69 +1224,71 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
-      <c r="B19" s="9"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="12"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="11"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="J20" s="13"/>
       <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="9"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="J22" s="13"/>
       <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="11"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1334,14 +1296,14 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
     </row>
     <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -1349,9 +1311,9 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="13"/>
@@ -1403,17 +1365,17 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
@@ -16237,21 +16199,6 @@
       <c r="K1017" s="13"/>
       <c r="L1017" s="13"/>
       <c r="M1017" s="13"/>
-    </row>
-    <row r="1018" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1018" s="13"/>
-      <c r="B1018" s="13"/>
-      <c r="C1018" s="13"/>
-      <c r="D1018" s="14"/>
-      <c r="E1018" s="14"/>
-      <c r="F1018" s="13"/>
-      <c r="G1018" s="13"/>
-      <c r="H1018" s="13"/>
-      <c r="I1018" s="13"/>
-      <c r="J1018" s="13"/>
-      <c r="K1018" s="13"/>
-      <c r="L1018" s="13"/>
-      <c r="M1018" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -16295,13 +16242,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/public/coffee/special.xlsx
+++ b/public/coffee/special.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/coffee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E14C3EA-E747-1B4A-8928-9C198BC5499F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E029F8-1BD3-6B4A-96BC-55016296BCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="500" windowWidth="21260" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>title_ru</t>
   </si>
@@ -225,18 +225,6 @@
   </si>
   <si>
     <t>Cезонные  напитки</t>
-  </si>
-  <si>
-    <t>Сhristmas set</t>
-  </si>
-  <si>
-    <t>Рождественский сет</t>
-  </si>
-  <si>
-    <t>Синабон с корицей и имбирная мокка с маршмеллоу</t>
-  </si>
-  <si>
-    <t>Cinnamon sinabon and ginger mocha with marshmallows</t>
   </si>
 </sst>
 </file>
@@ -732,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1017"/>
+  <dimension ref="A1:M1016"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -780,70 +768,70 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>64</v>
+      <c r="A2" s="9" t="s">
+        <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>63</v>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1">
+      <c r="C2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>65</v>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9">
+        <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>66</v>
+      <c r="F2" s="11" t="s">
+        <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>66</v>
+      <c r="G2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="I2" s="3" t="str">
-        <f t="shared" ref="I2:I14" si="0">LOWER($B2)</f>
-        <v>сhristmas set</v>
+        <f t="shared" ref="I2:I13" si="0">LOWER($B2)</f>
+        <v>maple raf</v>
       </c>
       <c r="J2" s="3" t="str">
-        <f t="shared" ref="J2:J14" si="1">LOWER($B2)&amp;"_"&amp;2</f>
-        <v>сhristmas set_2</v>
+        <f t="shared" ref="J2:J13" si="1">LOWER($B2)&amp;"_"&amp;2</f>
+        <v>maple raf_2</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>13</v>
+      <c r="A3" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>15</v>
+      <c r="C3" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>17</v>
+      <c r="G3" s="11" t="s">
+        <v>23</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>18</v>
+      <c r="H3" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>maple raf</v>
+        <v>cherry mokka</v>
       </c>
       <c r="J3" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>maple raf_2</v>
+        <v>cherry mokka_2</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -851,34 +839,34 @@
     </row>
     <row r="4" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9">
-        <v>13</v>
+        <v>16</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>22</v>
+      <c r="F4" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>cherry mokka</v>
+        <v>apple grog</v>
       </c>
       <c r="J4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>cherry mokka_2</v>
+        <v>apple grog_2</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -886,34 +874,34 @@
     </row>
     <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>26</v>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>28</v>
+      <c r="F5" s="11" t="s">
+        <v>34</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>29</v>
+      <c r="G5" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>apple grog</v>
+        <v>cranberry matcha</v>
       </c>
       <c r="J5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>apple grog_2</v>
+        <v>cranberry matcha_2</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -921,181 +909,167 @@
     </row>
     <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>32</v>
+      <c r="B6" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
-        <v>15</v>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>17</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>35</v>
+      <c r="G6" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>cranberry matcha</v>
+        <v>mulled wine</v>
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>cranberry matcha_2</v>
+        <v>mulled wine_2</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>38</v>
+      <c r="B7" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>mulled wine</v>
+        <v>cranberry &amp; spices</v>
       </c>
       <c r="J7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>mulled wine_2</v>
+        <v>cranberry &amp; spices_2</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>43</v>
+      <c r="A8" s="9" t="s">
+        <v>49</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>44</v>
+      <c r="B8" s="11" t="s">
+        <v>50</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>45</v>
+      <c r="C8" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>cranberry &amp; spices</v>
+        <v>raspberry &amp; herbs</v>
       </c>
       <c r="J8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>cranberry &amp; spices_2</v>
+        <v>raspberry &amp; herbs_2</v>
       </c>
       <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>49</v>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>55</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>50</v>
+      <c r="B9" s="9" t="s">
+        <v>56</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>51</v>
+      <c r="C9" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>53</v>
+      <c r="G9" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>raspberry &amp; herbs</v>
+        <v>sea buckthorn &amp; rosemary</v>
       </c>
       <c r="J9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>raspberry &amp; herbs_2</v>
+        <v>sea buckthorn &amp; rosemary_2</v>
       </c>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>sea buckthorn &amp; rosemary</v>
+        <v/>
       </c>
       <c r="J10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>sea buckthorn &amp; rosemary_2</v>
+        <v>_2</v>
       </c>
       <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="17"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1104,9 +1078,8 @@
         <f t="shared" si="1"/>
         <v>_2</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
@@ -1114,9 +1087,9 @@
       <c r="C12" s="18"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1125,18 +1098,19 @@
         <f t="shared" si="1"/>
         <v>_2</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1150,25 +1124,17 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>_2</v>
-      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
@@ -1188,7 +1154,7 @@
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="12"/>
@@ -1198,11 +1164,11 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="11"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="11"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -1211,69 +1177,71 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="9"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="11"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="J19" s="13"/>
       <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="9"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="11"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1281,14 +1249,14 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1296,9 +1264,9 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="13"/>
@@ -1350,17 +1318,17 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
@@ -16184,21 +16152,6 @@
       <c r="K1016" s="13"/>
       <c r="L1016" s="13"/>
       <c r="M1016" s="13"/>
-    </row>
-    <row r="1017" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1017" s="13"/>
-      <c r="B1017" s="13"/>
-      <c r="C1017" s="13"/>
-      <c r="D1017" s="14"/>
-      <c r="E1017" s="14"/>
-      <c r="F1017" s="13"/>
-      <c r="G1017" s="13"/>
-      <c r="H1017" s="13"/>
-      <c r="I1017" s="13"/>
-      <c r="J1017" s="13"/>
-      <c r="K1017" s="13"/>
-      <c r="L1017" s="13"/>
-      <c r="M1017" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/public/coffee/special.xlsx
+++ b/public/coffee/special.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/coffee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E029F8-1BD3-6B4A-96BC-55016296BCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915E1F45-BA18-6747-93C5-472591CC65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="500" windowWidth="21260" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="600" windowWidth="21260" windowHeight="16260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Seasonal Drinks" sheetId="1" r:id="rId1"/>
-    <sheet name="catalogs" sheetId="2" r:id="rId2"/>
+    <sheet name="Maslenitsa" sheetId="3" r:id="rId1"/>
+    <sheet name="Seasonal Drinks" sheetId="1" r:id="rId2"/>
+    <sheet name="catalogs" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
   <si>
     <t>title_ru</t>
   </si>
@@ -226,12 +227,81 @@
   <si>
     <t>Cезонные  напитки</t>
   </si>
+  <si>
+    <t>Масленица</t>
+  </si>
+  <si>
+    <t>Maslenitsa</t>
+  </si>
+  <si>
+    <t>Блин чизбургер</t>
+  </si>
+  <si>
+    <t>Pancakes cheeseburger</t>
+  </si>
+  <si>
+    <t>პანკეიქების ჩიზბურგერი</t>
+  </si>
+  <si>
+    <t>Блины с лососем, крем чизом и огурцом</t>
+  </si>
+  <si>
+    <t>Pancakes with salmon, cream cheese and cucumber</t>
+  </si>
+  <si>
+    <t>ბლინები ლოსოსით, კრემ-ჩიზით და კიტრით</t>
+  </si>
+  <si>
+    <t>Блины с икрой и крем чизом</t>
+  </si>
+  <si>
+    <t>Pancakes with caviar</t>
+  </si>
+  <si>
+    <t>ბლინები ხიზილალით</t>
+  </si>
+  <si>
+    <t>Блины с курицей, сыром и черри</t>
+  </si>
+  <si>
+    <t>Pancakes with chicken, cheese and cherry tomatoes</t>
+  </si>
+  <si>
+    <t>ბლინები ქათმით, ყველით და ჩერი პომიდვრებით</t>
+  </si>
+  <si>
+    <t>Блины с вишней и крем чизом</t>
+  </si>
+  <si>
+    <t>Pancakes with cherry and cream cheese</t>
+  </si>
+  <si>
+    <t>ბლინები ალუბლით და კრემ-ჩიზით</t>
+  </si>
+  <si>
+    <t>Блины со сгущенкой и бананом</t>
+  </si>
+  <si>
+    <t>Pancakes with condensed milk and banana</t>
+  </si>
+  <si>
+    <t>ბლინები შესქელებული რძით და ბანანით</t>
+  </si>
+  <si>
+    <t>Креп Сюзет</t>
+  </si>
+  <si>
+    <t>კრეპ სუზეტი</t>
+  </si>
+  <si>
+    <t>Crepe Suzette</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -364,6 +434,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -385,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -406,6 +502,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -719,20 +819,261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F461F33E-13D1-EE4F-A1C1-2B3972B6A1C1}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19">
+      <c r="A2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9">
+        <v>18</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="3" t="str">
+        <f t="shared" ref="I2:I9" si="0">LOWER($B2)</f>
+        <v>pancakes cheeseburger</v>
+      </c>
+      <c r="J2" s="3" t="str">
+        <f t="shared" ref="J2:J9" si="1">LOWER($B2)&amp;"_"&amp;2</f>
+        <v>pancakes cheeseburger_2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19">
+      <c r="A3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>pancakes with salmon, cream cheese and cucumber</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>pancakes with salmon, cream cheese and cucumber_2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19">
+      <c r="A4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9">
+        <v>18</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>pancakes with caviar</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>pancakes with caviar_2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19">
+      <c r="A5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9">
+        <v>18</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>pancakes with chicken, cheese and cherry tomatoes</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>pancakes with chicken, cheese and cherry tomatoes_2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19">
+      <c r="A6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>14</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>pancakes with cherry and cream cheese</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>pancakes with cherry and cream cheese_2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19">
+      <c r="A7" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>14</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>pancakes with condensed milk and banana</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>pancakes with condensed milk and banana_2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19">
+      <c r="A8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>14</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>crepe suzette</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>crepe suzette_2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19">
+      <c r="A9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +1108,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="19">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -802,7 +1143,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="19">
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
@@ -837,7 +1178,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="19">
       <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
@@ -872,7 +1213,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="19">
       <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
@@ -907,7 +1248,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="19">
       <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
@@ -940,7 +1281,7 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="19">
       <c r="A7" s="11" t="s">
         <v>43</v>
       </c>
@@ -973,7 +1314,7 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="19">
       <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
@@ -1007,7 +1348,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>55</v>
       </c>
@@ -1040,7 +1381,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="17"/>
@@ -1061,7 +1402,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -1081,7 +1422,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -1102,7 +1443,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="17"/>
@@ -1123,7 +1464,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1136,7 +1477,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1149,7 +1490,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1162,7 +1503,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -1175,7 +1516,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1189,7 +1530,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19">
       <c r="A19" s="11"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -1202,7 +1543,7 @@
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19">
       <c r="A20" s="9"/>
       <c r="B20" s="11"/>
       <c r="C20" s="9"/>
@@ -1215,7 +1556,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19">
       <c r="A21" s="11"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -1228,7 +1569,7 @@
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="19">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1243,7 +1584,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="19">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1258,7 +1599,7 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="19">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1273,7 +1614,7 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="19">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1288,7 +1629,7 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="19">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1303,7 +1644,7 @@
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="19">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1318,7 +1659,7 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1333,7 +1674,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -1348,7 +1689,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1363,7 +1704,7 @@
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1378,7 +1719,7 @@
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1393,7 +1734,7 @@
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -1408,7 +1749,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -1423,7 +1764,7 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -1438,7 +1779,7 @@
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -1453,7 +1794,7 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -1468,7 +1809,7 @@
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -1483,7 +1824,7 @@
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -1498,7 +1839,7 @@
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -1513,7 +1854,7 @@
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -1528,7 +1869,7 @@
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -1543,7 +1884,7 @@
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -1558,7 +1899,7 @@
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -1573,7 +1914,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -1588,7 +1929,7 @@
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -1603,7 +1944,7 @@
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -1618,7 +1959,7 @@
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -1633,7 +1974,7 @@
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -1648,7 +1989,7 @@
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -1663,7 +2004,7 @@
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -1678,7 +2019,7 @@
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -1693,7 +2034,7 @@
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -1708,7 +2049,7 @@
       <c r="L53" s="13"/>
       <c r="M53" s="13"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -1723,7 +2064,7 @@
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -1738,7 +2079,7 @@
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -1753,7 +2094,7 @@
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -1768,7 +2109,7 @@
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -1783,7 +2124,7 @@
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -1798,7 +2139,7 @@
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -1813,7 +2154,7 @@
       <c r="L60" s="13"/>
       <c r="M60" s="13"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -1828,7 +2169,7 @@
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -1843,7 +2184,7 @@
       <c r="L62" s="13"/>
       <c r="M62" s="13"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -1858,7 +2199,7 @@
       <c r="L63" s="13"/>
       <c r="M63" s="13"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -1873,7 +2214,7 @@
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -1888,7 +2229,7 @@
       <c r="L65" s="13"/>
       <c r="M65" s="13"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -1903,7 +2244,7 @@
       <c r="L66" s="13"/>
       <c r="M66" s="13"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -1918,7 +2259,7 @@
       <c r="L67" s="13"/>
       <c r="M67" s="13"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -1933,7 +2274,7 @@
       <c r="L68" s="13"/>
       <c r="M68" s="13"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -1948,7 +2289,7 @@
       <c r="L69" s="13"/>
       <c r="M69" s="13"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -1963,7 +2304,7 @@
       <c r="L70" s="13"/>
       <c r="M70" s="13"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -1978,7 +2319,7 @@
       <c r="L71" s="13"/>
       <c r="M71" s="13"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -1993,7 +2334,7 @@
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -2008,7 +2349,7 @@
       <c r="L73" s="13"/>
       <c r="M73" s="13"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -2023,7 +2364,7 @@
       <c r="L74" s="13"/>
       <c r="M74" s="13"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -2038,7 +2379,7 @@
       <c r="L75" s="13"/>
       <c r="M75" s="13"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -2053,7 +2394,7 @@
       <c r="L76" s="13"/>
       <c r="M76" s="13"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -2068,7 +2409,7 @@
       <c r="L77" s="13"/>
       <c r="M77" s="13"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -2083,7 +2424,7 @@
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -2098,7 +2439,7 @@
       <c r="L79" s="13"/>
       <c r="M79" s="13"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -2113,7 +2454,7 @@
       <c r="L80" s="13"/>
       <c r="M80" s="13"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -2128,7 +2469,7 @@
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -2143,7 +2484,7 @@
       <c r="L82" s="13"/>
       <c r="M82" s="13"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -2158,7 +2499,7 @@
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -2173,7 +2514,7 @@
       <c r="L84" s="13"/>
       <c r="M84" s="13"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -2188,7 +2529,7 @@
       <c r="L85" s="13"/>
       <c r="M85" s="13"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -2203,7 +2544,7 @@
       <c r="L86" s="13"/>
       <c r="M86" s="13"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -2218,7 +2559,7 @@
       <c r="L87" s="13"/>
       <c r="M87" s="13"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -2233,7 +2574,7 @@
       <c r="L88" s="13"/>
       <c r="M88" s="13"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -2248,7 +2589,7 @@
       <c r="L89" s="13"/>
       <c r="M89" s="13"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -2263,7 +2604,7 @@
       <c r="L90" s="13"/>
       <c r="M90" s="13"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -2278,7 +2619,7 @@
       <c r="L91" s="13"/>
       <c r="M91" s="13"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -2293,7 +2634,7 @@
       <c r="L92" s="13"/>
       <c r="M92" s="13"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -2308,7 +2649,7 @@
       <c r="L93" s="13"/>
       <c r="M93" s="13"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -2323,7 +2664,7 @@
       <c r="L94" s="13"/>
       <c r="M94" s="13"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -2338,7 +2679,7 @@
       <c r="L95" s="13"/>
       <c r="M95" s="13"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -2353,7 +2694,7 @@
       <c r="L96" s="13"/>
       <c r="M96" s="13"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -2368,7 +2709,7 @@
       <c r="L97" s="13"/>
       <c r="M97" s="13"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -2383,7 +2724,7 @@
       <c r="L98" s="13"/>
       <c r="M98" s="13"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -2398,7 +2739,7 @@
       <c r="L99" s="13"/>
       <c r="M99" s="13"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -2413,7 +2754,7 @@
       <c r="L100" s="13"/>
       <c r="M100" s="13"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -2428,7 +2769,7 @@
       <c r="L101" s="13"/>
       <c r="M101" s="13"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -2443,7 +2784,7 @@
       <c r="L102" s="13"/>
       <c r="M102" s="13"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -2458,7 +2799,7 @@
       <c r="L103" s="13"/>
       <c r="M103" s="13"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -2473,7 +2814,7 @@
       <c r="L104" s="13"/>
       <c r="M104" s="13"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -2488,7 +2829,7 @@
       <c r="L105" s="13"/>
       <c r="M105" s="13"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -2503,7 +2844,7 @@
       <c r="L106" s="13"/>
       <c r="M106" s="13"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -2518,7 +2859,7 @@
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -2533,7 +2874,7 @@
       <c r="L108" s="13"/>
       <c r="M108" s="13"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -2548,7 +2889,7 @@
       <c r="L109" s="13"/>
       <c r="M109" s="13"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -2563,7 +2904,7 @@
       <c r="L110" s="13"/>
       <c r="M110" s="13"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -2578,7 +2919,7 @@
       <c r="L111" s="13"/>
       <c r="M111" s="13"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13">
       <c r="A112" s="13"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -2593,7 +2934,7 @@
       <c r="L112" s="13"/>
       <c r="M112" s="13"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13">
       <c r="A113" s="13"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -2608,7 +2949,7 @@
       <c r="L113" s="13"/>
       <c r="M113" s="13"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -2623,7 +2964,7 @@
       <c r="L114" s="13"/>
       <c r="M114" s="13"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -2638,7 +2979,7 @@
       <c r="L115" s="13"/>
       <c r="M115" s="13"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13">
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -2653,7 +2994,7 @@
       <c r="L116" s="13"/>
       <c r="M116" s="13"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -2668,7 +3009,7 @@
       <c r="L117" s="13"/>
       <c r="M117" s="13"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13">
       <c r="A118" s="13"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -2683,7 +3024,7 @@
       <c r="L118" s="13"/>
       <c r="M118" s="13"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13">
       <c r="A119" s="13"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -2698,7 +3039,7 @@
       <c r="L119" s="13"/>
       <c r="M119" s="13"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13">
       <c r="A120" s="13"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -2713,7 +3054,7 @@
       <c r="L120" s="13"/>
       <c r="M120" s="13"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13">
       <c r="A121" s="13"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
@@ -2728,7 +3069,7 @@
       <c r="L121" s="13"/>
       <c r="M121" s="13"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -2743,7 +3084,7 @@
       <c r="L122" s="13"/>
       <c r="M122" s="13"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13">
       <c r="A123" s="13"/>
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
@@ -2758,7 +3099,7 @@
       <c r="L123" s="13"/>
       <c r="M123" s="13"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13">
       <c r="A124" s="13"/>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
@@ -2773,7 +3114,7 @@
       <c r="L124" s="13"/>
       <c r="M124" s="13"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13">
       <c r="A125" s="13"/>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
@@ -2788,7 +3129,7 @@
       <c r="L125" s="13"/>
       <c r="M125" s="13"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13">
       <c r="A126" s="13"/>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
@@ -2803,7 +3144,7 @@
       <c r="L126" s="13"/>
       <c r="M126" s="13"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13">
       <c r="A127" s="13"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -2818,7 +3159,7 @@
       <c r="L127" s="13"/>
       <c r="M127" s="13"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13">
       <c r="A128" s="13"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -2833,7 +3174,7 @@
       <c r="L128" s="13"/>
       <c r="M128" s="13"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13">
       <c r="A129" s="13"/>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
@@ -2848,7 +3189,7 @@
       <c r="L129" s="13"/>
       <c r="M129" s="13"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13">
       <c r="A130" s="13"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -2863,7 +3204,7 @@
       <c r="L130" s="13"/>
       <c r="M130" s="13"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13">
       <c r="A131" s="13"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -2878,7 +3219,7 @@
       <c r="L131" s="13"/>
       <c r="M131" s="13"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13">
       <c r="A132" s="13"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -2893,7 +3234,7 @@
       <c r="L132" s="13"/>
       <c r="M132" s="13"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13">
       <c r="A133" s="13"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -2908,7 +3249,7 @@
       <c r="L133" s="13"/>
       <c r="M133" s="13"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13">
       <c r="A134" s="13"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -2923,7 +3264,7 @@
       <c r="L134" s="13"/>
       <c r="M134" s="13"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13">
       <c r="A135" s="13"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -2938,7 +3279,7 @@
       <c r="L135" s="13"/>
       <c r="M135" s="13"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13">
       <c r="A136" s="13"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -2953,7 +3294,7 @@
       <c r="L136" s="13"/>
       <c r="M136" s="13"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13">
       <c r="A137" s="13"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -2968,7 +3309,7 @@
       <c r="L137" s="13"/>
       <c r="M137" s="13"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13">
       <c r="A138" s="13"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -2983,7 +3324,7 @@
       <c r="L138" s="13"/>
       <c r="M138" s="13"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13">
       <c r="A139" s="13"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -2998,7 +3339,7 @@
       <c r="L139" s="13"/>
       <c r="M139" s="13"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13">
       <c r="A140" s="13"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -3013,7 +3354,7 @@
       <c r="L140" s="13"/>
       <c r="M140" s="13"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13">
       <c r="A141" s="13"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -3028,7 +3369,7 @@
       <c r="L141" s="13"/>
       <c r="M141" s="13"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13">
       <c r="A142" s="13"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -3043,7 +3384,7 @@
       <c r="L142" s="13"/>
       <c r="M142" s="13"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13">
       <c r="A143" s="13"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -3058,7 +3399,7 @@
       <c r="L143" s="13"/>
       <c r="M143" s="13"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13">
       <c r="A144" s="13"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -3073,7 +3414,7 @@
       <c r="L144" s="13"/>
       <c r="M144" s="13"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13">
       <c r="A145" s="13"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -3088,7 +3429,7 @@
       <c r="L145" s="13"/>
       <c r="M145" s="13"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13">
       <c r="A146" s="13"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -3103,7 +3444,7 @@
       <c r="L146" s="13"/>
       <c r="M146" s="13"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13">
       <c r="A147" s="13"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -3118,7 +3459,7 @@
       <c r="L147" s="13"/>
       <c r="M147" s="13"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13">
       <c r="A148" s="13"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -3133,7 +3474,7 @@
       <c r="L148" s="13"/>
       <c r="M148" s="13"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13">
       <c r="A149" s="13"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -3148,7 +3489,7 @@
       <c r="L149" s="13"/>
       <c r="M149" s="13"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13">
       <c r="A150" s="13"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -3163,7 +3504,7 @@
       <c r="L150" s="13"/>
       <c r="M150" s="13"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13">
       <c r="A151" s="13"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -3178,7 +3519,7 @@
       <c r="L151" s="13"/>
       <c r="M151" s="13"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13">
       <c r="A152" s="13"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -3193,7 +3534,7 @@
       <c r="L152" s="13"/>
       <c r="M152" s="13"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13">
       <c r="A153" s="13"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -3208,7 +3549,7 @@
       <c r="L153" s="13"/>
       <c r="M153" s="13"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13">
       <c r="A154" s="13"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -3223,7 +3564,7 @@
       <c r="L154" s="13"/>
       <c r="M154" s="13"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13">
       <c r="A155" s="13"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -3238,7 +3579,7 @@
       <c r="L155" s="13"/>
       <c r="M155" s="13"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13">
       <c r="A156" s="13"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -3253,7 +3594,7 @@
       <c r="L156" s="13"/>
       <c r="M156" s="13"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -3268,7 +3609,7 @@
       <c r="L157" s="13"/>
       <c r="M157" s="13"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13">
       <c r="A158" s="13"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -3283,7 +3624,7 @@
       <c r="L158" s="13"/>
       <c r="M158" s="13"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13">
       <c r="A159" s="13"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -3298,7 +3639,7 @@
       <c r="L159" s="13"/>
       <c r="M159" s="13"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13">
       <c r="A160" s="13"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -3313,7 +3654,7 @@
       <c r="L160" s="13"/>
       <c r="M160" s="13"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13">
       <c r="A161" s="13"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -3328,7 +3669,7 @@
       <c r="L161" s="13"/>
       <c r="M161" s="13"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13">
       <c r="A162" s="13"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -3343,7 +3684,7 @@
       <c r="L162" s="13"/>
       <c r="M162" s="13"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13">
       <c r="A163" s="13"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -3358,7 +3699,7 @@
       <c r="L163" s="13"/>
       <c r="M163" s="13"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13">
       <c r="A164" s="13"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -3373,7 +3714,7 @@
       <c r="L164" s="13"/>
       <c r="M164" s="13"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13">
       <c r="A165" s="13"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -3388,7 +3729,7 @@
       <c r="L165" s="13"/>
       <c r="M165" s="13"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13">
       <c r="A166" s="13"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -3403,7 +3744,7 @@
       <c r="L166" s="13"/>
       <c r="M166" s="13"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13">
       <c r="A167" s="13"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -3418,7 +3759,7 @@
       <c r="L167" s="13"/>
       <c r="M167" s="13"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13">
       <c r="A168" s="13"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -3433,7 +3774,7 @@
       <c r="L168" s="13"/>
       <c r="M168" s="13"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13">
       <c r="A169" s="13"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -3448,7 +3789,7 @@
       <c r="L169" s="13"/>
       <c r="M169" s="13"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13">
       <c r="A170" s="13"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -3463,7 +3804,7 @@
       <c r="L170" s="13"/>
       <c r="M170" s="13"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13">
       <c r="A171" s="13"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -3478,7 +3819,7 @@
       <c r="L171" s="13"/>
       <c r="M171" s="13"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13">
       <c r="A172" s="13"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
@@ -3493,7 +3834,7 @@
       <c r="L172" s="13"/>
       <c r="M172" s="13"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13">
       <c r="A173" s="13"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
@@ -3508,7 +3849,7 @@
       <c r="L173" s="13"/>
       <c r="M173" s="13"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13">
       <c r="A174" s="13"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
@@ -3523,7 +3864,7 @@
       <c r="L174" s="13"/>
       <c r="M174" s="13"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13">
       <c r="A175" s="13"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
@@ -3538,7 +3879,7 @@
       <c r="L175" s="13"/>
       <c r="M175" s="13"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13">
       <c r="A176" s="13"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -3553,7 +3894,7 @@
       <c r="L176" s="13"/>
       <c r="M176" s="13"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13">
       <c r="A177" s="13"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -3568,7 +3909,7 @@
       <c r="L177" s="13"/>
       <c r="M177" s="13"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13">
       <c r="A178" s="13"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -3583,7 +3924,7 @@
       <c r="L178" s="13"/>
       <c r="M178" s="13"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13">
       <c r="A179" s="13"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -3598,7 +3939,7 @@
       <c r="L179" s="13"/>
       <c r="M179" s="13"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13">
       <c r="A180" s="13"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -3613,7 +3954,7 @@
       <c r="L180" s="13"/>
       <c r="M180" s="13"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13">
       <c r="A181" s="13"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -3628,7 +3969,7 @@
       <c r="L181" s="13"/>
       <c r="M181" s="13"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13">
       <c r="A182" s="13"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
@@ -3643,7 +3984,7 @@
       <c r="L182" s="13"/>
       <c r="M182" s="13"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13">
       <c r="A183" s="13"/>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
@@ -3658,7 +3999,7 @@
       <c r="L183" s="13"/>
       <c r="M183" s="13"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13">
       <c r="A184" s="13"/>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
@@ -3673,7 +4014,7 @@
       <c r="L184" s="13"/>
       <c r="M184" s="13"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13">
       <c r="A185" s="13"/>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
@@ -3688,7 +4029,7 @@
       <c r="L185" s="13"/>
       <c r="M185" s="13"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13">
       <c r="A186" s="13"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
@@ -3703,7 +4044,7 @@
       <c r="L186" s="13"/>
       <c r="M186" s="13"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13">
       <c r="A187" s="13"/>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -3718,7 +4059,7 @@
       <c r="L187" s="13"/>
       <c r="M187" s="13"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13">
       <c r="A188" s="13"/>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
@@ -3733,7 +4074,7 @@
       <c r="L188" s="13"/>
       <c r="M188" s="13"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13">
       <c r="A189" s="13"/>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
@@ -3748,7 +4089,7 @@
       <c r="L189" s="13"/>
       <c r="M189" s="13"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13">
       <c r="A190" s="13"/>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
@@ -3763,7 +4104,7 @@
       <c r="L190" s="13"/>
       <c r="M190" s="13"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13">
       <c r="A191" s="13"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
@@ -3778,7 +4119,7 @@
       <c r="L191" s="13"/>
       <c r="M191" s="13"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13">
       <c r="A192" s="13"/>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
@@ -3793,7 +4134,7 @@
       <c r="L192" s="13"/>
       <c r="M192" s="13"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13">
       <c r="A193" s="13"/>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
@@ -3808,7 +4149,7 @@
       <c r="L193" s="13"/>
       <c r="M193" s="13"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13">
       <c r="A194" s="13"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
@@ -3823,7 +4164,7 @@
       <c r="L194" s="13"/>
       <c r="M194" s="13"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13">
       <c r="A195" s="13"/>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
@@ -3838,7 +4179,7 @@
       <c r="L195" s="13"/>
       <c r="M195" s="13"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13">
       <c r="A196" s="13"/>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -3853,7 +4194,7 @@
       <c r="L196" s="13"/>
       <c r="M196" s="13"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13">
       <c r="A197" s="13"/>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
@@ -3868,7 +4209,7 @@
       <c r="L197" s="13"/>
       <c r="M197" s="13"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13">
       <c r="A198" s="13"/>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
@@ -3883,7 +4224,7 @@
       <c r="L198" s="13"/>
       <c r="M198" s="13"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13">
       <c r="A199" s="13"/>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
@@ -3898,7 +4239,7 @@
       <c r="L199" s="13"/>
       <c r="M199" s="13"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13">
       <c r="A200" s="13"/>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
@@ -3913,7 +4254,7 @@
       <c r="L200" s="13"/>
       <c r="M200" s="13"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13">
       <c r="A201" s="13"/>
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
@@ -3928,7 +4269,7 @@
       <c r="L201" s="13"/>
       <c r="M201" s="13"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13">
       <c r="A202" s="13"/>
       <c r="B202" s="13"/>
       <c r="C202" s="13"/>
@@ -3943,7 +4284,7 @@
       <c r="L202" s="13"/>
       <c r="M202" s="13"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13">
       <c r="A203" s="13"/>
       <c r="B203" s="13"/>
       <c r="C203" s="13"/>
@@ -3958,7 +4299,7 @@
       <c r="L203" s="13"/>
       <c r="M203" s="13"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13">
       <c r="A204" s="13"/>
       <c r="B204" s="13"/>
       <c r="C204" s="13"/>
@@ -3973,7 +4314,7 @@
       <c r="L204" s="13"/>
       <c r="M204" s="13"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13">
       <c r="A205" s="13"/>
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
@@ -3988,7 +4329,7 @@
       <c r="L205" s="13"/>
       <c r="M205" s="13"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13">
       <c r="A206" s="13"/>
       <c r="B206" s="13"/>
       <c r="C206" s="13"/>
@@ -4003,7 +4344,7 @@
       <c r="L206" s="13"/>
       <c r="M206" s="13"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13">
       <c r="A207" s="13"/>
       <c r="B207" s="13"/>
       <c r="C207" s="13"/>
@@ -4018,7 +4359,7 @@
       <c r="L207" s="13"/>
       <c r="M207" s="13"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13">
       <c r="A208" s="13"/>
       <c r="B208" s="13"/>
       <c r="C208" s="13"/>
@@ -4033,7 +4374,7 @@
       <c r="L208" s="13"/>
       <c r="M208" s="13"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13">
       <c r="A209" s="13"/>
       <c r="B209" s="13"/>
       <c r="C209" s="13"/>
@@ -4048,7 +4389,7 @@
       <c r="L209" s="13"/>
       <c r="M209" s="13"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13">
       <c r="A210" s="13"/>
       <c r="B210" s="13"/>
       <c r="C210" s="13"/>
@@ -4063,7 +4404,7 @@
       <c r="L210" s="13"/>
       <c r="M210" s="13"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13">
       <c r="A211" s="13"/>
       <c r="B211" s="13"/>
       <c r="C211" s="13"/>
@@ -4078,7 +4419,7 @@
       <c r="L211" s="13"/>
       <c r="M211" s="13"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13">
       <c r="A212" s="13"/>
       <c r="B212" s="13"/>
       <c r="C212" s="13"/>
@@ -4093,7 +4434,7 @@
       <c r="L212" s="13"/>
       <c r="M212" s="13"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13">
       <c r="A213" s="13"/>
       <c r="B213" s="13"/>
       <c r="C213" s="13"/>
@@ -4108,7 +4449,7 @@
       <c r="L213" s="13"/>
       <c r="M213" s="13"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13">
       <c r="A214" s="13"/>
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
@@ -4123,7 +4464,7 @@
       <c r="L214" s="13"/>
       <c r="M214" s="13"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13">
       <c r="A215" s="13"/>
       <c r="B215" s="13"/>
       <c r="C215" s="13"/>
@@ -4138,7 +4479,7 @@
       <c r="L215" s="13"/>
       <c r="M215" s="13"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13">
       <c r="A216" s="13"/>
       <c r="B216" s="13"/>
       <c r="C216" s="13"/>
@@ -4153,7 +4494,7 @@
       <c r="L216" s="13"/>
       <c r="M216" s="13"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13">
       <c r="A217" s="13"/>
       <c r="B217" s="13"/>
       <c r="C217" s="13"/>
@@ -4168,7 +4509,7 @@
       <c r="L217" s="13"/>
       <c r="M217" s="13"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13">
       <c r="A218" s="13"/>
       <c r="B218" s="13"/>
       <c r="C218" s="13"/>
@@ -4183,7 +4524,7 @@
       <c r="L218" s="13"/>
       <c r="M218" s="13"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13">
       <c r="A219" s="13"/>
       <c r="B219" s="13"/>
       <c r="C219" s="13"/>
@@ -4198,7 +4539,7 @@
       <c r="L219" s="13"/>
       <c r="M219" s="13"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13">
       <c r="A220" s="13"/>
       <c r="B220" s="13"/>
       <c r="C220" s="13"/>
@@ -4213,7 +4554,7 @@
       <c r="L220" s="13"/>
       <c r="M220" s="13"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13">
       <c r="A221" s="13"/>
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
@@ -4228,7 +4569,7 @@
       <c r="L221" s="13"/>
       <c r="M221" s="13"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13">
       <c r="A222" s="13"/>
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
@@ -4243,7 +4584,7 @@
       <c r="L222" s="13"/>
       <c r="M222" s="13"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13">
       <c r="A223" s="13"/>
       <c r="B223" s="13"/>
       <c r="C223" s="13"/>
@@ -4258,7 +4599,7 @@
       <c r="L223" s="13"/>
       <c r="M223" s="13"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13">
       <c r="A224" s="13"/>
       <c r="B224" s="13"/>
       <c r="C224" s="13"/>
@@ -4273,7 +4614,7 @@
       <c r="L224" s="13"/>
       <c r="M224" s="13"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13">
       <c r="A225" s="13"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
@@ -4288,7 +4629,7 @@
       <c r="L225" s="13"/>
       <c r="M225" s="13"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13">
       <c r="A226" s="13"/>
       <c r="B226" s="13"/>
       <c r="C226" s="13"/>
@@ -4303,7 +4644,7 @@
       <c r="L226" s="13"/>
       <c r="M226" s="13"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13">
       <c r="A227" s="13"/>
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
@@ -4318,7 +4659,7 @@
       <c r="L227" s="13"/>
       <c r="M227" s="13"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13">
       <c r="A228" s="13"/>
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
@@ -4333,7 +4674,7 @@
       <c r="L228" s="13"/>
       <c r="M228" s="13"/>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13">
       <c r="A229" s="13"/>
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
@@ -4348,7 +4689,7 @@
       <c r="L229" s="13"/>
       <c r="M229" s="13"/>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13">
       <c r="A230" s="13"/>
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
@@ -4363,7 +4704,7 @@
       <c r="L230" s="13"/>
       <c r="M230" s="13"/>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13">
       <c r="A231" s="13"/>
       <c r="B231" s="13"/>
       <c r="C231" s="13"/>
@@ -4378,7 +4719,7 @@
       <c r="L231" s="13"/>
       <c r="M231" s="13"/>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13">
       <c r="A232" s="13"/>
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
@@ -4393,7 +4734,7 @@
       <c r="L232" s="13"/>
       <c r="M232" s="13"/>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13">
       <c r="A233" s="13"/>
       <c r="B233" s="13"/>
       <c r="C233" s="13"/>
@@ -4408,7 +4749,7 @@
       <c r="L233" s="13"/>
       <c r="M233" s="13"/>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13">
       <c r="A234" s="13"/>
       <c r="B234" s="13"/>
       <c r="C234" s="13"/>
@@ -4423,7 +4764,7 @@
       <c r="L234" s="13"/>
       <c r="M234" s="13"/>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13">
       <c r="A235" s="13"/>
       <c r="B235" s="13"/>
       <c r="C235" s="13"/>
@@ -4438,7 +4779,7 @@
       <c r="L235" s="13"/>
       <c r="M235" s="13"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13">
       <c r="A236" s="13"/>
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
@@ -4453,7 +4794,7 @@
       <c r="L236" s="13"/>
       <c r="M236" s="13"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13">
       <c r="A237" s="13"/>
       <c r="B237" s="13"/>
       <c r="C237" s="13"/>
@@ -4468,7 +4809,7 @@
       <c r="L237" s="13"/>
       <c r="M237" s="13"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13">
       <c r="A238" s="13"/>
       <c r="B238" s="13"/>
       <c r="C238" s="13"/>
@@ -4483,7 +4824,7 @@
       <c r="L238" s="13"/>
       <c r="M238" s="13"/>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13">
       <c r="A239" s="13"/>
       <c r="B239" s="13"/>
       <c r="C239" s="13"/>
@@ -4498,7 +4839,7 @@
       <c r="L239" s="13"/>
       <c r="M239" s="13"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13">
       <c r="A240" s="13"/>
       <c r="B240" s="13"/>
       <c r="C240" s="13"/>
@@ -4513,7 +4854,7 @@
       <c r="L240" s="13"/>
       <c r="M240" s="13"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13">
       <c r="A241" s="13"/>
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
@@ -4528,7 +4869,7 @@
       <c r="L241" s="13"/>
       <c r="M241" s="13"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13">
       <c r="A242" s="13"/>
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
@@ -4543,7 +4884,7 @@
       <c r="L242" s="13"/>
       <c r="M242" s="13"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13">
       <c r="A243" s="13"/>
       <c r="B243" s="13"/>
       <c r="C243" s="13"/>
@@ -4558,7 +4899,7 @@
       <c r="L243" s="13"/>
       <c r="M243" s="13"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13">
       <c r="A244" s="13"/>
       <c r="B244" s="13"/>
       <c r="C244" s="13"/>
@@ -4573,7 +4914,7 @@
       <c r="L244" s="13"/>
       <c r="M244" s="13"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13">
       <c r="A245" s="13"/>
       <c r="B245" s="13"/>
       <c r="C245" s="13"/>
@@ -4588,7 +4929,7 @@
       <c r="L245" s="13"/>
       <c r="M245" s="13"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13">
       <c r="A246" s="13"/>
       <c r="B246" s="13"/>
       <c r="C246" s="13"/>
@@ -4603,7 +4944,7 @@
       <c r="L246" s="13"/>
       <c r="M246" s="13"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13">
       <c r="A247" s="13"/>
       <c r="B247" s="13"/>
       <c r="C247" s="13"/>
@@ -4618,7 +4959,7 @@
       <c r="L247" s="13"/>
       <c r="M247" s="13"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13">
       <c r="A248" s="13"/>
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
@@ -4633,7 +4974,7 @@
       <c r="L248" s="13"/>
       <c r="M248" s="13"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13">
       <c r="A249" s="13"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -4648,7 +4989,7 @@
       <c r="L249" s="13"/>
       <c r="M249" s="13"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13">
       <c r="A250" s="13"/>
       <c r="B250" s="13"/>
       <c r="C250" s="13"/>
@@ -4663,7 +5004,7 @@
       <c r="L250" s="13"/>
       <c r="M250" s="13"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13">
       <c r="A251" s="13"/>
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
@@ -4678,7 +5019,7 @@
       <c r="L251" s="13"/>
       <c r="M251" s="13"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13">
       <c r="A252" s="13"/>
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
@@ -4693,7 +5034,7 @@
       <c r="L252" s="13"/>
       <c r="M252" s="13"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13">
       <c r="A253" s="13"/>
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
@@ -4708,7 +5049,7 @@
       <c r="L253" s="13"/>
       <c r="M253" s="13"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13">
       <c r="A254" s="13"/>
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
@@ -4723,7 +5064,7 @@
       <c r="L254" s="13"/>
       <c r="M254" s="13"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13">
       <c r="A255" s="13"/>
       <c r="B255" s="13"/>
       <c r="C255" s="13"/>
@@ -4738,7 +5079,7 @@
       <c r="L255" s="13"/>
       <c r="M255" s="13"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13">
       <c r="A256" s="13"/>
       <c r="B256" s="13"/>
       <c r="C256" s="13"/>
@@ -4753,7 +5094,7 @@
       <c r="L256" s="13"/>
       <c r="M256" s="13"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13">
       <c r="A257" s="13"/>
       <c r="B257" s="13"/>
       <c r="C257" s="13"/>
@@ -4768,7 +5109,7 @@
       <c r="L257" s="13"/>
       <c r="M257" s="13"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13">
       <c r="A258" s="13"/>
       <c r="B258" s="13"/>
       <c r="C258" s="13"/>
@@ -4783,7 +5124,7 @@
       <c r="L258" s="13"/>
       <c r="M258" s="13"/>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13">
       <c r="A259" s="13"/>
       <c r="B259" s="13"/>
       <c r="C259" s="13"/>
@@ -4798,7 +5139,7 @@
       <c r="L259" s="13"/>
       <c r="M259" s="13"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13">
       <c r="A260" s="13"/>
       <c r="B260" s="13"/>
       <c r="C260" s="13"/>
@@ -4813,7 +5154,7 @@
       <c r="L260" s="13"/>
       <c r="M260" s="13"/>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13">
       <c r="A261" s="13"/>
       <c r="B261" s="13"/>
       <c r="C261" s="13"/>
@@ -4828,7 +5169,7 @@
       <c r="L261" s="13"/>
       <c r="M261" s="13"/>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13">
       <c r="A262" s="13"/>
       <c r="B262" s="13"/>
       <c r="C262" s="13"/>
@@ -4843,7 +5184,7 @@
       <c r="L262" s="13"/>
       <c r="M262" s="13"/>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13">
       <c r="A263" s="13"/>
       <c r="B263" s="13"/>
       <c r="C263" s="13"/>
@@ -4858,7 +5199,7 @@
       <c r="L263" s="13"/>
       <c r="M263" s="13"/>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13">
       <c r="A264" s="13"/>
       <c r="B264" s="13"/>
       <c r="C264" s="13"/>
@@ -4873,7 +5214,7 @@
       <c r="L264" s="13"/>
       <c r="M264" s="13"/>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13">
       <c r="A265" s="13"/>
       <c r="B265" s="13"/>
       <c r="C265" s="13"/>
@@ -4888,7 +5229,7 @@
       <c r="L265" s="13"/>
       <c r="M265" s="13"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13">
       <c r="A266" s="13"/>
       <c r="B266" s="13"/>
       <c r="C266" s="13"/>
@@ -4903,7 +5244,7 @@
       <c r="L266" s="13"/>
       <c r="M266" s="13"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13">
       <c r="A267" s="13"/>
       <c r="B267" s="13"/>
       <c r="C267" s="13"/>
@@ -4918,7 +5259,7 @@
       <c r="L267" s="13"/>
       <c r="M267" s="13"/>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13">
       <c r="A268" s="13"/>
       <c r="B268" s="13"/>
       <c r="C268" s="13"/>
@@ -4933,7 +5274,7 @@
       <c r="L268" s="13"/>
       <c r="M268" s="13"/>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13">
       <c r="A269" s="13"/>
       <c r="B269" s="13"/>
       <c r="C269" s="13"/>
@@ -4948,7 +5289,7 @@
       <c r="L269" s="13"/>
       <c r="M269" s="13"/>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13">
       <c r="A270" s="13"/>
       <c r="B270" s="13"/>
       <c r="C270" s="13"/>
@@ -4963,7 +5304,7 @@
       <c r="L270" s="13"/>
       <c r="M270" s="13"/>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13">
       <c r="A271" s="13"/>
       <c r="B271" s="13"/>
       <c r="C271" s="13"/>
@@ -4978,7 +5319,7 @@
       <c r="L271" s="13"/>
       <c r="M271" s="13"/>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13">
       <c r="A272" s="13"/>
       <c r="B272" s="13"/>
       <c r="C272" s="13"/>
@@ -4993,7 +5334,7 @@
       <c r="L272" s="13"/>
       <c r="M272" s="13"/>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13">
       <c r="A273" s="13"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
@@ -5008,7 +5349,7 @@
       <c r="L273" s="13"/>
       <c r="M273" s="13"/>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13">
       <c r="A274" s="13"/>
       <c r="B274" s="13"/>
       <c r="C274" s="13"/>
@@ -5023,7 +5364,7 @@
       <c r="L274" s="13"/>
       <c r="M274" s="13"/>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13">
       <c r="A275" s="13"/>
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
@@ -5038,7 +5379,7 @@
       <c r="L275" s="13"/>
       <c r="M275" s="13"/>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13">
       <c r="A276" s="13"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
@@ -5053,7 +5394,7 @@
       <c r="L276" s="13"/>
       <c r="M276" s="13"/>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13">
       <c r="A277" s="13"/>
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
@@ -5068,7 +5409,7 @@
       <c r="L277" s="13"/>
       <c r="M277" s="13"/>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13">
       <c r="A278" s="13"/>
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
@@ -5083,7 +5424,7 @@
       <c r="L278" s="13"/>
       <c r="M278" s="13"/>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13">
       <c r="A279" s="13"/>
       <c r="B279" s="13"/>
       <c r="C279" s="13"/>
@@ -5098,7 +5439,7 @@
       <c r="L279" s="13"/>
       <c r="M279" s="13"/>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13">
       <c r="A280" s="13"/>
       <c r="B280" s="13"/>
       <c r="C280" s="13"/>
@@ -5113,7 +5454,7 @@
       <c r="L280" s="13"/>
       <c r="M280" s="13"/>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13">
       <c r="A281" s="13"/>
       <c r="B281" s="13"/>
       <c r="C281" s="13"/>
@@ -5128,7 +5469,7 @@
       <c r="L281" s="13"/>
       <c r="M281" s="13"/>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13">
       <c r="A282" s="13"/>
       <c r="B282" s="13"/>
       <c r="C282" s="13"/>
@@ -5143,7 +5484,7 @@
       <c r="L282" s="13"/>
       <c r="M282" s="13"/>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13">
       <c r="A283" s="13"/>
       <c r="B283" s="13"/>
       <c r="C283" s="13"/>
@@ -5158,7 +5499,7 @@
       <c r="L283" s="13"/>
       <c r="M283" s="13"/>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13">
       <c r="A284" s="13"/>
       <c r="B284" s="13"/>
       <c r="C284" s="13"/>
@@ -5173,7 +5514,7 @@
       <c r="L284" s="13"/>
       <c r="M284" s="13"/>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13">
       <c r="A285" s="13"/>
       <c r="B285" s="13"/>
       <c r="C285" s="13"/>
@@ -5188,7 +5529,7 @@
       <c r="L285" s="13"/>
       <c r="M285" s="13"/>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13">
       <c r="A286" s="13"/>
       <c r="B286" s="13"/>
       <c r="C286" s="13"/>
@@ -5203,7 +5544,7 @@
       <c r="L286" s="13"/>
       <c r="M286" s="13"/>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13">
       <c r="A287" s="13"/>
       <c r="B287" s="13"/>
       <c r="C287" s="13"/>
@@ -5218,7 +5559,7 @@
       <c r="L287" s="13"/>
       <c r="M287" s="13"/>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13">
       <c r="A288" s="13"/>
       <c r="B288" s="13"/>
       <c r="C288" s="13"/>
@@ -5233,7 +5574,7 @@
       <c r="L288" s="13"/>
       <c r="M288" s="13"/>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13">
       <c r="A289" s="13"/>
       <c r="B289" s="13"/>
       <c r="C289" s="13"/>
@@ -5248,7 +5589,7 @@
       <c r="L289" s="13"/>
       <c r="M289" s="13"/>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13">
       <c r="A290" s="13"/>
       <c r="B290" s="13"/>
       <c r="C290" s="13"/>
@@ -5263,7 +5604,7 @@
       <c r="L290" s="13"/>
       <c r="M290" s="13"/>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13">
       <c r="A291" s="13"/>
       <c r="B291" s="13"/>
       <c r="C291" s="13"/>
@@ -5278,7 +5619,7 @@
       <c r="L291" s="13"/>
       <c r="M291" s="13"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13">
       <c r="A292" s="13"/>
       <c r="B292" s="13"/>
       <c r="C292" s="13"/>
@@ -5293,7 +5634,7 @@
       <c r="L292" s="13"/>
       <c r="M292" s="13"/>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13">
       <c r="A293" s="13"/>
       <c r="B293" s="13"/>
       <c r="C293" s="13"/>
@@ -5308,7 +5649,7 @@
       <c r="L293" s="13"/>
       <c r="M293" s="13"/>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13">
       <c r="A294" s="13"/>
       <c r="B294" s="13"/>
       <c r="C294" s="13"/>
@@ -5323,7 +5664,7 @@
       <c r="L294" s="13"/>
       <c r="M294" s="13"/>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13">
       <c r="A295" s="13"/>
       <c r="B295" s="13"/>
       <c r="C295" s="13"/>
@@ -5338,7 +5679,7 @@
       <c r="L295" s="13"/>
       <c r="M295" s="13"/>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13">
       <c r="A296" s="13"/>
       <c r="B296" s="13"/>
       <c r="C296" s="13"/>
@@ -5353,7 +5694,7 @@
       <c r="L296" s="13"/>
       <c r="M296" s="13"/>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13">
       <c r="A297" s="13"/>
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
@@ -5368,7 +5709,7 @@
       <c r="L297" s="13"/>
       <c r="M297" s="13"/>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13">
       <c r="A298" s="13"/>
       <c r="B298" s="13"/>
       <c r="C298" s="13"/>
@@ -5383,7 +5724,7 @@
       <c r="L298" s="13"/>
       <c r="M298" s="13"/>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13">
       <c r="A299" s="13"/>
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
@@ -5398,7 +5739,7 @@
       <c r="L299" s="13"/>
       <c r="M299" s="13"/>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13">
       <c r="A300" s="13"/>
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
@@ -5413,7 +5754,7 @@
       <c r="L300" s="13"/>
       <c r="M300" s="13"/>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13">
       <c r="A301" s="13"/>
       <c r="B301" s="13"/>
       <c r="C301" s="13"/>
@@ -5428,7 +5769,7 @@
       <c r="L301" s="13"/>
       <c r="M301" s="13"/>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13">
       <c r="A302" s="13"/>
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
@@ -5443,7 +5784,7 @@
       <c r="L302" s="13"/>
       <c r="M302" s="13"/>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13">
       <c r="A303" s="13"/>
       <c r="B303" s="13"/>
       <c r="C303" s="13"/>
@@ -5458,7 +5799,7 @@
       <c r="L303" s="13"/>
       <c r="M303" s="13"/>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13">
       <c r="A304" s="13"/>
       <c r="B304" s="13"/>
       <c r="C304" s="13"/>
@@ -5473,7 +5814,7 @@
       <c r="L304" s="13"/>
       <c r="M304" s="13"/>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13">
       <c r="A305" s="13"/>
       <c r="B305" s="13"/>
       <c r="C305" s="13"/>
@@ -5488,7 +5829,7 @@
       <c r="L305" s="13"/>
       <c r="M305" s="13"/>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13">
       <c r="A306" s="13"/>
       <c r="B306" s="13"/>
       <c r="C306" s="13"/>
@@ -5503,7 +5844,7 @@
       <c r="L306" s="13"/>
       <c r="M306" s="13"/>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13">
       <c r="A307" s="13"/>
       <c r="B307" s="13"/>
       <c r="C307" s="13"/>
@@ -5518,7 +5859,7 @@
       <c r="L307" s="13"/>
       <c r="M307" s="13"/>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13">
       <c r="A308" s="13"/>
       <c r="B308" s="13"/>
       <c r="C308" s="13"/>
@@ -5533,7 +5874,7 @@
       <c r="L308" s="13"/>
       <c r="M308" s="13"/>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13">
       <c r="A309" s="13"/>
       <c r="B309" s="13"/>
       <c r="C309" s="13"/>
@@ -5548,7 +5889,7 @@
       <c r="L309" s="13"/>
       <c r="M309" s="13"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13">
       <c r="A310" s="13"/>
       <c r="B310" s="13"/>
       <c r="C310" s="13"/>
@@ -5563,7 +5904,7 @@
       <c r="L310" s="13"/>
       <c r="M310" s="13"/>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13">
       <c r="A311" s="13"/>
       <c r="B311" s="13"/>
       <c r="C311" s="13"/>
@@ -5578,7 +5919,7 @@
       <c r="L311" s="13"/>
       <c r="M311" s="13"/>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13">
       <c r="A312" s="13"/>
       <c r="B312" s="13"/>
       <c r="C312" s="13"/>
@@ -5593,7 +5934,7 @@
       <c r="L312" s="13"/>
       <c r="M312" s="13"/>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13">
       <c r="A313" s="13"/>
       <c r="B313" s="13"/>
       <c r="C313" s="13"/>
@@ -5608,7 +5949,7 @@
       <c r="L313" s="13"/>
       <c r="M313" s="13"/>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13">
       <c r="A314" s="13"/>
       <c r="B314" s="13"/>
       <c r="C314" s="13"/>
@@ -5623,7 +5964,7 @@
       <c r="L314" s="13"/>
       <c r="M314" s="13"/>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13">
       <c r="A315" s="13"/>
       <c r="B315" s="13"/>
       <c r="C315" s="13"/>
@@ -5638,7 +5979,7 @@
       <c r="L315" s="13"/>
       <c r="M315" s="13"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13">
       <c r="A316" s="13"/>
       <c r="B316" s="13"/>
       <c r="C316" s="13"/>
@@ -5653,7 +5994,7 @@
       <c r="L316" s="13"/>
       <c r="M316" s="13"/>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13">
       <c r="A317" s="13"/>
       <c r="B317" s="13"/>
       <c r="C317" s="13"/>
@@ -5668,7 +6009,7 @@
       <c r="L317" s="13"/>
       <c r="M317" s="13"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13">
       <c r="A318" s="13"/>
       <c r="B318" s="13"/>
       <c r="C318" s="13"/>
@@ -5683,7 +6024,7 @@
       <c r="L318" s="13"/>
       <c r="M318" s="13"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13">
       <c r="A319" s="13"/>
       <c r="B319" s="13"/>
       <c r="C319" s="13"/>
@@ -5698,7 +6039,7 @@
       <c r="L319" s="13"/>
       <c r="M319" s="13"/>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13">
       <c r="A320" s="13"/>
       <c r="B320" s="13"/>
       <c r="C320" s="13"/>
@@ -5713,7 +6054,7 @@
       <c r="L320" s="13"/>
       <c r="M320" s="13"/>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13">
       <c r="A321" s="13"/>
       <c r="B321" s="13"/>
       <c r="C321" s="13"/>
@@ -5728,7 +6069,7 @@
       <c r="L321" s="13"/>
       <c r="M321" s="13"/>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13">
       <c r="A322" s="13"/>
       <c r="B322" s="13"/>
       <c r="C322" s="13"/>
@@ -5743,7 +6084,7 @@
       <c r="L322" s="13"/>
       <c r="M322" s="13"/>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13">
       <c r="A323" s="13"/>
       <c r="B323" s="13"/>
       <c r="C323" s="13"/>
@@ -5758,7 +6099,7 @@
       <c r="L323" s="13"/>
       <c r="M323" s="13"/>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13">
       <c r="A324" s="13"/>
       <c r="B324" s="13"/>
       <c r="C324" s="13"/>
@@ -5773,7 +6114,7 @@
       <c r="L324" s="13"/>
       <c r="M324" s="13"/>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13">
       <c r="A325" s="13"/>
       <c r="B325" s="13"/>
       <c r="C325" s="13"/>
@@ -5788,7 +6129,7 @@
       <c r="L325" s="13"/>
       <c r="M325" s="13"/>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13">
       <c r="A326" s="13"/>
       <c r="B326" s="13"/>
       <c r="C326" s="13"/>
@@ -5803,7 +6144,7 @@
       <c r="L326" s="13"/>
       <c r="M326" s="13"/>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13">
       <c r="A327" s="13"/>
       <c r="B327" s="13"/>
       <c r="C327" s="13"/>
@@ -5818,7 +6159,7 @@
       <c r="L327" s="13"/>
       <c r="M327" s="13"/>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13">
       <c r="A328" s="13"/>
       <c r="B328" s="13"/>
       <c r="C328" s="13"/>
@@ -5833,7 +6174,7 @@
       <c r="L328" s="13"/>
       <c r="M328" s="13"/>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13">
       <c r="A329" s="13"/>
       <c r="B329" s="13"/>
       <c r="C329" s="13"/>
@@ -5848,7 +6189,7 @@
       <c r="L329" s="13"/>
       <c r="M329" s="13"/>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13">
       <c r="A330" s="13"/>
       <c r="B330" s="13"/>
       <c r="C330" s="13"/>
@@ -5863,7 +6204,7 @@
       <c r="L330" s="13"/>
       <c r="M330" s="13"/>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13">
       <c r="A331" s="13"/>
       <c r="B331" s="13"/>
       <c r="C331" s="13"/>
@@ -5878,7 +6219,7 @@
       <c r="L331" s="13"/>
       <c r="M331" s="13"/>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13">
       <c r="A332" s="13"/>
       <c r="B332" s="13"/>
       <c r="C332" s="13"/>
@@ -5893,7 +6234,7 @@
       <c r="L332" s="13"/>
       <c r="M332" s="13"/>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13">
       <c r="A333" s="13"/>
       <c r="B333" s="13"/>
       <c r="C333" s="13"/>
@@ -5908,7 +6249,7 @@
       <c r="L333" s="13"/>
       <c r="M333" s="13"/>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13">
       <c r="A334" s="13"/>
       <c r="B334" s="13"/>
       <c r="C334" s="13"/>
@@ -5923,7 +6264,7 @@
       <c r="L334" s="13"/>
       <c r="M334" s="13"/>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13">
       <c r="A335" s="13"/>
       <c r="B335" s="13"/>
       <c r="C335" s="13"/>
@@ -5938,7 +6279,7 @@
       <c r="L335" s="13"/>
       <c r="M335" s="13"/>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13">
       <c r="A336" s="13"/>
       <c r="B336" s="13"/>
       <c r="C336" s="13"/>
@@ -5953,7 +6294,7 @@
       <c r="L336" s="13"/>
       <c r="M336" s="13"/>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13">
       <c r="A337" s="13"/>
       <c r="B337" s="13"/>
       <c r="C337" s="13"/>
@@ -5968,7 +6309,7 @@
       <c r="L337" s="13"/>
       <c r="M337" s="13"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13">
       <c r="A338" s="13"/>
       <c r="B338" s="13"/>
       <c r="C338" s="13"/>
@@ -5983,7 +6324,7 @@
       <c r="L338" s="13"/>
       <c r="M338" s="13"/>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13">
       <c r="A339" s="13"/>
       <c r="B339" s="13"/>
       <c r="C339" s="13"/>
@@ -5998,7 +6339,7 @@
       <c r="L339" s="13"/>
       <c r="M339" s="13"/>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13">
       <c r="A340" s="13"/>
       <c r="B340" s="13"/>
       <c r="C340" s="13"/>
@@ -6013,7 +6354,7 @@
       <c r="L340" s="13"/>
       <c r="M340" s="13"/>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13">
       <c r="A341" s="13"/>
       <c r="B341" s="13"/>
       <c r="C341" s="13"/>
@@ -6028,7 +6369,7 @@
       <c r="L341" s="13"/>
       <c r="M341" s="13"/>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13">
       <c r="A342" s="13"/>
       <c r="B342" s="13"/>
       <c r="C342" s="13"/>
@@ -6043,7 +6384,7 @@
       <c r="L342" s="13"/>
       <c r="M342" s="13"/>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13">
       <c r="A343" s="13"/>
       <c r="B343" s="13"/>
       <c r="C343" s="13"/>
@@ -6058,7 +6399,7 @@
       <c r="L343" s="13"/>
       <c r="M343" s="13"/>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13">
       <c r="A344" s="13"/>
       <c r="B344" s="13"/>
       <c r="C344" s="13"/>
@@ -6073,7 +6414,7 @@
       <c r="L344" s="13"/>
       <c r="M344" s="13"/>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13">
       <c r="A345" s="13"/>
       <c r="B345" s="13"/>
       <c r="C345" s="13"/>
@@ -6088,7 +6429,7 @@
       <c r="L345" s="13"/>
       <c r="M345" s="13"/>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13">
       <c r="A346" s="13"/>
       <c r="B346" s="13"/>
       <c r="C346" s="13"/>
@@ -6103,7 +6444,7 @@
       <c r="L346" s="13"/>
       <c r="M346" s="13"/>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13">
       <c r="A347" s="13"/>
       <c r="B347" s="13"/>
       <c r="C347" s="13"/>
@@ -6118,7 +6459,7 @@
       <c r="L347" s="13"/>
       <c r="M347" s="13"/>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13">
       <c r="A348" s="13"/>
       <c r="B348" s="13"/>
       <c r="C348" s="13"/>
@@ -6133,7 +6474,7 @@
       <c r="L348" s="13"/>
       <c r="M348" s="13"/>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13">
       <c r="A349" s="13"/>
       <c r="B349" s="13"/>
       <c r="C349" s="13"/>
@@ -6148,7 +6489,7 @@
       <c r="L349" s="13"/>
       <c r="M349" s="13"/>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13">
       <c r="A350" s="13"/>
       <c r="B350" s="13"/>
       <c r="C350" s="13"/>
@@ -6163,7 +6504,7 @@
       <c r="L350" s="13"/>
       <c r="M350" s="13"/>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13">
       <c r="A351" s="13"/>
       <c r="B351" s="13"/>
       <c r="C351" s="13"/>
@@ -6178,7 +6519,7 @@
       <c r="L351" s="13"/>
       <c r="M351" s="13"/>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13">
       <c r="A352" s="13"/>
       <c r="B352" s="13"/>
       <c r="C352" s="13"/>
@@ -6193,7 +6534,7 @@
       <c r="L352" s="13"/>
       <c r="M352" s="13"/>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13">
       <c r="A353" s="13"/>
       <c r="B353" s="13"/>
       <c r="C353" s="13"/>
@@ -6208,7 +6549,7 @@
       <c r="L353" s="13"/>
       <c r="M353" s="13"/>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13">
       <c r="A354" s="13"/>
       <c r="B354" s="13"/>
       <c r="C354" s="13"/>
@@ -6223,7 +6564,7 @@
       <c r="L354" s="13"/>
       <c r="M354" s="13"/>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13">
       <c r="A355" s="13"/>
       <c r="B355" s="13"/>
       <c r="C355" s="13"/>
@@ -6238,7 +6579,7 @@
       <c r="L355" s="13"/>
       <c r="M355" s="13"/>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13">
       <c r="A356" s="13"/>
       <c r="B356" s="13"/>
       <c r="C356" s="13"/>
@@ -6253,7 +6594,7 @@
       <c r="L356" s="13"/>
       <c r="M356" s="13"/>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13">
       <c r="A357" s="13"/>
       <c r="B357" s="13"/>
       <c r="C357" s="13"/>
@@ -6268,7 +6609,7 @@
       <c r="L357" s="13"/>
       <c r="M357" s="13"/>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13">
       <c r="A358" s="13"/>
       <c r="B358" s="13"/>
       <c r="C358" s="13"/>
@@ -6283,7 +6624,7 @@
       <c r="L358" s="13"/>
       <c r="M358" s="13"/>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13">
       <c r="A359" s="13"/>
       <c r="B359" s="13"/>
       <c r="C359" s="13"/>
@@ -6298,7 +6639,7 @@
       <c r="L359" s="13"/>
       <c r="M359" s="13"/>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13">
       <c r="A360" s="13"/>
       <c r="B360" s="13"/>
       <c r="C360" s="13"/>
@@ -6313,7 +6654,7 @@
       <c r="L360" s="13"/>
       <c r="M360" s="13"/>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13">
       <c r="A361" s="13"/>
       <c r="B361" s="13"/>
       <c r="C361" s="13"/>
@@ -6328,7 +6669,7 @@
       <c r="L361" s="13"/>
       <c r="M361" s="13"/>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13">
       <c r="A362" s="13"/>
       <c r="B362" s="13"/>
       <c r="C362" s="13"/>
@@ -6343,7 +6684,7 @@
       <c r="L362" s="13"/>
       <c r="M362" s="13"/>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13">
       <c r="A363" s="13"/>
       <c r="B363" s="13"/>
       <c r="C363" s="13"/>
@@ -6358,7 +6699,7 @@
       <c r="L363" s="13"/>
       <c r="M363" s="13"/>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13">
       <c r="A364" s="13"/>
       <c r="B364" s="13"/>
       <c r="C364" s="13"/>
@@ -6373,7 +6714,7 @@
       <c r="L364" s="13"/>
       <c r="M364" s="13"/>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13">
       <c r="A365" s="13"/>
       <c r="B365" s="13"/>
       <c r="C365" s="13"/>
@@ -6388,7 +6729,7 @@
       <c r="L365" s="13"/>
       <c r="M365" s="13"/>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13">
       <c r="A366" s="13"/>
       <c r="B366" s="13"/>
       <c r="C366" s="13"/>
@@ -6403,7 +6744,7 @@
       <c r="L366" s="13"/>
       <c r="M366" s="13"/>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13">
       <c r="A367" s="13"/>
       <c r="B367" s="13"/>
       <c r="C367" s="13"/>
@@ -6418,7 +6759,7 @@
       <c r="L367" s="13"/>
       <c r="M367" s="13"/>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13">
       <c r="A368" s="13"/>
       <c r="B368" s="13"/>
       <c r="C368" s="13"/>
@@ -6433,7 +6774,7 @@
       <c r="L368" s="13"/>
       <c r="M368" s="13"/>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13">
       <c r="A369" s="13"/>
       <c r="B369" s="13"/>
       <c r="C369" s="13"/>
@@ -6448,7 +6789,7 @@
       <c r="L369" s="13"/>
       <c r="M369" s="13"/>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13">
       <c r="A370" s="13"/>
       <c r="B370" s="13"/>
       <c r="C370" s="13"/>
@@ -6463,7 +6804,7 @@
       <c r="L370" s="13"/>
       <c r="M370" s="13"/>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13">
       <c r="A371" s="13"/>
       <c r="B371" s="13"/>
       <c r="C371" s="13"/>
@@ -6478,7 +6819,7 @@
       <c r="L371" s="13"/>
       <c r="M371" s="13"/>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13">
       <c r="A372" s="13"/>
       <c r="B372" s="13"/>
       <c r="C372" s="13"/>
@@ -6493,7 +6834,7 @@
       <c r="L372" s="13"/>
       <c r="M372" s="13"/>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13">
       <c r="A373" s="13"/>
       <c r="B373" s="13"/>
       <c r="C373" s="13"/>
@@ -6508,7 +6849,7 @@
       <c r="L373" s="13"/>
       <c r="M373" s="13"/>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13">
       <c r="A374" s="13"/>
       <c r="B374" s="13"/>
       <c r="C374" s="13"/>
@@ -6523,7 +6864,7 @@
       <c r="L374" s="13"/>
       <c r="M374" s="13"/>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13">
       <c r="A375" s="13"/>
       <c r="B375" s="13"/>
       <c r="C375" s="13"/>
@@ -6538,7 +6879,7 @@
       <c r="L375" s="13"/>
       <c r="M375" s="13"/>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13">
       <c r="A376" s="13"/>
       <c r="B376" s="13"/>
       <c r="C376" s="13"/>
@@ -6553,7 +6894,7 @@
       <c r="L376" s="13"/>
       <c r="M376" s="13"/>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13">
       <c r="A377" s="13"/>
       <c r="B377" s="13"/>
       <c r="C377" s="13"/>
@@ -6568,7 +6909,7 @@
       <c r="L377" s="13"/>
       <c r="M377" s="13"/>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13">
       <c r="A378" s="13"/>
       <c r="B378" s="13"/>
       <c r="C378" s="13"/>
@@ -6583,7 +6924,7 @@
       <c r="L378" s="13"/>
       <c r="M378" s="13"/>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13">
       <c r="A379" s="13"/>
       <c r="B379" s="13"/>
       <c r="C379" s="13"/>
@@ -6598,7 +6939,7 @@
       <c r="L379" s="13"/>
       <c r="M379" s="13"/>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13">
       <c r="A380" s="13"/>
       <c r="B380" s="13"/>
       <c r="C380" s="13"/>
@@ -6613,7 +6954,7 @@
       <c r="L380" s="13"/>
       <c r="M380" s="13"/>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13">
       <c r="A381" s="13"/>
       <c r="B381" s="13"/>
       <c r="C381" s="13"/>
@@ -6628,7 +6969,7 @@
       <c r="L381" s="13"/>
       <c r="M381" s="13"/>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13">
       <c r="A382" s="13"/>
       <c r="B382" s="13"/>
       <c r="C382" s="13"/>
@@ -6643,7 +6984,7 @@
       <c r="L382" s="13"/>
       <c r="M382" s="13"/>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13">
       <c r="A383" s="13"/>
       <c r="B383" s="13"/>
       <c r="C383" s="13"/>
@@ -6658,7 +6999,7 @@
       <c r="L383" s="13"/>
       <c r="M383" s="13"/>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13">
       <c r="A384" s="13"/>
       <c r="B384" s="13"/>
       <c r="C384" s="13"/>
@@ -6673,7 +7014,7 @@
       <c r="L384" s="13"/>
       <c r="M384" s="13"/>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13">
       <c r="A385" s="13"/>
       <c r="B385" s="13"/>
       <c r="C385" s="13"/>
@@ -6688,7 +7029,7 @@
       <c r="L385" s="13"/>
       <c r="M385" s="13"/>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13">
       <c r="A386" s="13"/>
       <c r="B386" s="13"/>
       <c r="C386" s="13"/>
@@ -6703,7 +7044,7 @@
       <c r="L386" s="13"/>
       <c r="M386" s="13"/>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13">
       <c r="A387" s="13"/>
       <c r="B387" s="13"/>
       <c r="C387" s="13"/>
@@ -6718,7 +7059,7 @@
       <c r="L387" s="13"/>
       <c r="M387" s="13"/>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13">
       <c r="A388" s="13"/>
       <c r="B388" s="13"/>
       <c r="C388" s="13"/>
@@ -6733,7 +7074,7 @@
       <c r="L388" s="13"/>
       <c r="M388" s="13"/>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13">
       <c r="A389" s="13"/>
       <c r="B389" s="13"/>
       <c r="C389" s="13"/>
@@ -6748,7 +7089,7 @@
       <c r="L389" s="13"/>
       <c r="M389" s="13"/>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13">
       <c r="A390" s="13"/>
       <c r="B390" s="13"/>
       <c r="C390" s="13"/>
@@ -6763,7 +7104,7 @@
       <c r="L390" s="13"/>
       <c r="M390" s="13"/>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13">
       <c r="A391" s="13"/>
       <c r="B391" s="13"/>
       <c r="C391" s="13"/>
@@ -6778,7 +7119,7 @@
       <c r="L391" s="13"/>
       <c r="M391" s="13"/>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13">
       <c r="A392" s="13"/>
       <c r="B392" s="13"/>
       <c r="C392" s="13"/>
@@ -6793,7 +7134,7 @@
       <c r="L392" s="13"/>
       <c r="M392" s="13"/>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13">
       <c r="A393" s="13"/>
       <c r="B393" s="13"/>
       <c r="C393" s="13"/>
@@ -6808,7 +7149,7 @@
       <c r="L393" s="13"/>
       <c r="M393" s="13"/>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13">
       <c r="A394" s="13"/>
       <c r="B394" s="13"/>
       <c r="C394" s="13"/>
@@ -6823,7 +7164,7 @@
       <c r="L394" s="13"/>
       <c r="M394" s="13"/>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13">
       <c r="A395" s="13"/>
       <c r="B395" s="13"/>
       <c r="C395" s="13"/>
@@ -6838,7 +7179,7 @@
       <c r="L395" s="13"/>
       <c r="M395" s="13"/>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13">
       <c r="A396" s="13"/>
       <c r="B396" s="13"/>
       <c r="C396" s="13"/>
@@ -6853,7 +7194,7 @@
       <c r="L396" s="13"/>
       <c r="M396" s="13"/>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13">
       <c r="A397" s="13"/>
       <c r="B397" s="13"/>
       <c r="C397" s="13"/>
@@ -6868,7 +7209,7 @@
       <c r="L397" s="13"/>
       <c r="M397" s="13"/>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13">
       <c r="A398" s="13"/>
       <c r="B398" s="13"/>
       <c r="C398" s="13"/>
@@ -6883,7 +7224,7 @@
       <c r="L398" s="13"/>
       <c r="M398" s="13"/>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:13">
       <c r="A399" s="13"/>
       <c r="B399" s="13"/>
       <c r="C399" s="13"/>
@@ -6898,7 +7239,7 @@
       <c r="L399" s="13"/>
       <c r="M399" s="13"/>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:13">
       <c r="A400" s="13"/>
       <c r="B400" s="13"/>
       <c r="C400" s="13"/>
@@ -6913,7 +7254,7 @@
       <c r="L400" s="13"/>
       <c r="M400" s="13"/>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:13">
       <c r="A401" s="13"/>
       <c r="B401" s="13"/>
       <c r="C401" s="13"/>
@@ -6928,7 +7269,7 @@
       <c r="L401" s="13"/>
       <c r="M401" s="13"/>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:13">
       <c r="A402" s="13"/>
       <c r="B402" s="13"/>
       <c r="C402" s="13"/>
@@ -6943,7 +7284,7 @@
       <c r="L402" s="13"/>
       <c r="M402" s="13"/>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:13">
       <c r="A403" s="13"/>
       <c r="B403" s="13"/>
       <c r="C403" s="13"/>
@@ -6958,7 +7299,7 @@
       <c r="L403" s="13"/>
       <c r="M403" s="13"/>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:13">
       <c r="A404" s="13"/>
       <c r="B404" s="13"/>
       <c r="C404" s="13"/>
@@ -6973,7 +7314,7 @@
       <c r="L404" s="13"/>
       <c r="M404" s="13"/>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:13">
       <c r="A405" s="13"/>
       <c r="B405" s="13"/>
       <c r="C405" s="13"/>
@@ -6988,7 +7329,7 @@
       <c r="L405" s="13"/>
       <c r="M405" s="13"/>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:13">
       <c r="A406" s="13"/>
       <c r="B406" s="13"/>
       <c r="C406" s="13"/>
@@ -7003,7 +7344,7 @@
       <c r="L406" s="13"/>
       <c r="M406" s="13"/>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:13">
       <c r="A407" s="13"/>
       <c r="B407" s="13"/>
       <c r="C407" s="13"/>
@@ -7018,7 +7359,7 @@
       <c r="L407" s="13"/>
       <c r="M407" s="13"/>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13">
       <c r="A408" s="13"/>
       <c r="B408" s="13"/>
       <c r="C408" s="13"/>
@@ -7033,7 +7374,7 @@
       <c r="L408" s="13"/>
       <c r="M408" s="13"/>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:13">
       <c r="A409" s="13"/>
       <c r="B409" s="13"/>
       <c r="C409" s="13"/>
@@ -7048,7 +7389,7 @@
       <c r="L409" s="13"/>
       <c r="M409" s="13"/>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:13">
       <c r="A410" s="13"/>
       <c r="B410" s="13"/>
       <c r="C410" s="13"/>
@@ -7063,7 +7404,7 @@
       <c r="L410" s="13"/>
       <c r="M410" s="13"/>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:13">
       <c r="A411" s="13"/>
       <c r="B411" s="13"/>
       <c r="C411" s="13"/>
@@ -7078,7 +7419,7 @@
       <c r="L411" s="13"/>
       <c r="M411" s="13"/>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:13">
       <c r="A412" s="13"/>
       <c r="B412" s="13"/>
       <c r="C412" s="13"/>
@@ -7093,7 +7434,7 @@
       <c r="L412" s="13"/>
       <c r="M412" s="13"/>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:13">
       <c r="A413" s="13"/>
       <c r="B413" s="13"/>
       <c r="C413" s="13"/>
@@ -7108,7 +7449,7 @@
       <c r="L413" s="13"/>
       <c r="M413" s="13"/>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:13">
       <c r="A414" s="13"/>
       <c r="B414" s="13"/>
       <c r="C414" s="13"/>
@@ -7123,7 +7464,7 @@
       <c r="L414" s="13"/>
       <c r="M414" s="13"/>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:13">
       <c r="A415" s="13"/>
       <c r="B415" s="13"/>
       <c r="C415" s="13"/>
@@ -7138,7 +7479,7 @@
       <c r="L415" s="13"/>
       <c r="M415" s="13"/>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:13">
       <c r="A416" s="13"/>
       <c r="B416" s="13"/>
       <c r="C416" s="13"/>
@@ -7153,7 +7494,7 @@
       <c r="L416" s="13"/>
       <c r="M416" s="13"/>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:13">
       <c r="A417" s="13"/>
       <c r="B417" s="13"/>
       <c r="C417" s="13"/>
@@ -7168,7 +7509,7 @@
       <c r="L417" s="13"/>
       <c r="M417" s="13"/>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:13">
       <c r="A418" s="13"/>
       <c r="B418" s="13"/>
       <c r="C418" s="13"/>
@@ -7183,7 +7524,7 @@
       <c r="L418" s="13"/>
       <c r="M418" s="13"/>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:13">
       <c r="A419" s="13"/>
       <c r="B419" s="13"/>
       <c r="C419" s="13"/>
@@ -7198,7 +7539,7 @@
       <c r="L419" s="13"/>
       <c r="M419" s="13"/>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:13">
       <c r="A420" s="13"/>
       <c r="B420" s="13"/>
       <c r="C420" s="13"/>
@@ -7213,7 +7554,7 @@
       <c r="L420" s="13"/>
       <c r="M420" s="13"/>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:13">
       <c r="A421" s="13"/>
       <c r="B421" s="13"/>
       <c r="C421" s="13"/>
@@ -7228,7 +7569,7 @@
       <c r="L421" s="13"/>
       <c r="M421" s="13"/>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:13">
       <c r="A422" s="13"/>
       <c r="B422" s="13"/>
       <c r="C422" s="13"/>
@@ -7243,7 +7584,7 @@
       <c r="L422" s="13"/>
       <c r="M422" s="13"/>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:13">
       <c r="A423" s="13"/>
       <c r="B423" s="13"/>
       <c r="C423" s="13"/>
@@ -7258,7 +7599,7 @@
       <c r="L423" s="13"/>
       <c r="M423" s="13"/>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:13">
       <c r="A424" s="13"/>
       <c r="B424" s="13"/>
       <c r="C424" s="13"/>
@@ -7273,7 +7614,7 @@
       <c r="L424" s="13"/>
       <c r="M424" s="13"/>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:13">
       <c r="A425" s="13"/>
       <c r="B425" s="13"/>
       <c r="C425" s="13"/>
@@ -7288,7 +7629,7 @@
       <c r="L425" s="13"/>
       <c r="M425" s="13"/>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:13">
       <c r="A426" s="13"/>
       <c r="B426" s="13"/>
       <c r="C426" s="13"/>
@@ -7303,7 +7644,7 @@
       <c r="L426" s="13"/>
       <c r="M426" s="13"/>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:13">
       <c r="A427" s="13"/>
       <c r="B427" s="13"/>
       <c r="C427" s="13"/>
@@ -7318,7 +7659,7 @@
       <c r="L427" s="13"/>
       <c r="M427" s="13"/>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:13">
       <c r="A428" s="13"/>
       <c r="B428" s="13"/>
       <c r="C428" s="13"/>
@@ -7333,7 +7674,7 @@
       <c r="L428" s="13"/>
       <c r="M428" s="13"/>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:13">
       <c r="A429" s="13"/>
       <c r="B429" s="13"/>
       <c r="C429" s="13"/>
@@ -7348,7 +7689,7 @@
       <c r="L429" s="13"/>
       <c r="M429" s="13"/>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:13">
       <c r="A430" s="13"/>
       <c r="B430" s="13"/>
       <c r="C430" s="13"/>
@@ -7363,7 +7704,7 @@
       <c r="L430" s="13"/>
       <c r="M430" s="13"/>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:13">
       <c r="A431" s="13"/>
       <c r="B431" s="13"/>
       <c r="C431" s="13"/>
@@ -7378,7 +7719,7 @@
       <c r="L431" s="13"/>
       <c r="M431" s="13"/>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:13">
       <c r="A432" s="13"/>
       <c r="B432" s="13"/>
       <c r="C432" s="13"/>
@@ -7393,7 +7734,7 @@
       <c r="L432" s="13"/>
       <c r="M432" s="13"/>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13">
       <c r="A433" s="13"/>
       <c r="B433" s="13"/>
       <c r="C433" s="13"/>
@@ -7408,7 +7749,7 @@
       <c r="L433" s="13"/>
       <c r="M433" s="13"/>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:13">
       <c r="A434" s="13"/>
       <c r="B434" s="13"/>
       <c r="C434" s="13"/>
@@ -7423,7 +7764,7 @@
       <c r="L434" s="13"/>
       <c r="M434" s="13"/>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:13">
       <c r="A435" s="13"/>
       <c r="B435" s="13"/>
       <c r="C435" s="13"/>
@@ -7438,7 +7779,7 @@
       <c r="L435" s="13"/>
       <c r="M435" s="13"/>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:13">
       <c r="A436" s="13"/>
       <c r="B436" s="13"/>
       <c r="C436" s="13"/>
@@ -7453,7 +7794,7 @@
       <c r="L436" s="13"/>
       <c r="M436" s="13"/>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13">
       <c r="A437" s="13"/>
       <c r="B437" s="13"/>
       <c r="C437" s="13"/>
@@ -7468,7 +7809,7 @@
       <c r="L437" s="13"/>
       <c r="M437" s="13"/>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13">
       <c r="A438" s="13"/>
       <c r="B438" s="13"/>
       <c r="C438" s="13"/>
@@ -7483,7 +7824,7 @@
       <c r="L438" s="13"/>
       <c r="M438" s="13"/>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13">
       <c r="A439" s="13"/>
       <c r="B439" s="13"/>
       <c r="C439" s="13"/>
@@ -7498,7 +7839,7 @@
       <c r="L439" s="13"/>
       <c r="M439" s="13"/>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13">
       <c r="A440" s="13"/>
       <c r="B440" s="13"/>
       <c r="C440" s="13"/>
@@ -7513,7 +7854,7 @@
       <c r="L440" s="13"/>
       <c r="M440" s="13"/>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13">
       <c r="A441" s="13"/>
       <c r="B441" s="13"/>
       <c r="C441" s="13"/>
@@ -7528,7 +7869,7 @@
       <c r="L441" s="13"/>
       <c r="M441" s="13"/>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:13">
       <c r="A442" s="13"/>
       <c r="B442" s="13"/>
       <c r="C442" s="13"/>
@@ -7543,7 +7884,7 @@
       <c r="L442" s="13"/>
       <c r="M442" s="13"/>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:13">
       <c r="A443" s="13"/>
       <c r="B443" s="13"/>
       <c r="C443" s="13"/>
@@ -7558,7 +7899,7 @@
       <c r="L443" s="13"/>
       <c r="M443" s="13"/>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13">
       <c r="A444" s="13"/>
       <c r="B444" s="13"/>
       <c r="C444" s="13"/>
@@ -7573,7 +7914,7 @@
       <c r="L444" s="13"/>
       <c r="M444" s="13"/>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13">
       <c r="A445" s="13"/>
       <c r="B445" s="13"/>
       <c r="C445" s="13"/>
@@ -7588,7 +7929,7 @@
       <c r="L445" s="13"/>
       <c r="M445" s="13"/>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13">
       <c r="A446" s="13"/>
       <c r="B446" s="13"/>
       <c r="C446" s="13"/>
@@ -7603,7 +7944,7 @@
       <c r="L446" s="13"/>
       <c r="M446" s="13"/>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13">
       <c r="A447" s="13"/>
       <c r="B447" s="13"/>
       <c r="C447" s="13"/>
@@ -7618,7 +7959,7 @@
       <c r="L447" s="13"/>
       <c r="M447" s="13"/>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13">
       <c r="A448" s="13"/>
       <c r="B448" s="13"/>
       <c r="C448" s="13"/>
@@ -7633,7 +7974,7 @@
       <c r="L448" s="13"/>
       <c r="M448" s="13"/>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:13">
       <c r="A449" s="13"/>
       <c r="B449" s="13"/>
       <c r="C449" s="13"/>
@@ -7648,7 +7989,7 @@
       <c r="L449" s="13"/>
       <c r="M449" s="13"/>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:13">
       <c r="A450" s="13"/>
       <c r="B450" s="13"/>
       <c r="C450" s="13"/>
@@ -7663,7 +8004,7 @@
       <c r="L450" s="13"/>
       <c r="M450" s="13"/>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:13">
       <c r="A451" s="13"/>
       <c r="B451" s="13"/>
       <c r="C451" s="13"/>
@@ -7678,7 +8019,7 @@
       <c r="L451" s="13"/>
       <c r="M451" s="13"/>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:13">
       <c r="A452" s="13"/>
       <c r="B452" s="13"/>
       <c r="C452" s="13"/>
@@ -7693,7 +8034,7 @@
       <c r="L452" s="13"/>
       <c r="M452" s="13"/>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:13">
       <c r="A453" s="13"/>
       <c r="B453" s="13"/>
       <c r="C453" s="13"/>
@@ -7708,7 +8049,7 @@
       <c r="L453" s="13"/>
       <c r="M453" s="13"/>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:13">
       <c r="A454" s="13"/>
       <c r="B454" s="13"/>
       <c r="C454" s="13"/>
@@ -7723,7 +8064,7 @@
       <c r="L454" s="13"/>
       <c r="M454" s="13"/>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:13">
       <c r="A455" s="13"/>
       <c r="B455" s="13"/>
       <c r="C455" s="13"/>
@@ -7738,7 +8079,7 @@
       <c r="L455" s="13"/>
       <c r="M455" s="13"/>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:13">
       <c r="A456" s="13"/>
       <c r="B456" s="13"/>
       <c r="C456" s="13"/>
@@ -7753,7 +8094,7 @@
       <c r="L456" s="13"/>
       <c r="M456" s="13"/>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:13">
       <c r="A457" s="13"/>
       <c r="B457" s="13"/>
       <c r="C457" s="13"/>
@@ -7768,7 +8109,7 @@
       <c r="L457" s="13"/>
       <c r="M457" s="13"/>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:13">
       <c r="A458" s="13"/>
       <c r="B458" s="13"/>
       <c r="C458" s="13"/>
@@ -7783,7 +8124,7 @@
       <c r="L458" s="13"/>
       <c r="M458" s="13"/>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:13">
       <c r="A459" s="13"/>
       <c r="B459" s="13"/>
       <c r="C459" s="13"/>
@@ -7798,7 +8139,7 @@
       <c r="L459" s="13"/>
       <c r="M459" s="13"/>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:13">
       <c r="A460" s="13"/>
       <c r="B460" s="13"/>
       <c r="C460" s="13"/>
@@ -7813,7 +8154,7 @@
       <c r="L460" s="13"/>
       <c r="M460" s="13"/>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:13">
       <c r="A461" s="13"/>
       <c r="B461" s="13"/>
       <c r="C461" s="13"/>
@@ -7828,7 +8169,7 @@
       <c r="L461" s="13"/>
       <c r="M461" s="13"/>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:13">
       <c r="A462" s="13"/>
       <c r="B462" s="13"/>
       <c r="C462" s="13"/>
@@ -7843,7 +8184,7 @@
       <c r="L462" s="13"/>
       <c r="M462" s="13"/>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:13">
       <c r="A463" s="13"/>
       <c r="B463" s="13"/>
       <c r="C463" s="13"/>
@@ -7858,7 +8199,7 @@
       <c r="L463" s="13"/>
       <c r="M463" s="13"/>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:13">
       <c r="A464" s="13"/>
       <c r="B464" s="13"/>
       <c r="C464" s="13"/>
@@ -7873,7 +8214,7 @@
       <c r="L464" s="13"/>
       <c r="M464" s="13"/>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:13">
       <c r="A465" s="13"/>
       <c r="B465" s="13"/>
       <c r="C465" s="13"/>
@@ -7888,7 +8229,7 @@
       <c r="L465" s="13"/>
       <c r="M465" s="13"/>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:13">
       <c r="A466" s="13"/>
       <c r="B466" s="13"/>
       <c r="C466" s="13"/>
@@ -7903,7 +8244,7 @@
       <c r="L466" s="13"/>
       <c r="M466" s="13"/>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:13">
       <c r="A467" s="13"/>
       <c r="B467" s="13"/>
       <c r="C467" s="13"/>
@@ -7918,7 +8259,7 @@
       <c r="L467" s="13"/>
       <c r="M467" s="13"/>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:13">
       <c r="A468" s="13"/>
       <c r="B468" s="13"/>
       <c r="C468" s="13"/>
@@ -7933,7 +8274,7 @@
       <c r="L468" s="13"/>
       <c r="M468" s="13"/>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:13">
       <c r="A469" s="13"/>
       <c r="B469" s="13"/>
       <c r="C469" s="13"/>
@@ -7948,7 +8289,7 @@
       <c r="L469" s="13"/>
       <c r="M469" s="13"/>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:13">
       <c r="A470" s="13"/>
       <c r="B470" s="13"/>
       <c r="C470" s="13"/>
@@ -7963,7 +8304,7 @@
       <c r="L470" s="13"/>
       <c r="M470" s="13"/>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:13">
       <c r="A471" s="13"/>
       <c r="B471" s="13"/>
       <c r="C471" s="13"/>
@@ -7978,7 +8319,7 @@
       <c r="L471" s="13"/>
       <c r="M471" s="13"/>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:13">
       <c r="A472" s="13"/>
       <c r="B472" s="13"/>
       <c r="C472" s="13"/>
@@ -7993,7 +8334,7 @@
       <c r="L472" s="13"/>
       <c r="M472" s="13"/>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:13">
       <c r="A473" s="13"/>
       <c r="B473" s="13"/>
       <c r="C473" s="13"/>
@@ -8008,7 +8349,7 @@
       <c r="L473" s="13"/>
       <c r="M473" s="13"/>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:13">
       <c r="A474" s="13"/>
       <c r="B474" s="13"/>
       <c r="C474" s="13"/>
@@ -8023,7 +8364,7 @@
       <c r="L474" s="13"/>
       <c r="M474" s="13"/>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:13">
       <c r="A475" s="13"/>
       <c r="B475" s="13"/>
       <c r="C475" s="13"/>
@@ -8038,7 +8379,7 @@
       <c r="L475" s="13"/>
       <c r="M475" s="13"/>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:13">
       <c r="A476" s="13"/>
       <c r="B476" s="13"/>
       <c r="C476" s="13"/>
@@ -8053,7 +8394,7 @@
       <c r="L476" s="13"/>
       <c r="M476" s="13"/>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:13">
       <c r="A477" s="13"/>
       <c r="B477" s="13"/>
       <c r="C477" s="13"/>
@@ -8068,7 +8409,7 @@
       <c r="L477" s="13"/>
       <c r="M477" s="13"/>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:13">
       <c r="A478" s="13"/>
       <c r="B478" s="13"/>
       <c r="C478" s="13"/>
@@ -8083,7 +8424,7 @@
       <c r="L478" s="13"/>
       <c r="M478" s="13"/>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:13">
       <c r="A479" s="13"/>
       <c r="B479" s="13"/>
       <c r="C479" s="13"/>
@@ -8098,7 +8439,7 @@
       <c r="L479" s="13"/>
       <c r="M479" s="13"/>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:13">
       <c r="A480" s="13"/>
       <c r="B480" s="13"/>
       <c r="C480" s="13"/>
@@ -8113,7 +8454,7 @@
       <c r="L480" s="13"/>
       <c r="M480" s="13"/>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:13">
       <c r="A481" s="13"/>
       <c r="B481" s="13"/>
       <c r="C481" s="13"/>
@@ -8128,7 +8469,7 @@
       <c r="L481" s="13"/>
       <c r="M481" s="13"/>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:13">
       <c r="A482" s="13"/>
       <c r="B482" s="13"/>
       <c r="C482" s="13"/>
@@ -8143,7 +8484,7 @@
       <c r="L482" s="13"/>
       <c r="M482" s="13"/>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:13">
       <c r="A483" s="13"/>
       <c r="B483" s="13"/>
       <c r="C483" s="13"/>
@@ -8158,7 +8499,7 @@
       <c r="L483" s="13"/>
       <c r="M483" s="13"/>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:13">
       <c r="A484" s="13"/>
       <c r="B484" s="13"/>
       <c r="C484" s="13"/>
@@ -8173,7 +8514,7 @@
       <c r="L484" s="13"/>
       <c r="M484" s="13"/>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:13">
       <c r="A485" s="13"/>
       <c r="B485" s="13"/>
       <c r="C485" s="13"/>
@@ -8188,7 +8529,7 @@
       <c r="L485" s="13"/>
       <c r="M485" s="13"/>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:13">
       <c r="A486" s="13"/>
       <c r="B486" s="13"/>
       <c r="C486" s="13"/>
@@ -8203,7 +8544,7 @@
       <c r="L486" s="13"/>
       <c r="M486" s="13"/>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:13">
       <c r="A487" s="13"/>
       <c r="B487" s="13"/>
       <c r="C487" s="13"/>
@@ -8218,7 +8559,7 @@
       <c r="L487" s="13"/>
       <c r="M487" s="13"/>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:13">
       <c r="A488" s="13"/>
       <c r="B488" s="13"/>
       <c r="C488" s="13"/>
@@ -8233,7 +8574,7 @@
       <c r="L488" s="13"/>
       <c r="M488" s="13"/>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:13">
       <c r="A489" s="13"/>
       <c r="B489" s="13"/>
       <c r="C489" s="13"/>
@@ -8248,7 +8589,7 @@
       <c r="L489" s="13"/>
       <c r="M489" s="13"/>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:13">
       <c r="A490" s="13"/>
       <c r="B490" s="13"/>
       <c r="C490" s="13"/>
@@ -8263,7 +8604,7 @@
       <c r="L490" s="13"/>
       <c r="M490" s="13"/>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:13">
       <c r="A491" s="13"/>
       <c r="B491" s="13"/>
       <c r="C491" s="13"/>
@@ -8278,7 +8619,7 @@
       <c r="L491" s="13"/>
       <c r="M491" s="13"/>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:13">
       <c r="A492" s="13"/>
       <c r="B492" s="13"/>
       <c r="C492" s="13"/>
@@ -8293,7 +8634,7 @@
       <c r="L492" s="13"/>
       <c r="M492" s="13"/>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:13">
       <c r="A493" s="13"/>
       <c r="B493" s="13"/>
       <c r="C493" s="13"/>
@@ -8308,7 +8649,7 @@
       <c r="L493" s="13"/>
       <c r="M493" s="13"/>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:13">
       <c r="A494" s="13"/>
       <c r="B494" s="13"/>
       <c r="C494" s="13"/>
@@ -8323,7 +8664,7 @@
       <c r="L494" s="13"/>
       <c r="M494" s="13"/>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:13">
       <c r="A495" s="13"/>
       <c r="B495" s="13"/>
       <c r="C495" s="13"/>
@@ -8338,7 +8679,7 @@
       <c r="L495" s="13"/>
       <c r="M495" s="13"/>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:13">
       <c r="A496" s="13"/>
       <c r="B496" s="13"/>
       <c r="C496" s="13"/>
@@ -8353,7 +8694,7 @@
       <c r="L496" s="13"/>
       <c r="M496" s="13"/>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:13">
       <c r="A497" s="13"/>
       <c r="B497" s="13"/>
       <c r="C497" s="13"/>
@@ -8368,7 +8709,7 @@
       <c r="L497" s="13"/>
       <c r="M497" s="13"/>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:13">
       <c r="A498" s="13"/>
       <c r="B498" s="13"/>
       <c r="C498" s="13"/>
@@ -8383,7 +8724,7 @@
       <c r="L498" s="13"/>
       <c r="M498" s="13"/>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:13">
       <c r="A499" s="13"/>
       <c r="B499" s="13"/>
       <c r="C499" s="13"/>
@@ -8398,7 +8739,7 @@
       <c r="L499" s="13"/>
       <c r="M499" s="13"/>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:13">
       <c r="A500" s="13"/>
       <c r="B500" s="13"/>
       <c r="C500" s="13"/>
@@ -8413,7 +8754,7 @@
       <c r="L500" s="13"/>
       <c r="M500" s="13"/>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:13">
       <c r="A501" s="13"/>
       <c r="B501" s="13"/>
       <c r="C501" s="13"/>
@@ -8428,7 +8769,7 @@
       <c r="L501" s="13"/>
       <c r="M501" s="13"/>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:13">
       <c r="A502" s="13"/>
       <c r="B502" s="13"/>
       <c r="C502" s="13"/>
@@ -8443,7 +8784,7 @@
       <c r="L502" s="13"/>
       <c r="M502" s="13"/>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:13">
       <c r="A503" s="13"/>
       <c r="B503" s="13"/>
       <c r="C503" s="13"/>
@@ -8458,7 +8799,7 @@
       <c r="L503" s="13"/>
       <c r="M503" s="13"/>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:13">
       <c r="A504" s="13"/>
       <c r="B504" s="13"/>
       <c r="C504" s="13"/>
@@ -8473,7 +8814,7 @@
       <c r="L504" s="13"/>
       <c r="M504" s="13"/>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:13">
       <c r="A505" s="13"/>
       <c r="B505" s="13"/>
       <c r="C505" s="13"/>
@@ -8488,7 +8829,7 @@
       <c r="L505" s="13"/>
       <c r="M505" s="13"/>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:13">
       <c r="A506" s="13"/>
       <c r="B506" s="13"/>
       <c r="C506" s="13"/>
@@ -8503,7 +8844,7 @@
       <c r="L506" s="13"/>
       <c r="M506" s="13"/>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:13">
       <c r="A507" s="13"/>
       <c r="B507" s="13"/>
       <c r="C507" s="13"/>
@@ -8518,7 +8859,7 @@
       <c r="L507" s="13"/>
       <c r="M507" s="13"/>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:13">
       <c r="A508" s="13"/>
       <c r="B508" s="13"/>
       <c r="C508" s="13"/>
@@ -8533,7 +8874,7 @@
       <c r="L508" s="13"/>
       <c r="M508" s="13"/>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:13">
       <c r="A509" s="13"/>
       <c r="B509" s="13"/>
       <c r="C509" s="13"/>
@@ -8548,7 +8889,7 @@
       <c r="L509" s="13"/>
       <c r="M509" s="13"/>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:13">
       <c r="A510" s="13"/>
       <c r="B510" s="13"/>
       <c r="C510" s="13"/>
@@ -8563,7 +8904,7 @@
       <c r="L510" s="13"/>
       <c r="M510" s="13"/>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:13">
       <c r="A511" s="13"/>
       <c r="B511" s="13"/>
       <c r="C511" s="13"/>
@@ -8578,7 +8919,7 @@
       <c r="L511" s="13"/>
       <c r="M511" s="13"/>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:13">
       <c r="A512" s="13"/>
       <c r="B512" s="13"/>
       <c r="C512" s="13"/>
@@ -8593,7 +8934,7 @@
       <c r="L512" s="13"/>
       <c r="M512" s="13"/>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:13">
       <c r="A513" s="13"/>
       <c r="B513" s="13"/>
       <c r="C513" s="13"/>
@@ -8608,7 +8949,7 @@
       <c r="L513" s="13"/>
       <c r="M513" s="13"/>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:13">
       <c r="A514" s="13"/>
       <c r="B514" s="13"/>
       <c r="C514" s="13"/>
@@ -8623,7 +8964,7 @@
       <c r="L514" s="13"/>
       <c r="M514" s="13"/>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:13">
       <c r="A515" s="13"/>
       <c r="B515" s="13"/>
       <c r="C515" s="13"/>
@@ -8638,7 +8979,7 @@
       <c r="L515" s="13"/>
       <c r="M515" s="13"/>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:13">
       <c r="A516" s="13"/>
       <c r="B516" s="13"/>
       <c r="C516" s="13"/>
@@ -8653,7 +8994,7 @@
       <c r="L516" s="13"/>
       <c r="M516" s="13"/>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:13">
       <c r="A517" s="13"/>
       <c r="B517" s="13"/>
       <c r="C517" s="13"/>
@@ -8668,7 +9009,7 @@
       <c r="L517" s="13"/>
       <c r="M517" s="13"/>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:13">
       <c r="A518" s="13"/>
       <c r="B518" s="13"/>
       <c r="C518" s="13"/>
@@ -8683,7 +9024,7 @@
       <c r="L518" s="13"/>
       <c r="M518" s="13"/>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:13">
       <c r="A519" s="13"/>
       <c r="B519" s="13"/>
       <c r="C519" s="13"/>
@@ -8698,7 +9039,7 @@
       <c r="L519" s="13"/>
       <c r="M519" s="13"/>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:13">
       <c r="A520" s="13"/>
       <c r="B520" s="13"/>
       <c r="C520" s="13"/>
@@ -8713,7 +9054,7 @@
       <c r="L520" s="13"/>
       <c r="M520" s="13"/>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:13">
       <c r="A521" s="13"/>
       <c r="B521" s="13"/>
       <c r="C521" s="13"/>
@@ -8728,7 +9069,7 @@
       <c r="L521" s="13"/>
       <c r="M521" s="13"/>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:13">
       <c r="A522" s="13"/>
       <c r="B522" s="13"/>
       <c r="C522" s="13"/>
@@ -8743,7 +9084,7 @@
       <c r="L522" s="13"/>
       <c r="M522" s="13"/>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:13">
       <c r="A523" s="13"/>
       <c r="B523" s="13"/>
       <c r="C523" s="13"/>
@@ -8758,7 +9099,7 @@
       <c r="L523" s="13"/>
       <c r="M523" s="13"/>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:13">
       <c r="A524" s="13"/>
       <c r="B524" s="13"/>
       <c r="C524" s="13"/>
@@ -8773,7 +9114,7 @@
       <c r="L524" s="13"/>
       <c r="M524" s="13"/>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:13">
       <c r="A525" s="13"/>
       <c r="B525" s="13"/>
       <c r="C525" s="13"/>
@@ -8788,7 +9129,7 @@
       <c r="L525" s="13"/>
       <c r="M525" s="13"/>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:13">
       <c r="A526" s="13"/>
       <c r="B526" s="13"/>
       <c r="C526" s="13"/>
@@ -8803,7 +9144,7 @@
       <c r="L526" s="13"/>
       <c r="M526" s="13"/>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:13">
       <c r="A527" s="13"/>
       <c r="B527" s="13"/>
       <c r="C527" s="13"/>
@@ -8818,7 +9159,7 @@
       <c r="L527" s="13"/>
       <c r="M527" s="13"/>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:13">
       <c r="A528" s="13"/>
       <c r="B528" s="13"/>
       <c r="C528" s="13"/>
@@ -8833,7 +9174,7 @@
       <c r="L528" s="13"/>
       <c r="M528" s="13"/>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:13">
       <c r="A529" s="13"/>
       <c r="B529" s="13"/>
       <c r="C529" s="13"/>
@@ -8848,7 +9189,7 @@
       <c r="L529" s="13"/>
       <c r="M529" s="13"/>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:13">
       <c r="A530" s="13"/>
       <c r="B530" s="13"/>
       <c r="C530" s="13"/>
@@ -8863,7 +9204,7 @@
       <c r="L530" s="13"/>
       <c r="M530" s="13"/>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:13">
       <c r="A531" s="13"/>
       <c r="B531" s="13"/>
       <c r="C531" s="13"/>
@@ -8878,7 +9219,7 @@
       <c r="L531" s="13"/>
       <c r="M531" s="13"/>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:13">
       <c r="A532" s="13"/>
       <c r="B532" s="13"/>
       <c r="C532" s="13"/>
@@ -8893,7 +9234,7 @@
       <c r="L532" s="13"/>
       <c r="M532" s="13"/>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:13">
       <c r="A533" s="13"/>
       <c r="B533" s="13"/>
       <c r="C533" s="13"/>
@@ -8908,7 +9249,7 @@
       <c r="L533" s="13"/>
       <c r="M533" s="13"/>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:13">
       <c r="A534" s="13"/>
       <c r="B534" s="13"/>
       <c r="C534" s="13"/>
@@ -8923,7 +9264,7 @@
       <c r="L534" s="13"/>
       <c r="M534" s="13"/>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:13">
       <c r="A535" s="13"/>
       <c r="B535" s="13"/>
       <c r="C535" s="13"/>
@@ -8938,7 +9279,7 @@
       <c r="L535" s="13"/>
       <c r="M535" s="13"/>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:13">
       <c r="A536" s="13"/>
       <c r="B536" s="13"/>
       <c r="C536" s="13"/>
@@ -8953,7 +9294,7 @@
       <c r="L536" s="13"/>
       <c r="M536" s="13"/>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:13">
       <c r="A537" s="13"/>
       <c r="B537" s="13"/>
       <c r="C537" s="13"/>
@@ -8968,7 +9309,7 @@
       <c r="L537" s="13"/>
       <c r="M537" s="13"/>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:13">
       <c r="A538" s="13"/>
       <c r="B538" s="13"/>
       <c r="C538" s="13"/>
@@ -8983,7 +9324,7 @@
       <c r="L538" s="13"/>
       <c r="M538" s="13"/>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:13">
       <c r="A539" s="13"/>
       <c r="B539" s="13"/>
       <c r="C539" s="13"/>
@@ -8998,7 +9339,7 @@
       <c r="L539" s="13"/>
       <c r="M539" s="13"/>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:13">
       <c r="A540" s="13"/>
       <c r="B540" s="13"/>
       <c r="C540" s="13"/>
@@ -9013,7 +9354,7 @@
       <c r="L540" s="13"/>
       <c r="M540" s="13"/>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:13">
       <c r="A541" s="13"/>
       <c r="B541" s="13"/>
       <c r="C541" s="13"/>
@@ -9028,7 +9369,7 @@
       <c r="L541" s="13"/>
       <c r="M541" s="13"/>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:13">
       <c r="A542" s="13"/>
       <c r="B542" s="13"/>
       <c r="C542" s="13"/>
@@ -9043,7 +9384,7 @@
       <c r="L542" s="13"/>
       <c r="M542" s="13"/>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:13">
       <c r="A543" s="13"/>
       <c r="B543" s="13"/>
       <c r="C543" s="13"/>
@@ -9058,7 +9399,7 @@
       <c r="L543" s="13"/>
       <c r="M543" s="13"/>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:13">
       <c r="A544" s="13"/>
       <c r="B544" s="13"/>
       <c r="C544" s="13"/>
@@ -9073,7 +9414,7 @@
       <c r="L544" s="13"/>
       <c r="M544" s="13"/>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:13">
       <c r="A545" s="13"/>
       <c r="B545" s="13"/>
       <c r="C545" s="13"/>
@@ -9088,7 +9429,7 @@
       <c r="L545" s="13"/>
       <c r="M545" s="13"/>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:13">
       <c r="A546" s="13"/>
       <c r="B546" s="13"/>
       <c r="C546" s="13"/>
@@ -9103,7 +9444,7 @@
       <c r="L546" s="13"/>
       <c r="M546" s="13"/>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:13">
       <c r="A547" s="13"/>
       <c r="B547" s="13"/>
       <c r="C547" s="13"/>
@@ -9118,7 +9459,7 @@
       <c r="L547" s="13"/>
       <c r="M547" s="13"/>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:13">
       <c r="A548" s="13"/>
       <c r="B548" s="13"/>
       <c r="C548" s="13"/>
@@ -9133,7 +9474,7 @@
       <c r="L548" s="13"/>
       <c r="M548" s="13"/>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:13">
       <c r="A549" s="13"/>
       <c r="B549" s="13"/>
       <c r="C549" s="13"/>
@@ -9148,7 +9489,7 @@
       <c r="L549" s="13"/>
       <c r="M549" s="13"/>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:13">
       <c r="A550" s="13"/>
       <c r="B550" s="13"/>
       <c r="C550" s="13"/>
@@ -9163,7 +9504,7 @@
       <c r="L550" s="13"/>
       <c r="M550" s="13"/>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:13">
       <c r="A551" s="13"/>
       <c r="B551" s="13"/>
       <c r="C551" s="13"/>
@@ -9178,7 +9519,7 @@
       <c r="L551" s="13"/>
       <c r="M551" s="13"/>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:13">
       <c r="A552" s="13"/>
       <c r="B552" s="13"/>
       <c r="C552" s="13"/>
@@ -9193,7 +9534,7 @@
       <c r="L552" s="13"/>
       <c r="M552" s="13"/>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:13">
       <c r="A553" s="13"/>
       <c r="B553" s="13"/>
       <c r="C553" s="13"/>
@@ -9208,7 +9549,7 @@
       <c r="L553" s="13"/>
       <c r="M553" s="13"/>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:13">
       <c r="A554" s="13"/>
       <c r="B554" s="13"/>
       <c r="C554" s="13"/>
@@ -9223,7 +9564,7 @@
       <c r="L554" s="13"/>
       <c r="M554" s="13"/>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:13">
       <c r="A555" s="13"/>
       <c r="B555" s="13"/>
       <c r="C555" s="13"/>
@@ -9238,7 +9579,7 @@
       <c r="L555" s="13"/>
       <c r="M555" s="13"/>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:13">
       <c r="A556" s="13"/>
       <c r="B556" s="13"/>
       <c r="C556" s="13"/>
@@ -9253,7 +9594,7 @@
       <c r="L556" s="13"/>
       <c r="M556" s="13"/>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:13">
       <c r="A557" s="13"/>
       <c r="B557" s="13"/>
       <c r="C557" s="13"/>
@@ -9268,7 +9609,7 @@
       <c r="L557" s="13"/>
       <c r="M557" s="13"/>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:13">
       <c r="A558" s="13"/>
       <c r="B558" s="13"/>
       <c r="C558" s="13"/>
@@ -9283,7 +9624,7 @@
       <c r="L558" s="13"/>
       <c r="M558" s="13"/>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:13">
       <c r="A559" s="13"/>
       <c r="B559" s="13"/>
       <c r="C559" s="13"/>
@@ -9298,7 +9639,7 @@
       <c r="L559" s="13"/>
       <c r="M559" s="13"/>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:13">
       <c r="A560" s="13"/>
       <c r="B560" s="13"/>
       <c r="C560" s="13"/>
@@ -9313,7 +9654,7 @@
       <c r="L560" s="13"/>
       <c r="M560" s="13"/>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:13">
       <c r="A561" s="13"/>
       <c r="B561" s="13"/>
       <c r="C561" s="13"/>
@@ -9328,7 +9669,7 @@
       <c r="L561" s="13"/>
       <c r="M561" s="13"/>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:13">
       <c r="A562" s="13"/>
       <c r="B562" s="13"/>
       <c r="C562" s="13"/>
@@ -9343,7 +9684,7 @@
       <c r="L562" s="13"/>
       <c r="M562" s="13"/>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:13">
       <c r="A563" s="13"/>
       <c r="B563" s="13"/>
       <c r="C563" s="13"/>
@@ -9358,7 +9699,7 @@
       <c r="L563" s="13"/>
       <c r="M563" s="13"/>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:13">
       <c r="A564" s="13"/>
       <c r="B564" s="13"/>
       <c r="C564" s="13"/>
@@ -9373,7 +9714,7 @@
       <c r="L564" s="13"/>
       <c r="M564" s="13"/>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:13">
       <c r="A565" s="13"/>
       <c r="B565" s="13"/>
       <c r="C565" s="13"/>
@@ -9388,7 +9729,7 @@
       <c r="L565" s="13"/>
       <c r="M565" s="13"/>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:13">
       <c r="A566" s="13"/>
       <c r="B566" s="13"/>
       <c r="C566" s="13"/>
@@ -9403,7 +9744,7 @@
       <c r="L566" s="13"/>
       <c r="M566" s="13"/>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:13">
       <c r="A567" s="13"/>
       <c r="B567" s="13"/>
       <c r="C567" s="13"/>
@@ -9418,7 +9759,7 @@
       <c r="L567" s="13"/>
       <c r="M567" s="13"/>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:13">
       <c r="A568" s="13"/>
       <c r="B568" s="13"/>
       <c r="C568" s="13"/>
@@ -9433,7 +9774,7 @@
       <c r="L568" s="13"/>
       <c r="M568" s="13"/>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:13">
       <c r="A569" s="13"/>
       <c r="B569" s="13"/>
       <c r="C569" s="13"/>
@@ -9448,7 +9789,7 @@
       <c r="L569" s="13"/>
       <c r="M569" s="13"/>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:13">
       <c r="A570" s="13"/>
       <c r="B570" s="13"/>
       <c r="C570" s="13"/>
@@ -9463,7 +9804,7 @@
       <c r="L570" s="13"/>
       <c r="M570" s="13"/>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:13">
       <c r="A571" s="13"/>
       <c r="B571" s="13"/>
       <c r="C571" s="13"/>
@@ -9478,7 +9819,7 @@
       <c r="L571" s="13"/>
       <c r="M571" s="13"/>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:13">
       <c r="A572" s="13"/>
       <c r="B572" s="13"/>
       <c r="C572" s="13"/>
@@ -9493,7 +9834,7 @@
       <c r="L572" s="13"/>
       <c r="M572" s="13"/>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:13">
       <c r="A573" s="13"/>
       <c r="B573" s="13"/>
       <c r="C573" s="13"/>
@@ -9508,7 +9849,7 @@
       <c r="L573" s="13"/>
       <c r="M573" s="13"/>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:13">
       <c r="A574" s="13"/>
       <c r="B574" s="13"/>
       <c r="C574" s="13"/>
@@ -9523,7 +9864,7 @@
       <c r="L574" s="13"/>
       <c r="M574" s="13"/>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:13">
       <c r="A575" s="13"/>
       <c r="B575" s="13"/>
       <c r="C575" s="13"/>
@@ -9538,7 +9879,7 @@
       <c r="L575" s="13"/>
       <c r="M575" s="13"/>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:13">
       <c r="A576" s="13"/>
       <c r="B576" s="13"/>
       <c r="C576" s="13"/>
@@ -9553,7 +9894,7 @@
       <c r="L576" s="13"/>
       <c r="M576" s="13"/>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:13">
       <c r="A577" s="13"/>
       <c r="B577" s="13"/>
       <c r="C577" s="13"/>
@@ -9568,7 +9909,7 @@
       <c r="L577" s="13"/>
       <c r="M577" s="13"/>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:13">
       <c r="A578" s="13"/>
       <c r="B578" s="13"/>
       <c r="C578" s="13"/>
@@ -9583,7 +9924,7 @@
       <c r="L578" s="13"/>
       <c r="M578" s="13"/>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:13">
       <c r="A579" s="13"/>
       <c r="B579" s="13"/>
       <c r="C579" s="13"/>
@@ -9598,7 +9939,7 @@
       <c r="L579" s="13"/>
       <c r="M579" s="13"/>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:13">
       <c r="A580" s="13"/>
       <c r="B580" s="13"/>
       <c r="C580" s="13"/>
@@ -9613,7 +9954,7 @@
       <c r="L580" s="13"/>
       <c r="M580" s="13"/>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:13">
       <c r="A581" s="13"/>
       <c r="B581" s="13"/>
       <c r="C581" s="13"/>
@@ -9628,7 +9969,7 @@
       <c r="L581" s="13"/>
       <c r="M581" s="13"/>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:13">
       <c r="A582" s="13"/>
       <c r="B582" s="13"/>
       <c r="C582" s="13"/>
@@ -9643,7 +9984,7 @@
       <c r="L582" s="13"/>
       <c r="M582" s="13"/>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:13">
       <c r="A583" s="13"/>
       <c r="B583" s="13"/>
       <c r="C583" s="13"/>
@@ -9658,7 +9999,7 @@
       <c r="L583" s="13"/>
       <c r="M583" s="13"/>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:13">
       <c r="A584" s="13"/>
       <c r="B584" s="13"/>
       <c r="C584" s="13"/>
@@ -9673,7 +10014,7 @@
       <c r="L584" s="13"/>
       <c r="M584" s="13"/>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:13">
       <c r="A585" s="13"/>
       <c r="B585" s="13"/>
       <c r="C585" s="13"/>
@@ -9688,7 +10029,7 @@
       <c r="L585" s="13"/>
       <c r="M585" s="13"/>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:13">
       <c r="A586" s="13"/>
       <c r="B586" s="13"/>
       <c r="C586" s="13"/>
@@ -9703,7 +10044,7 @@
       <c r="L586" s="13"/>
       <c r="M586" s="13"/>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:13">
       <c r="A587" s="13"/>
       <c r="B587" s="13"/>
       <c r="C587" s="13"/>
@@ -9718,7 +10059,7 @@
       <c r="L587" s="13"/>
       <c r="M587" s="13"/>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:13">
       <c r="A588" s="13"/>
       <c r="B588" s="13"/>
       <c r="C588" s="13"/>
@@ -9733,7 +10074,7 @@
       <c r="L588" s="13"/>
       <c r="M588" s="13"/>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:13">
       <c r="A589" s="13"/>
       <c r="B589" s="13"/>
       <c r="C589" s="13"/>
@@ -9748,7 +10089,7 @@
       <c r="L589" s="13"/>
       <c r="M589" s="13"/>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:13">
       <c r="A590" s="13"/>
       <c r="B590" s="13"/>
       <c r="C590" s="13"/>
@@ -9763,7 +10104,7 @@
       <c r="L590" s="13"/>
       <c r="M590" s="13"/>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:13">
       <c r="A591" s="13"/>
       <c r="B591" s="13"/>
       <c r="C591" s="13"/>
@@ -9778,7 +10119,7 @@
       <c r="L591" s="13"/>
       <c r="M591" s="13"/>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:13">
       <c r="A592" s="13"/>
       <c r="B592" s="13"/>
       <c r="C592" s="13"/>
@@ -9793,7 +10134,7 @@
       <c r="L592" s="13"/>
       <c r="M592" s="13"/>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:13">
       <c r="A593" s="13"/>
       <c r="B593" s="13"/>
       <c r="C593" s="13"/>
@@ -9808,7 +10149,7 @@
       <c r="L593" s="13"/>
       <c r="M593" s="13"/>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:13">
       <c r="A594" s="13"/>
       <c r="B594" s="13"/>
       <c r="C594" s="13"/>
@@ -9823,7 +10164,7 @@
       <c r="L594" s="13"/>
       <c r="M594" s="13"/>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:13">
       <c r="A595" s="13"/>
       <c r="B595" s="13"/>
       <c r="C595" s="13"/>
@@ -9838,7 +10179,7 @@
       <c r="L595" s="13"/>
       <c r="M595" s="13"/>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:13">
       <c r="A596" s="13"/>
       <c r="B596" s="13"/>
       <c r="C596" s="13"/>
@@ -9853,7 +10194,7 @@
       <c r="L596" s="13"/>
       <c r="M596" s="13"/>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:13">
       <c r="A597" s="13"/>
       <c r="B597" s="13"/>
       <c r="C597" s="13"/>
@@ -9868,7 +10209,7 @@
       <c r="L597" s="13"/>
       <c r="M597" s="13"/>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:13">
       <c r="A598" s="13"/>
       <c r="B598" s="13"/>
       <c r="C598" s="13"/>
@@ -9883,7 +10224,7 @@
       <c r="L598" s="13"/>
       <c r="M598" s="13"/>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:13">
       <c r="A599" s="13"/>
       <c r="B599" s="13"/>
       <c r="C599" s="13"/>
@@ -9898,7 +10239,7 @@
       <c r="L599" s="13"/>
       <c r="M599" s="13"/>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:13">
       <c r="A600" s="13"/>
       <c r="B600" s="13"/>
       <c r="C600" s="13"/>
@@ -9913,7 +10254,7 @@
       <c r="L600" s="13"/>
       <c r="M600" s="13"/>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:13">
       <c r="A601" s="13"/>
       <c r="B601" s="13"/>
       <c r="C601" s="13"/>
@@ -9928,7 +10269,7 @@
       <c r="L601" s="13"/>
       <c r="M601" s="13"/>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:13">
       <c r="A602" s="13"/>
       <c r="B602" s="13"/>
       <c r="C602" s="13"/>
@@ -9943,7 +10284,7 @@
       <c r="L602" s="13"/>
       <c r="M602" s="13"/>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:13">
       <c r="A603" s="13"/>
       <c r="B603" s="13"/>
       <c r="C603" s="13"/>
@@ -9958,7 +10299,7 @@
       <c r="L603" s="13"/>
       <c r="M603" s="13"/>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:13">
       <c r="A604" s="13"/>
       <c r="B604" s="13"/>
       <c r="C604" s="13"/>
@@ -9973,7 +10314,7 @@
       <c r="L604" s="13"/>
       <c r="M604" s="13"/>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:13">
       <c r="A605" s="13"/>
       <c r="B605" s="13"/>
       <c r="C605" s="13"/>
@@ -9988,7 +10329,7 @@
       <c r="L605" s="13"/>
       <c r="M605" s="13"/>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:13">
       <c r="A606" s="13"/>
       <c r="B606" s="13"/>
       <c r="C606" s="13"/>
@@ -10003,7 +10344,7 @@
       <c r="L606" s="13"/>
       <c r="M606" s="13"/>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:13">
       <c r="A607" s="13"/>
       <c r="B607" s="13"/>
       <c r="C607" s="13"/>
@@ -10018,7 +10359,7 @@
       <c r="L607" s="13"/>
       <c r="M607" s="13"/>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:13">
       <c r="A608" s="13"/>
       <c r="B608" s="13"/>
       <c r="C608" s="13"/>
@@ -10033,7 +10374,7 @@
       <c r="L608" s="13"/>
       <c r="M608" s="13"/>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:13">
       <c r="A609" s="13"/>
       <c r="B609" s="13"/>
       <c r="C609" s="13"/>
@@ -10048,7 +10389,7 @@
       <c r="L609" s="13"/>
       <c r="M609" s="13"/>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:13">
       <c r="A610" s="13"/>
       <c r="B610" s="13"/>
       <c r="C610" s="13"/>
@@ -10063,7 +10404,7 @@
       <c r="L610" s="13"/>
       <c r="M610" s="13"/>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:13">
       <c r="A611" s="13"/>
       <c r="B611" s="13"/>
       <c r="C611" s="13"/>
@@ -10078,7 +10419,7 @@
       <c r="L611" s="13"/>
       <c r="M611" s="13"/>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:13">
       <c r="A612" s="13"/>
       <c r="B612" s="13"/>
       <c r="C612" s="13"/>
@@ -10093,7 +10434,7 @@
       <c r="L612" s="13"/>
       <c r="M612" s="13"/>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:13">
       <c r="A613" s="13"/>
       <c r="B613" s="13"/>
       <c r="C613" s="13"/>
@@ -10108,7 +10449,7 @@
       <c r="L613" s="13"/>
       <c r="M613" s="13"/>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:13">
       <c r="A614" s="13"/>
       <c r="B614" s="13"/>
       <c r="C614" s="13"/>
@@ -10123,7 +10464,7 @@
       <c r="L614" s="13"/>
       <c r="M614" s="13"/>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:13">
       <c r="A615" s="13"/>
       <c r="B615" s="13"/>
       <c r="C615" s="13"/>
@@ -10138,7 +10479,7 @@
       <c r="L615" s="13"/>
       <c r="M615" s="13"/>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:13">
       <c r="A616" s="13"/>
       <c r="B616" s="13"/>
       <c r="C616" s="13"/>
@@ -10153,7 +10494,7 @@
       <c r="L616" s="13"/>
       <c r="M616" s="13"/>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:13">
       <c r="A617" s="13"/>
       <c r="B617" s="13"/>
       <c r="C617" s="13"/>
@@ -10168,7 +10509,7 @@
       <c r="L617" s="13"/>
       <c r="M617" s="13"/>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:13">
       <c r="A618" s="13"/>
       <c r="B618" s="13"/>
       <c r="C618" s="13"/>
@@ -10183,7 +10524,7 @@
       <c r="L618" s="13"/>
       <c r="M618" s="13"/>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:13">
       <c r="A619" s="13"/>
       <c r="B619" s="13"/>
       <c r="C619" s="13"/>
@@ -10198,7 +10539,7 @@
       <c r="L619" s="13"/>
       <c r="M619" s="13"/>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:13">
       <c r="A620" s="13"/>
       <c r="B620" s="13"/>
       <c r="C620" s="13"/>
@@ -10213,7 +10554,7 @@
       <c r="L620" s="13"/>
       <c r="M620" s="13"/>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:13">
       <c r="A621" s="13"/>
       <c r="B621" s="13"/>
       <c r="C621" s="13"/>
@@ -10228,7 +10569,7 @@
       <c r="L621" s="13"/>
       <c r="M621" s="13"/>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:13">
       <c r="A622" s="13"/>
       <c r="B622" s="13"/>
       <c r="C622" s="13"/>
@@ -10243,7 +10584,7 @@
       <c r="L622" s="13"/>
       <c r="M622" s="13"/>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:13">
       <c r="A623" s="13"/>
       <c r="B623" s="13"/>
       <c r="C623" s="13"/>
@@ -10258,7 +10599,7 @@
       <c r="L623" s="13"/>
       <c r="M623" s="13"/>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:13">
       <c r="A624" s="13"/>
       <c r="B624" s="13"/>
       <c r="C624" s="13"/>
@@ -10273,7 +10614,7 @@
       <c r="L624" s="13"/>
       <c r="M624" s="13"/>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:13">
       <c r="A625" s="13"/>
       <c r="B625" s="13"/>
       <c r="C625" s="13"/>
@@ -10288,7 +10629,7 @@
       <c r="L625" s="13"/>
       <c r="M625" s="13"/>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:13">
       <c r="A626" s="13"/>
       <c r="B626" s="13"/>
       <c r="C626" s="13"/>
@@ -10303,7 +10644,7 @@
       <c r="L626" s="13"/>
       <c r="M626" s="13"/>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:13">
       <c r="A627" s="13"/>
       <c r="B627" s="13"/>
       <c r="C627" s="13"/>
@@ -10318,7 +10659,7 @@
       <c r="L627" s="13"/>
       <c r="M627" s="13"/>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:13">
       <c r="A628" s="13"/>
       <c r="B628" s="13"/>
       <c r="C628" s="13"/>
@@ -10333,7 +10674,7 @@
       <c r="L628" s="13"/>
       <c r="M628" s="13"/>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:13">
       <c r="A629" s="13"/>
       <c r="B629" s="13"/>
       <c r="C629" s="13"/>
@@ -10348,7 +10689,7 @@
       <c r="L629" s="13"/>
       <c r="M629" s="13"/>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:13">
       <c r="A630" s="13"/>
       <c r="B630" s="13"/>
       <c r="C630" s="13"/>
@@ -10363,7 +10704,7 @@
       <c r="L630" s="13"/>
       <c r="M630" s="13"/>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:13">
       <c r="A631" s="13"/>
       <c r="B631" s="13"/>
       <c r="C631" s="13"/>
@@ -10378,7 +10719,7 @@
       <c r="L631" s="13"/>
       <c r="M631" s="13"/>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:13">
       <c r="A632" s="13"/>
       <c r="B632" s="13"/>
       <c r="C632" s="13"/>
@@ -10393,7 +10734,7 @@
       <c r="L632" s="13"/>
       <c r="M632" s="13"/>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:13">
       <c r="A633" s="13"/>
       <c r="B633" s="13"/>
       <c r="C633" s="13"/>
@@ -10408,7 +10749,7 @@
       <c r="L633" s="13"/>
       <c r="M633" s="13"/>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:13">
       <c r="A634" s="13"/>
       <c r="B634" s="13"/>
       <c r="C634" s="13"/>
@@ -10423,7 +10764,7 @@
       <c r="L634" s="13"/>
       <c r="M634" s="13"/>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:13">
       <c r="A635" s="13"/>
       <c r="B635" s="13"/>
       <c r="C635" s="13"/>
@@ -10438,7 +10779,7 @@
       <c r="L635" s="13"/>
       <c r="M635" s="13"/>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:13">
       <c r="A636" s="13"/>
       <c r="B636" s="13"/>
       <c r="C636" s="13"/>
@@ -10453,7 +10794,7 @@
       <c r="L636" s="13"/>
       <c r="M636" s="13"/>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:13">
       <c r="A637" s="13"/>
       <c r="B637" s="13"/>
       <c r="C637" s="13"/>
@@ -10468,7 +10809,7 @@
       <c r="L637" s="13"/>
       <c r="M637" s="13"/>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:13">
       <c r="A638" s="13"/>
       <c r="B638" s="13"/>
       <c r="C638" s="13"/>
@@ -10483,7 +10824,7 @@
       <c r="L638" s="13"/>
       <c r="M638" s="13"/>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:13">
       <c r="A639" s="13"/>
       <c r="B639" s="13"/>
       <c r="C639" s="13"/>
@@ -10498,7 +10839,7 @@
       <c r="L639" s="13"/>
       <c r="M639" s="13"/>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:13">
       <c r="A640" s="13"/>
       <c r="B640" s="13"/>
       <c r="C640" s="13"/>
@@ -10513,7 +10854,7 @@
       <c r="L640" s="13"/>
       <c r="M640" s="13"/>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:13">
       <c r="A641" s="13"/>
       <c r="B641" s="13"/>
       <c r="C641" s="13"/>
@@ -10528,7 +10869,7 @@
       <c r="L641" s="13"/>
       <c r="M641" s="13"/>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:13">
       <c r="A642" s="13"/>
       <c r="B642" s="13"/>
       <c r="C642" s="13"/>
@@ -10543,7 +10884,7 @@
       <c r="L642" s="13"/>
       <c r="M642" s="13"/>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:13">
       <c r="A643" s="13"/>
       <c r="B643" s="13"/>
       <c r="C643" s="13"/>
@@ -10558,7 +10899,7 @@
       <c r="L643" s="13"/>
       <c r="M643" s="13"/>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:13">
       <c r="A644" s="13"/>
       <c r="B644" s="13"/>
       <c r="C644" s="13"/>
@@ -10573,7 +10914,7 @@
       <c r="L644" s="13"/>
       <c r="M644" s="13"/>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:13">
       <c r="A645" s="13"/>
       <c r="B645" s="13"/>
       <c r="C645" s="13"/>
@@ -10588,7 +10929,7 @@
       <c r="L645" s="13"/>
       <c r="M645" s="13"/>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:13">
       <c r="A646" s="13"/>
       <c r="B646" s="13"/>
       <c r="C646" s="13"/>
@@ -10603,7 +10944,7 @@
       <c r="L646" s="13"/>
       <c r="M646" s="13"/>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:13">
       <c r="A647" s="13"/>
       <c r="B647" s="13"/>
       <c r="C647" s="13"/>
@@ -10618,7 +10959,7 @@
       <c r="L647" s="13"/>
       <c r="M647" s="13"/>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:13">
       <c r="A648" s="13"/>
       <c r="B648" s="13"/>
       <c r="C648" s="13"/>
@@ -10633,7 +10974,7 @@
       <c r="L648" s="13"/>
       <c r="M648" s="13"/>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:13">
       <c r="A649" s="13"/>
       <c r="B649" s="13"/>
       <c r="C649" s="13"/>
@@ -10648,7 +10989,7 @@
       <c r="L649" s="13"/>
       <c r="M649" s="13"/>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:13">
       <c r="A650" s="13"/>
       <c r="B650" s="13"/>
       <c r="C650" s="13"/>
@@ -10663,7 +11004,7 @@
       <c r="L650" s="13"/>
       <c r="M650" s="13"/>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:13">
       <c r="A651" s="13"/>
       <c r="B651" s="13"/>
       <c r="C651" s="13"/>
@@ -10678,7 +11019,7 @@
       <c r="L651" s="13"/>
       <c r="M651" s="13"/>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:13">
       <c r="A652" s="13"/>
       <c r="B652" s="13"/>
       <c r="C652" s="13"/>
@@ -10693,7 +11034,7 @@
       <c r="L652" s="13"/>
       <c r="M652" s="13"/>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:13">
       <c r="A653" s="13"/>
       <c r="B653" s="13"/>
       <c r="C653" s="13"/>
@@ -10708,7 +11049,7 @@
       <c r="L653" s="13"/>
       <c r="M653" s="13"/>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:13">
       <c r="A654" s="13"/>
       <c r="B654" s="13"/>
       <c r="C654" s="13"/>
@@ -10723,7 +11064,7 @@
       <c r="L654" s="13"/>
       <c r="M654" s="13"/>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:13">
       <c r="A655" s="13"/>
       <c r="B655" s="13"/>
       <c r="C655" s="13"/>
@@ -10738,7 +11079,7 @@
       <c r="L655" s="13"/>
       <c r="M655" s="13"/>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:13">
       <c r="A656" s="13"/>
       <c r="B656" s="13"/>
       <c r="C656" s="13"/>
@@ -10753,7 +11094,7 @@
       <c r="L656" s="13"/>
       <c r="M656" s="13"/>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:13">
       <c r="A657" s="13"/>
       <c r="B657" s="13"/>
       <c r="C657" s="13"/>
@@ -10768,7 +11109,7 @@
       <c r="L657" s="13"/>
       <c r="M657" s="13"/>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:13">
       <c r="A658" s="13"/>
       <c r="B658" s="13"/>
       <c r="C658" s="13"/>
@@ -10783,7 +11124,7 @@
       <c r="L658" s="13"/>
       <c r="M658" s="13"/>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:13">
       <c r="A659" s="13"/>
       <c r="B659" s="13"/>
       <c r="C659" s="13"/>
@@ -10798,7 +11139,7 @@
       <c r="L659" s="13"/>
       <c r="M659" s="13"/>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:13">
       <c r="A660" s="13"/>
       <c r="B660" s="13"/>
       <c r="C660" s="13"/>
@@ -10813,7 +11154,7 @@
       <c r="L660" s="13"/>
       <c r="M660" s="13"/>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:13">
       <c r="A661" s="13"/>
       <c r="B661" s="13"/>
       <c r="C661" s="13"/>
@@ -10828,7 +11169,7 @@
       <c r="L661" s="13"/>
       <c r="M661" s="13"/>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:13">
       <c r="A662" s="13"/>
       <c r="B662" s="13"/>
       <c r="C662" s="13"/>
@@ -10843,7 +11184,7 @@
       <c r="L662" s="13"/>
       <c r="M662" s="13"/>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:13">
       <c r="A663" s="13"/>
       <c r="B663" s="13"/>
       <c r="C663" s="13"/>
@@ -10858,7 +11199,7 @@
       <c r="L663" s="13"/>
       <c r="M663" s="13"/>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:13">
       <c r="A664" s="13"/>
       <c r="B664" s="13"/>
       <c r="C664" s="13"/>
@@ -10873,7 +11214,7 @@
       <c r="L664" s="13"/>
       <c r="M664" s="13"/>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:13">
       <c r="A665" s="13"/>
       <c r="B665" s="13"/>
       <c r="C665" s="13"/>
@@ -10888,7 +11229,7 @@
       <c r="L665" s="13"/>
       <c r="M665" s="13"/>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:13">
       <c r="A666" s="13"/>
       <c r="B666" s="13"/>
       <c r="C666" s="13"/>
@@ -10903,7 +11244,7 @@
       <c r="L666" s="13"/>
       <c r="M666" s="13"/>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:13">
       <c r="A667" s="13"/>
       <c r="B667" s="13"/>
       <c r="C667" s="13"/>
@@ -10918,7 +11259,7 @@
       <c r="L667" s="13"/>
       <c r="M667" s="13"/>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:13">
       <c r="A668" s="13"/>
       <c r="B668" s="13"/>
       <c r="C668" s="13"/>
@@ -10933,7 +11274,7 @@
       <c r="L668" s="13"/>
       <c r="M668" s="13"/>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:13">
       <c r="A669" s="13"/>
       <c r="B669" s="13"/>
       <c r="C669" s="13"/>
@@ -10948,7 +11289,7 @@
       <c r="L669" s="13"/>
       <c r="M669" s="13"/>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:13">
       <c r="A670" s="13"/>
       <c r="B670" s="13"/>
       <c r="C670" s="13"/>
@@ -10963,7 +11304,7 @@
       <c r="L670" s="13"/>
       <c r="M670" s="13"/>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:13">
       <c r="A671" s="13"/>
       <c r="B671" s="13"/>
       <c r="C671" s="13"/>
@@ -10978,7 +11319,7 @@
       <c r="L671" s="13"/>
       <c r="M671" s="13"/>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:13">
       <c r="A672" s="13"/>
       <c r="B672" s="13"/>
       <c r="C672" s="13"/>
@@ -10993,7 +11334,7 @@
       <c r="L672" s="13"/>
       <c r="M672" s="13"/>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:13">
       <c r="A673" s="13"/>
       <c r="B673" s="13"/>
       <c r="C673" s="13"/>
@@ -11008,7 +11349,7 @@
       <c r="L673" s="13"/>
       <c r="M673" s="13"/>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:13">
       <c r="A674" s="13"/>
       <c r="B674" s="13"/>
       <c r="C674" s="13"/>
@@ -11023,7 +11364,7 @@
       <c r="L674" s="13"/>
       <c r="M674" s="13"/>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:13">
       <c r="A675" s="13"/>
       <c r="B675" s="13"/>
       <c r="C675" s="13"/>
@@ -11038,7 +11379,7 @@
       <c r="L675" s="13"/>
       <c r="M675" s="13"/>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:13">
       <c r="A676" s="13"/>
       <c r="B676" s="13"/>
       <c r="C676" s="13"/>
@@ -11053,7 +11394,7 @@
       <c r="L676" s="13"/>
       <c r="M676" s="13"/>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:13">
       <c r="A677" s="13"/>
       <c r="B677" s="13"/>
       <c r="C677" s="13"/>
@@ -11068,7 +11409,7 @@
       <c r="L677" s="13"/>
       <c r="M677" s="13"/>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:13">
       <c r="A678" s="13"/>
       <c r="B678" s="13"/>
       <c r="C678" s="13"/>
@@ -11083,7 +11424,7 @@
       <c r="L678" s="13"/>
       <c r="M678" s="13"/>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:13">
       <c r="A679" s="13"/>
       <c r="B679" s="13"/>
       <c r="C679" s="13"/>
@@ -11098,7 +11439,7 @@
       <c r="L679" s="13"/>
       <c r="M679" s="13"/>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:13">
       <c r="A680" s="13"/>
       <c r="B680" s="13"/>
       <c r="C680" s="13"/>
@@ -11113,7 +11454,7 @@
       <c r="L680" s="13"/>
       <c r="M680" s="13"/>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:13">
       <c r="A681" s="13"/>
       <c r="B681" s="13"/>
       <c r="C681" s="13"/>
@@ -11128,7 +11469,7 @@
       <c r="L681" s="13"/>
       <c r="M681" s="13"/>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:13">
       <c r="A682" s="13"/>
       <c r="B682" s="13"/>
       <c r="C682" s="13"/>
@@ -11143,7 +11484,7 @@
       <c r="L682" s="13"/>
       <c r="M682" s="13"/>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:13">
       <c r="A683" s="13"/>
       <c r="B683" s="13"/>
       <c r="C683" s="13"/>
@@ -11158,7 +11499,7 @@
       <c r="L683" s="13"/>
       <c r="M683" s="13"/>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:13">
       <c r="A684" s="13"/>
       <c r="B684" s="13"/>
       <c r="C684" s="13"/>
@@ -11173,7 +11514,7 @@
       <c r="L684" s="13"/>
       <c r="M684" s="13"/>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:13">
       <c r="A685" s="13"/>
       <c r="B685" s="13"/>
       <c r="C685" s="13"/>
@@ -11188,7 +11529,7 @@
       <c r="L685" s="13"/>
       <c r="M685" s="13"/>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:13">
       <c r="A686" s="13"/>
       <c r="B686" s="13"/>
       <c r="C686" s="13"/>
@@ -11203,7 +11544,7 @@
       <c r="L686" s="13"/>
       <c r="M686" s="13"/>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:13">
       <c r="A687" s="13"/>
       <c r="B687" s="13"/>
       <c r="C687" s="13"/>
@@ -11218,7 +11559,7 @@
       <c r="L687" s="13"/>
       <c r="M687" s="13"/>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:13">
       <c r="A688" s="13"/>
       <c r="B688" s="13"/>
       <c r="C688" s="13"/>
@@ -11233,7 +11574,7 @@
       <c r="L688" s="13"/>
       <c r="M688" s="13"/>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:13">
       <c r="A689" s="13"/>
       <c r="B689" s="13"/>
       <c r="C689" s="13"/>
@@ -11248,7 +11589,7 @@
       <c r="L689" s="13"/>
       <c r="M689" s="13"/>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:13">
       <c r="A690" s="13"/>
       <c r="B690" s="13"/>
       <c r="C690" s="13"/>
@@ -11263,7 +11604,7 @@
       <c r="L690" s="13"/>
       <c r="M690" s="13"/>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:13">
       <c r="A691" s="13"/>
       <c r="B691" s="13"/>
       <c r="C691" s="13"/>
@@ -11278,7 +11619,7 @@
       <c r="L691" s="13"/>
       <c r="M691" s="13"/>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:13">
       <c r="A692" s="13"/>
       <c r="B692" s="13"/>
       <c r="C692" s="13"/>
@@ -11293,7 +11634,7 @@
       <c r="L692" s="13"/>
       <c r="M692" s="13"/>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:13">
       <c r="A693" s="13"/>
       <c r="B693" s="13"/>
       <c r="C693" s="13"/>
@@ -11308,7 +11649,7 @@
       <c r="L693" s="13"/>
       <c r="M693" s="13"/>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:13">
       <c r="A694" s="13"/>
       <c r="B694" s="13"/>
       <c r="C694" s="13"/>
@@ -11323,7 +11664,7 @@
       <c r="L694" s="13"/>
       <c r="M694" s="13"/>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:13">
       <c r="A695" s="13"/>
       <c r="B695" s="13"/>
       <c r="C695" s="13"/>
@@ -11338,7 +11679,7 @@
       <c r="L695" s="13"/>
       <c r="M695" s="13"/>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:13">
       <c r="A696" s="13"/>
       <c r="B696" s="13"/>
       <c r="C696" s="13"/>
@@ -11353,7 +11694,7 @@
       <c r="L696" s="13"/>
       <c r="M696" s="13"/>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:13">
       <c r="A697" s="13"/>
       <c r="B697" s="13"/>
       <c r="C697" s="13"/>
@@ -11368,7 +11709,7 @@
       <c r="L697" s="13"/>
       <c r="M697" s="13"/>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:13">
       <c r="A698" s="13"/>
       <c r="B698" s="13"/>
       <c r="C698" s="13"/>
@@ -11383,7 +11724,7 @@
       <c r="L698" s="13"/>
       <c r="M698" s="13"/>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:13">
       <c r="A699" s="13"/>
       <c r="B699" s="13"/>
       <c r="C699" s="13"/>
@@ -11398,7 +11739,7 @@
       <c r="L699" s="13"/>
       <c r="M699" s="13"/>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:13">
       <c r="A700" s="13"/>
       <c r="B700" s="13"/>
       <c r="C700" s="13"/>
@@ -11413,7 +11754,7 @@
       <c r="L700" s="13"/>
       <c r="M700" s="13"/>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:13">
       <c r="A701" s="13"/>
       <c r="B701" s="13"/>
       <c r="C701" s="13"/>
@@ -11428,7 +11769,7 @@
       <c r="L701" s="13"/>
       <c r="M701" s="13"/>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:13">
       <c r="A702" s="13"/>
       <c r="B702" s="13"/>
       <c r="C702" s="13"/>
@@ -11443,7 +11784,7 @@
       <c r="L702" s="13"/>
       <c r="M702" s="13"/>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:13">
       <c r="A703" s="13"/>
       <c r="B703" s="13"/>
       <c r="C703" s="13"/>
@@ -11458,7 +11799,7 @@
       <c r="L703" s="13"/>
       <c r="M703" s="13"/>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:13">
       <c r="A704" s="13"/>
       <c r="B704" s="13"/>
       <c r="C704" s="13"/>
@@ -11473,7 +11814,7 @@
       <c r="L704" s="13"/>
       <c r="M704" s="13"/>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:13">
       <c r="A705" s="13"/>
       <c r="B705" s="13"/>
       <c r="C705" s="13"/>
@@ -11488,7 +11829,7 @@
       <c r="L705" s="13"/>
       <c r="M705" s="13"/>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:13">
       <c r="A706" s="13"/>
       <c r="B706" s="13"/>
       <c r="C706" s="13"/>
@@ -11503,7 +11844,7 @@
       <c r="L706" s="13"/>
       <c r="M706" s="13"/>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:13">
       <c r="A707" s="13"/>
       <c r="B707" s="13"/>
       <c r="C707" s="13"/>
@@ -11518,7 +11859,7 @@
       <c r="L707" s="13"/>
       <c r="M707" s="13"/>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:13">
       <c r="A708" s="13"/>
       <c r="B708" s="13"/>
       <c r="C708" s="13"/>
@@ -11533,7 +11874,7 @@
       <c r="L708" s="13"/>
       <c r="M708" s="13"/>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:13">
       <c r="A709" s="13"/>
       <c r="B709" s="13"/>
       <c r="C709" s="13"/>
@@ -11548,7 +11889,7 @@
       <c r="L709" s="13"/>
       <c r="M709" s="13"/>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:13">
       <c r="A710" s="13"/>
       <c r="B710" s="13"/>
       <c r="C710" s="13"/>
@@ -11563,7 +11904,7 @@
       <c r="L710" s="13"/>
       <c r="M710" s="13"/>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:13">
       <c r="A711" s="13"/>
       <c r="B711" s="13"/>
       <c r="C711" s="13"/>
@@ -11578,7 +11919,7 @@
       <c r="L711" s="13"/>
       <c r="M711" s="13"/>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:13">
       <c r="A712" s="13"/>
       <c r="B712" s="13"/>
       <c r="C712" s="13"/>
@@ -11593,7 +11934,7 @@
       <c r="L712" s="13"/>
       <c r="M712" s="13"/>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:13">
       <c r="A713" s="13"/>
       <c r="B713" s="13"/>
       <c r="C713" s="13"/>
@@ -11608,7 +11949,7 @@
       <c r="L713" s="13"/>
       <c r="M713" s="13"/>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:13">
       <c r="A714" s="13"/>
       <c r="B714" s="13"/>
       <c r="C714" s="13"/>
@@ -11623,7 +11964,7 @@
       <c r="L714" s="13"/>
       <c r="M714" s="13"/>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:13">
       <c r="A715" s="13"/>
       <c r="B715" s="13"/>
       <c r="C715" s="13"/>
@@ -11638,7 +11979,7 @@
       <c r="L715" s="13"/>
       <c r="M715" s="13"/>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:13">
       <c r="A716" s="13"/>
       <c r="B716" s="13"/>
       <c r="C716" s="13"/>
@@ -11653,7 +11994,7 @@
       <c r="L716" s="13"/>
       <c r="M716" s="13"/>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:13">
       <c r="A717" s="13"/>
       <c r="B717" s="13"/>
       <c r="C717" s="13"/>
@@ -11668,7 +12009,7 @@
       <c r="L717" s="13"/>
       <c r="M717" s="13"/>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:13">
       <c r="A718" s="13"/>
       <c r="B718" s="13"/>
       <c r="C718" s="13"/>
@@ -11683,7 +12024,7 @@
       <c r="L718" s="13"/>
       <c r="M718" s="13"/>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:13">
       <c r="A719" s="13"/>
       <c r="B719" s="13"/>
       <c r="C719" s="13"/>
@@ -11698,7 +12039,7 @@
       <c r="L719" s="13"/>
       <c r="M719" s="13"/>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:13">
       <c r="A720" s="13"/>
       <c r="B720" s="13"/>
       <c r="C720" s="13"/>
@@ -11713,7 +12054,7 @@
       <c r="L720" s="13"/>
       <c r="M720" s="13"/>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:13">
       <c r="A721" s="13"/>
       <c r="B721" s="13"/>
       <c r="C721" s="13"/>
@@ -11728,7 +12069,7 @@
       <c r="L721" s="13"/>
       <c r="M721" s="13"/>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:13">
       <c r="A722" s="13"/>
       <c r="B722" s="13"/>
       <c r="C722" s="13"/>
@@ -11743,7 +12084,7 @@
       <c r="L722" s="13"/>
       <c r="M722" s="13"/>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:13">
       <c r="A723" s="13"/>
       <c r="B723" s="13"/>
       <c r="C723" s="13"/>
@@ -11758,7 +12099,7 @@
       <c r="L723" s="13"/>
       <c r="M723" s="13"/>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:13">
       <c r="A724" s="13"/>
       <c r="B724" s="13"/>
       <c r="C724" s="13"/>
@@ -11773,7 +12114,7 @@
       <c r="L724" s="13"/>
       <c r="M724" s="13"/>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:13">
       <c r="A725" s="13"/>
       <c r="B725" s="13"/>
       <c r="C725" s="13"/>
@@ -11788,7 +12129,7 @@
       <c r="L725" s="13"/>
       <c r="M725" s="13"/>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:13">
       <c r="A726" s="13"/>
       <c r="B726" s="13"/>
       <c r="C726" s="13"/>
@@ -11803,7 +12144,7 @@
       <c r="L726" s="13"/>
       <c r="M726" s="13"/>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:13">
       <c r="A727" s="13"/>
       <c r="B727" s="13"/>
       <c r="C727" s="13"/>
@@ -11818,7 +12159,7 @@
       <c r="L727" s="13"/>
       <c r="M727" s="13"/>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:13">
       <c r="A728" s="13"/>
       <c r="B728" s="13"/>
       <c r="C728" s="13"/>
@@ -11833,7 +12174,7 @@
       <c r="L728" s="13"/>
       <c r="M728" s="13"/>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:13">
       <c r="A729" s="13"/>
       <c r="B729" s="13"/>
       <c r="C729" s="13"/>
@@ -11848,7 +12189,7 @@
       <c r="L729" s="13"/>
       <c r="M729" s="13"/>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:13">
       <c r="A730" s="13"/>
       <c r="B730" s="13"/>
       <c r="C730" s="13"/>
@@ -11863,7 +12204,7 @@
       <c r="L730" s="13"/>
       <c r="M730" s="13"/>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:13">
       <c r="A731" s="13"/>
       <c r="B731" s="13"/>
       <c r="C731" s="13"/>
@@ -11878,7 +12219,7 @@
       <c r="L731" s="13"/>
       <c r="M731" s="13"/>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:13">
       <c r="A732" s="13"/>
       <c r="B732" s="13"/>
       <c r="C732" s="13"/>
@@ -11893,7 +12234,7 @@
       <c r="L732" s="13"/>
       <c r="M732" s="13"/>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:13">
       <c r="A733" s="13"/>
       <c r="B733" s="13"/>
       <c r="C733" s="13"/>
@@ -11908,7 +12249,7 @@
       <c r="L733" s="13"/>
       <c r="M733" s="13"/>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:13">
       <c r="A734" s="13"/>
       <c r="B734" s="13"/>
       <c r="C734" s="13"/>
@@ -11923,7 +12264,7 @@
       <c r="L734" s="13"/>
       <c r="M734" s="13"/>
     </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:13">
       <c r="A735" s="13"/>
       <c r="B735" s="13"/>
       <c r="C735" s="13"/>
@@ -11938,7 +12279,7 @@
       <c r="L735" s="13"/>
       <c r="M735" s="13"/>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:13">
       <c r="A736" s="13"/>
       <c r="B736" s="13"/>
       <c r="C736" s="13"/>
@@ -11953,7 +12294,7 @@
       <c r="L736" s="13"/>
       <c r="M736" s="13"/>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:13">
       <c r="A737" s="13"/>
       <c r="B737" s="13"/>
       <c r="C737" s="13"/>
@@ -11968,7 +12309,7 @@
       <c r="L737" s="13"/>
       <c r="M737" s="13"/>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:13">
       <c r="A738" s="13"/>
       <c r="B738" s="13"/>
       <c r="C738" s="13"/>
@@ -11983,7 +12324,7 @@
       <c r="L738" s="13"/>
       <c r="M738" s="13"/>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:13">
       <c r="A739" s="13"/>
       <c r="B739" s="13"/>
       <c r="C739" s="13"/>
@@ -11998,7 +12339,7 @@
       <c r="L739" s="13"/>
       <c r="M739" s="13"/>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:13">
       <c r="A740" s="13"/>
       <c r="B740" s="13"/>
       <c r="C740" s="13"/>
@@ -12013,7 +12354,7 @@
       <c r="L740" s="13"/>
       <c r="M740" s="13"/>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:13">
       <c r="A741" s="13"/>
       <c r="B741" s="13"/>
       <c r="C741" s="13"/>
@@ -12028,7 +12369,7 @@
       <c r="L741" s="13"/>
       <c r="M741" s="13"/>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:13">
       <c r="A742" s="13"/>
       <c r="B742" s="13"/>
       <c r="C742" s="13"/>
@@ -12043,7 +12384,7 @@
       <c r="L742" s="13"/>
       <c r="M742" s="13"/>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:13">
       <c r="A743" s="13"/>
       <c r="B743" s="13"/>
       <c r="C743" s="13"/>
@@ -12058,7 +12399,7 @@
       <c r="L743" s="13"/>
       <c r="M743" s="13"/>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:13">
       <c r="A744" s="13"/>
       <c r="B744" s="13"/>
       <c r="C744" s="13"/>
@@ -12073,7 +12414,7 @@
       <c r="L744" s="13"/>
       <c r="M744" s="13"/>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:13">
       <c r="A745" s="13"/>
       <c r="B745" s="13"/>
       <c r="C745" s="13"/>
@@ -12088,7 +12429,7 @@
       <c r="L745" s="13"/>
       <c r="M745" s="13"/>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:13">
       <c r="A746" s="13"/>
       <c r="B746" s="13"/>
       <c r="C746" s="13"/>
@@ -12103,7 +12444,7 @@
       <c r="L746" s="13"/>
       <c r="M746" s="13"/>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:13">
       <c r="A747" s="13"/>
       <c r="B747" s="13"/>
       <c r="C747" s="13"/>
@@ -12118,7 +12459,7 @@
       <c r="L747" s="13"/>
       <c r="M747" s="13"/>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:13">
       <c r="A748" s="13"/>
       <c r="B748" s="13"/>
       <c r="C748" s="13"/>
@@ -12133,7 +12474,7 @@
       <c r="L748" s="13"/>
       <c r="M748" s="13"/>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:13">
       <c r="A749" s="13"/>
       <c r="B749" s="13"/>
       <c r="C749" s="13"/>
@@ -12148,7 +12489,7 @@
       <c r="L749" s="13"/>
       <c r="M749" s="13"/>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:13">
       <c r="A750" s="13"/>
       <c r="B750" s="13"/>
       <c r="C750" s="13"/>
@@ -12163,7 +12504,7 @@
       <c r="L750" s="13"/>
       <c r="M750" s="13"/>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:13">
       <c r="A751" s="13"/>
       <c r="B751" s="13"/>
       <c r="C751" s="13"/>
@@ -12178,7 +12519,7 @@
       <c r="L751" s="13"/>
       <c r="M751" s="13"/>
     </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:13">
       <c r="A752" s="13"/>
       <c r="B752" s="13"/>
       <c r="C752" s="13"/>
@@ -12193,7 +12534,7 @@
       <c r="L752" s="13"/>
       <c r="M752" s="13"/>
     </row>
-    <row r="753" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:13">
       <c r="A753" s="13"/>
       <c r="B753" s="13"/>
       <c r="C753" s="13"/>
@@ -12208,7 +12549,7 @@
       <c r="L753" s="13"/>
       <c r="M753" s="13"/>
     </row>
-    <row r="754" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:13">
       <c r="A754" s="13"/>
       <c r="B754" s="13"/>
       <c r="C754" s="13"/>
@@ -12223,7 +12564,7 @@
       <c r="L754" s="13"/>
       <c r="M754" s="13"/>
     </row>
-    <row r="755" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:13">
       <c r="A755" s="13"/>
       <c r="B755" s="13"/>
       <c r="C755" s="13"/>
@@ -12238,7 +12579,7 @@
       <c r="L755" s="13"/>
       <c r="M755" s="13"/>
     </row>
-    <row r="756" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:13">
       <c r="A756" s="13"/>
       <c r="B756" s="13"/>
       <c r="C756" s="13"/>
@@ -12253,7 +12594,7 @@
       <c r="L756" s="13"/>
       <c r="M756" s="13"/>
     </row>
-    <row r="757" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:13">
       <c r="A757" s="13"/>
       <c r="B757" s="13"/>
       <c r="C757" s="13"/>
@@ -12268,7 +12609,7 @@
       <c r="L757" s="13"/>
       <c r="M757" s="13"/>
     </row>
-    <row r="758" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:13">
       <c r="A758" s="13"/>
       <c r="B758" s="13"/>
       <c r="C758" s="13"/>
@@ -12283,7 +12624,7 @@
       <c r="L758" s="13"/>
       <c r="M758" s="13"/>
     </row>
-    <row r="759" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:13">
       <c r="A759" s="13"/>
       <c r="B759" s="13"/>
       <c r="C759" s="13"/>
@@ -12298,7 +12639,7 @@
       <c r="L759" s="13"/>
       <c r="M759" s="13"/>
     </row>
-    <row r="760" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:13">
       <c r="A760" s="13"/>
       <c r="B760" s="13"/>
       <c r="C760" s="13"/>
@@ -12313,7 +12654,7 @@
       <c r="L760" s="13"/>
       <c r="M760" s="13"/>
     </row>
-    <row r="761" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:13">
       <c r="A761" s="13"/>
       <c r="B761" s="13"/>
       <c r="C761" s="13"/>
@@ -12328,7 +12669,7 @@
       <c r="L761" s="13"/>
       <c r="M761" s="13"/>
     </row>
-    <row r="762" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:13">
       <c r="A762" s="13"/>
       <c r="B762" s="13"/>
       <c r="C762" s="13"/>
@@ -12343,7 +12684,7 @@
       <c r="L762" s="13"/>
       <c r="M762" s="13"/>
     </row>
-    <row r="763" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:13">
       <c r="A763" s="13"/>
       <c r="B763" s="13"/>
       <c r="C763" s="13"/>
@@ -12358,7 +12699,7 @@
       <c r="L763" s="13"/>
       <c r="M763" s="13"/>
     </row>
-    <row r="764" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:13">
       <c r="A764" s="13"/>
       <c r="B764" s="13"/>
       <c r="C764" s="13"/>
@@ -12373,7 +12714,7 @@
       <c r="L764" s="13"/>
       <c r="M764" s="13"/>
     </row>
-    <row r="765" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:13">
       <c r="A765" s="13"/>
       <c r="B765" s="13"/>
       <c r="C765" s="13"/>
@@ -12388,7 +12729,7 @@
       <c r="L765" s="13"/>
       <c r="M765" s="13"/>
     </row>
-    <row r="766" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:13">
       <c r="A766" s="13"/>
       <c r="B766" s="13"/>
       <c r="C766" s="13"/>
@@ -12403,7 +12744,7 @@
       <c r="L766" s="13"/>
       <c r="M766" s="13"/>
     </row>
-    <row r="767" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:13">
       <c r="A767" s="13"/>
       <c r="B767" s="13"/>
       <c r="C767" s="13"/>
@@ -12418,7 +12759,7 @@
       <c r="L767" s="13"/>
       <c r="M767" s="13"/>
     </row>
-    <row r="768" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:13">
       <c r="A768" s="13"/>
       <c r="B768" s="13"/>
       <c r="C768" s="13"/>
@@ -12433,7 +12774,7 @@
       <c r="L768" s="13"/>
       <c r="M768" s="13"/>
     </row>
-    <row r="769" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:13">
       <c r="A769" s="13"/>
       <c r="B769" s="13"/>
       <c r="C769" s="13"/>
@@ -12448,7 +12789,7 @@
       <c r="L769" s="13"/>
       <c r="M769" s="13"/>
     </row>
-    <row r="770" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:13">
       <c r="A770" s="13"/>
       <c r="B770" s="13"/>
       <c r="C770" s="13"/>
@@ -12463,7 +12804,7 @@
       <c r="L770" s="13"/>
       <c r="M770" s="13"/>
     </row>
-    <row r="771" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:13">
       <c r="A771" s="13"/>
       <c r="B771" s="13"/>
       <c r="C771" s="13"/>
@@ -12478,7 +12819,7 @@
       <c r="L771" s="13"/>
       <c r="M771" s="13"/>
     </row>
-    <row r="772" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:13">
       <c r="A772" s="13"/>
       <c r="B772" s="13"/>
       <c r="C772" s="13"/>
@@ -12493,7 +12834,7 @@
       <c r="L772" s="13"/>
       <c r="M772" s="13"/>
     </row>
-    <row r="773" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:13">
       <c r="A773" s="13"/>
       <c r="B773" s="13"/>
       <c r="C773" s="13"/>
@@ -12508,7 +12849,7 @@
       <c r="L773" s="13"/>
       <c r="M773" s="13"/>
     </row>
-    <row r="774" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:13">
       <c r="A774" s="13"/>
       <c r="B774" s="13"/>
       <c r="C774" s="13"/>
@@ -12523,7 +12864,7 @@
       <c r="L774" s="13"/>
       <c r="M774" s="13"/>
     </row>
-    <row r="775" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:13">
       <c r="A775" s="13"/>
       <c r="B775" s="13"/>
       <c r="C775" s="13"/>
@@ -12538,7 +12879,7 @@
       <c r="L775" s="13"/>
       <c r="M775" s="13"/>
     </row>
-    <row r="776" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:13">
       <c r="A776" s="13"/>
       <c r="B776" s="13"/>
       <c r="C776" s="13"/>
@@ -12553,7 +12894,7 @@
       <c r="L776" s="13"/>
       <c r="M776" s="13"/>
     </row>
-    <row r="777" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:13">
       <c r="A777" s="13"/>
       <c r="B777" s="13"/>
       <c r="C777" s="13"/>
@@ -12568,7 +12909,7 @@
       <c r="L777" s="13"/>
       <c r="M777" s="13"/>
     </row>
-    <row r="778" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:13">
       <c r="A778" s="13"/>
       <c r="B778" s="13"/>
       <c r="C778" s="13"/>
@@ -12583,7 +12924,7 @@
       <c r="L778" s="13"/>
       <c r="M778" s="13"/>
     </row>
-    <row r="779" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:13">
       <c r="A779" s="13"/>
       <c r="B779" s="13"/>
       <c r="C779" s="13"/>
@@ -12598,7 +12939,7 @@
       <c r="L779" s="13"/>
       <c r="M779" s="13"/>
     </row>
-    <row r="780" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:13">
       <c r="A780" s="13"/>
       <c r="B780" s="13"/>
       <c r="C780" s="13"/>
@@ -12613,7 +12954,7 @@
       <c r="L780" s="13"/>
       <c r="M780" s="13"/>
     </row>
-    <row r="781" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:13">
       <c r="A781" s="13"/>
       <c r="B781" s="13"/>
       <c r="C781" s="13"/>
@@ -12628,7 +12969,7 @@
       <c r="L781" s="13"/>
       <c r="M781" s="13"/>
     </row>
-    <row r="782" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:13">
       <c r="A782" s="13"/>
       <c r="B782" s="13"/>
       <c r="C782" s="13"/>
@@ -12643,7 +12984,7 @@
       <c r="L782" s="13"/>
       <c r="M782" s="13"/>
     </row>
-    <row r="783" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:13">
       <c r="A783" s="13"/>
       <c r="B783" s="13"/>
       <c r="C783" s="13"/>
@@ -12658,7 +12999,7 @@
       <c r="L783" s="13"/>
       <c r="M783" s="13"/>
     </row>
-    <row r="784" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:13">
       <c r="A784" s="13"/>
       <c r="B784" s="13"/>
       <c r="C784" s="13"/>
@@ -12673,7 +13014,7 @@
       <c r="L784" s="13"/>
       <c r="M784" s="13"/>
     </row>
-    <row r="785" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:13">
       <c r="A785" s="13"/>
       <c r="B785" s="13"/>
       <c r="C785" s="13"/>
@@ -12688,7 +13029,7 @@
       <c r="L785" s="13"/>
       <c r="M785" s="13"/>
     </row>
-    <row r="786" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:13">
       <c r="A786" s="13"/>
       <c r="B786" s="13"/>
       <c r="C786" s="13"/>
@@ -12703,7 +13044,7 @@
       <c r="L786" s="13"/>
       <c r="M786" s="13"/>
     </row>
-    <row r="787" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:13">
       <c r="A787" s="13"/>
       <c r="B787" s="13"/>
       <c r="C787" s="13"/>
@@ -12718,7 +13059,7 @@
       <c r="L787" s="13"/>
       <c r="M787" s="13"/>
     </row>
-    <row r="788" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:13">
       <c r="A788" s="13"/>
       <c r="B788" s="13"/>
       <c r="C788" s="13"/>
@@ -12733,7 +13074,7 @@
       <c r="L788" s="13"/>
       <c r="M788" s="13"/>
     </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:13">
       <c r="A789" s="13"/>
       <c r="B789" s="13"/>
       <c r="C789" s="13"/>
@@ -12748,7 +13089,7 @@
       <c r="L789" s="13"/>
       <c r="M789" s="13"/>
     </row>
-    <row r="790" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:13">
       <c r="A790" s="13"/>
       <c r="B790" s="13"/>
       <c r="C790" s="13"/>
@@ -12763,7 +13104,7 @@
       <c r="L790" s="13"/>
       <c r="M790" s="13"/>
     </row>
-    <row r="791" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:13">
       <c r="A791" s="13"/>
       <c r="B791" s="13"/>
       <c r="C791" s="13"/>
@@ -12778,7 +13119,7 @@
       <c r="L791" s="13"/>
       <c r="M791" s="13"/>
     </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:13">
       <c r="A792" s="13"/>
       <c r="B792" s="13"/>
       <c r="C792" s="13"/>
@@ -12793,7 +13134,7 @@
       <c r="L792" s="13"/>
       <c r="M792" s="13"/>
     </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:13">
       <c r="A793" s="13"/>
       <c r="B793" s="13"/>
       <c r="C793" s="13"/>
@@ -12808,7 +13149,7 @@
       <c r="L793" s="13"/>
       <c r="M793" s="13"/>
     </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:13">
       <c r="A794" s="13"/>
       <c r="B794" s="13"/>
       <c r="C794" s="13"/>
@@ -12823,7 +13164,7 @@
       <c r="L794" s="13"/>
       <c r="M794" s="13"/>
     </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:13">
       <c r="A795" s="13"/>
       <c r="B795" s="13"/>
       <c r="C795" s="13"/>
@@ -12838,7 +13179,7 @@
       <c r="L795" s="13"/>
       <c r="M795" s="13"/>
     </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:13">
       <c r="A796" s="13"/>
       <c r="B796" s="13"/>
       <c r="C796" s="13"/>
@@ -12853,7 +13194,7 @@
       <c r="L796" s="13"/>
       <c r="M796" s="13"/>
     </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:13">
       <c r="A797" s="13"/>
       <c r="B797" s="13"/>
       <c r="C797" s="13"/>
@@ -12868,7 +13209,7 @@
       <c r="L797" s="13"/>
       <c r="M797" s="13"/>
     </row>
-    <row r="798" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:13">
       <c r="A798" s="13"/>
       <c r="B798" s="13"/>
       <c r="C798" s="13"/>
@@ -12883,7 +13224,7 @@
       <c r="L798" s="13"/>
       <c r="M798" s="13"/>
     </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:13">
       <c r="A799" s="13"/>
       <c r="B799" s="13"/>
       <c r="C799" s="13"/>
@@ -12898,7 +13239,7 @@
       <c r="L799" s="13"/>
       <c r="M799" s="13"/>
     </row>
-    <row r="800" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:13">
       <c r="A800" s="13"/>
       <c r="B800" s="13"/>
       <c r="C800" s="13"/>
@@ -12913,7 +13254,7 @@
       <c r="L800" s="13"/>
       <c r="M800" s="13"/>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:13">
       <c r="A801" s="13"/>
       <c r="B801" s="13"/>
       <c r="C801" s="13"/>
@@ -12928,7 +13269,7 @@
       <c r="L801" s="13"/>
       <c r="M801" s="13"/>
     </row>
-    <row r="802" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:13">
       <c r="A802" s="13"/>
       <c r="B802" s="13"/>
       <c r="C802" s="13"/>
@@ -12943,7 +13284,7 @@
       <c r="L802" s="13"/>
       <c r="M802" s="13"/>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:13">
       <c r="A803" s="13"/>
       <c r="B803" s="13"/>
       <c r="C803" s="13"/>
@@ -12958,7 +13299,7 @@
       <c r="L803" s="13"/>
       <c r="M803" s="13"/>
     </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:13">
       <c r="A804" s="13"/>
       <c r="B804" s="13"/>
       <c r="C804" s="13"/>
@@ -12973,7 +13314,7 @@
       <c r="L804" s="13"/>
       <c r="M804" s="13"/>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:13">
       <c r="A805" s="13"/>
       <c r="B805" s="13"/>
       <c r="C805" s="13"/>
@@ -12988,7 +13329,7 @@
       <c r="L805" s="13"/>
       <c r="M805" s="13"/>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:13">
       <c r="A806" s="13"/>
       <c r="B806" s="13"/>
       <c r="C806" s="13"/>
@@ -13003,7 +13344,7 @@
       <c r="L806" s="13"/>
       <c r="M806" s="13"/>
     </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:13">
       <c r="A807" s="13"/>
       <c r="B807" s="13"/>
       <c r="C807" s="13"/>
@@ -13018,7 +13359,7 @@
       <c r="L807" s="13"/>
       <c r="M807" s="13"/>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:13">
       <c r="A808" s="13"/>
       <c r="B808" s="13"/>
       <c r="C808" s="13"/>
@@ -13033,7 +13374,7 @@
       <c r="L808" s="13"/>
       <c r="M808" s="13"/>
     </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:13">
       <c r="A809" s="13"/>
       <c r="B809" s="13"/>
       <c r="C809" s="13"/>
@@ -13048,7 +13389,7 @@
       <c r="L809" s="13"/>
       <c r="M809" s="13"/>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:13">
       <c r="A810" s="13"/>
       <c r="B810" s="13"/>
       <c r="C810" s="13"/>
@@ -13063,7 +13404,7 @@
       <c r="L810" s="13"/>
       <c r="M810" s="13"/>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:13">
       <c r="A811" s="13"/>
       <c r="B811" s="13"/>
       <c r="C811" s="13"/>
@@ -13078,7 +13419,7 @@
       <c r="L811" s="13"/>
       <c r="M811" s="13"/>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:13">
       <c r="A812" s="13"/>
       <c r="B812" s="13"/>
       <c r="C812" s="13"/>
@@ -13093,7 +13434,7 @@
       <c r="L812" s="13"/>
       <c r="M812" s="13"/>
     </row>
-    <row r="813" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:13">
       <c r="A813" s="13"/>
       <c r="B813" s="13"/>
       <c r="C813" s="13"/>
@@ -13108,7 +13449,7 @@
       <c r="L813" s="13"/>
       <c r="M813" s="13"/>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:13">
       <c r="A814" s="13"/>
       <c r="B814" s="13"/>
       <c r="C814" s="13"/>
@@ -13123,7 +13464,7 @@
       <c r="L814" s="13"/>
       <c r="M814" s="13"/>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:13">
       <c r="A815" s="13"/>
       <c r="B815" s="13"/>
       <c r="C815" s="13"/>
@@ -13138,7 +13479,7 @@
       <c r="L815" s="13"/>
       <c r="M815" s="13"/>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:13">
       <c r="A816" s="13"/>
       <c r="B816" s="13"/>
       <c r="C816" s="13"/>
@@ -13153,7 +13494,7 @@
       <c r="L816" s="13"/>
       <c r="M816" s="13"/>
     </row>
-    <row r="817" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:13">
       <c r="A817" s="13"/>
       <c r="B817" s="13"/>
       <c r="C817" s="13"/>
@@ -13168,7 +13509,7 @@
       <c r="L817" s="13"/>
       <c r="M817" s="13"/>
     </row>
-    <row r="818" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:13">
       <c r="A818" s="13"/>
       <c r="B818" s="13"/>
       <c r="C818" s="13"/>
@@ -13183,7 +13524,7 @@
       <c r="L818" s="13"/>
       <c r="M818" s="13"/>
     </row>
-    <row r="819" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:13">
       <c r="A819" s="13"/>
       <c r="B819" s="13"/>
       <c r="C819" s="13"/>
@@ -13198,7 +13539,7 @@
       <c r="L819" s="13"/>
       <c r="M819" s="13"/>
     </row>
-    <row r="820" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:13">
       <c r="A820" s="13"/>
       <c r="B820" s="13"/>
       <c r="C820" s="13"/>
@@ -13213,7 +13554,7 @@
       <c r="L820" s="13"/>
       <c r="M820" s="13"/>
     </row>
-    <row r="821" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:13">
       <c r="A821" s="13"/>
       <c r="B821" s="13"/>
       <c r="C821" s="13"/>
@@ -13228,7 +13569,7 @@
       <c r="L821" s="13"/>
       <c r="M821" s="13"/>
     </row>
-    <row r="822" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:13">
       <c r="A822" s="13"/>
       <c r="B822" s="13"/>
       <c r="C822" s="13"/>
@@ -13243,7 +13584,7 @@
       <c r="L822" s="13"/>
       <c r="M822" s="13"/>
     </row>
-    <row r="823" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:13">
       <c r="A823" s="13"/>
       <c r="B823" s="13"/>
       <c r="C823" s="13"/>
@@ -13258,7 +13599,7 @@
       <c r="L823" s="13"/>
       <c r="M823" s="13"/>
     </row>
-    <row r="824" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:13">
       <c r="A824" s="13"/>
       <c r="B824" s="13"/>
       <c r="C824" s="13"/>
@@ -13273,7 +13614,7 @@
       <c r="L824" s="13"/>
       <c r="M824" s="13"/>
     </row>
-    <row r="825" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:13">
       <c r="A825" s="13"/>
       <c r="B825" s="13"/>
       <c r="C825" s="13"/>
@@ -13288,7 +13629,7 @@
       <c r="L825" s="13"/>
       <c r="M825" s="13"/>
     </row>
-    <row r="826" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:13">
       <c r="A826" s="13"/>
       <c r="B826" s="13"/>
       <c r="C826" s="13"/>
@@ -13303,7 +13644,7 @@
       <c r="L826" s="13"/>
       <c r="M826" s="13"/>
     </row>
-    <row r="827" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:13">
       <c r="A827" s="13"/>
       <c r="B827" s="13"/>
       <c r="C827" s="13"/>
@@ -13318,7 +13659,7 @@
       <c r="L827" s="13"/>
       <c r="M827" s="13"/>
     </row>
-    <row r="828" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:13">
       <c r="A828" s="13"/>
       <c r="B828" s="13"/>
       <c r="C828" s="13"/>
@@ -13333,7 +13674,7 @@
       <c r="L828" s="13"/>
       <c r="M828" s="13"/>
     </row>
-    <row r="829" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:13">
       <c r="A829" s="13"/>
       <c r="B829" s="13"/>
       <c r="C829" s="13"/>
@@ -13348,7 +13689,7 @@
       <c r="L829" s="13"/>
       <c r="M829" s="13"/>
     </row>
-    <row r="830" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:13">
       <c r="A830" s="13"/>
       <c r="B830" s="13"/>
       <c r="C830" s="13"/>
@@ -13363,7 +13704,7 @@
       <c r="L830" s="13"/>
       <c r="M830" s="13"/>
     </row>
-    <row r="831" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:13">
       <c r="A831" s="13"/>
       <c r="B831" s="13"/>
       <c r="C831" s="13"/>
@@ -13378,7 +13719,7 @@
       <c r="L831" s="13"/>
       <c r="M831" s="13"/>
     </row>
-    <row r="832" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:13">
       <c r="A832" s="13"/>
       <c r="B832" s="13"/>
       <c r="C832" s="13"/>
@@ -13393,7 +13734,7 @@
       <c r="L832" s="13"/>
       <c r="M832" s="13"/>
     </row>
-    <row r="833" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:13">
       <c r="A833" s="13"/>
       <c r="B833" s="13"/>
       <c r="C833" s="13"/>
@@ -13408,7 +13749,7 @@
       <c r="L833" s="13"/>
       <c r="M833" s="13"/>
     </row>
-    <row r="834" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:13">
       <c r="A834" s="13"/>
       <c r="B834" s="13"/>
       <c r="C834" s="13"/>
@@ -13423,7 +13764,7 @@
       <c r="L834" s="13"/>
       <c r="M834" s="13"/>
     </row>
-    <row r="835" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:13">
       <c r="A835" s="13"/>
       <c r="B835" s="13"/>
       <c r="C835" s="13"/>
@@ -13438,7 +13779,7 @@
       <c r="L835" s="13"/>
       <c r="M835" s="13"/>
     </row>
-    <row r="836" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:13">
       <c r="A836" s="13"/>
       <c r="B836" s="13"/>
       <c r="C836" s="13"/>
@@ -13453,7 +13794,7 @@
       <c r="L836" s="13"/>
       <c r="M836" s="13"/>
     </row>
-    <row r="837" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:13">
       <c r="A837" s="13"/>
       <c r="B837" s="13"/>
       <c r="C837" s="13"/>
@@ -13468,7 +13809,7 @@
       <c r="L837" s="13"/>
       <c r="M837" s="13"/>
     </row>
-    <row r="838" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:13">
       <c r="A838" s="13"/>
       <c r="B838" s="13"/>
       <c r="C838" s="13"/>
@@ -13483,7 +13824,7 @@
       <c r="L838" s="13"/>
       <c r="M838" s="13"/>
     </row>
-    <row r="839" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:13">
       <c r="A839" s="13"/>
       <c r="B839" s="13"/>
       <c r="C839" s="13"/>
@@ -13498,7 +13839,7 @@
       <c r="L839" s="13"/>
       <c r="M839" s="13"/>
     </row>
-    <row r="840" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:13">
       <c r="A840" s="13"/>
       <c r="B840" s="13"/>
       <c r="C840" s="13"/>
@@ -13513,7 +13854,7 @@
       <c r="L840" s="13"/>
       <c r="M840" s="13"/>
     </row>
-    <row r="841" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:13">
       <c r="A841" s="13"/>
       <c r="B841" s="13"/>
       <c r="C841" s="13"/>
@@ -13528,7 +13869,7 @@
       <c r="L841" s="13"/>
       <c r="M841" s="13"/>
     </row>
-    <row r="842" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:13">
       <c r="A842" s="13"/>
       <c r="B842" s="13"/>
       <c r="C842" s="13"/>
@@ -13543,7 +13884,7 @@
       <c r="L842" s="13"/>
       <c r="M842" s="13"/>
     </row>
-    <row r="843" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:13">
       <c r="A843" s="13"/>
       <c r="B843" s="13"/>
       <c r="C843" s="13"/>
@@ -13558,7 +13899,7 @@
       <c r="L843" s="13"/>
       <c r="M843" s="13"/>
     </row>
-    <row r="844" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:13">
       <c r="A844" s="13"/>
       <c r="B844" s="13"/>
       <c r="C844" s="13"/>
@@ -13573,7 +13914,7 @@
       <c r="L844" s="13"/>
       <c r="M844" s="13"/>
     </row>
-    <row r="845" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:13">
       <c r="A845" s="13"/>
       <c r="B845" s="13"/>
       <c r="C845" s="13"/>
@@ -13588,7 +13929,7 @@
       <c r="L845" s="13"/>
       <c r="M845" s="13"/>
     </row>
-    <row r="846" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:13">
       <c r="A846" s="13"/>
       <c r="B846" s="13"/>
       <c r="C846" s="13"/>
@@ -13603,7 +13944,7 @@
       <c r="L846" s="13"/>
       <c r="M846" s="13"/>
     </row>
-    <row r="847" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:13">
       <c r="A847" s="13"/>
       <c r="B847" s="13"/>
       <c r="C847" s="13"/>
@@ -13618,7 +13959,7 @@
       <c r="L847" s="13"/>
       <c r="M847" s="13"/>
     </row>
-    <row r="848" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:13">
       <c r="A848" s="13"/>
       <c r="B848" s="13"/>
       <c r="C848" s="13"/>
@@ -13633,7 +13974,7 @@
       <c r="L848" s="13"/>
       <c r="M848" s="13"/>
     </row>
-    <row r="849" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:13">
       <c r="A849" s="13"/>
       <c r="B849" s="13"/>
       <c r="C849" s="13"/>
@@ -13648,7 +13989,7 @@
       <c r="L849" s="13"/>
       <c r="M849" s="13"/>
     </row>
-    <row r="850" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:13">
       <c r="A850" s="13"/>
       <c r="B850" s="13"/>
       <c r="C850" s="13"/>
@@ -13663,7 +14004,7 @@
       <c r="L850" s="13"/>
       <c r="M850" s="13"/>
     </row>
-    <row r="851" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:13">
       <c r="A851" s="13"/>
       <c r="B851" s="13"/>
       <c r="C851" s="13"/>
@@ -13678,7 +14019,7 @@
       <c r="L851" s="13"/>
       <c r="M851" s="13"/>
     </row>
-    <row r="852" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:13">
       <c r="A852" s="13"/>
       <c r="B852" s="13"/>
       <c r="C852" s="13"/>
@@ -13693,7 +14034,7 @@
       <c r="L852" s="13"/>
       <c r="M852" s="13"/>
     </row>
-    <row r="853" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:13">
       <c r="A853" s="13"/>
       <c r="B853" s="13"/>
       <c r="C853" s="13"/>
@@ -13708,7 +14049,7 @@
       <c r="L853" s="13"/>
       <c r="M853" s="13"/>
     </row>
-    <row r="854" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:13">
       <c r="A854" s="13"/>
       <c r="B854" s="13"/>
       <c r="C854" s="13"/>
@@ -13723,7 +14064,7 @@
       <c r="L854" s="13"/>
       <c r="M854" s="13"/>
     </row>
-    <row r="855" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:13">
       <c r="A855" s="13"/>
       <c r="B855" s="13"/>
       <c r="C855" s="13"/>
@@ -13738,7 +14079,7 @@
       <c r="L855" s="13"/>
       <c r="M855" s="13"/>
     </row>
-    <row r="856" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:13">
       <c r="A856" s="13"/>
       <c r="B856" s="13"/>
       <c r="C856" s="13"/>
@@ -13753,7 +14094,7 @@
       <c r="L856" s="13"/>
       <c r="M856" s="13"/>
     </row>
-    <row r="857" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:13">
       <c r="A857" s="13"/>
       <c r="B857" s="13"/>
       <c r="C857" s="13"/>
@@ -13768,7 +14109,7 @@
       <c r="L857" s="13"/>
       <c r="M857" s="13"/>
     </row>
-    <row r="858" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:13">
       <c r="A858" s="13"/>
       <c r="B858" s="13"/>
       <c r="C858" s="13"/>
@@ -13783,7 +14124,7 @@
       <c r="L858" s="13"/>
       <c r="M858" s="13"/>
     </row>
-    <row r="859" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:13">
       <c r="A859" s="13"/>
       <c r="B859" s="13"/>
       <c r="C859" s="13"/>
@@ -13798,7 +14139,7 @@
       <c r="L859" s="13"/>
       <c r="M859" s="13"/>
     </row>
-    <row r="860" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:13">
       <c r="A860" s="13"/>
       <c r="B860" s="13"/>
       <c r="C860" s="13"/>
@@ -13813,7 +14154,7 @@
       <c r="L860" s="13"/>
       <c r="M860" s="13"/>
     </row>
-    <row r="861" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:13">
       <c r="A861" s="13"/>
       <c r="B861" s="13"/>
       <c r="C861" s="13"/>
@@ -13828,7 +14169,7 @@
       <c r="L861" s="13"/>
       <c r="M861" s="13"/>
     </row>
-    <row r="862" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:13">
       <c r="A862" s="13"/>
       <c r="B862" s="13"/>
       <c r="C862" s="13"/>
@@ -13843,7 +14184,7 @@
       <c r="L862" s="13"/>
       <c r="M862" s="13"/>
     </row>
-    <row r="863" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:13">
       <c r="A863" s="13"/>
       <c r="B863" s="13"/>
       <c r="C863" s="13"/>
@@ -13858,7 +14199,7 @@
       <c r="L863" s="13"/>
       <c r="M863" s="13"/>
     </row>
-    <row r="864" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:13">
       <c r="A864" s="13"/>
       <c r="B864" s="13"/>
       <c r="C864" s="13"/>
@@ -13873,7 +14214,7 @@
       <c r="L864" s="13"/>
       <c r="M864" s="13"/>
     </row>
-    <row r="865" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:13">
       <c r="A865" s="13"/>
       <c r="B865" s="13"/>
       <c r="C865" s="13"/>
@@ -13888,7 +14229,7 @@
       <c r="L865" s="13"/>
       <c r="M865" s="13"/>
     </row>
-    <row r="866" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:13">
       <c r="A866" s="13"/>
       <c r="B866" s="13"/>
       <c r="C866" s="13"/>
@@ -13903,7 +14244,7 @@
       <c r="L866" s="13"/>
       <c r="M866" s="13"/>
     </row>
-    <row r="867" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:13">
       <c r="A867" s="13"/>
       <c r="B867" s="13"/>
       <c r="C867" s="13"/>
@@ -13918,7 +14259,7 @@
       <c r="L867" s="13"/>
       <c r="M867" s="13"/>
     </row>
-    <row r="868" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:13">
       <c r="A868" s="13"/>
       <c r="B868" s="13"/>
       <c r="C868" s="13"/>
@@ -13933,7 +14274,7 @@
       <c r="L868" s="13"/>
       <c r="M868" s="13"/>
     </row>
-    <row r="869" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:13">
       <c r="A869" s="13"/>
       <c r="B869" s="13"/>
       <c r="C869" s="13"/>
@@ -13948,7 +14289,7 @@
       <c r="L869" s="13"/>
       <c r="M869" s="13"/>
     </row>
-    <row r="870" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:13">
       <c r="A870" s="13"/>
       <c r="B870" s="13"/>
       <c r="C870" s="13"/>
@@ -13963,7 +14304,7 @@
       <c r="L870" s="13"/>
       <c r="M870" s="13"/>
     </row>
-    <row r="871" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:13">
       <c r="A871" s="13"/>
       <c r="B871" s="13"/>
       <c r="C871" s="13"/>
@@ -13978,7 +14319,7 @@
       <c r="L871" s="13"/>
       <c r="M871" s="13"/>
     </row>
-    <row r="872" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:13">
       <c r="A872" s="13"/>
       <c r="B872" s="13"/>
       <c r="C872" s="13"/>
@@ -13993,7 +14334,7 @@
       <c r="L872" s="13"/>
       <c r="M872" s="13"/>
     </row>
-    <row r="873" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:13">
       <c r="A873" s="13"/>
       <c r="B873" s="13"/>
       <c r="C873" s="13"/>
@@ -14008,7 +14349,7 @@
       <c r="L873" s="13"/>
       <c r="M873" s="13"/>
     </row>
-    <row r="874" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:13">
       <c r="A874" s="13"/>
       <c r="B874" s="13"/>
       <c r="C874" s="13"/>
@@ -14023,7 +14364,7 @@
       <c r="L874" s="13"/>
       <c r="M874" s="13"/>
     </row>
-    <row r="875" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:13">
       <c r="A875" s="13"/>
       <c r="B875" s="13"/>
       <c r="C875" s="13"/>
@@ -14038,7 +14379,7 @@
       <c r="L875" s="13"/>
       <c r="M875" s="13"/>
     </row>
-    <row r="876" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:13">
       <c r="A876" s="13"/>
       <c r="B876" s="13"/>
       <c r="C876" s="13"/>
@@ -14053,7 +14394,7 @@
       <c r="L876" s="13"/>
       <c r="M876" s="13"/>
     </row>
-    <row r="877" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:13">
       <c r="A877" s="13"/>
       <c r="B877" s="13"/>
       <c r="C877" s="13"/>
@@ -14068,7 +14409,7 @@
       <c r="L877" s="13"/>
       <c r="M877" s="13"/>
     </row>
-    <row r="878" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:13">
       <c r="A878" s="13"/>
       <c r="B878" s="13"/>
       <c r="C878" s="13"/>
@@ -14083,7 +14424,7 @@
       <c r="L878" s="13"/>
       <c r="M878" s="13"/>
     </row>
-    <row r="879" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:13">
       <c r="A879" s="13"/>
       <c r="B879" s="13"/>
       <c r="C879" s="13"/>
@@ -14098,7 +14439,7 @@
       <c r="L879" s="13"/>
       <c r="M879" s="13"/>
     </row>
-    <row r="880" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:13">
       <c r="A880" s="13"/>
       <c r="B880" s="13"/>
       <c r="C880" s="13"/>
@@ -14113,7 +14454,7 @@
       <c r="L880" s="13"/>
       <c r="M880" s="13"/>
     </row>
-    <row r="881" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:13">
       <c r="A881" s="13"/>
       <c r="B881" s="13"/>
       <c r="C881" s="13"/>
@@ -14128,7 +14469,7 @@
       <c r="L881" s="13"/>
       <c r="M881" s="13"/>
     </row>
-    <row r="882" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:13">
       <c r="A882" s="13"/>
       <c r="B882" s="13"/>
       <c r="C882" s="13"/>
@@ -14143,7 +14484,7 @@
       <c r="L882" s="13"/>
       <c r="M882" s="13"/>
     </row>
-    <row r="883" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:13">
       <c r="A883" s="13"/>
       <c r="B883" s="13"/>
       <c r="C883" s="13"/>
@@ -14158,7 +14499,7 @@
       <c r="L883" s="13"/>
       <c r="M883" s="13"/>
     </row>
-    <row r="884" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:13">
       <c r="A884" s="13"/>
       <c r="B884" s="13"/>
       <c r="C884" s="13"/>
@@ -14173,7 +14514,7 @@
       <c r="L884" s="13"/>
       <c r="M884" s="13"/>
     </row>
-    <row r="885" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:13">
       <c r="A885" s="13"/>
       <c r="B885" s="13"/>
       <c r="C885" s="13"/>
@@ -14188,7 +14529,7 @@
       <c r="L885" s="13"/>
       <c r="M885" s="13"/>
     </row>
-    <row r="886" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:13">
       <c r="A886" s="13"/>
       <c r="B886" s="13"/>
       <c r="C886" s="13"/>
@@ -14203,7 +14544,7 @@
       <c r="L886" s="13"/>
       <c r="M886" s="13"/>
     </row>
-    <row r="887" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:13">
       <c r="A887" s="13"/>
       <c r="B887" s="13"/>
       <c r="C887" s="13"/>
@@ -14218,7 +14559,7 @@
       <c r="L887" s="13"/>
       <c r="M887" s="13"/>
     </row>
-    <row r="888" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:13">
       <c r="A888" s="13"/>
       <c r="B888" s="13"/>
       <c r="C888" s="13"/>
@@ -14233,7 +14574,7 @@
       <c r="L888" s="13"/>
       <c r="M888" s="13"/>
     </row>
-    <row r="889" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:13">
       <c r="A889" s="13"/>
       <c r="B889" s="13"/>
       <c r="C889" s="13"/>
@@ -14248,7 +14589,7 @@
       <c r="L889" s="13"/>
       <c r="M889" s="13"/>
     </row>
-    <row r="890" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:13">
       <c r="A890" s="13"/>
       <c r="B890" s="13"/>
       <c r="C890" s="13"/>
@@ -14263,7 +14604,7 @@
       <c r="L890" s="13"/>
       <c r="M890" s="13"/>
     </row>
-    <row r="891" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:13">
       <c r="A891" s="13"/>
       <c r="B891" s="13"/>
       <c r="C891" s="13"/>
@@ -14278,7 +14619,7 @@
       <c r="L891" s="13"/>
       <c r="M891" s="13"/>
     </row>
-    <row r="892" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:13">
       <c r="A892" s="13"/>
       <c r="B892" s="13"/>
       <c r="C892" s="13"/>
@@ -14293,7 +14634,7 @@
       <c r="L892" s="13"/>
       <c r="M892" s="13"/>
     </row>
-    <row r="893" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:13">
       <c r="A893" s="13"/>
       <c r="B893" s="13"/>
       <c r="C893" s="13"/>
@@ -14308,7 +14649,7 @@
       <c r="L893" s="13"/>
       <c r="M893" s="13"/>
     </row>
-    <row r="894" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:13">
       <c r="A894" s="13"/>
       <c r="B894" s="13"/>
       <c r="C894" s="13"/>
@@ -14323,7 +14664,7 @@
       <c r="L894" s="13"/>
       <c r="M894" s="13"/>
     </row>
-    <row r="895" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:13">
       <c r="A895" s="13"/>
       <c r="B895" s="13"/>
       <c r="C895" s="13"/>
@@ -14338,7 +14679,7 @@
       <c r="L895" s="13"/>
       <c r="M895" s="13"/>
     </row>
-    <row r="896" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:13">
       <c r="A896" s="13"/>
       <c r="B896" s="13"/>
       <c r="C896" s="13"/>
@@ -14353,7 +14694,7 @@
       <c r="L896" s="13"/>
       <c r="M896" s="13"/>
     </row>
-    <row r="897" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:13">
       <c r="A897" s="13"/>
       <c r="B897" s="13"/>
       <c r="C897" s="13"/>
@@ -14368,7 +14709,7 @@
       <c r="L897" s="13"/>
       <c r="M897" s="13"/>
     </row>
-    <row r="898" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:13">
       <c r="A898" s="13"/>
       <c r="B898" s="13"/>
       <c r="C898" s="13"/>
@@ -14383,7 +14724,7 @@
       <c r="L898" s="13"/>
       <c r="M898" s="13"/>
     </row>
-    <row r="899" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:13">
       <c r="A899" s="13"/>
       <c r="B899" s="13"/>
       <c r="C899" s="13"/>
@@ -14398,7 +14739,7 @@
       <c r="L899" s="13"/>
       <c r="M899" s="13"/>
     </row>
-    <row r="900" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:13">
       <c r="A900" s="13"/>
       <c r="B900" s="13"/>
       <c r="C900" s="13"/>
@@ -14413,7 +14754,7 @@
       <c r="L900" s="13"/>
       <c r="M900" s="13"/>
     </row>
-    <row r="901" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:13">
       <c r="A901" s="13"/>
       <c r="B901" s="13"/>
       <c r="C901" s="13"/>
@@ -14428,7 +14769,7 @@
       <c r="L901" s="13"/>
       <c r="M901" s="13"/>
     </row>
-    <row r="902" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:13">
       <c r="A902" s="13"/>
       <c r="B902" s="13"/>
       <c r="C902" s="13"/>
@@ -14443,7 +14784,7 @@
       <c r="L902" s="13"/>
       <c r="M902" s="13"/>
     </row>
-    <row r="903" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:13">
       <c r="A903" s="13"/>
       <c r="B903" s="13"/>
       <c r="C903" s="13"/>
@@ -14458,7 +14799,7 @@
       <c r="L903" s="13"/>
       <c r="M903" s="13"/>
     </row>
-    <row r="904" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:13">
       <c r="A904" s="13"/>
       <c r="B904" s="13"/>
       <c r="C904" s="13"/>
@@ -14473,7 +14814,7 @@
       <c r="L904" s="13"/>
       <c r="M904" s="13"/>
     </row>
-    <row r="905" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:13">
       <c r="A905" s="13"/>
       <c r="B905" s="13"/>
       <c r="C905" s="13"/>
@@ -14488,7 +14829,7 @@
       <c r="L905" s="13"/>
       <c r="M905" s="13"/>
     </row>
-    <row r="906" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:13">
       <c r="A906" s="13"/>
       <c r="B906" s="13"/>
       <c r="C906" s="13"/>
@@ -14503,7 +14844,7 @@
       <c r="L906" s="13"/>
       <c r="M906" s="13"/>
     </row>
-    <row r="907" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:13">
       <c r="A907" s="13"/>
       <c r="B907" s="13"/>
       <c r="C907" s="13"/>
@@ -14518,7 +14859,7 @@
       <c r="L907" s="13"/>
       <c r="M907" s="13"/>
     </row>
-    <row r="908" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:13">
       <c r="A908" s="13"/>
       <c r="B908" s="13"/>
       <c r="C908" s="13"/>
@@ -14533,7 +14874,7 @@
       <c r="L908" s="13"/>
       <c r="M908" s="13"/>
     </row>
-    <row r="909" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:13">
       <c r="A909" s="13"/>
       <c r="B909" s="13"/>
       <c r="C909" s="13"/>
@@ -14548,7 +14889,7 @@
       <c r="L909" s="13"/>
       <c r="M909" s="13"/>
     </row>
-    <row r="910" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:13">
       <c r="A910" s="13"/>
       <c r="B910" s="13"/>
       <c r="C910" s="13"/>
@@ -14563,7 +14904,7 @@
       <c r="L910" s="13"/>
       <c r="M910" s="13"/>
     </row>
-    <row r="911" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:13">
       <c r="A911" s="13"/>
       <c r="B911" s="13"/>
       <c r="C911" s="13"/>
@@ -14578,7 +14919,7 @@
       <c r="L911" s="13"/>
       <c r="M911" s="13"/>
     </row>
-    <row r="912" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:13">
       <c r="A912" s="13"/>
       <c r="B912" s="13"/>
       <c r="C912" s="13"/>
@@ -14593,7 +14934,7 @@
       <c r="L912" s="13"/>
       <c r="M912" s="13"/>
     </row>
-    <row r="913" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:13">
       <c r="A913" s="13"/>
       <c r="B913" s="13"/>
       <c r="C913" s="13"/>
@@ -14608,7 +14949,7 @@
       <c r="L913" s="13"/>
       <c r="M913" s="13"/>
     </row>
-    <row r="914" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:13">
       <c r="A914" s="13"/>
       <c r="B914" s="13"/>
       <c r="C914" s="13"/>
@@ -14623,7 +14964,7 @@
       <c r="L914" s="13"/>
       <c r="M914" s="13"/>
     </row>
-    <row r="915" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:13">
       <c r="A915" s="13"/>
       <c r="B915" s="13"/>
       <c r="C915" s="13"/>
@@ -14638,7 +14979,7 @@
       <c r="L915" s="13"/>
       <c r="M915" s="13"/>
     </row>
-    <row r="916" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:13">
       <c r="A916" s="13"/>
       <c r="B916" s="13"/>
       <c r="C916" s="13"/>
@@ -14653,7 +14994,7 @@
       <c r="L916" s="13"/>
       <c r="M916" s="13"/>
     </row>
-    <row r="917" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:13">
       <c r="A917" s="13"/>
       <c r="B917" s="13"/>
       <c r="C917" s="13"/>
@@ -14668,7 +15009,7 @@
       <c r="L917" s="13"/>
       <c r="M917" s="13"/>
     </row>
-    <row r="918" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:13">
       <c r="A918" s="13"/>
       <c r="B918" s="13"/>
       <c r="C918" s="13"/>
@@ -14683,7 +15024,7 @@
       <c r="L918" s="13"/>
       <c r="M918" s="13"/>
     </row>
-    <row r="919" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:13">
       <c r="A919" s="13"/>
       <c r="B919" s="13"/>
       <c r="C919" s="13"/>
@@ -14698,7 +15039,7 @@
       <c r="L919" s="13"/>
       <c r="M919" s="13"/>
     </row>
-    <row r="920" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:13">
       <c r="A920" s="13"/>
       <c r="B920" s="13"/>
       <c r="C920" s="13"/>
@@ -14713,7 +15054,7 @@
       <c r="L920" s="13"/>
       <c r="M920" s="13"/>
     </row>
-    <row r="921" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:13">
       <c r="A921" s="13"/>
       <c r="B921" s="13"/>
       <c r="C921" s="13"/>
@@ -14728,7 +15069,7 @@
       <c r="L921" s="13"/>
       <c r="M921" s="13"/>
     </row>
-    <row r="922" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:13">
       <c r="A922" s="13"/>
       <c r="B922" s="13"/>
       <c r="C922" s="13"/>
@@ -14743,7 +15084,7 @@
       <c r="L922" s="13"/>
       <c r="M922" s="13"/>
     </row>
-    <row r="923" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:13">
       <c r="A923" s="13"/>
       <c r="B923" s="13"/>
       <c r="C923" s="13"/>
@@ -14758,7 +15099,7 @@
       <c r="L923" s="13"/>
       <c r="M923" s="13"/>
     </row>
-    <row r="924" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:13">
       <c r="A924" s="13"/>
       <c r="B924" s="13"/>
       <c r="C924" s="13"/>
@@ -14773,7 +15114,7 @@
       <c r="L924" s="13"/>
       <c r="M924" s="13"/>
     </row>
-    <row r="925" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:13">
       <c r="A925" s="13"/>
       <c r="B925" s="13"/>
       <c r="C925" s="13"/>
@@ -14788,7 +15129,7 @@
       <c r="L925" s="13"/>
       <c r="M925" s="13"/>
     </row>
-    <row r="926" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:13">
       <c r="A926" s="13"/>
       <c r="B926" s="13"/>
       <c r="C926" s="13"/>
@@ -14803,7 +15144,7 @@
       <c r="L926" s="13"/>
       <c r="M926" s="13"/>
     </row>
-    <row r="927" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:13">
       <c r="A927" s="13"/>
       <c r="B927" s="13"/>
       <c r="C927" s="13"/>
@@ -14818,7 +15159,7 @@
       <c r="L927" s="13"/>
       <c r="M927" s="13"/>
     </row>
-    <row r="928" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:13">
       <c r="A928" s="13"/>
       <c r="B928" s="13"/>
       <c r="C928" s="13"/>
@@ -14833,7 +15174,7 @@
       <c r="L928" s="13"/>
       <c r="M928" s="13"/>
     </row>
-    <row r="929" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:13">
       <c r="A929" s="13"/>
       <c r="B929" s="13"/>
       <c r="C929" s="13"/>
@@ -14848,7 +15189,7 @@
       <c r="L929" s="13"/>
       <c r="M929" s="13"/>
     </row>
-    <row r="930" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:13">
       <c r="A930" s="13"/>
       <c r="B930" s="13"/>
       <c r="C930" s="13"/>
@@ -14863,7 +15204,7 @@
       <c r="L930" s="13"/>
       <c r="M930" s="13"/>
     </row>
-    <row r="931" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:13">
       <c r="A931" s="13"/>
       <c r="B931" s="13"/>
       <c r="C931" s="13"/>
@@ -14878,7 +15219,7 @@
       <c r="L931" s="13"/>
       <c r="M931" s="13"/>
     </row>
-    <row r="932" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:13">
       <c r="A932" s="13"/>
       <c r="B932" s="13"/>
       <c r="C932" s="13"/>
@@ -14893,7 +15234,7 @@
       <c r="L932" s="13"/>
       <c r="M932" s="13"/>
     </row>
-    <row r="933" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:13">
       <c r="A933" s="13"/>
       <c r="B933" s="13"/>
       <c r="C933" s="13"/>
@@ -14908,7 +15249,7 @@
       <c r="L933" s="13"/>
       <c r="M933" s="13"/>
     </row>
-    <row r="934" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:13">
       <c r="A934" s="13"/>
       <c r="B934" s="13"/>
       <c r="C934" s="13"/>
@@ -14923,7 +15264,7 @@
       <c r="L934" s="13"/>
       <c r="M934" s="13"/>
     </row>
-    <row r="935" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:13">
       <c r="A935" s="13"/>
       <c r="B935" s="13"/>
       <c r="C935" s="13"/>
@@ -14938,7 +15279,7 @@
       <c r="L935" s="13"/>
       <c r="M935" s="13"/>
     </row>
-    <row r="936" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:13">
       <c r="A936" s="13"/>
       <c r="B936" s="13"/>
       <c r="C936" s="13"/>
@@ -14953,7 +15294,7 @@
       <c r="L936" s="13"/>
       <c r="M936" s="13"/>
     </row>
-    <row r="937" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:13">
       <c r="A937" s="13"/>
       <c r="B937" s="13"/>
       <c r="C937" s="13"/>
@@ -14968,7 +15309,7 @@
       <c r="L937" s="13"/>
       <c r="M937" s="13"/>
     </row>
-    <row r="938" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:13">
       <c r="A938" s="13"/>
       <c r="B938" s="13"/>
       <c r="C938" s="13"/>
@@ -14983,7 +15324,7 @@
       <c r="L938" s="13"/>
       <c r="M938" s="13"/>
     </row>
-    <row r="939" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:13">
       <c r="A939" s="13"/>
       <c r="B939" s="13"/>
       <c r="C939" s="13"/>
@@ -14998,7 +15339,7 @@
       <c r="L939" s="13"/>
       <c r="M939" s="13"/>
     </row>
-    <row r="940" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:13">
       <c r="A940" s="13"/>
       <c r="B940" s="13"/>
       <c r="C940" s="13"/>
@@ -15013,7 +15354,7 @@
       <c r="L940" s="13"/>
       <c r="M940" s="13"/>
     </row>
-    <row r="941" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:13">
       <c r="A941" s="13"/>
       <c r="B941" s="13"/>
       <c r="C941" s="13"/>
@@ -15028,7 +15369,7 @@
       <c r="L941" s="13"/>
       <c r="M941" s="13"/>
     </row>
-    <row r="942" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:13">
       <c r="A942" s="13"/>
       <c r="B942" s="13"/>
       <c r="C942" s="13"/>
@@ -15043,7 +15384,7 @@
       <c r="L942" s="13"/>
       <c r="M942" s="13"/>
     </row>
-    <row r="943" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:13">
       <c r="A943" s="13"/>
       <c r="B943" s="13"/>
       <c r="C943" s="13"/>
@@ -15058,7 +15399,7 @@
       <c r="L943" s="13"/>
       <c r="M943" s="13"/>
     </row>
-    <row r="944" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:13">
       <c r="A944" s="13"/>
       <c r="B944" s="13"/>
       <c r="C944" s="13"/>
@@ -15073,7 +15414,7 @@
       <c r="L944" s="13"/>
       <c r="M944" s="13"/>
     </row>
-    <row r="945" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:13">
       <c r="A945" s="13"/>
       <c r="B945" s="13"/>
       <c r="C945" s="13"/>
@@ -15088,7 +15429,7 @@
       <c r="L945" s="13"/>
       <c r="M945" s="13"/>
     </row>
-    <row r="946" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:13">
       <c r="A946" s="13"/>
       <c r="B946" s="13"/>
       <c r="C946" s="13"/>
@@ -15103,7 +15444,7 @@
       <c r="L946" s="13"/>
       <c r="M946" s="13"/>
     </row>
-    <row r="947" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:13">
       <c r="A947" s="13"/>
       <c r="B947" s="13"/>
       <c r="C947" s="13"/>
@@ -15118,7 +15459,7 @@
       <c r="L947" s="13"/>
       <c r="M947" s="13"/>
     </row>
-    <row r="948" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:13">
       <c r="A948" s="13"/>
       <c r="B948" s="13"/>
       <c r="C948" s="13"/>
@@ -15133,7 +15474,7 @@
       <c r="L948" s="13"/>
       <c r="M948" s="13"/>
     </row>
-    <row r="949" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:13">
       <c r="A949" s="13"/>
       <c r="B949" s="13"/>
       <c r="C949" s="13"/>
@@ -15148,7 +15489,7 @@
       <c r="L949" s="13"/>
       <c r="M949" s="13"/>
     </row>
-    <row r="950" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:13">
       <c r="A950" s="13"/>
       <c r="B950" s="13"/>
       <c r="C950" s="13"/>
@@ -15163,7 +15504,7 @@
       <c r="L950" s="13"/>
       <c r="M950" s="13"/>
     </row>
-    <row r="951" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:13">
       <c r="A951" s="13"/>
       <c r="B951" s="13"/>
       <c r="C951" s="13"/>
@@ -15178,7 +15519,7 @@
       <c r="L951" s="13"/>
       <c r="M951" s="13"/>
     </row>
-    <row r="952" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:13">
       <c r="A952" s="13"/>
       <c r="B952" s="13"/>
       <c r="C952" s="13"/>
@@ -15193,7 +15534,7 @@
       <c r="L952" s="13"/>
       <c r="M952" s="13"/>
     </row>
-    <row r="953" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:13">
       <c r="A953" s="13"/>
       <c r="B953" s="13"/>
       <c r="C953" s="13"/>
@@ -15208,7 +15549,7 @@
       <c r="L953" s="13"/>
       <c r="M953" s="13"/>
     </row>
-    <row r="954" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:13">
       <c r="A954" s="13"/>
       <c r="B954" s="13"/>
       <c r="C954" s="13"/>
@@ -15223,7 +15564,7 @@
       <c r="L954" s="13"/>
       <c r="M954" s="13"/>
     </row>
-    <row r="955" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:13">
       <c r="A955" s="13"/>
       <c r="B955" s="13"/>
       <c r="C955" s="13"/>
@@ -15238,7 +15579,7 @@
       <c r="L955" s="13"/>
       <c r="M955" s="13"/>
     </row>
-    <row r="956" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:13">
       <c r="A956" s="13"/>
       <c r="B956" s="13"/>
       <c r="C956" s="13"/>
@@ -15253,7 +15594,7 @@
       <c r="L956" s="13"/>
       <c r="M956" s="13"/>
     </row>
-    <row r="957" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:13">
       <c r="A957" s="13"/>
       <c r="B957" s="13"/>
       <c r="C957" s="13"/>
@@ -15268,7 +15609,7 @@
       <c r="L957" s="13"/>
       <c r="M957" s="13"/>
     </row>
-    <row r="958" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:13">
       <c r="A958" s="13"/>
       <c r="B958" s="13"/>
       <c r="C958" s="13"/>
@@ -15283,7 +15624,7 @@
       <c r="L958" s="13"/>
       <c r="M958" s="13"/>
     </row>
-    <row r="959" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:13">
       <c r="A959" s="13"/>
       <c r="B959" s="13"/>
       <c r="C959" s="13"/>
@@ -15298,7 +15639,7 @@
       <c r="L959" s="13"/>
       <c r="M959" s="13"/>
     </row>
-    <row r="960" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:13">
       <c r="A960" s="13"/>
       <c r="B960" s="13"/>
       <c r="C960" s="13"/>
@@ -15313,7 +15654,7 @@
       <c r="L960" s="13"/>
       <c r="M960" s="13"/>
     </row>
-    <row r="961" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:13">
       <c r="A961" s="13"/>
       <c r="B961" s="13"/>
       <c r="C961" s="13"/>
@@ -15328,7 +15669,7 @@
       <c r="L961" s="13"/>
       <c r="M961" s="13"/>
     </row>
-    <row r="962" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:13">
       <c r="A962" s="13"/>
       <c r="B962" s="13"/>
       <c r="C962" s="13"/>
@@ -15343,7 +15684,7 @@
       <c r="L962" s="13"/>
       <c r="M962" s="13"/>
     </row>
-    <row r="963" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:13">
       <c r="A963" s="13"/>
       <c r="B963" s="13"/>
       <c r="C963" s="13"/>
@@ -15358,7 +15699,7 @@
       <c r="L963" s="13"/>
       <c r="M963" s="13"/>
     </row>
-    <row r="964" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:13">
       <c r="A964" s="13"/>
       <c r="B964" s="13"/>
       <c r="C964" s="13"/>
@@ -15373,7 +15714,7 @@
       <c r="L964" s="13"/>
       <c r="M964" s="13"/>
     </row>
-    <row r="965" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:13">
       <c r="A965" s="13"/>
       <c r="B965" s="13"/>
       <c r="C965" s="13"/>
@@ -15388,7 +15729,7 @@
       <c r="L965" s="13"/>
       <c r="M965" s="13"/>
     </row>
-    <row r="966" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:13">
       <c r="A966" s="13"/>
       <c r="B966" s="13"/>
       <c r="C966" s="13"/>
@@ -15403,7 +15744,7 @@
       <c r="L966" s="13"/>
       <c r="M966" s="13"/>
     </row>
-    <row r="967" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:13">
       <c r="A967" s="13"/>
       <c r="B967" s="13"/>
       <c r="C967" s="13"/>
@@ -15418,7 +15759,7 @@
       <c r="L967" s="13"/>
       <c r="M967" s="13"/>
     </row>
-    <row r="968" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:13">
       <c r="A968" s="13"/>
       <c r="B968" s="13"/>
       <c r="C968" s="13"/>
@@ -15433,7 +15774,7 @@
       <c r="L968" s="13"/>
       <c r="M968" s="13"/>
     </row>
-    <row r="969" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:13">
       <c r="A969" s="13"/>
       <c r="B969" s="13"/>
       <c r="C969" s="13"/>
@@ -15448,7 +15789,7 @@
       <c r="L969" s="13"/>
       <c r="M969" s="13"/>
     </row>
-    <row r="970" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:13">
       <c r="A970" s="13"/>
       <c r="B970" s="13"/>
       <c r="C970" s="13"/>
@@ -15463,7 +15804,7 @@
       <c r="L970" s="13"/>
       <c r="M970" s="13"/>
     </row>
-    <row r="971" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:13">
       <c r="A971" s="13"/>
       <c r="B971" s="13"/>
       <c r="C971" s="13"/>
@@ -15478,7 +15819,7 @@
       <c r="L971" s="13"/>
       <c r="M971" s="13"/>
     </row>
-    <row r="972" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:13">
       <c r="A972" s="13"/>
       <c r="B972" s="13"/>
       <c r="C972" s="13"/>
@@ -15493,7 +15834,7 @@
       <c r="L972" s="13"/>
       <c r="M972" s="13"/>
     </row>
-    <row r="973" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:13">
       <c r="A973" s="13"/>
       <c r="B973" s="13"/>
       <c r="C973" s="13"/>
@@ -15508,7 +15849,7 @@
       <c r="L973" s="13"/>
       <c r="M973" s="13"/>
     </row>
-    <row r="974" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:13">
       <c r="A974" s="13"/>
       <c r="B974" s="13"/>
       <c r="C974" s="13"/>
@@ -15523,7 +15864,7 @@
       <c r="L974" s="13"/>
       <c r="M974" s="13"/>
     </row>
-    <row r="975" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:13">
       <c r="A975" s="13"/>
       <c r="B975" s="13"/>
       <c r="C975" s="13"/>
@@ -15538,7 +15879,7 @@
       <c r="L975" s="13"/>
       <c r="M975" s="13"/>
     </row>
-    <row r="976" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:13">
       <c r="A976" s="13"/>
       <c r="B976" s="13"/>
       <c r="C976" s="13"/>
@@ -15553,7 +15894,7 @@
       <c r="L976" s="13"/>
       <c r="M976" s="13"/>
     </row>
-    <row r="977" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:13">
       <c r="A977" s="13"/>
       <c r="B977" s="13"/>
       <c r="C977" s="13"/>
@@ -15568,7 +15909,7 @@
       <c r="L977" s="13"/>
       <c r="M977" s="13"/>
     </row>
-    <row r="978" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:13">
       <c r="A978" s="13"/>
       <c r="B978" s="13"/>
       <c r="C978" s="13"/>
@@ -15583,7 +15924,7 @@
       <c r="L978" s="13"/>
       <c r="M978" s="13"/>
     </row>
-    <row r="979" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:13">
       <c r="A979" s="13"/>
       <c r="B979" s="13"/>
       <c r="C979" s="13"/>
@@ -15598,7 +15939,7 @@
       <c r="L979" s="13"/>
       <c r="M979" s="13"/>
     </row>
-    <row r="980" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:13">
       <c r="A980" s="13"/>
       <c r="B980" s="13"/>
       <c r="C980" s="13"/>
@@ -15613,7 +15954,7 @@
       <c r="L980" s="13"/>
       <c r="M980" s="13"/>
     </row>
-    <row r="981" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:13">
       <c r="A981" s="13"/>
       <c r="B981" s="13"/>
       <c r="C981" s="13"/>
@@ -15628,7 +15969,7 @@
       <c r="L981" s="13"/>
       <c r="M981" s="13"/>
     </row>
-    <row r="982" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:13">
       <c r="A982" s="13"/>
       <c r="B982" s="13"/>
       <c r="C982" s="13"/>
@@ -15643,7 +15984,7 @@
       <c r="L982" s="13"/>
       <c r="M982" s="13"/>
     </row>
-    <row r="983" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:13">
       <c r="A983" s="13"/>
       <c r="B983" s="13"/>
       <c r="C983" s="13"/>
@@ -15658,7 +15999,7 @@
       <c r="L983" s="13"/>
       <c r="M983" s="13"/>
     </row>
-    <row r="984" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:13">
       <c r="A984" s="13"/>
       <c r="B984" s="13"/>
       <c r="C984" s="13"/>
@@ -15673,7 +16014,7 @@
       <c r="L984" s="13"/>
       <c r="M984" s="13"/>
     </row>
-    <row r="985" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:13">
       <c r="A985" s="13"/>
       <c r="B985" s="13"/>
       <c r="C985" s="13"/>
@@ -15688,7 +16029,7 @@
       <c r="L985" s="13"/>
       <c r="M985" s="13"/>
     </row>
-    <row r="986" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:13">
       <c r="A986" s="13"/>
       <c r="B986" s="13"/>
       <c r="C986" s="13"/>
@@ -15703,7 +16044,7 @@
       <c r="L986" s="13"/>
       <c r="M986" s="13"/>
     </row>
-    <row r="987" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:13">
       <c r="A987" s="13"/>
       <c r="B987" s="13"/>
       <c r="C987" s="13"/>
@@ -15718,7 +16059,7 @@
       <c r="L987" s="13"/>
       <c r="M987" s="13"/>
     </row>
-    <row r="988" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:13">
       <c r="A988" s="13"/>
       <c r="B988" s="13"/>
       <c r="C988" s="13"/>
@@ -15733,7 +16074,7 @@
       <c r="L988" s="13"/>
       <c r="M988" s="13"/>
     </row>
-    <row r="989" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:13">
       <c r="A989" s="13"/>
       <c r="B989" s="13"/>
       <c r="C989" s="13"/>
@@ -15748,7 +16089,7 @@
       <c r="L989" s="13"/>
       <c r="M989" s="13"/>
     </row>
-    <row r="990" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:13">
       <c r="A990" s="13"/>
       <c r="B990" s="13"/>
       <c r="C990" s="13"/>
@@ -15763,7 +16104,7 @@
       <c r="L990" s="13"/>
       <c r="M990" s="13"/>
     </row>
-    <row r="991" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:13">
       <c r="A991" s="13"/>
       <c r="B991" s="13"/>
       <c r="C991" s="13"/>
@@ -15778,7 +16119,7 @@
       <c r="L991" s="13"/>
       <c r="M991" s="13"/>
     </row>
-    <row r="992" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:13">
       <c r="A992" s="13"/>
       <c r="B992" s="13"/>
       <c r="C992" s="13"/>
@@ -15793,7 +16134,7 @@
       <c r="L992" s="13"/>
       <c r="M992" s="13"/>
     </row>
-    <row r="993" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:13">
       <c r="A993" s="13"/>
       <c r="B993" s="13"/>
       <c r="C993" s="13"/>
@@ -15808,7 +16149,7 @@
       <c r="L993" s="13"/>
       <c r="M993" s="13"/>
     </row>
-    <row r="994" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:13">
       <c r="A994" s="13"/>
       <c r="B994" s="13"/>
       <c r="C994" s="13"/>
@@ -15823,7 +16164,7 @@
       <c r="L994" s="13"/>
       <c r="M994" s="13"/>
     </row>
-    <row r="995" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:13">
       <c r="A995" s="13"/>
       <c r="B995" s="13"/>
       <c r="C995" s="13"/>
@@ -15838,7 +16179,7 @@
       <c r="L995" s="13"/>
       <c r="M995" s="13"/>
     </row>
-    <row r="996" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:13">
       <c r="A996" s="13"/>
       <c r="B996" s="13"/>
       <c r="C996" s="13"/>
@@ -15853,7 +16194,7 @@
       <c r="L996" s="13"/>
       <c r="M996" s="13"/>
     </row>
-    <row r="997" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:13">
       <c r="A997" s="13"/>
       <c r="B997" s="13"/>
       <c r="C997" s="13"/>
@@ -15868,7 +16209,7 @@
       <c r="L997" s="13"/>
       <c r="M997" s="13"/>
     </row>
-    <row r="998" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:13">
       <c r="A998" s="13"/>
       <c r="B998" s="13"/>
       <c r="C998" s="13"/>
@@ -15883,7 +16224,7 @@
       <c r="L998" s="13"/>
       <c r="M998" s="13"/>
     </row>
-    <row r="999" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:13">
       <c r="A999" s="13"/>
       <c r="B999" s="13"/>
       <c r="C999" s="13"/>
@@ -15898,7 +16239,7 @@
       <c r="L999" s="13"/>
       <c r="M999" s="13"/>
     </row>
-    <row r="1000" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:13">
       <c r="A1000" s="13"/>
       <c r="B1000" s="13"/>
       <c r="C1000" s="13"/>
@@ -15913,7 +16254,7 @@
       <c r="L1000" s="13"/>
       <c r="M1000" s="13"/>
     </row>
-    <row r="1001" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:13">
       <c r="A1001" s="13"/>
       <c r="B1001" s="13"/>
       <c r="C1001" s="13"/>
@@ -15928,7 +16269,7 @@
       <c r="L1001" s="13"/>
       <c r="M1001" s="13"/>
     </row>
-    <row r="1002" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:13">
       <c r="A1002" s="13"/>
       <c r="B1002" s="13"/>
       <c r="C1002" s="13"/>
@@ -15943,7 +16284,7 @@
       <c r="L1002" s="13"/>
       <c r="M1002" s="13"/>
     </row>
-    <row r="1003" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:13">
       <c r="A1003" s="13"/>
       <c r="B1003" s="13"/>
       <c r="C1003" s="13"/>
@@ -15958,7 +16299,7 @@
       <c r="L1003" s="13"/>
       <c r="M1003" s="13"/>
     </row>
-    <row r="1004" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:13">
       <c r="A1004" s="13"/>
       <c r="B1004" s="13"/>
       <c r="C1004" s="13"/>
@@ -15973,7 +16314,7 @@
       <c r="L1004" s="13"/>
       <c r="M1004" s="13"/>
     </row>
-    <row r="1005" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:13">
       <c r="A1005" s="13"/>
       <c r="B1005" s="13"/>
       <c r="C1005" s="13"/>
@@ -15988,7 +16329,7 @@
       <c r="L1005" s="13"/>
       <c r="M1005" s="13"/>
     </row>
-    <row r="1006" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:13">
       <c r="A1006" s="13"/>
       <c r="B1006" s="13"/>
       <c r="C1006" s="13"/>
@@ -16003,7 +16344,7 @@
       <c r="L1006" s="13"/>
       <c r="M1006" s="13"/>
     </row>
-    <row r="1007" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:13">
       <c r="A1007" s="13"/>
       <c r="B1007" s="13"/>
       <c r="C1007" s="13"/>
@@ -16018,7 +16359,7 @@
       <c r="L1007" s="13"/>
       <c r="M1007" s="13"/>
     </row>
-    <row r="1008" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:13">
       <c r="A1008" s="13"/>
       <c r="B1008" s="13"/>
       <c r="C1008" s="13"/>
@@ -16033,7 +16374,7 @@
       <c r="L1008" s="13"/>
       <c r="M1008" s="13"/>
     </row>
-    <row r="1009" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:13">
       <c r="A1009" s="13"/>
       <c r="B1009" s="13"/>
       <c r="C1009" s="13"/>
@@ -16048,7 +16389,7 @@
       <c r="L1009" s="13"/>
       <c r="M1009" s="13"/>
     </row>
-    <row r="1010" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:13">
       <c r="A1010" s="13"/>
       <c r="B1010" s="13"/>
       <c r="C1010" s="13"/>
@@ -16063,7 +16404,7 @@
       <c r="L1010" s="13"/>
       <c r="M1010" s="13"/>
     </row>
-    <row r="1011" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:13">
       <c r="A1011" s="13"/>
       <c r="B1011" s="13"/>
       <c r="C1011" s="13"/>
@@ -16078,7 +16419,7 @@
       <c r="L1011" s="13"/>
       <c r="M1011" s="13"/>
     </row>
-    <row r="1012" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:13">
       <c r="A1012" s="13"/>
       <c r="B1012" s="13"/>
       <c r="C1012" s="13"/>
@@ -16093,7 +16434,7 @@
       <c r="L1012" s="13"/>
       <c r="M1012" s="13"/>
     </row>
-    <row r="1013" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:13">
       <c r="A1013" s="13"/>
       <c r="B1013" s="13"/>
       <c r="C1013" s="13"/>
@@ -16108,7 +16449,7 @@
       <c r="L1013" s="13"/>
       <c r="M1013" s="13"/>
     </row>
-    <row r="1014" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:13">
       <c r="A1014" s="13"/>
       <c r="B1014" s="13"/>
       <c r="C1014" s="13"/>
@@ -16123,7 +16464,7 @@
       <c r="L1014" s="13"/>
       <c r="M1014" s="13"/>
     </row>
-    <row r="1015" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:13">
       <c r="A1015" s="13"/>
       <c r="B1015" s="13"/>
       <c r="C1015" s="13"/>
@@ -16138,7 +16479,7 @@
       <c r="L1015" s="13"/>
       <c r="M1015" s="13"/>
     </row>
-    <row r="1016" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:13">
       <c r="A1016" s="13"/>
       <c r="B1016" s="13"/>
       <c r="C1016" s="13"/>
@@ -16163,15 +16504,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
@@ -16182,7 +16523,7 @@
     <col min="12" max="13" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="19">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -16193,63 +16534,74 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B3" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C3" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
